--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="413">
   <si>
     <t>num.</t>
   </si>
@@ -60,33 +60,36 @@
     <t>comment</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Ynet</t>
+  </si>
+  <si>
+    <t>21.01.18</t>
+  </si>
+  <si>
+    <t>יעל פרידסון</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>נתניהו לאבו מאזן: "אין תחליף לארה"ב בתהליך המדיני"</t>
+  </si>
+  <si>
+    <t>ברקע ביקורו של מייק פנס בישראל, העביר ראש הממשלה מסר לנשיא הפלסטיני שטען כי ארה"ב הפכה לא רלוונטית לאחר "הכרזת ירושלים": "מי שלא מוכן לדון עם האמריקנים על שלום - אינו רוצה בשלום". לאחר מכן פנה למדינות אירופה: "התייחסו ברצינות לדברי טראמפ, הציעו שיפורים להסכם הגרעין"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "יש לי מסר לאבו מאזן - אין תחליף להנהגה אמריקנית בהובלת התהליך המדיני": כך הכריז הערב (יום א') ראש הממשלה בנימין נתניהו בנאום שנשא בכנס שגרירים שנערך במשרד החוץ, זמן קצר לאחר נחיתתו בישראל של סגן נשיא ארה"ב, מייק פנס. לנתניהו היה מסר גם למדינות אירופה: "אני מציע להן להתייחס ברצינות לדברי הנשיא דונלד טראמפ. אם הן רוצות לשמר את הסכם הגרעין, הן צריכות להציע שיפורים". "בשנה האחרונה הייתי בשש יבשות", הוסיף נתניהו, "יש שינויים משמעותיים ודרמטיים במזרת התיכון - והדבר הזה נוגד את התפיסה לפיה הדרך היחידה להתקבל בקהילה הבינלאומית על ידי פיתרון הסכסוך הישראלי-פלסטיני, שאני מקווה שיקרה בעזרתו של הנשיא טראמפ. אסור שהיכולת לפרוץ למרחב תהיה בווטו הישראלי-פלסטיני. יש כאן שינוי עצום ביכולת שלנו, במיקום שלנו בעולם. הדבר הזה משנה באופן דרמטי את היכולת המדינית של מדינת ישראל".   דבריו של נתניהו נאמרו ברקע הכרזתו של הנשיא הפלסטיני לפיה ארה"ב הפכה לגורם לא רלוונטי במו"מ עקב הכרזת הנשיא טראמפ על ההכרה האמריקנית בירושלים כבירת ישראל. "לא נקבל את העסקאות שתציג לנו ארה"ב, וגם לא את התיווך שלה אחרי הפשע שביצעה נגד ירושלים. לא נסכים להיות רשות ללא סמכויות", אמר אבו מאזן בנאומו במועצה המרכזית של אש"ף בשבוע שעבר. נתניהו התייחס בנאומו גם לנחיתתו בארץ של סגן נשיא ארצות הברית, מייק פנס: "אנחנו מקבלים בברכה הערב את סגן נשיא ארה"ב, ידיד גדול של ישראל, מייק פנס. הוא נחת כאן, אנחנו מקבלים אותו בחום, בגאווה. אני אדון איתו על שני נושאים, על השלום והביטחון. ביחס לשלום,  מי שלא מוכן לדון עם האמריקנים על שלום, אינו רוצה בשלום. לגבי הביטחון, אם מדינות אירופה רוצות לשמר את הסכם הגרעין עם איראן עליהן להציע תיקונים להסכם, תיקונים שימנעו את ההתגרענות של איראן, דבר שיאיים עליהן ועל העולם כולו. אלה שני המסרים שביקשתי למסור הערב". סגן הנשיא פנס הגיע לישראל מביקור בירדן, שם נפגש עם המלך עבדאללה. לאחר הפגישה אמר סגן הנשיא כי הוא והמלך "הסכימו שלא להסכים" בנוגע להכרזתו של דונלד טראמפ על הכרה בירושלים כבירתה של ישראל. המלך עבדאללה אמר כי "ההכרה בירושלים כבירת ישראל לא יכולה להיות חלק מפתרון הסכסוך". כמו כן הוסיף מלך ירדן הוסיף כי הסכסוך הוא מקור לאי-יציבות, וכי הפתרון טמון בחזרה לגבולות 1967 והכרזה על מזרח ירושלים כבירת פלסטין. אמש (ש'), בתום פגישתו עם נשיא מצרים עבד אל-פתאח א-סיסי, הגן סגן הנשיא על ההכרה האמריקנית בירושלים כבירת ישראל, שמעוררת אי-נוחות בקרב המנהיגים הערבים במזרח התיכון. פנס הדגיש בפני א-סיסי גם את מחויבותה של ארה"ב לפתרון שתי המדינות. סגן הנשיא אמר כי הבטיח לנשיא המצרי כי "ארה"ב מחויבת עוד לפעול לשימור הסטטוס-קוו במקומות הקדושים בירושלים" וכי סוגיית הגבולות ונושאים נוספים יידונו במסגרת משא ומתן בין ישראל לפלסטינים. "ארה"ב מחויבת להתנעתו מחדש של תהליך השלום במזרח התיכון", אמר פנס בטרם המריא לירדן. מנגד, אמר א-סיסי כי מצרים "מכירה באופן בלתי מתפשר" בזכותם של הפלסטינים להקים מדינה עצמאית שבירתה מזרח ירושלים. בינתיים, עוד בטרם הגיע סגן הנשיא לירדן, התגודדו כמה עשרות מפגינים מחוץ לשגרירות האמריקנית בעמאן ומחו על המדיניות האמריקנית בכל הנוגע למזרח התיכון. "ארה"ב היא ראש הנחש", קראו המפגינים. אחרים הניפו שלטים שעליהם נכתב, בין היתר: "השגריר הימני-ציוני-אמריקני אינו רצוי כאן".  ראש הרשימה המשותפת, ח"כ איימן עודה, הודיע לקראת הביקור כי חברי הכנסת הערבים של מפלגתו יחרימו את נאומו של פנס בכנסת. לדבריו, "נשאלתי האם יש שינוי בעמדתנו לגבי ביקור סגן הנשיא פנס. מדובר באדם מסוכן בעל חזון משיחי שכולל את חורבן האזור כולו, שמגיע בשליחותו של אדם מסוכן אף יותר, פירומן פוליטי, גזען ומיזוגן, שאסור שיהיה מתווה דרך באזורנו. הרשימה המשותפת כולה תחרים את נאומו במליאה".       </t>
+  </si>
+  <si>
+    <t>לא ארהב ולא ישראל ירושלים המזרחית בירת פלשטין נקודה.  : you arnt wellcome ...mr Pense.  : 1000 2000 3000 סיבות יש לראש  : צודק מיליון % : אבל יש תחליף לטראמפ המטורף, איך אומרים החבר׳ה בכספתהמלך עבדאללה??? : המלך עבדאללה אמר כי "ההכרה בירושלים כבירת ישראל לא יכולה להיות חלק מפתרון הסכסוך"... פח...פח...פח...פח...פח...פח...פח...גם אין תחליף לנתניהו הגאון היפה החכם המדהים הישר ורחב הלב,   : הכרזות לצרכי פנים בלי שום ערך לפתרון  : השמאל לביבי : אין תחליף לאיסלאם : לא רוצים קפיטליזם דמוקרטי רוצים ח׳ליפות איסלאמית ללא שחיתות !!!! חוקים מסודרים, מה ששלי שלך ומה ששלך שלי, אחדות וללא שיסוע בעם בשבילי, רק איסלאם. אסלי אסליאירופה זה תחליף הוגן  : ברור, מי לא ירצה ״מתווך״ משוחד.  : ממש מצחיק : הפלשתינים כבר כמעט 40 שנה מנסים לעשות שלום והישראלים עובדים עליהם בעיניים ביחד עם האמריקניזציה תראו כמה מתנחלים יש היום והרבה מהם אמריקאיים כולל השגריר ביבי נותן כלום ולוקח הכל ועוד מתבכיין חחח...</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>Ynet</t>
-  </si>
-  <si>
-    <t>21.01.18</t>
-  </si>
-  <si>
-    <t>יעל פרידסון</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>נתניהו לאבו מאזן: "אין תחליף לארה"ב בתהליך המדיני"</t>
-  </si>
-  <si>
-    <t>ברקע ביקורו של מייק פנס בישראל, העביר ראש הממשלה מסר לנשיא הפלסטיני שטען כי ארה"ב הפכה לא רלוונטית לאחר "הכרזת ירושלים": "מי שלא מוכן לדון עם האמריקנים על שלום - אינו רוצה בשלום". לאחר מכן פנה למדינות אירופה: "התייחסו ברצינות לדברי טראמפ, הציעו שיפורים להסכם הגרעין"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "יש לי מסר לאבו מאזן - אין תחליף להנהגה אמריקנית בהובלת התהליך המדיני": כך הכריז הערב (יום א') ראש הממשלה בנימין נתניהו בנאום שנשא בכנס שגרירים שנערך במשרד החוץ, זמן קצר לאחר נחיתתו בישראל של סגן נשיא ארה"ב, מייק פנס. לנתניהו היה מסר גם למדינות אירופה: "אני מציע להן להתייחס ברצינות לדברי הנשיא דונלד טראמפ. אם הן רוצות לשמר את הסכם הגרעין, הן צריכות להציע שיפורים". "בשנה האחרונה הייתי בשש יבשות", הוסיף נתניהו, "יש שינויים משמעותיים ודרמטיים במזרת התיכון - והדבר הזה נוגד את התפיסה לפיה הדרך היחידה להתקבל בקהילה הבינלאומית על ידי פיתרון הסכסוך הישראלי-פלסטיני, שאני מקווה שיקרה בעזרתו של הנשיא טראמפ. אסור שהיכולת לפרוץ למרחב תהיה בווטו הישראלי-פלסטיני. יש כאן שינוי עצום ביכולת שלנו, במיקום שלנו בעולם. הדבר הזה משנה באופן דרמטי את היכולת המדינית של מדינת ישראל".   דבריו של נתניהו נאמרו ברקע הכרזתו של הנשיא הפלסטיני לפיה ארה"ב הפכה לגורם לא רלוונטי במו"מ עקב הכרזת הנשיא טראמפ על ההכרה האמריקנית בירושלים כבירת ישראל. "לא נקבל את העסקאות שתציג לנו ארה"ב, וגם לא את התיווך שלה אחרי הפשע שביצעה נגד ירושלים. לא נסכים להיות רשות ללא סמכויות", אמר אבו מאזן בנאומו במועצה המרכזית של אש"ף בשבוע שעבר. נתניהו התייחס בנאומו גם לנחיתתו בארץ של סגן נשיא ארצות הברית, מייק פנס: "אנחנו מקבלים בברכה הערב את סגן נשיא ארה"ב, ידיד גדול של ישראל, מייק פנס. הוא נחת כאן, אנחנו מקבלים אותו בחום, בגאווה. אני אדון איתו על שני נושאים, על השלום והביטחון. ביחס לשלום,  מי שלא מוכן לדון עם האמריקנים על שלום, אינו רוצה בשלום. לגבי הביטחון, אם מדינות אירופה רוצות לשמר את הסכם הגרעין עם איראן עליהן להציע תיקונים להסכם, תיקונים שימנעו את ההתגרענות של איראן, דבר שיאיים עליהן ועל העולם כולו. אלה שני המסרים שביקשתי למסור הערב". סגן הנשיא פנס הגיע לישראל מביקור בירדן, שם נפגש עם המלך עבדאללה. לאחר הפגישה אמר סגן הנשיא כי הוא והמלך "הסכימו שלא להסכים" בנוגע להכרזתו של דונלד טראמפ על הכרה בירושלים כבירתה של ישראל. המלך עבדאללה אמר כי "ההכרה בירושלים כבירת ישראל לא יכולה להיות חלק מפתרון הסכסוך". כמו כן הוסיף מלך ירדן הוסיף כי הסכסוך הוא מקור לאי-יציבות, וכי הפתרון טמון בחזרה לגבולות 1967 והכרזה על מזרח ירושלים כבירת פלסטין. אמש (ש'), בתום פגישתו עם נשיא מצרים עבד אל-פתאח א-סיסי, הגן סגן הנשיא על ההכרה האמריקנית בירושלים כבירת ישראל, שמעוררת אי-נוחות בקרב המנהיגים הערבים במזרח התיכון. פנס הדגיש בפני א-סיסי גם את מחויבותה של ארה"ב לפתרון שתי המדינות. סגן הנשיא אמר כי הבטיח לנשיא המצרי כי "ארה"ב מחויבת עוד לפעול לשימור הסטטוס-קוו במקומות הקדושים בירושלים" וכי סוגיית הגבולות ונושאים נוספים יידונו במסגרת משא ומתן בין ישראל לפלסטינים. "ארה"ב מחויבת להתנעתו מחדש של תהליך השלום במזרח התיכון", אמר פנס בטרם המריא לירדן. מנגד, אמר א-סיסי כי מצרים "מכירה באופן בלתי מתפשר" בזכותם של הפלסטינים להקים מדינה עצמאית שבירתה מזרח ירושלים. בינתיים, עוד בטרם הגיע סגן הנשיא לירדן, התגודדו כמה עשרות מפגינים מחוץ לשגרירות האמריקנית בעמאן ומחו על המדיניות האמריקנית בכל הנוגע למזרח התיכון. "ארה"ב היא ראש הנחש", קראו המפגינים. אחרים הניפו שלטים שעליהם נכתב, בין היתר: "השגריר הימני-ציוני-אמריקני אינו רצוי כאן".  ראש הרשימה המשותפת, ח"כ איימן עודה, הודיע לקראת הביקור כי חברי הכנסת הערבים של מפלגתו יחרימו את נאומו של פנס בכנסת. לדבריו, "נשאלתי האם יש שינוי בעמדתנו לגבי ביקור סגן הנשיא פנס. מדובר באדם מסוכן בעל חזון משיחי שכולל את חורבן האזור כולו, שמגיע בשליחותו של אדם מסוכן אף יותר, פירומן פוליטי, גזען ומיזוגן, שאסור שיהיה מתווה דרך באזורנו. הרשימה המשותפת כולה תחרים את נאומו במליאה".       </t>
-  </si>
-  <si>
-    <t>לא ארהב ולא ישראל ירושלים המזרחית בירת פלשטין נקודה.  : you arnt wellcome ...mr Pense.  : 1000 2000 3000 סיבות יש לראש  : צודק מיליון % : אבל יש תחליף לטראמפ המטורף, איך אומרים החבר׳ה בכספתהמלך עבדאללה??? : המלך עבדאללה אמר כי "ההכרה בירושלים כבירת ישראל לא יכולה להיות חלק מפתרון הסכסוך"... פח...פח...פח...פח...פח...פח...פח...גם אין תחליף לנתניהו הגאון היפה החכם המדהים הישר ורחב הלב,   : הכרזות לצרכי פנים בלי שום ערך לפתרון  : השמאל לביבי : אין תחליף לאיסלאם : לא רוצים קפיטליזם דמוקרטי רוצים ח׳ליפות איסלאמית ללא שחיתות !!!! חוקים מסודרים, מה ששלי שלך ומה ששלך שלי, אחדות וללא שיסוע בעם בשבילי, רק איסלאם. אסלי אסליאירופה זה תחליף הוגן  : ברור, מי לא ירצה ״מתווך״ משוחד.  : ממש מצחיק : הפלשתינים כבר כמעט 40 שנה מנסים לעשות שלום והישראלים עובדים עליהם בעיניים ביחד עם האמריקניזציה תראו כמה מתנחלים יש היום והרבה מהם אמריקאיים כולל השגריר ביבי נותן כלום ולוקח הכל ועוד מתבכיין חחח...</t>
-  </si>
-  <si>
     <t>21.01.1</t>
   </si>
   <si>
@@ -180,9 +183,6 @@
     <t xml:space="preserve">ברור, מי לא ירצה ״מתווך״ משוחד. </t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t xml:space="preserve">שמעון הצדיק </t>
   </si>
   <si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>הפלשתינים כבר כמעט 40 שנה מנסים לעשות שלום והישראלים עובדים עליהם בעיניים ביחד עם האמריקניזציה תראו כמה מתנחלים יש היום והרבה מהם אמריקאיים כולל השגריר ביבי נותן כלום ולוקח הכל ועוד מתבכיין חחח...</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>22.01.18</t>
@@ -228,48 +225,6 @@
   <si>
     <t>תודה לך אדוני סגן נשיא ארהב בשם רוב רובן של הים ,על תמיכתך האמיתית מכל הלב במדינת ישראל.
 אתה ידיד אמת ושאלוהים יעמוד לצידך.תודה ידיד יקר</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20.01.18</t>
-  </si>
-  <si>
-    <t>ynet</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>האיש שהניע את ההחלטה על ירושלים: פנס מגיע למזה"ת</t>
-  </si>
-  <si>
-    <t>סגן נשיא ארה"ב המריא הלילה לביקור במצרים, ירדן, וישראל - שבה ישהה מראשון עד שלישי. בכיר בממשל סיפר כי פנס שיחק תפקיד משמעותי בהחלטה של טראמפ להכיר בירושלים כבירת ישראל, חרף התנגדות הגורמים המודיעיניים והדיפלומטיים בארצו, והמחאה העולמית</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    סגן נשיא ארצות הברית, מייק פנס, המריא הלילה (שבת) לביקור במזרח התיכון. תחנתו הראשונה תהיה במצרים, לאחר מכן ימשיך לירדן ומחר יגיע לישראל, שבה יבקר עד ליום שלישי. הדוברת של סגן הנשיא הודיעה כי למרות ההשבתה של הממשל האמריקני, הביקור יתקיים כמתוכנן, מכיוון שהוא חיוני לביטחון הלאומי וליחסי החוץ של ארה"ב. בכיר בממשל סיפר כי פנס שיחק תפקיד משמעותי בהחלטתו של הנשיא דונלד טראמפ להכיר בירושלים כבירת ישראל בחודש שעבר. פנס סייע לשכנע את טראמפ לקיים את הבטחתו ממסע הבחירות ולהפוך על פניה את המדיניות האמריקנית בנושא, למרות התנגדות מדינות ערב ורבות מבנות הברית המערביות של ארה"ב, כמו גם גורמים מודיעיניים ודיפלומטיים בממשל.     השפעתו מאחורי הקלעים, שתוארה בראיונות עם יותר מ-20 פעילים שמרנים, מחוקקים וגורמים בממשל – מוסיפה ממד לא מוכר לאדם שפעמים רבות הושם ללעג בשל התנהגותו הפומבית, שנתפסה כהתרפסות בפני הבוס שלו.תוך כדי שהוא הטביע את חותמו על המדיניות, הוא חיזק את קשריו עם פעילים שמרנים, תורמים ומחוקקים - בריתות שישרתו אותו היטב אם יחליט בעתיד להתמודד בעצמו לנשיאות. פנס, חבר קונגרס לשעבר, שמתנגד בתוקף לזכות לביצוע הפלה ותומך בהתלהבות בהפחתת הרגולציה על עסקים ובהקטנת הממשל, הותיר את חותמו כסגן נשיא גם על מדיניות הפנים. אך בעוד הוא נחשב ליקיר הרפובליקנים השמרנים, הוא לעיתים קרובות נמצא מימין למיינסטרים של דעת הקהל האמריקנית בסוגיות חברתיות כמו זכויות הלהט"ב. למשל, בשנת 2015, כמושל אינדיאנה, הוא אולץ לשנות חוק שכונה "חירות דתית" שעליו חתם, ומתנגדיו טענו כי התיר אפליה נגד הומוסקסואלים. בנוסף, הוא מינה מתנגדים להפלות לתפקידי מפתח במשרד הבריאות, שקיבל מאז כמה החלטות שקידמו מדיניות שמרנית, בהן הרחבת הפטורים שניתנים למעסיקים שמציינים כי אינם מסבסדים אמצעי מניעה לעובדיהם מסיבות דת או מוסר. פנס גם הוביל לחידוש והרחבתה של "מדיניות מקסיקו סיטי", המגבילה את הזכות של ארגונים התומכים בהפלות לקבל סיוע מהתקציב הפדרלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ברוך הבא  : כל הכבוד והרבה כבוד לסגן הנשיא   : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">משה </t>
-  </si>
-  <si>
-    <t>20.01.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ברוך הבא </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יוסי  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כל הכבוד והרבה כבוד לסגן הנשיא  </t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>איתמר אייכנר</t>
@@ -609,18 +564,27 @@
     <t>נותרו לו 3 שנים והוא חייב לבצע בזריזות פעולות קשות שיחייבו את הפלסטינים לחתום עם ישראל על הסכם שלום. הפלסטינים עושים את כל שביכולתם כדי להימנע ממו"מ. המטרה שלהם הרי ברורה, מדינה אחת לשני עמים. יש מישהו שבאמת מאמין שהפלסטינאים רוצים מדינת גטו?</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t xml:space="preserve">רוני </t>
   </si>
   <si>
     <t xml:space="preserve">7 אתה צודק ..רק תזכיר לי מה זה מזכיר לנו ? </t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t xml:space="preserve">ידיד האומה </t>
   </si>
   <si>
     <t xml:space="preserve">לא רואה בלו"ז סלפי עם אורן חזן!? חמור מאד </t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t xml:space="preserve">תמוה שאין בלו״ז פגישה עם ביבי, חוץ מארוחת הערב המישפחתית  </t>
   </si>
   <si>
@@ -636,6 +600,9 @@
     <t>עם כאלה חברים לא צריך אויבים.</t>
   </si>
   <si>
+    <t>20.01.1</t>
+  </si>
+  <si>
     <t>הכל פקא פקא</t>
   </si>
   <si>
@@ -652,6 +619,9 @@
   </si>
   <si>
     <t xml:space="preserve">איזה שמאלני חולה אתה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">משה </t>
   </si>
   <si>
     <t>רוב אזרחי ארה"ב יתמכו בו</t>
@@ -784,6 +754,36 @@
     <t xml:space="preserve">לא , הוא מגיע עם פנסים וזרקורים </t>
   </si>
   <si>
+    <t>20.01.18</t>
+  </si>
+  <si>
+    <t>ynet</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>האיש שהניע את ההחלטה על ירושלים: פנס מגיע למזה"ת</t>
+  </si>
+  <si>
+    <t>סגן נשיא ארה"ב המריא הלילה לביקור במצרים, ירדן, וישראל - שבה ישהה מראשון עד שלישי. בכיר בממשל סיפר כי פנס שיחק תפקיד משמעותי בהחלטה של טראמפ להכיר בירושלים כבירת ישראל, חרף התנגדות הגורמים המודיעיניים והדיפלומטיים בארצו, והמחאה העולמית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    סגן נשיא ארצות הברית, מייק פנס, המריא הלילה (שבת) לביקור במזרח התיכון. תחנתו הראשונה תהיה במצרים, לאחר מכן ימשיך לירדן ומחר יגיע לישראל, שבה יבקר עד ליום שלישי. הדוברת של סגן הנשיא הודיעה כי למרות ההשבתה של הממשל האמריקני, הביקור יתקיים כמתוכנן, מכיוון שהוא חיוני לביטחון הלאומי וליחסי החוץ של ארה"ב. בכיר בממשל סיפר כי פנס שיחק תפקיד משמעותי בהחלטתו של הנשיא דונלד טראמפ להכיר בירושלים כבירת ישראל בחודש שעבר. פנס סייע לשכנע את טראמפ לקיים את הבטחתו ממסע הבחירות ולהפוך על פניה את המדיניות האמריקנית בנושא, למרות התנגדות מדינות ערב ורבות מבנות הברית המערביות של ארה"ב, כמו גם גורמים מודיעיניים ודיפלומטיים בממשל.     השפעתו מאחורי הקלעים, שתוארה בראיונות עם יותר מ-20 פעילים שמרנים, מחוקקים וגורמים בממשל – מוסיפה ממד לא מוכר לאדם שפעמים רבות הושם ללעג בשל התנהגותו הפומבית, שנתפסה כהתרפסות בפני הבוס שלו.תוך כדי שהוא הטביע את חותמו על המדיניות, הוא חיזק את קשריו עם פעילים שמרנים, תורמים ומחוקקים - בריתות שישרתו אותו היטב אם יחליט בעתיד להתמודד בעצמו לנשיאות. פנס, חבר קונגרס לשעבר, שמתנגד בתוקף לזכות לביצוע הפלה ותומך בהתלהבות בהפחתת הרגולציה על עסקים ובהקטנת הממשל, הותיר את חותמו כסגן נשיא גם על מדיניות הפנים. אך בעוד הוא נחשב ליקיר הרפובליקנים השמרנים, הוא לעיתים קרובות נמצא מימין למיינסטרים של דעת הקהל האמריקנית בסוגיות חברתיות כמו זכויות הלהט"ב. למשל, בשנת 2015, כמושל אינדיאנה, הוא אולץ לשנות חוק שכונה "חירות דתית" שעליו חתם, ומתנגדיו טענו כי התיר אפליה נגד הומוסקסואלים. בנוסף, הוא מינה מתנגדים להפלות לתפקידי מפתח במשרד הבריאות, שקיבל מאז כמה החלטות שקידמו מדיניות שמרנית, בהן הרחבת הפטורים שניתנים למעסיקים שמציינים כי אינם מסבסדים אמצעי מניעה לעובדיהם מסיבות דת או מוסר. פנס גם הוביל לחידוש והרחבתה של "מדיניות מקסיקו סיטי", המגבילה את הזכות של ארגונים התומכים בהפלות לקבל סיוע מהתקציב הפדרלי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ברוך הבא  : כל הכבוד והרבה כבוד לסגן הנשיא   : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ברוך הבא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יוסי  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כל הכבוד והרבה כבוד לסגן הנשיא  </t>
+  </si>
+  <si>
     <t>אטילה שומפלבי ואלכסנדרה לוקש</t>
   </si>
   <si>
@@ -799,529 +799,501 @@
     <t xml:space="preserve"> ח"כ אחמד טיבי (הרשימה המשותפת) התייחס הבוקר (יום א') להחלטת מפלגתו להחרים את נאומו של סגן נשיא ארה"ב מייק פנס מחר בכנסת. כמה שעות לפני שהבכיר האמריקני ינחת בארץ, אמר ח"כ טיבי בריאיון לאולפן ynet כי "סגן הנשיא פנס הוא אחד האנשים הכי קיצוניים והזויים בממשל האמריקני". טיבי אמר עוד כי "היעד הסופי שלו לא ממש אמור לרצות את כלל הציבור היהודי בארץ, אבל בשל העובדה שהוא מאמץ ודוחף לנאום של טראמפ על העברת השגרירות וההכרזה על 'סו קולד' בירת העם היהודי, אנשים מתלהבים ממנו כאן. לנו ברשימה המשותפת יש עמדה פוליטית מנוגדת לחלוטין להתנהלות של הממשל הזה, שהוכיח כי הוא חלק מהבעיה ולא חלק מהפתרון". -למה שלא תהיה במליאה ותתווכח עם פנס?"אתה יודע שלפי התקנון אי אפשר להתווכח. חכה מחר ותראה מה נעשה. הרשימה המשותפת תגיד את דברה באמצעות ההחרמה המחאתית. אין לנו ספק שאנחנו לא יכולים להתנהג בהערכה כלפי פנס, טראמפ וכל מה שהם מייצגים. אני מקווה שגם בעולם הערבי כולו ובעולם החופשי יחרימו את הממשל הזה. בסוף השבוע אלפי אנשים הפגינו בארה"ב נגד הממשל הזה, ואני חושב שרבים בישראל העריכו באופן חיובי את ההפגנות האלה". -הביקור של פנס עלול להדליק את האזור?"לא. העמדות של הממשלה, הנאום של פנס ומה שמודלף על ידי הממשל הם גורם שמערער את היציבות, ואין ספק שהוא מהווה פגיעה קשה גם בעם הפלסטיני, ובעיקר יוצר ביטול מוחלט לזכויות הלגיטימיות של הפלסטינים. אני מעוניין בשלום ישראלי-פלסטיני המבוסס על סיום הכיבוש ושתי מדינות. הממשל הזה עד היום לא אמר את המושג 'שתי מדינות'. זה אמור להדאיג הרבה ישראלים והרבה פלסטינים ואת העולם כולו". סגן השר מייקל אורן (כולנו) ציין כי הגיש אתמול תלונה לוועדת האתיקה של הכנסת נגד ראש הרשימה המשותפת, ח"כ איימן עודה, שכינה את סגן הנשיא פנס "משיחי ומסוכן". אורן, שהתראיין אף הוא לאולפן ynet, אמר כי "גם בכנסת יש דרך ארץ. גם בכנסת יש מגבלות. גם בכנסת חושבים על מה אומרים ומה לא אומרים. יש כאן אורח ולא סתם". אורן, לשעבר שגריר ישראל בארה"ב, אמר כי ביקורו של פנס בארץ חשוב ביותר. לדבריו, "הוא מגיע לכאן כדי להפגין נוכחות, להראות שהאמריקנים מעורבים. הם חזרו למזרח התיכון אחרי כמה שנים של נסיגה מהמזרח התיכון. הוא ביקר במצרים ובירדן ויש לנו מסכת ארוכה מאוד של נושאים לדון עליהם. לא מדובר רק בנושא הפלסטיני אלא גם בנושא האיראני, האו"ם וגם את הנושא של חס וחלילה אם יפרוץ סבב מלחמה נוסף בינינו לבין חיזבאללה וחמאס". -מה אנחנו יודעים לספר על פנס?"אני מכיר אותו הרבה שנים. בפעם האחרונה שהוא ביקר בארץ לקחתי אותו לנגב חומוס בדרום תל אביב. נכון, הוא דתי, הוא מאמין גדול, אבל הוא לא אוכף את האמונה שלו על המציאות של המזרח התיכון. הוא קודם כל נאמן לנשיא שלו. מה שאחמד טיבי אמר שהוא דוחה על הסף את הרעיון של שתי מדינות - זה לא נכון. הנשיא אמר לא אחת שאם הפתרון של שתי מדינות מקובל על שני הצדדים אז הוא יתמוך. פנס התיישר כל הזמן עם הקו של הנשיא טראמפ". ראש הממשלה בנימין נתניהו התייחס בפתח ישיבת הממשלה לביקור פנס: "הערב מגיע לישראל ידיד גדול שלנו. אנחנו נדון במאמצי ממשל טראמפ לבלום את התוקפנות האיראנית ואת תוכנית הגרעין האיראנית, וכמובן לקדם את הביטחון והשלום באזור. מי שבאמת שואף להגשים את המטרות האלה, יודע שאין תחליף למנהיגותה והובלתה של ארה"ב". על החרם של הרשימה המשותפת אמר נתניהו: "אני רואה זאת כחרפה שחברי כנסת מתכוונים להחרים את הביקור החשוב הזה בכנסת ואפילו מבקשים להפריע לו. אנחנו כולנו נהיה שם ונחלוק לסגן הנשיא פנס את הכבוד הגדול והראוי לו". עוד לפני הגעתו לישראל נועד פנס בעמאן עם עבדאללה מלך ירדן. המלך אמר כי ההכרה האמריקנית בירושלים כבירת ישראל היא החלטה מדאיגה לאזור ורק פתרון שתי מדינות הוא חיוני לסכום הסכסוך. </t>
   </si>
   <si>
-    <t>איתי בלומנטל</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>סגן נשיא ארה"ב מייק פנס נחת בישראל</t>
-  </si>
-  <si>
-    <t>סגנו של טראמפ הגיע לביקור בן 3 ימים אחרי פגישה עם המלך עבדאללה, ואמר: "הסכמנו לא להסכים לגבי ההכרה בירושלים". עבדאללה: "הכרה בי-ם אינה חלק מפתרון הסכסוך". רחפן שזוהה בנתב"ג בסמוך לנחיתה הביא לעצירת תנועת המטוסים. שיבושי תנועה בירושלים ובכביש 1. פנס ייפגש עם נתניהו וינאם בכנסת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  סגן נשיא ארה"ב מייק פנס נחת אחר הצהריים (יום א') במטוס "גלאקסי" צבאי לביקור מדיני בן שלושה ימים בישראל. את פניו קיבלו שר התיירות יריב לוין ושגריר ארה"ב בישראל דיוויד פרידמן. לאחר טקס קצר החלה שיירת כלי הרכב שלו - מלווה ביחידה לאבטחת אישים ושוטרים רבים - את דרכה לירושלים.  פנס הגיע מביקור בירדן, שם נפגש עם המלך עבדאללה. לאחר הפגישה אמר סגן הנשיא כי הוא והמלך "הסכימו שלא להסכים" בנוגע להכרזתו של דונלד טראמפ על הכרה בירושלים כבירתה של ישראל. המלך עבדאללה אמר כי "ההכרה בירושלים כבירת ישראל לא יכולה להיות חלק מפתרון הסכסוך". כמו כן הוסיף מלך ירדן הוסיף כי הסכסוך הוא מקור לאי-יציבות, וכי הפתרון טמון בחזרה לגבולות 1967 והכרזה על מזרח ירושלים כבירת פלסטין. ביקור סגן הנשיא יגרום בימים הקרובים לשיבושי תנועה בירושלים ובכביש 1, במבצע שהמשטרה מכנה "מגן כחול 2". עד שעות הערב ייסגר לסירוגין כביש 1 לכיוון מזרח ממחלף גנות עד למחלף גינות סחרוב. כמו כן תיחסם הגישה לכביש 1 מכביש 6 במחלף בן שמן, והתנועה תופנה לכביש 443. ב-13:00 נחסם רחוב המלך דוד בירושלים לשני הכיוונים ויישאר סגור עד סיום הביקור ביום שלישי בשעות הערב. מהמשטרה נמסר שחסימות הכבישים מעודכנות גם באפליקציית waze. במהלך ביקורו בארץ ייפגש פנס עם ראש הממשלה בנימין נתניהו ועם נשיא המדינה ראובן ריבלין, ויגיע לנאום במליאת הכנסת. אלפי שוטרים, לוחמי מג"ב ומתנדבים התפרסו החל מהיום אחר הצהריים במסגרת ההיערכות המוגברת לקראת בואו של פנס.  הגיע מירדן במטוס צבאי. מייק פנס בישראל: החל מהשעה 20:00 הערב ייחסמו לסירוגין לתנועה הרחובות הבאים בירושלים: סחרוב, ויצמן, שז"ר, רמב"ן, כיכר פריז, וושינגטון וקרן היסוד. מחר ייחסמו לאורך כל היום הרחובות הבאים בבירה: פלומר, ז'בוטינסקי, הנשיא, האר"י, עזה, , הרצוג, שניאור זלמן, בורלא, שד' המוזיאונים, צומת המנהלה, וייז, צומת השעון – הכנסת ובלפור. השר לוין אמר לסגן הנשיא פנס אחרי נחיתתו: "אני מברך אותך עם הגעתך לישראל ומודה לך על חלקך החשוב בהצהרת הנשיא ובהכרת הממשל בירושלים כבירתנו. אנו מעריכים מאוד את הידידות האמיצה בין המדינות ואני משוכנע שרעייתך קארן ואתה תרגישו כאן בבית". זמן מה לאחר הנחייתה של פנס זוהה בנתב"ג רחפן שהתקרב לשטח האווירי. במשך 10 דקות התבקשו מטוסים שהגיעו לנחיתה לבצע סיבובים מעל הים. דיווח הועבר למשטרת ישראל ותנועת המטוסים חודשה. מרשות שדות התעופה נמסר: "סמוך לשעה 19:20 נצפה רחפן מעל מבנה טרמינל . הופעל נוהל זיהוי עצמים מעל השדה ומטוסים המתינו להמראות ונחיתות כעשר דקות. השדה שב לפעילות מבצעית לאחר שהוסר החשש מאירוע בטיחותי וביטחוני. תלונה הועברה למשטרת ישראל ומתקיים תחקיר מבצעי".  פנס הדגיש בפני א-סיסי גם את מחויבותה של ארה"ב לפתרון שתי המדינות. סגן הנשיא אמר כי הבטיח לנשיא המצרי כי "ארה"ב מחויבת עוד לפעול לשימור הסטטוס-קוו במקומות הקדושים בירושלים" וכי סוגיית הגבולות ונושאים נוספים יידונו במסגרת משא ומתן בין ישראל לפלסטינים. "ארה"ב מחויבת להתנעתו מחדש של תהליך השלום במזרח התיכון", אמר פנס בטרם המריא לירדן.  מנגד, אמר א-סיסי כי מצרים "מכירה באופן בלתי מתפשר" בזכותם של הפלסטינים להקים מדינה עצמאית שבירתה מזרח ירושלים. בינתיים, עוד בטרם הגיע סגן הנשיא לירדן, התגודדו כמה עשרות מפגינים מחוץ לשגרירות האמריקנית בעמאן ומחו על המדיניות האמריקנית בכל הנוגע למזרח התיכון. "ארה"ב היא ראש הנחש", קראו המפגינים. אחרים הניפו שלטים שעליהם נכתב, בין היתר: "השגריר הימני-ציוני-אמריקני אינו רצוי כאן". סגן הנשיא לא יבקר ברשות הפלסטינית, ואף שהוא נוצרי אדוק - הוא לא יתפלל בכנסיית הקבר בירושלים או באתרים הקדושים לנצרות בצפון. ראש הרשימה המשותפת, ח"כ איימן עודה, הודיע לקראת הביקור כי חברי הכנסת הערבים של מפלגתו יחרימו את נאומו של פנס בכנסת. לדבריו, "נשאלתי האם יש שינוי בעמדתנו לגבי ביקור סגן הנשיא פנס. מדובר באדם מסוכן בעל חזון משיחי שכולל את חורבן האזור כולו, שמגיע בשליחותו של אדם מסוכן אף יותר, פירומן פוליטי, גזען ומיזוגן, שאסור שיהיה מתווה דרך באזורנו. הרשימה המשותפת כולה תחרים את נאומו במליאה". </t>
-  </si>
-  <si>
-    <t>איש טיפש שזוכה לאהדת ישראלים טיפשים שלא מבינים שמבעירים לנו  : למה הוא הולך עם רינה מצליח????  : סגן נשיא שנראה ומתנהל כמו בובת שעווה החיה בניתוק מן המציאות. : היה אימפוטנט גדול בימי הזוהר של המרוץ לנשיאות כשהמניפולטור מייקל בנון כיכב והיה אמון על מציאת דרכים מפוקפקות הגובלות בחרחור מלחמות פנים על בסיס גזעני והרצת פייק ניוז בשנת 2016.
-כמעט בכל Debate שהופיע בו במרוץ לנשיאות לא יכל לענות לעניין, ענה על שאלה אחרת או פשוט שתק וצחק אל מול הביקורת על מנת לשדר עמדה התנשאותית ״אני כבר יודע, אין טעם להגיב״ בעוד בסתר ליבו מימש את השתיקה שבהסכמה - ידע שהוא מייצג דחליל והחליט להישאר במקום ולמעול בערכיו כדי שלא יפוטר.
-מייק פנס לא יעשה כלום, הוא הגיע במטרה לרכך את ירדן ומצרים ולאסוף מהשטח מידע פוליטי-דמוגרפי אודות הצהרותיו של טראמפ.
-מידע שיחזור למחלקת המדינה, יבוצע עליו מחקר פוליטי, וינתן לאסטרטגים שיתכננו תוכניות שלא רלוונטיות לכהונת טראמפ או לסכסוך הערבי-ישראלי, אלא ישרתו את מדיניות הפיצויים והאמון של אמריקה מול בעלות בריתה במזה״ת.אההה הימים לפני 1967 : לפני הכיבוש של ששת הימים הכל היה כאן תותים. הפלשטינים חיו בשלום עם היהוד. שגרירות סוריה התמלאו בתירים ישראלים שרק רצו ויזה בשביל לאכול חומוס בדמשק. אההה איזה ימים.איכסססס, איש עלוב ומגעיל  : ידיד ישראל : מעולם לא ישבו בבית הלבן נשיא וסגן נשיא כה ידידותיים לישראל. צריך לנצל את המצב הנדיר הזה לפני שיבוא נשיא חדש שיהיה כמו אובמה שהמית על ישראל אסון לטווח ארוך עם הסכם הגרעין שעוזר לאירן להשתקם כלכלית. אובמה גם הכריח א נתניהו לשבת לשיחות עם אבו מאזן ותמורת הדיבורים לשחרר מאות מחבלים רוצחים רק כדי שיסכימו לדבר...רשימה משותפת : הרשימה המשותפת מוזמנת לעזוב את הכנסת לצמיתות לטובת כולם.ירדן היא היא מדינה פלסטינית וכולם יודעים אך מתכחשים !!!! : מקור כל הרע היא בריטניה !!!!מה יהיה עם הצונאמי המדיני הזה ?  : איזה שלום ואיזה נעליים : טרנספר וסלמתכרגיל חברי הרשימה המשותפת לא מפספסים הזדמנות לפספס הזדמנות  : הכרה בירושלים : איזה חצוף אז למה הוא בא לישראל מי צריך אותו ובהכרה שלו שישאר בירדןטוב שהרשימה המשת"פית לא תשתתף, לא יסריח בכנסת   : ברוך הבא,ידידנו החשוב,מייק פנס.  : למה שלחו את השר הכי פחות נחשב בממשלה לקבל את פני סגן הנשיא ? : במה מצטיין השר לוין חוץ מהפרעה אובססיבית רפלקסיבית בנוגע לשופטי בית המשפט העליון ?!Pans : לא מבין את המריקאים הפוצים מה הם מיתיחסים לעבדאלה מיהוא שיכתיב להם או לנו מה לעשות שיגיד תודה שמר פנס ביקר אותו זהוא לא טיול זול כל פעם החמור הזה חייב להיתערב האם הוא פתר את הבעיות.בירדן חתיחת חמרברוכים הבאים לכל אחד שאוהב את ישראל ועם היהודי  : תארו לעצמכם פגישת מנהיגים… : ארה״ב - פנס
-גרמניה - פרנז
-צרפת - מונז׳ט
-ישראל - כובע טמבל
-הרש״פ - כפיהמלאכת העבדות ממשיכה : הלא הוא זה שהחזיק את המטאטא במלוא התענוג וניקה את בית הקברות ברצון , ונאמנות יתר כפי שציוו עליו אדוניו ??!!איזה חרטטן אתה.  : אני מעריך שמה שפנס באמת אמר לעבדאלה זה "שב בשקט" : אם תשב בשקט המעמד של ירדן בהר הבית ישמר.ברוך הבא מקווה שתהנה : הללו את המלכ של סדום~חזרה לגבולות 67 : מי הפריע לחוסיין, אביו של עבדאללה, להקים מדינה פלסטינית שבירתה מזרח ירושלים עד יוני 67?
-מה היו התביעות של אש"פ משנת ההקמה שלו 1964 ועד 1967? חזרה לגבולות אושוויץ?למה אין בלוז את הסלפי של אורן חזן  : טוב מאוד! אל תכירו בה ואל תסכימו! ירושלים לא שייכת לכם!  : יותר טיפש מטראמפ  : המינימום זה שגרירויות במערב ירושלים : מדינות שחושבות שימסכנו את היהודים במדינתם. טעותמצויין שהחכ"ים של הרשימה המשותפת : מחרימים את סגן נשיא ארה"ב. פנס ראוי לכל הכבוד והיקר שמדינת ישראל יכולה להעניק לו, אדם משכמו ומעלה עם הבנה מעולה מה נכון ומה שגוי באזורנו. אבל, טוב שחברי הרשימה המשותפת, אותם אלו שהם על הנייר "חברים בכנסת ישראל" ובפועל חברים של כל רשות, אירגון או גוף ששונא את מדינת ישראל, טוב שהם מחרימים, כי אינם ראויים להימצא אפילו במרחק קילומטר מהאיש היקר הזה.מעניין אם גם בארהב יש הזויים שכועסים שהוא טס עם אישתו... : יש לי הרגשה שהם נמצאים רק אצלנו.כשזו היתה בשליטתכם? וגם לא במדינת פלסטין? : למה ההה למה?סוף סוף ידיד ישראל בבית הלבן. : ארץ ישראל לעם ישראל!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">את האזור. איוולת. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">איש טיפש שזוכה לאהדת ישראלים טיפשים שלא מבינים שמבעירים לנו </t>
-  </si>
-  <si>
-    <t xml:space="preserve">למה הוא הולך עם רינה מצליח???? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אתם חושבים אהבה, הוא חושב אסטרטגיה </t>
-  </si>
-  <si>
-    <t>סגן נשיא שנראה ומתנהל כמו בובת שעווה החיה בניתוק מן המציאות.</t>
-  </si>
-  <si>
-    <t>היה אימפוטנט גדול בימי הזוהר של המרוץ לנשיאות כשהמניפולטור מייקל בנון כיכב והיה אמון על מציאת דרכים מפוקפקות הגובלות בחרחור מלחמות פנים על בסיס גזעני והרצת פייק ניוז בשנת 2016.
-כמעט בכל Debate שהופיע בו במרוץ לנשיאות לא יכל לענות לעניין, ענה על שאלה אחרת או פשוט שתק וצחק אל מול הביקורת על מנת לשדר עמדה התנשאותית ״אני כבר יודע, אין טעם להגיב״ בעוד בסתר ליבו מימש את השתיקה שבהסכמה - ידע שהוא מייצג דחליל והחליט להישאר במקום ולמעול בערכיו כדי שלא יפוטר.
-מייק פנס לא יעשה כלום, הוא הגיע במטרה לרכך את ירדן ומצרים ולאסוף מהשטח מידע פוליטי-דמוגרפי אודות הצהרותיו של טראמפ.
-מידע שיחזור למחלקת המדינה, יבוצע עליו מחקר פוליטי, וינתן לאסטרטגים שיתכננו תוכניות שלא רלוונטיות לכהונת טראמפ או לסכסוך הערבי-ישראלי, אלא ישרתו את מדיניות הפיצויים והאמון של אמריקה מול בעלות בריתה במזה״ת.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">טל </t>
-  </si>
-  <si>
-    <t>אההה הימים לפני 1967</t>
-  </si>
-  <si>
-    <t>לפני הכיבוש של ששת הימים הכל היה כאן תותים. הפלשטינים חיו בשלום עם היהוד. שגרירות סוריה התמלאו בתירים ישראלים שרק רצו ויזה בשביל לאכול חומוס בדמשק. אההה איזה ימים.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלמה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">איכסססס, איש עלוב ומגעיל </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבי, תל אביב </t>
-  </si>
-  <si>
-    <t>ידיד ישראל</t>
-  </si>
-  <si>
-    <t>מעולם לא ישבו בבית הלבן נשיא וסגן נשיא כה ידידותיים לישראל. צריך לנצל את המצב הנדיר הזה לפני שיבוא נשיא חדש שיהיה כמו אובמה שהמית על ישראל אסון לטווח ארוך עם הסכם הגרעין שעוזר לאירן להשתקם כלכלית. אובמה גם הכריח א נתניהו לשבת לשיחות עם אבו מאזן ותמורת הדיבורים לשחרר מאות מחבלים רוצחים רק כדי שיסכימו לדבר...</t>
-  </si>
-  <si>
-    <t>רשימה משותפת</t>
-  </si>
-  <si>
-    <t>הרשימה המשותפת מוזמנת לעזוב את הכנסת לצמיתות לטובת כולם.</t>
-  </si>
-  <si>
-    <t>ירדן היא היא מדינה פלסטינית וכולם יודעים אך מתכחשים !!!!</t>
-  </si>
-  <si>
-    <t>מקור כל הרע היא בריטניה !!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איש ישן עם זקן חדש </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה יהיה עם הצונאמי המדיני הזה ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">גלעד </t>
-  </si>
-  <si>
-    <t>איזה שלום ואיזה נעליים</t>
-  </si>
-  <si>
-    <t>טרנספר וסלמת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלומי, שלומי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כרגיל חברי הרשימה המשותפת לא מפספסים הזדמנות לפספס הזדמנות </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ציפי </t>
-  </si>
-  <si>
-    <t>הכרה בירושלים</t>
-  </si>
-  <si>
-    <t>איזה חצוף אז למה הוא בא לישראל מי צריך אותו ובהכרה שלו שישאר בירדן</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חנוך  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">טוב שהרשימה המשת"פית לא תשתתף, לא יסריח בכנסת  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יוסף </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ברוך הבא,ידידנו החשוב,מייק פנס. </t>
-  </si>
-  <si>
-    <t>למה שלחו את השר הכי פחות נחשב בממשלה לקבל את פני סגן הנשיא ?</t>
-  </si>
-  <si>
-    <t>במה מצטיין השר לוין חוץ מהפרעה אובססיבית רפלקסיבית בנוגע לשופטי בית המשפט העליון ?!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davve </t>
-  </si>
-  <si>
-    <t>Pans</t>
-  </si>
-  <si>
-    <t>לא מבין את המריקאים הפוצים מה הם מיתיחסים לעבדאלה מיהוא שיכתיב להם או לנו מה לעשות שיגיד תודה שמר פנס ביקר אותו זהוא לא טיול זול כל פעם החמור הזה חייב להיתערב האם הוא פתר את הבעיות.בירדן חתיחת חמר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ברוכים הבאים לכל אחד שאוהב את ישראל ועם היהודי </t>
-  </si>
-  <si>
-    <t>תארו לעצמכם פגישת מנהיגים…</t>
-  </si>
-  <si>
-    <t>ארה״ב - פנס
-גרמניה - פרנז
-צרפת - מונז׳ט
-ישראל - כובע טמבל
-הרש״פ - כפיה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אנונימי </t>
-  </si>
-  <si>
-    <t>מלאכת העבדות ממשיכה</t>
-  </si>
-  <si>
-    <t>הלא הוא זה שהחזיק את המטאטא במלוא התענוג וניקה את בית הקברות ברצון , ונאמנות יתר כפי שציוו עליו אדוניו ??!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איזה חרטטן אתה. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חיפאי </t>
-  </si>
-  <si>
-    <t>אני מעריך שמה שפנס באמת אמר לעבדאלה זה "שב בשקט"</t>
-  </si>
-  <si>
-    <t>אם תשב בשקט המעמד של ירדן בהר הבית ישמר.</t>
-  </si>
-  <si>
-    <t>ברוך הבא מקווה שתהנה</t>
-  </si>
-  <si>
-    <t>הללו את המלכ של סדום~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חוסיין </t>
-  </si>
-  <si>
-    <t>חזרה לגבולות 67</t>
-  </si>
-  <si>
-    <t>מי הפריע לחוסיין, אביו של עבדאללה, להקים מדינה פלסטינית שבירתה מזרח ירושלים עד יוני 67?
-מה היו התביעות של אש"פ משנת ההקמה שלו 1964 ועד 1967? חזרה לגבולות אושוויץ?</t>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>אחרי הקפאת הסיוע: אונר"א במבצע גיוס תרומות</t>
+  </si>
+  <si>
+    <t>סוכנות הסיוע של האו"ם לפליטים פלסטינים פתחה במבצע "לכבוד אין מחיר", שנועד לגייס 500 מיליון דולר בעקבות ההחלטת ממשל טראמפ להקפיא מחצית מכספי הסיוע: "שיבושים בחינוך ובבריאות מסוכנים למזרח התיכון"</t>
+  </si>
+  <si>
+    <t>סוכנות הסיוע של האו"ם לפליטים פלסטינים (אונר"א) פתחה היום (ב') במבצע "חסר תקדים" לגיוס תרומות של מאות מיליוני דולרים, בעקבות הקפאת הסיוע של ממשל טראמפ. בשבוע שעבר הודיעה מחלקת המדינה לאונר"א שארה"ב מקפיאה יותר ממחצית מכספי הסיוע שהסוכנות אמורה לקבל (65 מ-125 מיליון דולר). ארה"ב הבהירה לסוכנות הסיוע שהתרומות הבאות של ארה"ב תלויות בשינויים משמעותיים בסוכנות הסיוע, שבישראל מותחים עליה ביקורת קשה. בכיר אמריקני הבהיר שהסוכנות תקבל את הסכום שהוקפא "ברגע שתשנה את דרכי הפעולה והמימון שלה".מזכ"ל אונר"א, פייר קראנבול, אמר שההחלטה האמריקנית "פתאומית ומזיקה". הוא הוסיף שהסוכנות מתכוון לכרות בריתות עם מקורות מימון חדשים, ושמזכ"ל האו"ם אנטוניו גוטרש ישתתף בשיחות בין גורמים בכירים כדי להשיג תרומות ממדינות אחרות. הקמפיין של אונר"א, "לכבוד אין מחיר", נועד לגייס 500 מיליון דולר כדי להבטיח שהשירותים המרכזיים שמעניקה הסוכנות לא ייפגעו. הסוכנות מספקת שירותים לפלסטינים בגדה המערבית, רצועת עזה, ירדן, סוריה ולבנון."לא נוכל לקבל הפרעה כלשהי לכבוד, ולהשקעה בחינוך ובבריאות", הזהיר מזכ"ל אונר"א. "זה מסוכן למזרח התיכון כולו". ארה"ב היא התורמת הגדולה ביותר לסוכנות הסיוע, ומספקת לה כמעט 30% מהתקציב. היא מעבירה לקופתה כ-300 מליון דולר מדי שנה. רק בשנת 2016 תרמה לאונר"א 368,429,712 דולר.</t>
+  </si>
+  <si>
+    <t>צחנה.צביר שבטים שממומן ע''י אחרים.שיחזרו למצבם הטבעי : שהוא. צביר שבטים.לא עם ולא עמהבואו נגיד ש... : כל הערבים במזרח התיכון הם פליטים פלסטינים וכולם היו בכלל פעם כנענים..ושירושלים מוזכרת בקוראן..וישו לא היה יהודי...ושמוחמד לא היה מנהיג זרם ביהדות שבמשך השנים הפכה לאיסלאם..נכניס הכל לספר אחד ופתאום יש למוסלמים מה ללמד בבתי הספר..אני רץ מחר לבנק לשבור תוכנית חיסכון. השאלה למי לתרום- : לסודאנים בתל אביב או לאונראיש כמה טייסים באל על שרוצים  : צידוק הקיום : זה 70 שנה מדביקים הפלסטינים לעצמם תווית של פליטות למרות שהם מיושבים בבתיהם ולהם עסקים, נכסים וקרקעות (ידע אישי), אלא שהמוסד ההזוי הזה שנקרא אונרא, מנציח את מעמדם כפליטים, מכמה סיבות: המערך הפקידותי הענק הזה חייב להצדיק את קיומו, אחרת כל המנגנון הענק הזה יתפרק חס וחלילה. שנית, איך ימשיכו הפלסטינים לטעון לזכות השיבה למדינתנו? הרי ה"פליטים" האלה שומרים מכל משמר על "המפתח". והאבסורד הגדול בכל הענין שאונרא מעניק את המעמד פליט לכל הצאצאים שנולדו מאז מלחמת 48 שאוי לנו אם היינו מפסידים בה, כך ש 600 אלף פליטים אז, הפכו היום לכ-20 מליון. לכן ממשלת הימין בצדק חותרת לעשות לפארסה הזאת סוף, רק חבל שהשמאל עושה מאמצים בלתי נלאים לחבל במאמצים אלה.על איזה חינוך וכבוד אתם מדברים ..רק דם ודמעות ראינו  : תרמתי במשרד  : מי ירצה לתרום למגעילים האלו?  : הסכנה למזרח התיכון הוא הסתה לשנאה ולטרור במוסדות של אונרא!!! : צריך לחנך את הפליטים לשלום ולאהבה ולא מה שמתבצע במוסדות החינוך באונרא שמסיתים לשנאה וטרור ושוטפים את המוח בתעמולה שיקרית זה לא חינוך זה ההפך הרס והרעלה של המוח להוציא טרוריסטים ושהידים רוצחיםארה"ב צריכה להפסיק כל התשלומים ושילכו לחפש נדבות  : מאות מיליוני פליטים בעולם : אבל פותחים סוכנות מיוחדת לשתי מליון פלסטינים. העולם כבר מקיא מרוב אינטרסים פוליטייםזהו ארגון ערבי מובהק, ולא יכול עוד להיות : חלק מארגון האומות המאוחדות.
+אפשר לארגנו מחדש במסגרת הליגה הערבית, ואת החמצן יספקו הפטרודולרים של סעודיה ונסיכויות המפרץ.תרומה לאונרא תרומה לטרור  : אהבתי. אמנם קבצנים - אבל עם כבוד! : אצל הפלסטינאים הכבוד הוא הדבר האחרון שמת.פיקוח על הכספים : מעניין איזה פיקוח יש לתרומות לאן הם מגיעיםשהמדינות המיפרץ העשירות ישלמו להם : שיעזרו לאחים המסלמים שלהם. הבעיה שהמוסלמים שונאים זה את זה.
+צביעות!מבחינת האמריקאים זו סיטואציה של WIN WIN : אם מבצע התרומות יצליח, ארה"ב תוכל לקצץ בריש גלי את כל הסיוע השנתי ותטען שאין פגיעה בפליטים אלא חסכון למשלם המיסים האמריקני. אם מבצע התרומות ייכשל, הפלשתינאים יצטרכו לזחול חזרה לשולחן המו"מ או להגר לאירופה כפי שאבו מאזן איים (ובטווח הארוך האירופאים יבינו סוף סוף מי ומה זה הפלשתינאים)לא תרמתי ולא יתרום  : מצוין : לארצות הברית יש הרבה דרכים להשתמש בכסף. אני מציע שיודיעו היום שהפלשתינאים לא יקבלו גם את החלק השני עד שאונר״א תדאג שלא יהיו מנהרות מתחת לבתי ספר ושמחבלים יפסיקו להסתתר שם. עד אז הם יכולים למות מרעב מצידיעד מתי תחיו על נדבות... : פשוט קבצנים... נסו לעמוד על הרגליים.. כל עוד יש אונרא - אין להם מוטיבציה לבנות תשתית מיסים יציבה לממן את היום-יום שלהםפחחחח את זה אומר ישראלי : נסה לחיות 4 דקות בלי הסיוע מממשלת ארצות הברית ותרומות של יהודים.אפשר לחשוב כמה כסף האמריקאים נותנים לנו : אולי 4% מתקציב המדינה , נסתדר גם בלי זה.אתם אמורים להיות ארגון סיוע איזה כבוד יש לכם? : טמבליםעל איזה חינוך בדיוק אתם מדברים ??? : מחנכים לאימות , לשינאת יהודים ולאנטישמיות. אם הייתם משקיעים בחיים ובתרבות הייתם עם ככל העמים. הבכיינות שלכם תח'רב ביתכוםאלה לא פליטים!!! שיעזרו לפליטים מסוריה ועירק. : הפלסטינים כבר מזמן אינם פליטים. הם עובדים ומשולבים בחברות בהן הם גרים. אף אחד לא מונע מעבר שלהם ממחנה הפליטים ליישובים סביבם.
+עולם שפוי היה משקיע בפליטים אמיתיים שזקוקים להגנה וסיוע. סוריה עירק ועוד.אונ רע : חחחחחחחחחחחחחח ליצניםהתחילו לדבר על "כבוד" בדיוק כמו המוסלמים הפאנטיים : עוד מעט יתחילו גם רציחות באו"ם על רקע כבוד האונר"א? ארגון של חולי נפש. מדברים על "כבוד" כמו ילדים קטנים שהולכים מכות.מוסלמים פנאטיים = עארסווטים  : תנחשו איזו מדינה תשלם את הכסף החסר להם? : המדינה הכי מפגרת בעולם. מדינה שנותנת טיפול חינם לאויביה, מדינה שמכניסה מלט לחמאס כדי שהם יבנו מנהרות, מדינה שמכניסה 1000 משאיות ביום כדי להאכיל אל מחבלי חמאס. נכון. נישחתם נכון.נישחתם נכון : תפחדו ממי שחסר לו , תפחדו ממי שאין לו מה להפסיד יותר , תפחדו ממי שאין לו . להפסיק סיוע לאונרא זה כמו לגייס דורות של ילדים שיבחרו בדרך האלימות.ניחוש נכון - אתה איש נחמד . מצדך להרעיב מאות אלפי אנשים : זה מעשה נכון . תגיד אתה באמת יהודי ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גלעד, ישראל </t>
+  </si>
+  <si>
+    <t>צחנה.צביר שבטים שממומן ע''י אחרים.שיחזרו למצבם הטבעי</t>
+  </si>
+  <si>
+    <t>שהוא. צביר שבטים.לא עם ולא עמה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שמעון </t>
+  </si>
+  <si>
+    <t>בואו נגיד ש...</t>
+  </si>
+  <si>
+    <t>כל הערבים במזרח התיכון הם פליטים פלסטינים וכולם היו בכלל פעם כנענים..ושירושלים מוזכרת בקוראן..וישו לא היה יהודי...ושמוחמד לא היה מנהיג זרם ביהדות שבמשך השנים הפכה לאיסלאם..נכניס הכל לספר אחד ופתאום יש למוסלמים מה ללמד בבתי הספר..</t>
+  </si>
+  <si>
+    <t>אני רץ מחר לבנק לשבור תוכנית חיסכון. השאלה למי לתרום-</t>
+  </si>
+  <si>
+    <t>לסודאנים בתל אביב או לאונרא</t>
   </si>
   <si>
     <t xml:space="preserve">יוסי </t>
   </si>
   <si>
-    <t xml:space="preserve">למה אין בלוז את הסלפי של אורן חזן </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ירושלמי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">טוב מאוד! אל תכירו בה ואל תסכימו! ירושלים לא שייכת לכם! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בולי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יותר טיפש מטראמפ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">. </t>
-  </si>
-  <si>
-    <t>המינימום זה שגרירויות במערב ירושלים</t>
-  </si>
-  <si>
-    <t>מדינות שחושבות שימסכנו את היהודים במדינתם. טעות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">גיל </t>
-  </si>
-  <si>
-    <t>מצויין שהחכ"ים של הרשימה המשותפת</t>
-  </si>
-  <si>
-    <t>מחרימים את סגן נשיא ארה"ב. פנס ראוי לכל הכבוד והיקר שמדינת ישראל יכולה להעניק לו, אדם משכמו ומעלה עם הבנה מעולה מה נכון ומה שגוי באזורנו. אבל, טוב שחברי הרשימה המשותפת, אותם אלו שהם על הנייר "חברים בכנסת ישראל" ובפועל חברים של כל רשות, אירגון או גוף ששונא את מדינת ישראל, טוב שהם מחרימים, כי אינם ראויים להימצא אפילו במרחק קילומטר מהאיש היקר הזה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">גיא, חדרה </t>
-  </si>
-  <si>
-    <t>מעניין אם גם בארהב יש הזויים שכועסים שהוא טס עם אישתו...</t>
-  </si>
-  <si>
-    <t>יש לי הרגשה שהם נמצאים רק אצלנו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">למה לא היכרתם בה </t>
-  </si>
-  <si>
-    <t>כשזו היתה בשליטתכם? וגם לא במדינת פלסטין?</t>
-  </si>
-  <si>
-    <t>למה ההה למה?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חנוך, אשדוד </t>
-  </si>
-  <si>
-    <t>סוף סוף ידיד ישראל בבית הלבן.</t>
-  </si>
-  <si>
-    <t>ארץ ישראל לעם ישראל!</t>
-  </si>
-  <si>
-    <t>18.01.18</t>
+    <t xml:space="preserve">יש כמה טייסים באל על שרוצים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ציבי </t>
+  </si>
+  <si>
+    <t>צידוק הקיום</t>
+  </si>
+  <si>
+    <t>זה 70 שנה מדביקים הפלסטינים לעצמם תווית של פליטות למרות שהם מיושבים בבתיהם ולהם עסקים, נכסים וקרקעות (ידע אישי), אלא שהמוסד ההזוי הזה שנקרא אונרא, מנציח את מעמדם כפליטים, מכמה סיבות: המערך הפקידותי הענק הזה חייב להצדיק את קיומו, אחרת כל המנגנון הענק הזה יתפרק חס וחלילה. שנית, איך ימשיכו הפלסטינים לטעון לזכות השיבה למדינתנו? הרי ה"פליטים" האלה שומרים מכל משמר על "המפתח". והאבסורד הגדול בכל הענין שאונרא מעניק את המעמד פליט לכל הצאצאים שנולדו מאז מלחמת 48 שאוי לנו אם היינו מפסידים בה, כך ש 600 אלף פליטים אז, הפכו היום לכ-20 מליון. לכן ממשלת הימין בצדק חותרת לעשות לפארסה הזאת סוף, רק חבל שהשמאל עושה מאמצים בלתי נלאים לחבל במאמצים אלה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">על איזה חינוך וכבוד אתם מדברים ..רק דם ודמעות ראינו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תרמתי במשרד </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מי ירצה לתרום למגעילים האלו? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אמי </t>
+  </si>
+  <si>
+    <t>הסכנה למזרח התיכון הוא הסתה לשנאה ולטרור במוסדות של אונרא!!!</t>
+  </si>
+  <si>
+    <t>צריך לחנך את הפליטים לשלום ולאהבה ולא מה שמתבצע במוסדות החינוך באונרא שמסיתים לשנאה וטרור ושוטפים את המוח בתעמולה שיקרית זה לא חינוך זה ההפך הרס והרעלה של המוח להוציא טרוריסטים ושהידים רוצחים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ע.ט, ראשון לציון </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ארה"ב צריכה להפסיק כל התשלומים ושילכו לחפש נדבות </t>
+  </si>
+  <si>
+    <t>מאות מיליוני פליטים בעולם</t>
+  </si>
+  <si>
+    <t>אבל פותחים סוכנות מיוחדת לשתי מליון פלסטינים. העולם כבר מקיא מרוב אינטרסים פוליטיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">צביקה </t>
+  </si>
+  <si>
+    <t>זהו ארגון ערבי מובהק, ולא יכול עוד להיות</t>
+  </si>
+  <si>
+    <t>חלק מארגון האומות המאוחדות.
+אפשר לארגנו מחדש במסגרת הליגה הערבית, ואת החמצן יספקו הפטרודולרים של סעודיה ונסיכויות המפרץ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מה לא ברור? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תרומה לאונרא תרומה לטרור </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני </t>
+  </si>
+  <si>
+    <t>אהבתי. אמנם קבצנים - אבל עם כבוד!</t>
+  </si>
+  <si>
+    <t>אצל הפלסטינאים הכבוד הוא הדבר האחרון שמת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לוגסי דוד </t>
+  </si>
+  <si>
+    <t>פיקוח על הכספים</t>
+  </si>
+  <si>
+    <t>מעניין איזה פיקוח יש לתרומות לאן הם מגיעים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פליט, פליט אלק </t>
+  </si>
+  <si>
+    <t>שהמדינות המיפרץ העשירות ישלמו להם</t>
+  </si>
+  <si>
+    <t>שיעזרו לאחים המסלמים שלהם. הבעיה שהמוסלמים שונאים זה את זה.
+צביעות!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ג, ת"א </t>
+  </si>
+  <si>
+    <t>מבחינת האמריקאים זו סיטואציה של WIN WIN</t>
+  </si>
+  <si>
+    <t>אם מבצע התרומות יצליח, ארה"ב תוכל לקצץ בריש גלי את כל הסיוע השנתי ותטען שאין פגיעה בפליטים אלא חסכון למשלם המיסים האמריקני. אם מבצע התרומות ייכשל, הפלשתינאים יצטרכו לזחול חזרה לשולחן המו"מ או להגר לאירופה כפי שאבו מאזן איים (ובטווח הארוך האירופאים יבינו סוף סוף מי ומה זה הפלשתינאים)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחד העם, חיפה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא תרמתי ולא יתרום </t>
+  </si>
+  <si>
+    <t>מצוין</t>
+  </si>
+  <si>
+    <t>לארצות הברית יש הרבה דרכים להשתמש בכסף. אני מציע שיודיעו היום שהפלשתינאים לא יקבלו גם את החלק השני עד שאונר״א תדאג שלא יהיו מנהרות מתחת לבתי ספר ושמחבלים יפסיקו להסתתר שם. עד אז הם יכולים למות מרעב מצידי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רועי </t>
+  </si>
+  <si>
+    <t>עד מתי תחיו על נדבות...</t>
+  </si>
+  <si>
+    <t>פשוט קבצנים... נסו לעמוד על הרגליים.. כל עוד יש אונרא - אין להם מוטיבציה לבנות תשתית מיסים יציבה לממן את היום-יום שלהם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בני </t>
+  </si>
+  <si>
+    <t>פחחחח את זה אומר ישראלי</t>
+  </si>
+  <si>
+    <t>נסה לחיות 4 דקות בלי הסיוע מממשלת ארצות הברית ותרומות של יהודים.</t>
+  </si>
+  <si>
+    <t>אפשר לחשוב כמה כסף האמריקאים נותנים לנו</t>
+  </si>
+  <si>
+    <t>אולי 4% מתקציב המדינה , נסתדר גם בלי זה.</t>
+  </si>
+  <si>
+    <t>אתם אמורים להיות ארגון סיוע איזה כבוד יש לכם?</t>
+  </si>
+  <si>
+    <t>טמבלים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תומר </t>
+  </si>
+  <si>
+    <t>על איזה חינוך בדיוק אתם מדברים ???</t>
+  </si>
+  <si>
+    <t>מחנכים לאימות , לשינאת יהודים ולאנטישמיות. אם הייתם משקיעים בחיים ובתרבות הייתם עם ככל העמים. הבכיינות שלכם תח'רב ביתכום</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוהד </t>
+  </si>
+  <si>
+    <t>אלה לא פליטים!!! שיעזרו לפליטים מסוריה ועירק.</t>
+  </si>
+  <si>
+    <t>הפלסטינים כבר מזמן אינם פליטים. הם עובדים ומשולבים בחברות בהן הם גרים. אף אחד לא מונע מעבר שלהם ממחנה הפליטים ליישובים סביבם.
+עולם שפוי היה משקיע בפליטים אמיתיים שזקוקים להגנה וסיוע. סוריה עירק ועוד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חיים </t>
+  </si>
+  <si>
+    <t>אונ רע</t>
+  </si>
+  <si>
+    <t>חחחחחחחחחחחחחח ליצנים</t>
+  </si>
+  <si>
+    <t>התחילו לדבר על "כבוד" בדיוק כמו המוסלמים הפאנטיים</t>
+  </si>
+  <si>
+    <t>עוד מעט יתחילו גם רציחות באו"ם על רקע כבוד האונר"א? ארגון של חולי נפש. מדברים על "כבוד" כמו ילדים קטנים שהולכים מכות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אזרח פשוט </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מוסלמים פנאטיים = עארסווטים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ניחוש נכון </t>
+  </si>
+  <si>
+    <t>תנחשו איזו מדינה תשלם את הכסף החסר להם?</t>
+  </si>
+  <si>
+    <t>המדינה הכי מפגרת בעולם. מדינה שנותנת טיפול חינם לאויביה, מדינה שמכניסה מלט לחמאס כדי שהם יבנו מנהרות, מדינה שמכניסה 1000 משאיות ביום כדי להאכיל אל מחבלי חמאס. נכון. נישחתם נכון.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נישחתם  </t>
+  </si>
+  <si>
+    <t>נישחתם נכון</t>
+  </si>
+  <si>
+    <t>תפחדו ממי שחסר לו , תפחדו ממי שאין לו מה להפסיד יותר , תפחדו ממי שאין לו . להפסיק סיוע לאונרא זה כמו לגייס דורות של ילדים שיבחרו בדרך האלימות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חי </t>
+  </si>
+  <si>
+    <t>ניחוש נכון - אתה איש נחמד . מצדך להרעיב מאות אלפי אנשים</t>
+  </si>
+  <si>
+    <t>זה מעשה נכון . תגיד אתה באמת יהודי ?</t>
+  </si>
+  <si>
+    <t>19.01.18</t>
   </si>
   <si>
     <t>אורלי אזולאי, וושינגטון</t>
   </si>
   <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>שנת טראמפ הראשונה: לא הנשיא של כל אמריקה</t>
-  </si>
-  <si>
-    <t>מאז נכנס לפני שנה לבית הלבן, סיפק הנשיא הרפובליקני שורה של הצהרות והחלטות שהתקבלו ברגשות מעורבים. במחנה השמרני הלבן קיבלו בברכה את האיש שבא לתקן את "נזקי אובמה", הנשיא השחור הראשון, ואילו במחנה הליברלי טוענים שטראמפ פגע בכבוד מוסד הנשיאות ובמעמד ארה"ב בעולם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  לפני שנה הניח דונלד טראמפ את ידיו על ספר התנ"ך ונשבע אמונים לחוקה ולעם האמריקני. היה זה יום חורפי במיוחד בוושינגטון. העננים היו שחורים וכשהגשם החל לרדת המוזמנים התעטפו במעילי ניילון שקופים ואז יצאה אמריקה החדשה לדרך, שבמבט לאחור נראית כמו מסע ברכבת הרים. בראש המעצמה הגדולה בעולם התמקם נשיא שעד יום הבחירות נחשב, גם בעיני רבים במפלגתו, כליצן, קוריוז, איש גס רוח, מטריד נשים, בז למיעוטים, בור בנושאים מדיניים וביטחוניים וסכנה לשלום העולם. עוד חדשות מעניינות מהעולם בדף הפייסבוק של דסק החוץ עוד לפני שיבשו טיפות הגשם בוושינגטון, לפני שהנשיא החדש הלך לרקוד עם רעייתו מלניה בנשף לכבודו, ביום החגיגי שלו, הוא זעם כמו שור, התנגח בתקשורת וטען שלא ירד גשם, אלא שהייתה שמש יפה במיוחד. אחר כך הוא הכחיש בזעם את הדיווחים שלפיהם בטקס ההשבעה שלו היו פחות משתתפים מאשר בהשבעתו של ברק אובמה. עבור טראמפ, שמגלה אובססיה בכל מה שקשור באובמה ושנחוש להוכיח לעולם ולעצמו כי כל מה שעשה הנשיא השחור הראשון בהיסטוריה האמריקני הוא יכול לעשות טוב יותר, היה זה אגרוף בפרצוף. כשהגיעו הנתונים הרשמיים, כולל צילומים, מרשות הפארקים הלאומית, על כמות המשתתפים בטקס ההשבעה של טראמפ, אמרו דוברי הבית הלבן כי יש עובדות ושהם מציגים עובדות אלטרנטיביות. הביטוי נכנס ללקסיקון של טראמפ ואנשי ממשלו כמו ביטויים אחרים שליוו את שנת כהונתו הראשונה של איל הנדל"ן לשעבר מניו יורק: פייק ניוז, פייק מדיה, פייק בוק ועוד שמות גנאי לאנשים שהדביק להם הנשיא בכישרון של קופירייטר. השנה הראשונה של טראמפ בבית הלבן הסתיימה ב"סטיב המרושל" (או האוויל). כך כינה הנשיא האמריקני את סטיב באנון, מי שהיה איש סודו והאסטרטג הראשי בבית הלבן עד שפוטר. טראמפ יצא במתקפה נגד חברו לשעבר לאחר שזה השתתף בספר שהציג את הבית הלבן של טראמפ כבית משוגעים שבראשו עומד נשיא, שעל פי קביעת הספר איננו ראוי ואיננו כשיר לשאת בתפקיד הרם. השנה שהחלה בטיפות גשם בטקס ההשבעה בוושינגטון הסתיימה ב"הוריקן רב נפגעים" - הספר "אש וזעם" שחיבר מייקל וולף. וולף קיבל גישה חופשית לבית הלבן, ליועצי טראמפ ולבני משפחתו. לטענתו, הספר שחיבר מבוסס על דברים ששמע וראה ושמה שהוא למעשה למד זה שהמלך הוא עירום. הספר על טראמפ הפך לרב מכר מהיום הראשון שבו הונח על המדפים. הספר הצליח להוציא מטראמפ תגובה מוזרה - יש שראו בה ביטוי לחוסר ביטחון עמוק, יש שציינו אותה כסימן למגלומניה. "אני גאון שפוי", אמר הנשיא הרפובליקני בתגובה לספר שנכתב עליו. ההיסטוריה לא זוכרת גאון שפוי אמיתי שהצהיר על עצמו שהוא כזה, אבל תמיד יש פעם ראשונה.  חלק נכבד בציבור האמריקני (הילרי קלינטון, נזכיר, קיבלה קרוב ל-2.5 מיליון קולות יותר מאשר טראמפ, אך הפסידה לו בגלל שיטת האלקטורים) הביט בשנה האחרונה בהלם ולעתים בבושה על התנהלותו של הנשיא שלו וראה בו מנהיג שמטיל חרפה על מדינתו ומזיק לה, בין היתר בהחלטות כמו יציאה מהסכם האקלים שנועד לתת מענה להתחממות כדור הארץ ולשמירה עליו. החלטה אחרת שנתפשה בציבור כשנויה במחלוקת הייתה לחסום כניסה לארה"ב של מהגרים מכמה מדינות מוסלמיות. ואם בזה לא די, בשבוע שעבר כינה טראמפ את האיטי ומדינות אפריקה "מדינות מחורבנות", והצהיר כי היה מעדיף בארה"ב מהגרים מנורבגיה. כלומר - שחומי עור - לא, לבנים - כן. אמריקה הליברלית מתביישת, ואילו אמריקה הטראמפיסטית מריעה לנשיא שלה. טראמפ עושה את מה שהבטיח לבוחריו. הוא ניהל קמפיין של שנאה במרוץ שלו לבית הלבן, וזה בדיוק מה שרצו בוחריו ואוהדיו. הם רצו הבטחה לשמירת אמריקה הלבנה, בזו למדע ולמחקרים הקובעים כי התחממות כדור הארץ היא בחלקה מעשה ידי אדם. תומכיו של טראמפ, בעיקר ציבור אוונגליסטי שהלך אחריו בעיניים עצומות, רצו שהוא יכיר בירושלים כבירת ישראל ויעביר את השגרירות האמריקני מתל אביב לירושלים. יותר מכול רצו חסידיו של טראמפ כי פעם אחת ולתמיד יהיה נשיא שיוציא לפועל את ההבטחות לקיצוץ מסים. מנקודת ראותו של טראמפ, היתה לו שנה מוצלחת, והוא בטח לא יפסיק לומר זאת בסוף השבוע הקרוב כשכל כלי התקשורת יציינו את יום השנה הראשון שלו בתפקיד - ב-20 בינואר. טראמפ הצליח להעביר את חוק קיצוץ המס, ומבחינתם של הרפובליקנים מדובר בהישג היסטורי. זה בדיוק מה שהם רצו וטראמפ סיפק את הסחורה. טראמפ עשה בשנה הראשונה שלו בבית הלבן את כל מה שחסידיו רצו. כפוליטיקאי הוא פעל לשמור על הבסיס הפוליטי שלו - והוא הצליח בכך. בסיס זה שמח ממה שמגיע מוושינגטון, הוא לא נסדק ולא מתפורר ובהחלט שלא מתרגש מדיווחים על מצבו הנפשי, הקוגניטיבי והפסיכיאטרי של נשיא ארה"ב. אמריקה הלבנה, השמרנית, שברובה גם גזענית ומהווה קרקע פורה לתנועות קיצוניות שדוגלות בטוהר הגזע הלבן ולא מעט מהן נגועות באנטישמיות, תציין בחדווה שנה לכהונתו של טראמפ. אמריקה הליברלית, המאמינה בעושרו של הגיוון החברתי, בטוהר השפה, בזכויות האדם שהן גם זכויות האישה, בנחיצותו של המדע בחברה מודרנית, מביטה לאחור על השנה הזאת והיא אבלה וחפויית ראש. במהלך הבחירות לנשיאות ארה"ב ב-2016 היה ברור לעין ונגלה לכול כי בזירה מתגוששות שתי אמריקות: האדומה, כצבע הרפובליקנים, והכחולה, כצבע הדמוקרטים. כל אחת ייצגה חצי אמריקה כאילו גרים שני עמים במדינה אחת. בתום שנה לכהונת טראמפ נראה שלא מדובר בהתנגשות בין שתי אמריקות, אלא בהתרסקות. האופטימיסטים אמרו שיש לתת הזדמנות לנשיא החדש, שאולי הוא יגדל עם התפקיד ויהפוך ממלכתי והנשיא של כולם, אבל זה לא קרה בפועל. יותר מכל דבר אחד, את שנתו הראשונה של טראמפ תזכור אמריקה בגלל היותו נשיא שנוי במחלוקת שנתפס לעתים כקיצוני וכמי שמפלג את החברה במקום לאחד אותה. מנקודת המבט הליברלית, טראמפ הוא נשיא שיש להתבייש בו, ולו גם בשל העובדה שנטל מאמריקה את מעמדה ההיסטורי כמנהיגת העולם החופשי, ואת מעמדה כמתווך הוגן במזרח התיכון, בעיקר בסכסוך הישראלי-פלסטיני.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כתבה מגמתית שלא קשורה למציאות : כמי שנמצא הרבה בארה"ב, מדבר עם אזרחים ורואה מה קורה מסביב, השנה הזו עשתה המון המון טוב לאזרחי ארה"ב. איפה המידע על כך שחברות הרכב החזירו מפעלים לארה"ב ויצרו המון מקומות עבודה חדשים. איפה ההודעה של חברת אפל על החזרת כספים לארה"ב ותשלום מיסים של 38 מיליארד דולר פלוס הקמת מרכז חדש עם עוד 20,000 עובדים? הכתבה הזאת היא ממש עלבון לאינטיליגנציה של הקוראים. בושה וחרפהFinally an article for fake news award made in Israel : רכא-אז- אולי Ms. : . why done you write about how Obama left America &amp; the world an unsafe place.?אמריקה לבנה בחרה נשיא שחור. פעמיים. : פתאום היא הפכה לגזענית. לעומת זאת, 96 אחוז שחורים הצביעו עבור אובמה, אבל זה לא גזענות, סתם צירוף מקרים מפתיע.מזל שהישראלים לא יכולים להשפיע על בחירות ארה"ב : קראתי את התגובות כאן ואני עצוב מאוד לראות שהישראלים כל כך תומכים בנשיא הפאשיסט והגזען הזה. אני מתנחם בעובדה שבאמריקה הרוב לא אוהבים אותו. ואני אומר את זה בתור ימני שתומך בזכויות האדם, אותן טראמפ מפר.אני אמריקאי ויכול להגיד בוודאות שטראמפ הנשיא הכי טוב : ההכנסות הפנסייה שלי 401k עלו כמעט בשליש מאז שהוא נכנס לתפקיד. גברת אזולאי מברברת שטויות על ימין ויותר על שמאל.עם כל הכבוד הוא נשיא הזוי ובלתי מאופס.. העם בחר בעלוב נפש...  : חשבתי שהליברלים כבר התאוששו מהתסכול : של ההלם שלפני שנה, כשהבינו שבשונה מהתקשורת, העולם כבר לא שלהם. נשיא ארה"ב נבחר ע"י 63.2 מיליון איש, והם כמובן לא נחשבים...ממש חדשות מרעישות : באף מדינה השמאל יקבל מנהיג ימני, הם יעשו הכל בדרכים ישרות או עקומות להפיל אותו.ואת עיתונאית של 3 אחוז מהעם.  : הנשיא הגרוע ביותר שהיה לאמריקה. לא לשכוח שהוא לא נשיא ישראל  : ג'ימי קרטר היה גרוע ביותר...  : איזה זבלים הם השמאלנים/ליברלים : הרי כל נשיא או בעל שררה שקוע עד לצוואר בשחיטויות, ויש שמתלוננים, אבל די מהר מרגיעים. במקרה פה, הליברלים לא מפסיקים להכפיש את הנשיא שלהם, גם אם נכון וגם אם לא, ואז מתלוננים שהוא הנשיא שמביא קלון על ארהב, הרי אתם מביאים קלון על ארהב, בזה שאתם מדברים על הנשיא שלכם כמו על גרב של גולנצ׳יק אחרי מסע כומתה...אובמה היה הנשיא של כווו-לם, בעיקר של האיראנים ושל חיזבאללה : קיבל תואר חסיד אומות העולם מנסראללהוקבל פרס נובל לשלום על הרס: לוב סוריה תימן סומליה : ומצרים כמעטסוף סוף היגיע הגואל : נמאס מכלכלה שבורה אובמה הרס את אמריקה וגם את העולם כולו כבר לא אכפט לי איזה ביריון אם פה גדול נהיה הנשיא סוף סוף אפשר לחיות בכבוד יש פרנסה הבורסה תוצמחת שיתפוצצו הדמוקרטיםנכון - וגם צדקתם כשאמרתם שהילרי תיבחר  : More fake news : השיא לא של כל אמריקה? בגלל זה הגירה לא חוקית בשפל...הכלכלה בצמיחה הכי גדולה מאז שנות ה80 ...דאעש הובס..שחורים באמריקה בחוסר תעסוקה הנמוך מזה 30 שנה..שוק המניות בשיר של כל הזמנים..חברי כנופיות ברחבי אמריקה מגורשים ונכלאים מידי יום?! זה לא נשיא של כל אמריקה? תלמדו קצת היסטוריה....דיבור לא מבשל אורז...אובמה ידע לדבר יפה מאוד..ועשה נזק בלתי הפיך...אולי טראמפ לא יודע לבטא את עצמו בצורה הכי אינטיליגנטית אבל בהחלט הוא השולף המהיר והיעיל ביותר במערב הפרוע....Making America great againFake News : רק המדיה והעשירים לא אוהבים אותו. אני גר בארהב והמון אוהבים אותו. הוא הנשיא הכי חזק שהיה לארהב שנים רבות.אני גר בסן דייגו וכולם כאן שונאים אותו : אולי באזורים מאוד מאוד שמרניים ופרימיטיביים בארה"ב אוהבים אותו אבל ברוב ארה"ב ממש לא אוהבים אותו, לפחות לא בקליפורניה. לא שמעתי מאף אמריקאי מילה טובה עליו.מצטערים טראמפ : אבל אם היית סלחן לאיסלם הקיצוני, היית מקבל כתבה אוהדת יותר, זה ישראל כאן אל תצפה לאחרתואובאמה היה הנשיא של כולם? : כמובן שלא.
-הוא היה הנשיא של אלו הקוראים לעצמם ליברלים ולמעשה הם טהרנים וצבועים.
-כל מלוקקי ה PC ...כתבת ידיעות בוושינגטון : כל כך ברור שגברת אז-אולי תופסת צד של גברת היטלרי. חושך לי גרה בשכונת יוקרה בפרברי וושינגטון נשואה לבעל אמריקאי עשיר כך שהשיפור בכלכלה האמריקאית היא לא חשה אותו. עוד אחת שמנסה להיות אמריקאית אבל שכחה מאיפה היא הגיעה.באמת? : רק תומכי טראמפ אוונגליסטים שמחים על קיצוץ במיסים? אני שמעתי את מנכל אפל אתמול שהוא דמוקרט שמאל קיצוני והוא שיבח את טראמפ על הקיצוץ. טוהר השפה וזכויות האישה? הארווי ויינשטיין אחד התורמים והחברים הקרובים של הקלינטונים דמוקרט בנשמה וחביב הוליווד הדמוקרטית בהחלט היה בעד זכויות האישה... מילה גסה שטראמפ אולי אמר בדלתות סגורות נאמרו בcnn בקצב של יותר מ100 פעמים בשעה.כתבה יפה  : טראמפ הוא לא כוס התה שלי : אבל אין להתעלם מכך שנבחר בבחירות דמוקרטיות. ארה"ב שמנסה להביא את הדמוקרטיה לכל מקום בעולם, כולל מקומות שלא מוכנים או מתאימים לכך, וגורמת בכך בעיות לא מעטות ברחבי העולם, לא מסוגלת לעכל את תוצאות הדמוקרטיה אצלה בבית? הדמוקרטים צריכים להתחיל כבר היום במסע הבחירות הבא שלהם, ולהציג מועמד ראוי כדי שיהיה סיכוי להפטר מטראמפ בעוד 3 שנים. הבלאגן במפלגה, וחוסר הרצינות בהעלאת רעיונות מופרכים כמו אופרה וינפרי כנשיאה הבאה, די מבטיחים שהם יקבלו שוב פעם את טראמפ בפרצוף, בבחירות הבאות.הוא לא נבחר לגמרי באופן דמוקרטי : כאמור בכתבה, הילרי קלינטון קיבלה יותר קולות ממנו.מדהים : האם באמת יש קוראים שמתייחסים ברצינות לטור כזה, ושואבים ממנו את ידיעותיהם ואת השקפתם על המתחולל באמריקה? והכותבת עוד אמורה להיות מומחית, עם יד על הדופק, הרי היא גרה בעצמה בארה"ב. אולי היא למדה מהתקשורת המקומית - מדובר במאמר שטחי וארסי כמעט ברמת הניו יורק טיימס.הדמוקרטיים הם שלקחו את הכבוד ממוסד הנשיאות : בהתנהגות המבוכה והחצופה שלהם.
-טראמפ רוצה מהגרים משוודיה לא בגלל צבע עורם אלא בגלל שהם קצת יותר מערביים בתפישת העולם שלהם, יותר מלומדים יותר ויותר מתקדמים ובקיצור יותר.
-מה רע שבעל הבית דואג לסנן את מה שנכנס אליו הביתה?של כל אמריקה. תרצו או לא תרצו.   : ואובמה היה הנשיא של כל אמריקה?  : כן : בהחלט! אין מה להשוות את דעת הקהל של האמריקאים על אובמה, החיובית ברובה, לדעת הקהל של האמריקאים על טראמפ, השלילית והמאוכזבת ברובה.הדמוקרטים כמו השמאל, מתלוננים על הצד השני בלי להציג מנהיגות!  : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">רואה, שומע וגם חושב </t>
+    <t>331</t>
+  </si>
+  <si>
+    <t>בכירים אמריקנים: השגרירות תעבור לירושלים בשנה הבאה</t>
+  </si>
+  <si>
+    <t>לפי הדיווח ב"ניו יורק טיימס", מחלקת המדינה הכינה תוכנית להפיכת הקונסוליה בבירה לשגרירות שתאפשר את העברת השגריר האמריקני וצוותו לירושלים כבר בשנה הבאה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  גורמים אמריקנים בכירים אמרו כי ממשל טראמפ פועל מהר מהצפוי להעביר את השגרירות האמריקנית לירושלים כבר ב-2019. כך פורסם הלילה (ו') בעיתון "ניו יורק טיימס".על פי הדיווח ב"ניו יורק טיימס", במחלקת המדינה פעלו להכנת תוכנית צנועה יותר להפיכת הקונסוליה בירושלים לשגרירות האמריקנית. מדובר בתוכנית שתקטין את העלויות ותאפשר לשגריר האמריקני דייויד פרידמן ולצוות שלו לעבור לשם כבר בשנה הבאה. עיתוי המעבר גרם למתחים בין השגריר פרידמן לבית הלבן. פרידמן דחף להעביר את השגרירות לירושלים עוד השנה והוא זכה לתמיכת חתנו של טראמפ ויועצו לענייני המזרח התיכון, ג'ארד קושנר. מנגד ביקש טילרסון לדחות את המעבר בזמן נוסף כדי לשדרג את האבטחה של הבניין והנשיא נעתר.ראש הממשלה בנימין נתניהו העלה השבוע את האפשרות שהשגרירות האמריקנית תועבר לישראל מהר מהצפוי. "השגרירות תעבור הרבה יותר מהר ממה שאתם חושבים, בוודאי בטווח של שנה", אמר נתניהו במהלך ביקורו בהודו. הנשיא האמריקני דונלד טראמפ הגיב לדברים של נתניהו והגיב בראיון לסוכנות הידיעות רויטרס: "אנחנו מדברים על תרחישים שונים. אנחנו לא באמת מסתכלים על זה". גורמים בלשכת נתניהו אמרו כי אין סתירה בין דבריו של טראמפ לדברי נתניהו. "כמובן שבניית שגרירות חדשה לוקחת שנים, אך ראש הממשלה מאמין שארה"ב שוקלת צעדי ביניים, שעשויים להביא לפתיחת שגרירות בזמן קצר יותר". לפי גורמים בכירים, ככל הנראה טראמפ לא עודכן בנוגע ללוח הזמנים בעת שהתראיין. לדבריהם, טראמפ התכוון להקמת מתחם חדש לחלוטין של השגרירות בירושלים. לפי גורמים במחלקת המדינה, תהליך כזה יעלה בין 600 מיליון למילאירד דולרים והוא יימשך כשש שנים. בחודש שעבר אמר מזכיר המדינה טילרסון כי ייקח שנים עד שארצות הברית תעביר את השגרירות שלה מתל אביב לירושלים. בביקור בפריז אמר טילרסון כי "ייקח זמן" להכשיר את המקום שבו לכאורה תוקם השגרירות וכי המהלך ככל הנראה לא יקרה השנה, וגם לא ב-2018. "אבל הנשיא דונלד טראמפ נחוש שזה יקרה", הוא הוסיף. ההחלטה להעביר את השגרירות לירושלים היא המשך להכרזתו הפומבית של טראמפ בכך שארצות הברית מכירה בירושלים כבירת ישראל. מדובר בהכרזה שעוררה זעם רב בעולם המערבי ובעולם הערבי. בעקבות ההכרזה היחסים בין הרשות הפלסטינית לארצות הברית התדרדרו וטראמפ העביר מחצית מהכספים שיועדו לסוכנות האו"ם שמטפלת בפליטים הפלסטינים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">השגרירות תועבר לירושלים ב-3 פעימות  : נאום יפהפה beautiful speech  : השדרירות צריכה להישאר בתל אביב כי תל אביב היא בירת ישראל : האום צודק ישראל טועה תודו בזהעוד פרק ב: ״חייו של טרול״. ועוד אחד לא ממש מוצלח...  : אני לא מבין למה הימנים הטיפשים פה חושבים שהשמאל נגד המעבר? : לדעת הרב זוהי החלטה נכונה ותיקון עוול היסטורי, להיות שמאל זה להיות ציוני ולהיות ציוני זה להכיר בציון (ירושלים לכל הימנים שלא הבינו) כעיר הבירה של מדינת ישראל.נעמילי : מה אכפת לי השגרירות.
+העיקר שאת תשארי איתי.ירושלים : מאז ומתמיד היו הפחדות בקשר להעברת שגרירות לירושלים.
+סוף סוף קם מנהיג עם ביצים ואומץ לקחת החלטה גורלית בקשר למעמד החדש של ירושלים בעיני העולם ובעיני ישראל.
+אנחנו צריכים להיות אסירי תודה על כך שקיבלנו את העיר העתיקה ללא תמורה מדינית.
+שני האהודים ברק ואולמרט מכרו את ירושלים: ביבי הציל את ירושלים מחלוקה, המינימום מצד המנתנגדים לפחות לבקש ממנו סליחה ומחילה על כך שהמנהיגים שלהם לא עמדו בלחץ והיו כושלים לכל אורך הדרך.הם צריכים זמן להתארגן על ציוד ריגול חדש : עכשיו הם שוברים את הראש איך מרגלים אחרי הנציגויות הזרות (והמקומיות) שבתל אביב מירושלים.
+טראמפ דפק להם את עמדת הריגול הכי טובה, עכשיו תשמעו על "קונסוליה מורחבת" בתל אביב עקב צרכים מיוחדים.טרמפ את נתניהו הולכים לסבך את מדינת ישראל כמו שצריך......... : גינויים בעולם ,ניתוק יחסים ,מהומות ופיגועים ,אלה הדברים שאדון טרמפ וחתנו ונתניהו הולכים לסדר לנו........ כנראה לא למדנו כלום , ואנחנו זקוקים לעוד שיעור ........ אלה שזה יקר ופוגע בציבור ......ששון בוא נחיה באמת ולא בשקר : מי שלא מקבל את ירושלים כבירתינו שיגנה עד מחר היחסים עם ישראל הם מתוך אינטרסים לא כל כך מהר מנתקים יחסים ומי שמנתק באמת עדיף בלי קשר עימו לעולם לא נוותר על ירושלים הגיע הזמן שזה יובהר ללא צל של ספק את השכונות שמעבר לגדר הם יקבלו רק כאשר יפסיקו לקדש מוות ולהלל רוצחים להסית לרצח ולתגמל מחבלים ורק כאשר יקבלו את זכותו של העם היהודי לבית בארץ ישראל . כל דבר אחר ייצר אשליה שתייצר אכזבה שתייצר מלחמה כבר הוכח מס פעמים בעבר הלא כל כך רחוקדי די להפחיד : יהיו קצת מהומות יהיו קצת כעסים וככול שהזמן יעבור הכול ירגע והעובדה הצודקת תהיה קיימת.
+תשמע את הקולות במדינות ערב שמדברות על ישראל בשפה אחרת ולועגים לכול הערבים שממשיכים בהתנגדות לישראל
+צריך להמשיך בהתמדה ולקבוע עובדות לא לפחד.כי עד היום לא היה שום דבר מכל זה נכון?  : הם מצילים את המדינה מבוגדים שמאלנים שפלים  : יום שחור לשמאלנים והערבים   : וגם למוח החלול שלך. " ככה כתוב. הרב אמר " חשיבה עצמאית ? אפס  : ירושלים של פוטין או ליברמן ,טובים השניים מן האחד ,התשע"ח פסח  : "בשנה הבאה..." באיזה "באה" עלינו לטובה??? : אולי זה יתמשך עד שטראמפ כבר לא יהיה נשיא - ואז האחריות כבר לא תהיה מוטלת עליו, הרי הכוונות שלו היו הטובות שבעולם...
+חבל שחיים היום בדור שאין יותר אמון באף אחד!בשנה הבאה בירושלים  : כל מה שצריך זה להחליף את השלט בכניסה מקונסוליה לשגרירות...  : לא חשוב מתי : העיקר שיקרה מהר בימינו אמן. ירושלים היא הבירה של ישראל. אפשר, אולי, להתווכח על החלק המזרחי שמלא בערבים ממילא.
+אפשר. אולי. לתת להם את... שער שכם. רק השער יהיה בריבונות מוסלמית. למצוא מדינה מוסלמית קטנה שתשמח להיות הריבון רק על השער.אני משתתף בצערם של חברי מר"צ על ההחלטה להעביר את השגרירות : לירושלים בירתנו.
+ואני ממש לא ציני.תעברו לירושלים ובתל אביב יהיה לכם שימוש יותר יעיל למבנה. : הסבה לבית מלון.שמאלנים - אכלתם את הכובע : כל הכבוד לנתניהו, ראש הממשלה הטוב מאז הקמת מדינתנו. עצה צנועה לאחיי השמאלנים: תתפקחו ותתחילו לראות את הטוב.proud : way to go Donald from a PROUD AMERICAN.בהמשך לחדשות ששמענו כל היום האחרון : משום מה בהאזנה לרדיו במשך כל היום שמעתי תקחפות על ביבי איך הוא רומז או אומר כי השגרירות תעבור כבר השנה בניגוד למה שנאמר ע"י טרמפ . זה היה עיסוק משמעותי שכרגיל עוסק בהשמצות ביבי ולא בדברים החיובייםהשגריר האמריקאי... : אדם הגון וישר דרך.וואו  : מי ראשון מתנצל על הציקצוקים והליגלוגים על נתניהו? חולרות!!  : "כל הכבוד"  : </t>
   </si>
   <si>
     <t>19.01.1</t>
   </si>
   <si>
-    <t>כתבה מגמתית שלא קשורה למציאות</t>
-  </si>
-  <si>
-    <t>כמי שנמצא הרבה בארה"ב, מדבר עם אזרחים ורואה מה קורה מסביב, השנה הזו עשתה המון המון טוב לאזרחי ארה"ב. איפה המידע על כך שחברות הרכב החזירו מפעלים לארה"ב ויצרו המון מקומות עבודה חדשים. איפה ההודעה של חברת אפל על החזרת כספים לארה"ב ותשלום מיסים של 38 מיליארד דולר פלוס הקמת מרכז חדש עם עוד 20,000 עובדים? הכתבה הזאת היא ממש עלבון לאינטיליגנציה של הקוראים. בושה וחרפה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obama bin laden, Raanana </t>
-  </si>
-  <si>
-    <t>Finally an article for fake news award made in Israel</t>
-  </si>
-  <si>
-    <t>רכא</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zg </t>
-  </si>
-  <si>
-    <t>-אז- אולי Ms.</t>
-  </si>
-  <si>
-    <t>. why done you write about how Obama left America &amp; the world an unsafe place.?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dartson </t>
-  </si>
-  <si>
-    <t>אמריקה לבנה בחרה נשיא שחור. פעמיים.</t>
-  </si>
-  <si>
-    <t>פתאום היא הפכה לגזענית. לעומת זאת, 96 אחוז שחורים הצביעו עבור אובמה, אבל זה לא גזענות, סתם צירוף מקרים מפתיע.</t>
-  </si>
-  <si>
-    <t>מזל שהישראלים לא יכולים להשפיע על בחירות ארה"ב</t>
-  </si>
-  <si>
-    <t>קראתי את התגובות כאן ואני עצוב מאוד לראות שהישראלים כל כך תומכים בנשיא הפאשיסט והגזען הזה. אני מתנחם בעובדה שבאמריקה הרוב לא אוהבים אותו. ואני אומר את זה בתור ימני שתומך בזכויות האדם, אותן טראמפ מפר.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יעקב </t>
-  </si>
-  <si>
-    <t>אני אמריקאי ויכול להגיד בוודאות שטראמפ הנשיא הכי טוב</t>
-  </si>
-  <si>
-    <t>ההכנסות הפנסייה שלי 401k עלו כמעט בשליש מאז שהוא נכנס לתפקיד. גברת אזולאי מברברת שטויות על ימין ויותר על שמאל.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שאול מנהיים, בית דגן </t>
-  </si>
-  <si>
-    <t xml:space="preserve">עם כל הכבוד הוא נשיא הזוי ובלתי מאופס.. העם בחר בעלוב נפש... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">דוב, נס ציונה </t>
-  </si>
-  <si>
-    <t>חשבתי שהליברלים כבר התאוששו מהתסכול</t>
-  </si>
-  <si>
-    <t>של ההלם שלפני שנה, כשהבינו שבשונה מהתקשורת, העולם כבר לא שלהם. נשיא ארה"ב נבחר ע"י 63.2 מיליון איש, והם כמובן לא נחשבים...</t>
-  </si>
-  <si>
-    <t>ממש חדשות מרעישות</t>
-  </si>
-  <si>
-    <t>באף מדינה השמאל יקבל מנהיג ימני, הם יעשו הכל בדרכים ישרות או עקומות להפיל אותו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ואת עיתונאית של 3 אחוז מהעם. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הנשיא הגרוע ביותר שהיה לאמריקה. לא לשכוח שהוא לא נשיא ישראל </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מצחיק </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ג'ימי קרטר היה גרוע ביותר... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אביאל </t>
-  </si>
-  <si>
-    <t>איזה זבלים הם השמאלנים/ליברלים</t>
-  </si>
-  <si>
-    <t>הרי כל נשיא או בעל שררה שקוע עד לצוואר בשחיטויות, ויש שמתלוננים, אבל די מהר מרגיעים. במקרה פה, הליברלים לא מפסיקים להכפיש את הנשיא שלהם, גם אם נכון וגם אם לא, ואז מתלוננים שהוא הנשיא שמביא קלון על ארהב, הרי אתם מביאים קלון על ארהב, בזה שאתם מדברים על הנשיא שלכם כמו על גרב של גולנצ׳יק אחרי מסע כומתה...</t>
-  </si>
-  <si>
-    <t>אובמה היה הנשיא של כווו-לם, בעיקר של האיראנים ושל חיזבאללה</t>
-  </si>
-  <si>
-    <t>קיבל תואר חסיד אומות העולם מנסראללה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">גאסטין </t>
-  </si>
-  <si>
-    <t>וקבל פרס נובל לשלום על הרס: לוב סוריה תימן סומליה</t>
-  </si>
-  <si>
-    <t>ומצרים כמעט</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מובטל </t>
-  </si>
-  <si>
-    <t>סוף סוף היגיע הגואל</t>
-  </si>
-  <si>
-    <t>נמאס מכלכלה שבורה אובמה הרס את אמריקה וגם את העולם כולו כבר לא אכפט לי איזה ביריון אם פה גדול נהיה הנשיא סוף סוף אפשר לחיות בכבוד יש פרנסה הבורסה תוצמחת שיתפוצצו הדמוקרטים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא קונה שטיפת מח </t>
-  </si>
-  <si>
-    <t xml:space="preserve">נכון - וגם צדקתם כשאמרתם שהילרי תיבחר </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moses </t>
-  </si>
-  <si>
-    <t>More fake news</t>
-  </si>
-  <si>
-    <t>השיא לא של כל אמריקה? בגלל זה הגירה לא חוקית בשפל...הכלכלה בצמיחה הכי גדולה מאז שנות ה80 ...דאעש הובס..שחורים באמריקה בחוסר תעסוקה הנמוך מזה 30 שנה..שוק המניות בשיר של כל הזמנים..חברי כנופיות ברחבי אמריקה מגורשים ונכלאים מידי יום?! זה לא נשיא של כל אמריקה? תלמדו קצת היסטוריה....דיבור לא מבשל אורז...אובמה ידע לדבר יפה מאוד..ועשה נזק בלתי הפיך...אולי טראמפ לא יודע לבטא את עצמו בצורה הכי אינטיליגנטית אבל בהחלט הוא השולף המהיר והיעיל ביותר במערב הפרוע....Making America great again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">משה, חיפה </t>
-  </si>
-  <si>
-    <t>Fake News</t>
-  </si>
-  <si>
-    <t>רק המדיה והעשירים לא אוהבים אותו. אני גר בארהב והמון אוהבים אותו. הוא הנשיא הכי חזק שהיה לארהב שנים רבות.</t>
-  </si>
-  <si>
-    <t>אני גר בסן דייגו וכולם כאן שונאים אותו</t>
-  </si>
-  <si>
-    <t>אולי באזורים מאוד מאוד שמרניים ופרימיטיביים בארה"ב אוהבים אותו אבל ברוב ארה"ב ממש לא אוהבים אותו, לפחות לא בקליפורניה. לא שמעתי מאף אמריקאי מילה טובה עליו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">צקי </t>
-  </si>
-  <si>
-    <t>מצטערים טראמפ</t>
-  </si>
-  <si>
-    <t>אבל אם היית סלחן לאיסלם הקיצוני, היית מקבל כתבה אוהדת יותר, זה ישראל כאן אל תצפה לאחרת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נו באמת </t>
-  </si>
-  <si>
-    <t>ואובאמה היה הנשיא של כולם?</t>
-  </si>
-  <si>
-    <t>כמובן שלא.
-הוא היה הנשיא של אלו הקוראים לעצמם ליברלים ולמעשה הם טהרנים וצבועים.
-כל מלוקקי ה PC ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נורית </t>
-  </si>
-  <si>
-    <t>כתבת ידיעות בוושינגטון</t>
-  </si>
-  <si>
-    <t>כל כך ברור שגברת אז-אולי תופסת צד של גברת היטלרי. חושך לי גרה בשכונת יוקרה בפרברי וושינגטון נשואה לבעל אמריקאי עשיר כך שהשיפור בכלכלה האמריקאית היא לא חשה אותו. עוד אחת שמנסה להיות אמריקאית אבל שכחה מאיפה היא הגיעה.</t>
-  </si>
-  <si>
-    <t>באמת?</t>
-  </si>
-  <si>
-    <t>רק תומכי טראמפ אוונגליסטים שמחים על קיצוץ במיסים? אני שמעתי את מנכל אפל אתמול שהוא דמוקרט שמאל קיצוני והוא שיבח את טראמפ על הקיצוץ. טוהר השפה וזכויות האישה? הארווי ויינשטיין אחד התורמים והחברים הקרובים של הקלינטונים דמוקרט בנשמה וחביב הוליווד הדמוקרטית בהחלט היה בעד זכויות האישה... מילה גסה שטראמפ אולי אמר בדלתות סגורות נאמרו בcnn בקצב של יותר מ100 פעמים בשעה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ori </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כתבה יפה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אלי, תל אביב </t>
-  </si>
-  <si>
-    <t>טראמפ הוא לא כוס התה שלי</t>
-  </si>
-  <si>
-    <t>אבל אין להתעלם מכך שנבחר בבחירות דמוקרטיות. ארה"ב שמנסה להביא את הדמוקרטיה לכל מקום בעולם, כולל מקומות שלא מוכנים או מתאימים לכך, וגורמת בכך בעיות לא מעטות ברחבי העולם, לא מסוגלת לעכל את תוצאות הדמוקרטיה אצלה בבית? הדמוקרטים צריכים להתחיל כבר היום במסע הבחירות הבא שלהם, ולהציג מועמד ראוי כדי שיהיה סיכוי להפטר מטראמפ בעוד 3 שנים. הבלאגן במפלגה, וחוסר הרצינות בהעלאת רעיונות מופרכים כמו אופרה וינפרי כנשיאה הבאה, די מבטיחים שהם יקבלו שוב פעם את טראמפ בפרצוף, בבחירות הבאות.</t>
-  </si>
-  <si>
-    <t>הוא לא נבחר לגמרי באופן דמוקרטי</t>
-  </si>
-  <si>
-    <t>כאמור בכתבה, הילרי קלינטון קיבלה יותר קולות ממנו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ורדה שימל </t>
-  </si>
-  <si>
-    <t>מדהים</t>
-  </si>
-  <si>
-    <t>האם באמת יש קוראים שמתייחסים ברצינות לטור כזה, ושואבים ממנו את ידיעותיהם ואת השקפתם על המתחולל באמריקה? והכותבת עוד אמורה להיות מומחית, עם יד על הדופק, הרי היא גרה בעצמה בארה"ב. אולי היא למדה מהתקשורת המקומית - מדובר במאמר שטחי וארסי כמעט ברמת הניו יורק טיימס.</t>
-  </si>
-  <si>
-    <t>הדמוקרטיים הם שלקחו את הכבוד ממוסד הנשיאות</t>
-  </si>
-  <si>
-    <t>בהתנהגות המבוכה והחצופה שלהם.
-טראמפ רוצה מהגרים משוודיה לא בגלל צבע עורם אלא בגלל שהם קצת יותר מערביים בתפישת העולם שלהם, יותר מלומדים יותר ויותר מתקדמים ובקיצור יותר.
-מה רע שבעל הבית דואג לסנן את מה שנכנס אליו הביתה?</t>
+    <t xml:space="preserve">השגרירות תועבר לירושלים ב-3 פעימות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נאום יפהפה beautiful speech </t>
+  </si>
+  <si>
+    <t>השדרירות צריכה להישאר בתל אביב כי תל אביב היא בירת ישראל</t>
+  </si>
+  <si>
+    <t>האום צודק ישראל טועה תודו בזה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עוד פרק ב: ״חייו של טרול״. ועוד אחד לא ממש מוצלח... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבנר </t>
+  </si>
+  <si>
+    <t>אני לא מבין למה הימנים הטיפשים פה חושבים שהשמאל נגד המעבר?</t>
+  </si>
+  <si>
+    <t>לדעת הרב זוהי החלטה נכונה ותיקון עוול היסטורי, להיות שמאל זה להיות ציוני ולהיות ציוני זה להכיר בציון (ירושלים לכל הימנים שלא הבינו) כעיר הבירה של מדינת ישראל.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איתן </t>
+  </si>
+  <si>
+    <t>נעמילי</t>
+  </si>
+  <si>
+    <t>מה אכפת לי השגרירות.
+העיקר שאת תשארי איתי.</t>
+  </si>
+  <si>
+    <t>ירושלים</t>
+  </si>
+  <si>
+    <t>מאז ומתמיד היו הפחדות בקשר להעברת שגרירות לירושלים.
+סוף סוף קם מנהיג עם ביצים ואומץ לקחת החלטה גורלית בקשר למעמד החדש של ירושלים בעיני העולם ובעיני ישראל.
+אנחנו צריכים להיות אסירי תודה על כך שקיבלנו את העיר העתיקה ללא תמורה מדינית.
+שני האהודים ברק ואולמרט מכרו את ירושלים: ביבי הציל את ירושלים מחלוקה, המינימום מצד המנתנגדים לפחות לבקש ממנו סליחה ומחילה על כך שהמנהיגים שלהם לא עמדו בלחץ והיו כושלים לכל אורך הדרך.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אורי </t>
+  </si>
+  <si>
+    <t>הם צריכים זמן להתארגן על ציוד ריגול חדש</t>
+  </si>
+  <si>
+    <t>עכשיו הם שוברים את הראש איך מרגלים אחרי הנציגויות הזרות (והמקומיות) שבתל אביב מירושלים.
+טראמפ דפק להם את עמדת הריגול הכי טובה, עכשיו תשמעו על "קונסוליה מורחבת" בתל אביב עקב צרכים מיוחדים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ששון, קרית אתא </t>
+  </si>
+  <si>
+    <t>טרמפ את נתניהו הולכים לסבך את מדינת ישראל כמו שצריך.........</t>
+  </si>
+  <si>
+    <t>גינויים בעולם ,ניתוק יחסים ,מהומות ופיגועים ,אלה הדברים שאדון טרמפ וחתנו ונתניהו הולכים לסדר לנו........ כנראה לא למדנו כלום , ואנחנו זקוקים לעוד שיעור ........ אלה שזה יקר ופוגע בציבור ......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נוף ים </t>
+  </si>
+  <si>
+    <t>ששון בוא נחיה באמת ולא בשקר</t>
+  </si>
+  <si>
+    <t>מי שלא מקבל את ירושלים כבירתינו שיגנה עד מחר היחסים עם ישראל הם מתוך אינטרסים לא כל כך מהר מנתקים יחסים ומי שמנתק באמת עדיף בלי קשר עימו לעולם לא נוותר על ירושלים הגיע הזמן שזה יובהר ללא צל של ספק את השכונות שמעבר לגדר הם יקבלו רק כאשר יפסיקו לקדש מוות ולהלל רוצחים להסית לרצח ולתגמל מחבלים ורק כאשר יקבלו את זכותו של העם היהודי לבית בארץ ישראל . כל דבר אחר ייצר אשליה שתייצר אכזבה שתייצר מלחמה כבר הוכח מס פעמים בעבר הלא כל כך רחוק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">צהוב בנשמה </t>
+  </si>
+  <si>
+    <t>די די להפחיד</t>
+  </si>
+  <si>
+    <t>יהיו קצת מהומות יהיו קצת כעסים וככול שהזמן יעבור הכול ירגע והעובדה הצודקת תהיה קיימת.
+תשמע את הקולות במדינות ערב שמדברות על ישראל בשפה אחרת ולועגים לכול הערבים שממשיכים בהתנגדות לישראל
+צריך להמשיך בהתמדה ולקבוע עובדות לא לפחד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי עד היום לא היה שום דבר מכל זה נכון? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ירון </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הם מצילים את המדינה מבוגדים שמאלנים שפלים </t>
   </si>
   <si>
     <t xml:space="preserve">אריה </t>
   </si>
   <si>
-    <t xml:space="preserve">של כל אמריקה. תרצו או לא תרצו.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ישראל </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ואובמה היה הנשיא של כל אמריקה? </t>
-  </si>
-  <si>
-    <t>כן</t>
-  </si>
-  <si>
-    <t>בהחלט! אין מה להשוות את דעת הקהל של האמריקאים על אובמה, החיובית ברובה, לדעת הקהל של האמריקאים על טראמפ, השלילית והמאוכזבת ברובה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">סתם אחד </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הדמוקרטים כמו השמאל, מתלוננים על הצד השני בלי להציג מנהיגות! </t>
+    <t xml:space="preserve">יום שחור לשמאלנים והערבים  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ליצמן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">וגם למוח החלול שלך. " ככה כתוב. הרב אמר " חשיבה עצמאית ? אפס </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ירושלים של פוטין או ליברמן ,טובים השניים מן האחד ,התשע"ח פסח </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בספק, כרגיל </t>
+  </si>
+  <si>
+    <t>"בשנה הבאה..." באיזה "באה" עלינו לטובה???</t>
+  </si>
+  <si>
+    <t>אולי זה יתמשך עד שטראמפ כבר לא יהיה נשיא - ואז האחריות כבר לא תהיה מוטלת עליו, הרי הכוונות שלו היו הטובות שבעולם...
+חבל שחיים היום בדור שאין יותר אמון באף אחד!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשנה הבאה בירושלים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 דקות בדיוק </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כל מה שצריך זה להחליף את השלט בכניסה מקונסוליה לשגרירות... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אריק </t>
+  </si>
+  <si>
+    <t>לא חשוב מתי</t>
+  </si>
+  <si>
+    <t>העיקר שיקרה מהר בימינו אמן. ירושלים היא הבירה של ישראל. אפשר, אולי, להתווכח על החלק המזרחי שמלא בערבים ממילא.
+אפשר. אולי. לתת להם את... שער שכם. רק השער יהיה בריבונות מוסלמית. למצוא מדינה מוסלמית קטנה שתשמח להיות הריבון רק על השער.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t>אני משתתף בצערם של חברי מר"צ על ההחלטה להעביר את השגרירות</t>
+  </si>
+  <si>
+    <t>לירושלים בירתנו.
+ואני ממש לא ציני.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ברטל, ישראל </t>
+  </si>
+  <si>
+    <t>תעברו לירושלים ובתל אביב יהיה לכם שימוש יותר יעיל למבנה.</t>
+  </si>
+  <si>
+    <t>הסבה לבית מלון.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מוטי </t>
+  </si>
+  <si>
+    <t>שמאלנים - אכלתם את הכובע</t>
+  </si>
+  <si>
+    <t>כל הכבוד לנתניהו, ראש הממשלה הטוב מאז הקמת מדינתנו. עצה צנועה לאחיי השמאלנים: תתפקחו ותתחילו לראות את הטוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avi, drom </t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>way to go Donald from a PROUD AMERICAN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מאזין </t>
+  </si>
+  <si>
+    <t>בהמשך לחדשות ששמענו כל היום האחרון</t>
+  </si>
+  <si>
+    <t>משום מה בהאזנה לרדיו במשך כל היום שמעתי תקחפות על ביבי איך הוא רומז או אומר כי השגרירות תעבור כבר השנה בניגוד למה שנאמר ע"י טרמפ . זה היה עיסוק משמעותי שכרגיל עוסק בהשמצות ביבי ולא בדברים החיוביים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מייק </t>
+  </si>
+  <si>
+    <t>השגריר האמריקאי...</t>
+  </si>
+  <si>
+    <t>אדם הגון וישר דרך.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מוישה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">וואו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ס </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מי ראשון מתנצל על הציקצוקים והליגלוגים על נתניהו? חולרות!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא משנה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"כל הכבוד" </t>
   </si>
 </sst>
 </file>
@@ -1438,31 +1410,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
       </c>
       <c r="J3" t="s">
         <v>9</v>
@@ -1470,31 +1442,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>78</v>
       </c>
       <c r="J4" t="s">
         <v>9</v>
@@ -1502,31 +1474,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
@@ -1534,7 +1506,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1566,13 +1538,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>256</v>
@@ -1598,31 +1570,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
@@ -1675,16 +1647,16 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -1701,16 +1673,16 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1727,16 +1699,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1753,19 +1725,19 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -1779,19 +1751,19 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -1805,16 +1777,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -1831,16 +1803,16 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -1857,19 +1829,19 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -1883,16 +1855,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -1909,16 +1881,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -1935,13 +1907,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -1955,25 +1927,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -1981,22 +1953,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -2007,25 +1979,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
         <v>82</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -2033,22 +2005,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
         <v>84</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -2059,25 +2031,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -2085,22 +2057,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
@@ -2111,25 +2083,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -2137,25 +2109,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -2163,25 +2135,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -2189,25 +2161,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -2215,25 +2187,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -2241,22 +2213,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -2267,25 +2239,25 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -2293,25 +2265,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -2319,25 +2291,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -2345,25 +2317,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -2371,25 +2343,25 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -2397,22 +2369,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
@@ -2423,25 +2395,25 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -2449,22 +2421,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -2475,25 +2447,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -2501,22 +2473,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
@@ -2527,25 +2499,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -2553,25 +2525,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -2579,25 +2551,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -2605,25 +2577,25 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
@@ -2631,25 +2603,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
@@ -2657,25 +2629,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
@@ -2683,25 +2655,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
@@ -2709,25 +2681,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
@@ -2735,25 +2707,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
@@ -2761,25 +2733,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
@@ -2787,25 +2759,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G45" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="H45" t="s">
         <v>9</v>
@@ -2813,22 +2785,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
@@ -2839,22 +2811,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G47" t="s">
         <v>9</v>
@@ -2865,25 +2837,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="H48" t="s">
         <v>9</v>
@@ -2891,25 +2863,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -2917,25 +2889,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G50" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
@@ -2943,25 +2915,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G51" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -2969,25 +2941,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G52" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -2995,22 +2967,22 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G53" t="s">
         <v>9</v>
@@ -3021,25 +2993,25 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G54" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
@@ -3047,22 +3019,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G55" t="s">
         <v>9</v>
@@ -3073,25 +3045,25 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="F56" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G56" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
@@ -3099,25 +3071,25 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="H57" t="s">
         <v>9</v>
@@ -3125,25 +3097,25 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -3151,25 +3123,25 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G59" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
@@ -3177,25 +3149,25 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G60" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="H60" t="s">
         <v>9</v>
@@ -3203,25 +3175,25 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -3229,25 +3201,25 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -3255,25 +3227,25 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G63" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="H63" t="s">
         <v>9</v>
@@ -3281,25 +3253,25 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F64" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -3307,25 +3279,25 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F65" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="H65" t="s">
         <v>9</v>
@@ -3333,25 +3305,25 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="H66" t="s">
         <v>9</v>
@@ -3359,25 +3331,25 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G67" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="H67" t="s">
         <v>9</v>
@@ -3385,25 +3357,25 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D68" t="s">
-        <v>243</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F68" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G68" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="H68" t="s">
         <v>9</v>
@@ -3411,22 +3383,22 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F69" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
@@ -3437,22 +3409,22 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G70" t="s">
         <v>9</v>
@@ -3463,22 +3435,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" t="s">
         <v>248</v>
-      </c>
-      <c r="E71" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" t="s">
-        <v>249</v>
       </c>
       <c r="G71" t="s">
         <v>9</v>
@@ -3489,19 +3461,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F72" t="s">
         <v>250</v>
@@ -3515,25 +3487,25 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
         <v>262</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F73" t="s">
         <v>263</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="H73" t="s">
         <v>9</v>
@@ -3541,25 +3513,25 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>265</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="H74" t="s">
         <v>9</v>
@@ -3567,25 +3539,25 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F75" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G75" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H75" t="s">
         <v>9</v>
@@ -3593,25 +3565,25 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F76" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G76" t="s">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="H76" t="s">
         <v>9</v>
@@ -3619,25 +3591,25 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="H77" t="s">
         <v>9</v>
@@ -3645,25 +3617,25 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F78" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G78" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="H78" t="s">
         <v>9</v>
@@ -3671,25 +3643,25 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G79" t="s">
-        <v>277</v>
+        <v>9</v>
       </c>
       <c r="H79" t="s">
         <v>9</v>
@@ -3697,25 +3669,25 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F80" t="s">
         <v>278</v>
       </c>
       <c r="G80" t="s">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="H80" t="s">
         <v>9</v>
@@ -3723,25 +3695,25 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" t="s">
         <v>280</v>
       </c>
-      <c r="E81" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>281</v>
-      </c>
-      <c r="G81" t="s">
-        <v>9</v>
       </c>
       <c r="H81" t="s">
         <v>9</v>
@@ -3749,25 +3721,25 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D82" t="s">
         <v>282</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F82" t="s">
         <v>283</v>
       </c>
       <c r="G82" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
@@ -3775,25 +3747,25 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" t="s">
+        <v>284</v>
+      </c>
+      <c r="G83" t="s">
         <v>285</v>
-      </c>
-      <c r="E83" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" t="s">
-        <v>286</v>
-      </c>
-      <c r="G83" t="s">
-        <v>9</v>
       </c>
       <c r="H83" t="s">
         <v>9</v>
@@ -3801,25 +3773,25 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
+        <v>286</v>
+      </c>
+      <c r="E84" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" t="s">
         <v>287</v>
       </c>
-      <c r="E84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>288</v>
-      </c>
-      <c r="G84" t="s">
-        <v>289</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
@@ -3827,7 +3799,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -3836,13 +3808,13 @@
         <v>179</v>
       </c>
       <c r="D85" t="s">
+        <v>289</v>
+      </c>
+      <c r="E85" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" t="s">
         <v>290</v>
-      </c>
-      <c r="E85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" t="s">
-        <v>291</v>
       </c>
       <c r="G85" t="s">
         <v>9</v>
@@ -3853,25 +3825,25 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D86" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" t="s">
         <v>292</v>
       </c>
-      <c r="E86" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>293</v>
-      </c>
-      <c r="G86" t="s">
-        <v>9</v>
       </c>
       <c r="H86" t="s">
         <v>9</v>
@@ -3879,25 +3851,25 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>294</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G87" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H87" t="s">
         <v>9</v>
@@ -3905,25 +3877,25 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F88" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G88" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H88" t="s">
         <v>9</v>
@@ -3931,25 +3903,25 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F89" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="H89" t="s">
         <v>9</v>
@@ -3957,25 +3929,25 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>303</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F90" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G90" t="s">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="H90" t="s">
         <v>9</v>
@@ -3983,25 +3955,25 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F91" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G91" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H91" t="s">
         <v>9</v>
@@ -4009,25 +3981,25 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F92" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="H92" t="s">
         <v>9</v>
@@ -4035,25 +4007,25 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F93" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G93" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H93" t="s">
         <v>9</v>
@@ -4061,25 +4033,25 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F94" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G94" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H94" t="s">
         <v>9</v>
@@ -4087,25 +4059,25 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F95" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G95" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H95" t="s">
         <v>9</v>
@@ -4113,25 +4085,25 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D96" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F96" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G96" t="s">
-        <v>9</v>
+        <v>319</v>
       </c>
       <c r="H96" t="s">
         <v>9</v>
@@ -4139,25 +4111,25 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F97" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="H97" t="s">
         <v>9</v>
@@ -4165,25 +4137,25 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F98" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G98" t="s">
-        <v>9</v>
+        <v>325</v>
       </c>
       <c r="H98" t="s">
         <v>9</v>
@@ -4191,25 +4163,25 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D99" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F99" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G99" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H99" t="s">
         <v>9</v>
@@ -4217,25 +4189,25 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D100" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F100" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G100" t="s">
-        <v>325</v>
+        <v>9</v>
       </c>
       <c r="H100" t="s">
         <v>9</v>
@@ -4243,25 +4215,25 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F101" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G101" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H101" t="s">
         <v>9</v>
@@ -4269,25 +4241,25 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F102" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G102" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H102" t="s">
         <v>9</v>
@@ -4295,25 +4267,25 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F103" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G103" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H103" t="s">
         <v>9</v>
@@ -4321,25 +4293,25 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D104" t="s">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F104" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G104" t="s">
-        <v>345</v>
+        <v>9</v>
       </c>
       <c r="H104" t="s">
         <v>9</v>
@@ -4347,25 +4319,25 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
         <v>346</v>
       </c>
-      <c r="E105" t="s">
-        <v>343</v>
-      </c>
       <c r="F105" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G105" t="s">
-        <v>348</v>
+        <v>9</v>
       </c>
       <c r="H105" t="s">
         <v>9</v>
@@ -4373,25 +4345,25 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>346</v>
+      </c>
+      <c r="F106" t="s">
         <v>349</v>
       </c>
-      <c r="E106" t="s">
-        <v>343</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>350</v>
-      </c>
-      <c r="G106" t="s">
-        <v>351</v>
       </c>
       <c r="H106" t="s">
         <v>9</v>
@@ -4399,25 +4371,25 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D107" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F107" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G107" t="s">
-        <v>354</v>
+        <v>9</v>
       </c>
       <c r="H107" t="s">
         <v>9</v>
@@ -4425,25 +4397,25 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D108" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="E108" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F108" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G108" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H108" t="s">
         <v>9</v>
@@ -4451,25 +4423,25 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D109" t="s">
+        <v>355</v>
+      </c>
+      <c r="E109" t="s">
+        <v>346</v>
+      </c>
+      <c r="F109" t="s">
+        <v>356</v>
+      </c>
+      <c r="G109" t="s">
         <v>357</v>
-      </c>
-      <c r="E109" t="s">
-        <v>343</v>
-      </c>
-      <c r="F109" t="s">
-        <v>358</v>
-      </c>
-      <c r="G109" t="s">
-        <v>359</v>
       </c>
       <c r="H109" t="s">
         <v>9</v>
@@ -4477,25 +4449,25 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D110" t="s">
-        <v>360</v>
+        <v>142</v>
       </c>
       <c r="E110" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F110" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="H110" t="s">
         <v>9</v>
@@ -4503,25 +4475,25 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D111" t="s">
+        <v>360</v>
+      </c>
+      <c r="E111" t="s">
+        <v>346</v>
+      </c>
+      <c r="F111" t="s">
+        <v>361</v>
+      </c>
+      <c r="G111" t="s">
         <v>362</v>
-      </c>
-      <c r="E111" t="s">
-        <v>343</v>
-      </c>
-      <c r="F111" t="s">
-        <v>363</v>
-      </c>
-      <c r="G111" t="s">
-        <v>364</v>
       </c>
       <c r="H111" t="s">
         <v>9</v>
@@ -4529,25 +4501,25 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="E112" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F112" t="s">
+        <v>364</v>
+      </c>
+      <c r="G112" t="s">
         <v>365</v>
-      </c>
-      <c r="G112" t="s">
-        <v>366</v>
       </c>
       <c r="H112" t="s">
         <v>9</v>
@@ -4555,25 +4527,25 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="E113" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F113" t="s">
         <v>367</v>
       </c>
       <c r="G113" t="s">
-        <v>9</v>
+        <v>368</v>
       </c>
       <c r="H113" t="s">
         <v>9</v>
@@ -4581,25 +4553,25 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="E114" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F114" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
+        <v>371</v>
       </c>
       <c r="H114" t="s">
         <v>9</v>
@@ -4607,22 +4579,22 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D115" t="s">
-        <v>369</v>
+        <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F115" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G115" t="s">
         <v>9</v>
@@ -4633,25 +4605,25 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D116" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E116" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F116" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G116" t="s">
-        <v>373</v>
+        <v>9</v>
       </c>
       <c r="H116" t="s">
         <v>9</v>
@@ -4659,25 +4631,25 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D117" t="s">
-        <v>218</v>
+        <v>375</v>
       </c>
       <c r="E117" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F117" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G117" t="s">
-        <v>375</v>
+        <v>9</v>
       </c>
       <c r="H117" t="s">
         <v>9</v>
@@ -4685,25 +4657,25 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D118" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E118" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F118" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G118" t="s">
-        <v>378</v>
+        <v>9</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -4711,25 +4683,25 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>346</v>
+      </c>
+      <c r="F119" t="s">
         <v>379</v>
       </c>
-      <c r="E119" t="s">
-        <v>343</v>
-      </c>
-      <c r="F119" t="s">
-        <v>380</v>
-      </c>
       <c r="G119" t="s">
-        <v>381</v>
+        <v>9</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -4737,25 +4709,25 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="D120" t="s">
+        <v>380</v>
+      </c>
+      <c r="E120" t="s">
+        <v>346</v>
+      </c>
+      <c r="F120" t="s">
+        <v>381</v>
+      </c>
+      <c r="G120" t="s">
         <v>382</v>
-      </c>
-      <c r="E120" t="s">
-        <v>343</v>
-      </c>
-      <c r="F120" t="s">
-        <v>383</v>
-      </c>
-      <c r="G120" t="s">
-        <v>9</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -4763,25 +4735,25 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="D121" t="s">
-        <v>384</v>
+        <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F121" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G121" t="s">
-        <v>386</v>
+        <v>9</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -4789,25 +4761,25 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E122" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F122" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G122" t="s">
-        <v>389</v>
+        <v>9</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -4815,25 +4787,25 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>386</v>
       </c>
       <c r="E123" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F123" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G123" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -4841,25 +4813,25 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E124" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F124" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G124" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -4867,25 +4839,25 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D125" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E125" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F125" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G125" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -4893,25 +4865,25 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E126" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F126" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G126" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -4919,25 +4891,25 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>398</v>
       </c>
       <c r="E127" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F127" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G127" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -4945,25 +4917,25 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D128" t="s">
+        <v>401</v>
+      </c>
+      <c r="E128" t="s">
+        <v>346</v>
+      </c>
+      <c r="F128" t="s">
+        <v>402</v>
+      </c>
+      <c r="G128" t="s">
         <v>403</v>
-      </c>
-      <c r="E128" t="s">
-        <v>343</v>
-      </c>
-      <c r="F128" t="s">
-        <v>404</v>
-      </c>
-      <c r="G128" t="s">
-        <v>9</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -4971,25 +4943,25 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D129" t="s">
+        <v>404</v>
+      </c>
+      <c r="E129" t="s">
+        <v>346</v>
+      </c>
+      <c r="F129" t="s">
         <v>405</v>
       </c>
-      <c r="E129" t="s">
-        <v>343</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>406</v>
-      </c>
-      <c r="G129" t="s">
-        <v>407</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -4997,25 +4969,25 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D130" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="E130" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F130" t="s">
         <v>408</v>
       </c>
       <c r="G130" t="s">
-        <v>409</v>
+        <v>9</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -5023,25 +4995,25 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D131" t="s">
+        <v>409</v>
+      </c>
+      <c r="E131" t="s">
+        <v>346</v>
+      </c>
+      <c r="F131" t="s">
         <v>410</v>
       </c>
-      <c r="E131" t="s">
-        <v>343</v>
-      </c>
-      <c r="F131" t="s">
-        <v>411</v>
-      </c>
       <c r="G131" t="s">
-        <v>412</v>
+        <v>9</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -5049,131 +5021,27 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="E132" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F132" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G132" t="s">
-        <v>414</v>
+        <v>9</v>
       </c>
       <c r="H132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>183</v>
-      </c>
-      <c r="B133" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" t="s">
-        <v>415</v>
-      </c>
-      <c r="E133" t="s">
-        <v>343</v>
-      </c>
-      <c r="F133" t="s">
-        <v>416</v>
-      </c>
-      <c r="G133" t="s">
-        <v>9</v>
-      </c>
-      <c r="H133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>183</v>
-      </c>
-      <c r="B134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D134" t="s">
-        <v>417</v>
-      </c>
-      <c r="E134" t="s">
-        <v>343</v>
-      </c>
-      <c r="F134" t="s">
-        <v>418</v>
-      </c>
-      <c r="G134" t="s">
-        <v>9</v>
-      </c>
-      <c r="H134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>183</v>
-      </c>
-      <c r="B135" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" t="s">
-        <v>323</v>
-      </c>
-      <c r="E135" t="s">
-        <v>343</v>
-      </c>
-      <c r="F135" t="s">
-        <v>419</v>
-      </c>
-      <c r="G135" t="s">
-        <v>420</v>
-      </c>
-      <c r="H135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>183</v>
-      </c>
-      <c r="B136" t="s">
-        <v>16</v>
-      </c>
-      <c r="C136" t="s">
-        <v>55</v>
-      </c>
-      <c r="D136" t="s">
-        <v>421</v>
-      </c>
-      <c r="E136" t="s">
-        <v>343</v>
-      </c>
-      <c r="F136" t="s">
-        <v>422</v>
-      </c>
-      <c r="G136" t="s">
-        <v>9</v>
-      </c>
-      <c r="H136" t="s">
         <v>9</v>
       </c>
     </row>

--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="470">
   <si>
     <t>num.</t>
   </si>
@@ -21,6 +21,9 @@
     <t>site</t>
   </si>
   <si>
+    <t>link</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -39,18 +42,21 @@
     <t>body</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>comments</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>report num.</t>
   </si>
   <si>
     <t>website</t>
   </si>
   <si>
+    <t>is Original</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -63,1237 +69,1360 @@
     <t>1</t>
   </si>
   <si>
-    <t>Ynet</t>
-  </si>
-  <si>
-    <t>21.01.18</t>
-  </si>
-  <si>
-    <t>יעל פרידסון</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>נתניהו לאבו מאזן: "אין תחליף לארה"ב בתהליך המדיני"</t>
-  </si>
-  <si>
-    <t>ברקע ביקורו של מייק פנס בישראל, העביר ראש הממשלה מסר לנשיא הפלסטיני שטען כי ארה"ב הפכה לא רלוונטית לאחר "הכרזת ירושלים": "מי שלא מוכן לדון עם האמריקנים על שלום - אינו רוצה בשלום". לאחר מכן פנה למדינות אירופה: "התייחסו ברצינות לדברי טראמפ, הציעו שיפורים להסכם הגרעין"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "יש לי מסר לאבו מאזן - אין תחליף להנהגה אמריקנית בהובלת התהליך המדיני": כך הכריז הערב (יום א') ראש הממשלה בנימין נתניהו בנאום שנשא בכנס שגרירים שנערך במשרד החוץ, זמן קצר לאחר נחיתתו בישראל של סגן נשיא ארה"ב, מייק פנס. לנתניהו היה מסר גם למדינות אירופה: "אני מציע להן להתייחס ברצינות לדברי הנשיא דונלד טראמפ. אם הן רוצות לשמר את הסכם הגרעין, הן צריכות להציע שיפורים". "בשנה האחרונה הייתי בשש יבשות", הוסיף נתניהו, "יש שינויים משמעותיים ודרמטיים במזרת התיכון - והדבר הזה נוגד את התפיסה לפיה הדרך היחידה להתקבל בקהילה הבינלאומית על ידי פיתרון הסכסוך הישראלי-פלסטיני, שאני מקווה שיקרה בעזרתו של הנשיא טראמפ. אסור שהיכולת לפרוץ למרחב תהיה בווטו הישראלי-פלסטיני. יש כאן שינוי עצום ביכולת שלנו, במיקום שלנו בעולם. הדבר הזה משנה באופן דרמטי את היכולת המדינית של מדינת ישראל".   דבריו של נתניהו נאמרו ברקע הכרזתו של הנשיא הפלסטיני לפיה ארה"ב הפכה לגורם לא רלוונטי במו"מ עקב הכרזת הנשיא טראמפ על ההכרה האמריקנית בירושלים כבירת ישראל. "לא נקבל את העסקאות שתציג לנו ארה"ב, וגם לא את התיווך שלה אחרי הפשע שביצעה נגד ירושלים. לא נסכים להיות רשות ללא סמכויות", אמר אבו מאזן בנאומו במועצה המרכזית של אש"ף בשבוע שעבר. נתניהו התייחס בנאומו גם לנחיתתו בארץ של סגן נשיא ארצות הברית, מייק פנס: "אנחנו מקבלים בברכה הערב את סגן נשיא ארה"ב, ידיד גדול של ישראל, מייק פנס. הוא נחת כאן, אנחנו מקבלים אותו בחום, בגאווה. אני אדון איתו על שני נושאים, על השלום והביטחון. ביחס לשלום,  מי שלא מוכן לדון עם האמריקנים על שלום, אינו רוצה בשלום. לגבי הביטחון, אם מדינות אירופה רוצות לשמר את הסכם הגרעין עם איראן עליהן להציע תיקונים להסכם, תיקונים שימנעו את ההתגרענות של איראן, דבר שיאיים עליהן ועל העולם כולו. אלה שני המסרים שביקשתי למסור הערב". סגן הנשיא פנס הגיע לישראל מביקור בירדן, שם נפגש עם המלך עבדאללה. לאחר הפגישה אמר סגן הנשיא כי הוא והמלך "הסכימו שלא להסכים" בנוגע להכרזתו של דונלד טראמפ על הכרה בירושלים כבירתה של ישראל. המלך עבדאללה אמר כי "ההכרה בירושלים כבירת ישראל לא יכולה להיות חלק מפתרון הסכסוך". כמו כן הוסיף מלך ירדן הוסיף כי הסכסוך הוא מקור לאי-יציבות, וכי הפתרון טמון בחזרה לגבולות 1967 והכרזה על מזרח ירושלים כבירת פלסטין. אמש (ש'), בתום פגישתו עם נשיא מצרים עבד אל-פתאח א-סיסי, הגן סגן הנשיא על ההכרה האמריקנית בירושלים כבירת ישראל, שמעוררת אי-נוחות בקרב המנהיגים הערבים במזרח התיכון. פנס הדגיש בפני א-סיסי גם את מחויבותה של ארה"ב לפתרון שתי המדינות. סגן הנשיא אמר כי הבטיח לנשיא המצרי כי "ארה"ב מחויבת עוד לפעול לשימור הסטטוס-קוו במקומות הקדושים בירושלים" וכי סוגיית הגבולות ונושאים נוספים יידונו במסגרת משא ומתן בין ישראל לפלסטינים. "ארה"ב מחויבת להתנעתו מחדש של תהליך השלום במזרח התיכון", אמר פנס בטרם המריא לירדן. מנגד, אמר א-סיסי כי מצרים "מכירה באופן בלתי מתפשר" בזכותם של הפלסטינים להקים מדינה עצמאית שבירתה מזרח ירושלים. בינתיים, עוד בטרם הגיע סגן הנשיא לירדן, התגודדו כמה עשרות מפגינים מחוץ לשגרירות האמריקנית בעמאן ומחו על המדיניות האמריקנית בכל הנוגע למזרח התיכון. "ארה"ב היא ראש הנחש", קראו המפגינים. אחרים הניפו שלטים שעליהם נכתב, בין היתר: "השגריר הימני-ציוני-אמריקני אינו רצוי כאן".  ראש הרשימה המשותפת, ח"כ איימן עודה, הודיע לקראת הביקור כי חברי הכנסת הערבים של מפלגתו יחרימו את נאומו של פנס בכנסת. לדבריו, "נשאלתי האם יש שינוי בעמדתנו לגבי ביקור סגן הנשיא פנס. מדובר באדם מסוכן בעל חזון משיחי שכולל את חורבן האזור כולו, שמגיע בשליחותו של אדם מסוכן אף יותר, פירומן פוליטי, גזען ומיזוגן, שאסור שיהיה מתווה דרך באזורנו. הרשימה המשותפת כולה תחרים את נאומו במליאה".       </t>
-  </si>
-  <si>
-    <t>לא ארהב ולא ישראל ירושלים המזרחית בירת פלשטין נקודה.  : you arnt wellcome ...mr Pense.  : 1000 2000 3000 סיבות יש לראש  : צודק מיליון % : אבל יש תחליף לטראמפ המטורף, איך אומרים החבר׳ה בכספתהמלך עבדאללה??? : המלך עבדאללה אמר כי "ההכרה בירושלים כבירת ישראל לא יכולה להיות חלק מפתרון הסכסוך"... פח...פח...פח...פח...פח...פח...פח...גם אין תחליף לנתניהו הגאון היפה החכם המדהים הישר ורחב הלב,   : הכרזות לצרכי פנים בלי שום ערך לפתרון  : השמאל לביבי : אין תחליף לאיסלאם : לא רוצים קפיטליזם דמוקרטי רוצים ח׳ליפות איסלאמית ללא שחיתות !!!! חוקים מסודרים, מה ששלי שלך ומה ששלך שלי, אחדות וללא שיסוע בעם בשבילי, רק איסלאם. אסלי אסליאירופה זה תחליף הוגן  : ברור, מי לא ירצה ״מתווך״ משוחד.  : ממש מצחיק : הפלשתינים כבר כמעט 40 שנה מנסים לעשות שלום והישראלים עובדים עליהם בעיניים ביחד עם האמריקניזציה תראו כמה מתנחלים יש היום והרבה מהם אמריקאיים כולל השגריר ביבי נותן כלום ולוקח הכל ועוד מתבכיין חחח...</t>
+    <t>The Marker</t>
+  </si>
+  <si>
+    <t>https://www.themarker.com/technation/1.5724561</t>
+  </si>
+  <si>
+    <t>11.01.2018 20:38</t>
+  </si>
+  <si>
+    <t>אלירן רובין</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>הסערה הגדולה בהיי-טק הישראלי: האם ציד העובדים של אמזון לגיטימי?</t>
+  </si>
+  <si>
+    <t>האם האגרסיביות של אמזון חצתה קו אדום או שמא היא רק מיישרת קו עם ענקיות אחרות כגוגל או פייסבוק? ומה יכולים לעשות סטארט-אפים קטנים אל מול התחרות המאיימת?</t>
+  </si>
+  <si>
+    <t>כניסתה של חברת אמזון לישראל עוררה הדים בתעשיית ההיי-טק המקומית כבר מהרגע הראשון. בתחילה, שררה התרגשות סביב בחירתה של חברת הענק ביכולות המהנדסים המקומיים, החלטה שלוותה אף בביקור חשאי היסטורי שערך בישראל ג'ף בזוס מייסד החברה. אולם מספר חודשים לאחר מכן, ההתרגשות התחלפה בחששות ובזעם של יזמים מקומיים רבים - שהחלו לחשוש מהתחרות הקשה מצדה של אמזון.לפני כחודשיים פורסמה ב-TheMarker כתבה שחשפה חלק מהתנאים והמשכורות הגבוהות שמוכנה אמזון לשלם עבור צוות הפיתוח הראשון שתקים בישראל. בין היתר, החברה הציעה משכורות המגיעות לכ-90 אלף שקל ובונוסים נוספים כמו משכורת 13 ו-14. מספר יזמים טענו כבר אז כי על אף שחוו קשיים מול מתחרות בינלאומיות - כעת נחצה קו אדום. שלשום פירסם שי וינינגר, מייסד הסטארט-אפ למונייד (Lemonade), פוסט בפייסבוק שהצית שוב את הדיון על התחרות האגרסיבית של אמזון בסטארט-אפים - דיון שמסרב להירגע ואף הגיע לתקשורת האמריקאית.הדיון מעלה שאלה מרכזית, שנדונה כעת בין בכירים רבים בתעשייה - האם אכן נחצה כאן בראשונה קו אדום, ומתי שוק חופשי או תחרות בריאה גורמים נזק, אם בכלל? בזמן שיזמים טוענים כי מדובר בנקודת זמן קריטית, שתשפיע על היתרון התחרותי של ישראל - אחרים טוענים כי לאמזון הזכות לעשות כל שברצונה וביכולתה כדי להשיג את העובדים הטובים ביותר, והעובדים הם אלו שיקבעו איפה ליבם.כמה יזמים טוענים כי הציד של אמזון אגרסיבי יותר ממה שהיה קודם לכן, היות שהוא נעשה מהר מאוד, כולל פניות לצוותים שלמים והצעת משכורות גבוהות ובלתי ניתנות להשוואה. עוד נטען כי אמזון ניצלה קשר עם לקוחותיה סביב עבודה על שירותי הענן. עם זאת, אמזון מתנהלת עדיין בגבולות התחרות בשוק הקטן. האם קיים הבדל בין משכורות ומענקים שניתנים גם בגוגל, פייסבוק או מיקרוסופט כבר כמה שנים? ככל הנראה לא. האם ראוי להגביל אותן בדרך כלשהי? אפשר להניח שבתעשיית ההיי-טק המקומית יתנגדו למהלך שכזה, אם הוא בכלל אפשרי."כמו בכל תחרות לפעמים מנצחים ולפעמים מפסידים - וזה מבאס להפסיד", כתב בפייסבוק המשקיע הישראלי אורן זאב. החברות הגדולות ביותר יצודו עובדים מחברות קטנות יותר, ואלו יצודו את מי שקטן מהן - ולהיפך. נכון, כוחן של ענקיות הדיגיטל הוא עצום, והגדול ביותר שבו החזיקו אי פעם תאגידים כלשהם. השיח הער סביב הגבלת כוחן בכל הקשור לזכויות הפרט או מיסוי הוא מוצדק, אך בוודאי שהוא לא ישפיע על יכולתן לגייס עובדים במחירים גבוהים.מה יכולים בכל זאת לעשות סטארט-אפים קטנים שמתחרים בענקיות טכנולוגיה עם כיסים עמוקים ומשאבים כמעט בלתי מוגבלים לגיוס העובדים הישראלים? הכסף אמנם משחק תפקיד חשוב במאבק - אך הוא לא היחיד. סטארט-אפים שמעוניינים לשמור על עובדיהם נדרשים לספק חוויה ותחושת שליחות ומשמעות שאולי לא ניתן להשיג בחברות הענק. בנוסף, ייתכן שישנם עובדים מוכשרים שסולדים מכוחן המתגבר של אלו האחרונות - ומעוניינים דווקא להצמיח כוחות מקומיים המנוגדים להן. תרבות ארגונית של סטארט-אפ לעולם לא תהיה כמו בתאגיד אמריקאי, ויהיו מי שיעדיף דווקא את התרבות הסטארט-אפית.קצת פרופורציהחשוב לזכור שהתעשייה המקומית מרוויחה לא מעט מנוכחותן של ענקיות אלה. הן אמנם מפרות את האיזון בשוק העבודה ודוחפות את המשכורות למעלה, אך נוכחותן עוזרת להדק את החיבור בין תעשיית החדשנות המקומית לאמריקאית, ועוזרת לבנות צי חדש של עובדים מיומנים - שבהמשך ייפלטו לתעשייה, יקימו מיזמים חדשים ויניעו את הגלגל שוב ושוב.כדאי לשים את הדיון בפרופורציה: בשלב הראשון מתכננת אמזון, לדבריה, לגייס כ-100 עובדים. ככל הנראה מנהלי הצוותים הראשונים יגויסו במשכורות שמנות, אך ההנחה היא שבהמשך יתאזן השכר למשכורות הנהוגות בשוק (פחות או יותר) - כך שלא מדובר במהלך שובר שוויון ביחס לכלל התעשייה.מבחינת המשק והכלכלה הישראלית, הכניסה של אמזון לישראל מביאה עמה גם בשורות טובות. העובדים הישראלים ירוויחו משכורות גבוהות (וישלמו חלק גדול מהן כמסים); ירכשו ידע בחברת טכנולוגיה פורצת דרך, שיתרום בעתיד לתעשיית ההיי-טק כולה; וייקבעו את מעמדה של ישראל כשוק קריטי לפעילותן של חברות הטכנולוגיה המובילות בעולם.השפעה שלילית אפשרית על התעשייה היא שכדי להתחרות באמזון יידרשו סטארט-אפים למצבור של מזומנים שישולמו כמשכורות, ולכן יגייסו סכומים גדולים יותר מהמשקיעים. כתוצאה מכך, ייתכן שיותר כסף יופנה לפחות סטארט-אפים והחלשים יותר ימצאו עצמם בבעיה (ואולי אף ייסגרו).אמזון מציבה את ההיי-טק הישראלי בפני בעיה כלכלית קלאסית: הביקוש לעובדים ישראלים הולך וגדל. כתוצאה מכך, המשכורות המשולמות עולות גם הן. אחד מהפתרונות שהציעה הממשלה למצב הוא ייבוא עובדים זרים "מומחים" (שכר מינימום של 20 אלף שקל בחודש) להיי-טק הישראלי - מהלך שאף הופיע בטיוטת חוק ההסדרים החדש. מהלך זה יגדיל את היצע העובדים המיומנים לסטארט-אפים המקומיים, ולא ישמש לגיוס מתכנתים זולים ממדינות מתפתחות.במידה וייושם באופן הנכון, צעד שכזה עשוי להיטיב עם התעשייה המקומית ולאפשר התמודדות טובה יותר מול ענקיות הדיגיטל. עם זאת, ייתכן כי תיטיב הממשלה לעשות אם תשקיע בהכשרת עובדים נוספים לתעשיית ההיי-טק. כך, יותר אזרחים יהנו מכניסה למועדון ההיי-טק האקסלוסיבי, ולסטארט-אפים הישראליים יהיה היצע רחב של עובדים מוכשרים.</t>
+  </si>
+  <si>
+    <t>אמזון-פייסבוק-גוגל לא משלמות מס בישראל, ורק נהנות ממה שיש לישראל להציע : ועל הדרך פוגעות בתעשיית ההייטק שכן משלמת מס. מה שגורם לייזמים להקים חברות מחוץ לישראל. מה שיגרום לנזק אדיר לכלכלה הישראלית.אני מצדיע לאמאזון על הדברים הטובים שהיא עושה למען העובדים בישראל : כמה מחליא לראות את החברות האחרות שאוהבות לשלם זוטות מתבכיינות לפתע על האביר שמתגמל עובדים. מדהים שלראש הממשלה ושר האוצר חורה שאנשים משכילים מרוויחים כסף בצדק, אבל מאד הגיוני להם שנתב בנמל מרוויח 90 אלף בחודש, ושכל הפרזיטים בישראל מקבלים כספים לאור שביתות, הפגנות, לובי, מפחגות אינטרסנטיות, ועדי עובדים וכל שאר המחלות. אני מאחל לכל הסטרטאפים הבכיינים שיעלמו מהעולם. לא צריך אתכם כאן ובשום מקום. המדענים, המהנדסים, המתכנתים - הם הגיבורים האמיתיים בהייטק, ולא השדירה הניהולית, שחשובת שמגיע לה הכל. הבכיינות בכתבה מעוררת סלידה מהמנכ"לים הנצלמים ומהח"כים הרוקיבם ורק גורמת לרבים ללכת ולסגוד לחברות הגדולות שמשלמות הרבה. והלוואי ויום אחד גם נעשה רילוקיישן ולא נחייה בתוך הצביעות הזאת.אבירי השוק החופשי סובלים מהתקפי חרדה כל פעם שהמעסיק התורן "שובר שוק" : ושוב חוזרות אותן בכיות של תנינים ודגי רקק, אותן קריאות לייבא כוח אדם זול. מעניין שבשנים הקשות של ההיי טק לא שמענו את הקולות שמתנדבים לשמור על תנאי העובדים מאותם מעסיקים ששלחו אנשים הביתה ליום עד יומיים בשבוע...לעזוב כי מעלים לך משכורת מותר : אבל לפטר כי המשכורת שלך מעיקה על הארגון זה לא? זה שוק דו כיווני עובדים חותכים את המעסיקים בשניה על כל הטבה במרום אחר ומתפלאים שמפטרים אחכ עובדים כדי לחסוךאנה : בל נשכח - את הבז התקשורתי סביב הטירוף של אמאזון - לדעתי התחילו ממש במדור הזה... וזה היה טריגר לאווירה שלילית בתעשייה, וכן, גם אם זה רק סימבולי ומייצג גם התנהגות של קורפורייטים אחרים. שימו לב שפה מדובר בחברה שמוכרת שירותים לחברות שבמקביל היא מנסה לחבל ביכולת שלהם לפתח מוצר כי אקטיבית שואבת להם עובדים... מריח רע. הכתבה הזו עושה גלים גם בארה"ב ופתחה דיונים שלמים באמזון ארה"ב על קווים אדומים. זה כבר טוב. לגבי ייבוא "עובדים זרים"... בתור מנהלת משאבי אנוש בכירה בחברה גדולה אני טוענת- לא ישים!!! באופן ספיים אחד יישבו מהנדס מרומניה , מהנדס מאוקריינה ובוגר טכניון, שיעשו אותה עבודה, ופערי השכר שלהם יהיו של 40%? הצחקתם. הנושא מדיר שינה מעיני. הדיון הזה חשוב שימשיך.לא, כי עד אמאזון השוק התנהל בג׳נטלמניות : בחייכםעובדי היי טק תתאגדו תחת ההסתדרות : הסתדרות תמנע את הביזיון הזה ויבריח את ענקי הטכנולוגים הביתה!לתהות האם תחרות חופשית היא לגיטימית זה לא לגיטימי : שלא יעבדו עליכםמה יכול סטארטאפ קטן לעשות? : לגייס עובדים בני 45 ומעלה. לפתוח סניף מחוץ לתחום חדרה גדרה (ירושלים, חיפה, באר שבע) לגייס נשים ואפילו ח"ח אמהות שיעבדו ב 90% משרה (ויקבלו 90% שכר)ועם זאת, עובדים מעל גיל 50 מתקשים למצוא עבודה... : ליבא הודים במשכורת גבוהה יחסית להודו זה בסדר? : מדינת ישראל היא מדינה הזויה@דניני : כחלון שונא אנשי הייטק ידוע. הוא עושה כל דבר כדי לפגוע בהם. העלה מס הכנסה. העלה את מס הייסף (שזאת מכבסת מילים ל-"תוספת של 3% למס ההכנסה הרגיל"). העלה מס הכנסה על הפקדות המעסיק לפנסיה (שאתה משלם בכל חודש). העלה מס הכנסה על הפקדות המעסיק לפיצויים (שאתה משלם בכל חודש). הוריד לך את הנטו בכ-12,000 ש"ח בשנה. אז כמובן שהוא יביא עובדים בזול מהודו, בשביל לדפוק אותך עוד יותר.לא הבנתי על מה המאומה? : אם יכולים לתת 90 אלף? למה שלא יתנו? חברה רווחית, פרטית, לא ניזונה מכספי משלמי המיסים. גם אם יוכלו לתת 900 אלף - שיתנו. והכל יהיה בסדר.. מה קשור עכשיו סטרטאפים ויזמים?? אם דני במספרה מרוויח 500 אלף שח בחודש, צריך לבקר אותו? בחור טוב, עובד, משלם מיסים, מרויח ביושר..@מנשה : רק שהן לא משלמות מס בישראל ואולי בכלל.פתאום התחרות לא הוגנת? : גם השכר הסטנדרטי בהייטק גבוה מאד ביחס למקצועות אקדמאים אחרים, אז למה עד כאן זה היה הוגן, ופתאום כששמים להם תחרות אז לא????יש פתרון ברור - חלוקת אופציות לעובדים : הסטארטאפים יכולים לחלק יותר אופציות לעובדים ש"יפצו" על הפער במשכורת. אז כן, יישאר פחות לקרנות ולמייסדים, אבל יש מספיק בשביל לחלק.לא אופציות, מניות : כשנותנים אופציות, העובדים לא שותפים אמיתיים כשיש אקזיט. את האופציות של העובדים אפשר לדלל במנותק מהמניות של הבכירים, ולפני שהעובד יראה שקל מהמכירה, קודם המשקיעים והיזמים יקחו את הנתח שלהם (להם יש "מניות בכורה"), והעובדים יתחלקו בפירורים שנשארו, אם ישארו. אם זה לא מספיק, העובדים צריכים "לקנות" את המניות, מה שמוריד מערכן, וגורם למנהלים להיות יצירתיים בתהליך חתימת הסכם המכירה של החברה. בקיצור, העובדים הולכים שולל אחרי חלומות שמוכרים להם היזמים והמנהלים בלי למצמץ. מי שהולך לסטארטאפ, שידאג לבקש תוכנית מניות שצמודות בתנאים וביחס הדילול לאלה של המייסדים (כמובן שלמייסד יהיו יותר מניות). אם סירבו לבקשה, תתרחקו מהחברה כמו מאש.אם הדולר ימשיך לצלול לעומת השקל - אפשר לזרוק את הדיון הזה לפח : הדולר כבר ירד לעומת השקל ב-13% בשנה האחרונה, וכשזה יתקרב ל-20% (קרי: משכורת של מהנדס ישראלי תעלה 20% יותר בדולרים לחברות האמריקאיות) הם יתחילו לפטר אנשים כאן, ולשכור רוסים/אוקראינים/הודים וכו'. בינתיים נראה שזה הכיוון, אלא אם כן בנק ישראל יעשה את מה שהוא אמור לעשות.@מיזר : נכון.. הם מגיעים לכאן כנראה מסיבות אחרות, לא מחוסר תקציב, הם מגיעים לכאן בשביל חדשנות, כשרונות, ומדיניות שמעודדת צמיחת הי טק@יוסי : מה הפריע להם לשכור אתמול רוסים/אוקראינים/הודים. עד החלשות האחרונה של הדולר זה היה יותר יקר מישראל?גם אני רוצה : הבעיה היא שמספר האנשים שיזכו למשכורת מטורפת 60 ומעלה לחודש הוא מאד מוגבל. אלה אנשים עם נסיון מאד ספציפי, הטובים ביותר בתחומם. אבל אז באים מתכנתים זוטרים עם שנה נסיון ומבקשים בלי בושה לפחות 40.@ליאור שגיא ממש - אבל ממש - לא נכון : @הבעיה לא בעיה - מגיע להם בקלות 35-40. זה מה שמקבלים בארה"ב : אסון בפתח- השכר עולה : לא הצחקתם את עצמכם??? נכון: 1. צריך להגביל את כוחן של אמזון גוגל ושות'. זה תפקיד הפוליטיקאים. איך בדיוק אשמים בזה מתכנתים שירוויחו יותר? 2. מה הפתרון שמציעים פוליטיקאים? ליבא עובדים זרים על מנת לשבור את העובד הישראלי, להוריד את שכרו ולשרת את בעל ההון הישראלי. נפלא. אם חוק ההסדרים עובר כמו שהוא, אז לראשונה מזה 25 שנה אני לא אצביע ליכוד. הבנת את זה ביבי??? 3. סטרטאפיסט ישראלי? פתאום תחרות זה לא טוב? בתור סטרטאפיסט אומר לך כך: רוצה להעסיק הודים? בבקשה- בהודו. קשה להתחרות באמזון? תשמח. תחרות זה טוב.לגיטימי מאד.הפיטורים בECI ,בטבע ודומיהם,לגיטימי? : במקום שאין לויאליות לעובדים מצד ההנהלה,אל תצפו ללויאליות מצד העובדים לחברה.כיף להיות סטודנט למדמח : יש על מה לחלום....@יעקוב תקרא על "מחולל ישומים" : למתכנתים תהיה עבודה בעשרות השנים הקרובות לפחות.ומי יכתוב את הרובוט? סטודנט למדמ : @סטודי : עד שתגמור ללמוד, כבר נמציא רובוט שיכתוב קוד במיליארדית זמן והרבה פחות באגים מהחרא שאתה תוכל לייצריזמים בוכים כי הם לא יודעים לנהל : לתכנת זה לא לנהל. הקמת חברה אתה צריך להבין משהו בלנהל ובזה כלול גם בידול בגיוס ושימור עובדים. אתה לא יודע? לך ללמוד. לא רוצה ללמוד? אכלת אותה. אתה לא מתאים להיות יזם. לך להיות שכיר באמזון.תנו קצת יותר לעובדים. מה יקרה? : בסוף כשחברה מצליחה כל כך מעט אנשים עושים כל כך הרבה מהרווח מה רע בלחלק קצת יותר מהעוגה עם העובדים שלכם? סוציאליזם לא אמורה להיות מילה גסה בארץ אז סטארטאפ צריך להוציא יותר? שיגייס יותר או שייתן לעובדים יותר אופציותאנשים צריכים להבין : גם בשכר המוגזם שכתוב בכתבות בארץ, עלות השכר לאמזון עדין זולה יותר מעובד בארצות הברית. תגובות לתגובות: 1) "תרבות העבודה של בזוס" לא "גרועה" תפסיק לברבר שטויות. אמזון זה מקום ענק עם תרבות מסויימת שלנסיוני מתאימה מאד לישראלים. 2) אמזון כל כך גדולה שצודק מגיב מספר אחד, אפשר ליפול על צוות/מנהל לא משהו. היתרון הוא שזאת חברה כל כך גדולה שאפשר לעבור לאן שרוצים ואם אתה טוב תמצא את המקום שירגיש מדהים עבורך. 3) מספר 2 צודק בהחלט. אחרי שנה אפשר לעבור לאן שרוצים מבלי להיות תלויים בלוטרי של ויזה. עדיף שמנהלי הסטארטפים יפסיקו להתבכיין ולאיים לייצא משרות, יבואו אחרים במקומם, עלות המחייה בישראל לא מפסיקה לעלות, הגיע הזמן שגם השכר התחרותי יעלה קצת. גוגל עושה את זה כבר שנים בארץ ורק כתבות על כמה יפה הקמפוס שלהם ראיתי. בהצלחה לכולם.טווח קצר : אמזון מציעה הרבה כסף לטווח קצר. עם התרבות האירגונית שם קשה לשרוד. מתאים לחלק מהאנשים. וכמובן כסף זה לא הכל במקום עבודהכל הדיון הזה הזוי. : משכורות שמנות : כל מערך המשכורת בישראל מעוות. שופט מקבל 80 אלף שקל. נתב בנמל מקבל גם הוא 80 אלף. קלדנית ברשות שדות תעופה מקבלת 30 אלף. סוואר בנמל מקבל 50 אלף. פועל בחברת חשמל שתפוקתו קרוב לאפס מקבל 50 אלף. אז יש טענות מדוע איש הייטק שעובד יום ולילה מקבל 50 אלף?רס"ר יפרח ממליץ על פנסיה תקציבית, דירות להשקאה מקינוסים ותיולים באולם : היום בקבע על 25 שנות עבודה ניתן לקבל 60 שנות פנסיה. 25שנות עבודה (מגיל 21 עד 46). 40 שנות פנסיה (גיל 46 עד 86). 20 שנות פנסיה נוספות לפיליפינית הצעירה יחסית שמתחתנים איתה (קיצבת שארים פנסיית גישור=מכבסת מילים לפנסיה תקציבית@אבי : הבעיה היא עם מורים ושוטרים שצריכים להרוויח לפחות חצי ממה שמרוויח מהנדס, ולו בגלל שאנחנו כחברה מעונינים למשוך אנשים מצוינים לתפקידים הללו.מה שהחברות האלה באמת יכולות להציע זה אופציה לרילוקיישן : והנה הדור הבא של הסטארט אפים בישראל : אנשים שעבדו 3 שנים בשביל בזוס, יצאו עם פיצויי פיטורים של 200,000, עוד 300,000 יושבים בקרן השתלמות וכנראה שחסכו עוד לפחות 100,000 בצד. לזה אפשר להוסיף עוד 60,000 דמי אבטלה בחצי שנה הראשונה ועם עתודות הון כאלה וניסיון איכותי, אפשר להקים סטארט אפ בלי משקיעים ובלי אף "יזם" שיבלבל את המוח. קצת באסה לקרנות הון סיכוןאמן : מה יכולים הסטארט-אפים לעשות? לבטא את ה"חלק מצוות הקמה" באחוזים : היזמים שופכים דמעות תנין - עבור רובם החלום הרטוב הוא להפוך את עובדיהם לעובדי אמזון (רק בדרך קצת אחרת). מילא lemonade ו-zebra-medical, הם עוד יכולים לטעון שהם באמת משפרים את העולם. (ואז עבור העובדים שזה חשוב להם אמזון היא לא באמת תחרות במובן הזה- אז מה יש לדאוג?) אבל כל הסטארט-אפים של הקניות האינטרנט שבוכים על אמזון? פחחחחחחחח. שמענו.אמזון פיסבוק גוגל ואפל גורמות נזק : לא משלמות מיסים. כל מהנדס שמגויס יכל להוביל קבוצה של 10 צעירים בסטרטאפ.פתאום, הקפיטליזם החזירי הפך הרבה פחות נוח : כסף פחות משחק תפקיד כאן : אני לא מכיר מישהו שעוזב חברה או בוחר בחברה בשביל עוד 5,000 שקל לפה או לשם. בסופו של דבר זה לא המון בנטו וברמות שכר כאלו זה לא משנה אם אני מרוויח 21 נטו או 23 נטו. מה שמעניין אותי זו סביבת עבודה ואנשים שעובדים איתי. כל מי שעבד עם בוס בעייתי או חבר צוות בעייתי יודע שבשביל מנהל שיודע לנהל כמו שצריך וחברי צוות/קולגות מגניבים, ידענים וקומוניקטיבים מוכנים להתפשר גם (קצת) בשכר. מה יהיו שווים לי ה-2,000 או ה-3,000 נטו אם אני מגיע למשרד כבוי. אם מקום העבודה שלי דורש ממני לעבוד 12 שעות מינימום ואם שיתוף הידע בחברה הוא אפס? אני חושב שאני יכול להרוויח 5+ ברוטו יותר בכל מקום אחר. בוודאות. אבל אני עובד 9 שעות ביום, לפעמים מהבית, בלי טלפונים בלילה/סוף שבוע/חופשות, עם מנהל נהדר וקולגות מקצועיים ביותר. אני לומד ועושה דברים חדשים כל יום ואני ממש נהנה בעבודה. האם זה שווה לי את ה-2.5 נטו? בוודאי שכן.@המשחק לא שם : אדם שעושה 21 נטו מרוויח 35-40 ברוטו. כדי להעלות את זה ב10 נטו הוא צריך להרוויח 55-60 ברוטו + מאות אלפי דולרים בשנה של rsu (בחיים לא שמעתי על סכומים כאלה). אני חושב שאם אמאזון הייתה מציעה את מה שאתה אומר אז היו עוברים אליה גם מגוגל, פייסבוק ומייקרוסופט ולא רק מסטארטאפים.דווקא בסטארטאפ ידרשו ממך לעבוד מסביב לשעון : כי יש מעט עובדים והכל על הכתפיים שלך.@סניור סניור בום , פשוט נכון , הרבה מסונוורים מהמשכורת : לוקח הרבה זמן להבין שלעבוד קרוב לבית , עם אנשים טובים ושיש שיתוף מידע ותיקשורות טובה שווה הרבה מאוד כסף ... לא כולם מבינים את זה ומסתנוורים מהמשכורות , יפה כתבת@סניור סניור : המעבר הוא לא תוספת של 5000 אלא פי 2 מהמשכורת שלך ( אלא אם אתה מקבל 90000 ) דרך אגב - אני מכיר אותך....@סניור סניור : כל הכבוד! הסבר יפה : אין מה לאוסיף. כל מילה במקוםכשאתה מתראיין הסביבה היא נעלם. כנ"ל לגבי המקום הנוכחי בעוד שנה! : אתה צודק והחזון שלך יפה אבל המציאות מורכבת יותר. אתה לא ממש מייצג. ברור שאם באמת טוב לך, ואתה אף מרגיש שזה לא סתם נוחות זמנית אלא אתה מתפתח - אתה בכלל לא יעד לחטיפה. אך העובדה היא שרוב העובדים עוברים כל 3-4 שנים במקרה הטוב. הסבר אפשרי הוא של-90% מהעובדים יש בוס בינוני שדואג לקידום של עצמו בלבד.. זה מתחלק בצורה די ברורה. כשאתה צעיר ממש, כדאי ללכת לחברה גדולה כדי לקבל חניכה מסודרת. כשאתה מבושל יותר ורוצה לקבל יותר אחריות, לעומק ולרוחב, הזדמנויות צמיחה, אולי להכנס לתחום חדש - סטארטאפ זה אחלה. אבל כשאתה מקצועי באמת, ומתכוון להשאר בתחום, ומספיק מבושל בשביל לפתור לבד בעיות טכניות ולהתמודד עם כל סביבה וכל בוס - אז כל החברות כבר נראות לך די אותו דבר. ואז אתה מרגיש שאולי אין סיבה לא לתת למשפחה שלך את רמת החיים הכי טובה שאתה יכול... חוץ מאולי יזמות - אך הדרך לשם יותר ויותר עוברת דרך תקופה בחברה גדולה.צודק : תרבות העבודה של בזוס היא איומה, הוא לא מתבייש בזה, נכתב על זה המון, מי שעובר לשם בלי להבין לגמרי למה הוא נכנס, יעזוב בסופו של דבר.@סניור סניור : לא מדובר כ5 לחודש אלא יותר לכיוון ה10. אם אתה מרוויח 21 או 30 נטו משנה גם לך... ואז השיקול של הסביבה המושלמת אל מול האופציה לפנסיה מוקדמת כבר לא כל כך ברור מאליו. מעבר להעלאה בשכר של ה5 ברוטו יש מענקי RSU של מאות אלפי דולרים בשנה... סטארטאפ לא יכול להבטיח כזה דבר גם אם יימכר בסכום פסיכי.M&amp;M : אני חותם על כל מילה של זה מעלי :)אתה צודק ב100 אחוז אבל : אם המספרים בכתבה באמת נכונים ההפרשים בשכר הם הרבה יותר מ5000 שקל ברוטו.</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחד </t>
+  </si>
+  <si>
+    <t>19.01.2018</t>
+  </si>
+  <si>
+    <t>אמזון-פייסבוק-גוגל לא משלמות מס בישראל, ורק נהנות ממה שיש לישראל להציע</t>
+  </si>
+  <si>
+    <t>ועל הדרך פוגעות בתעשיית ההייטק שכן משלמת מס. מה שגורם לייזמים להקים חברות מחוץ לישראל. מה שיגרום לנזק אדיר לכלכלה הישראלית.</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יותם </t>
+  </si>
+  <si>
+    <t>17.01.2018</t>
+  </si>
+  <si>
+    <t>אני מצדיע לאמאזון על הדברים הטובים שהיא עושה למען העובדים בישראל</t>
+  </si>
+  <si>
+    <t>כמה מחליא לראות את החברות האחרות שאוהבות לשלם זוטות מתבכיינות לפתע על האביר שמתגמל עובדים. מדהים שלראש הממשלה ושר האוצר חורה שאנשים משכילים מרוויחים כסף בצדק, אבל מאד הגיוני להם שנתב בנמל מרוויח 90 אלף בחודש, ושכל הפרזיטים בישראל מקבלים כספים לאור שביתות, הפגנות, לובי, מפחגות אינטרסנטיות, ועדי עובדים וכל שאר המחלות. אני מאחל לכל הסטרטאפים הבכיינים שיעלמו מהעולם. לא צריך אתכם כאן ובשום מקום. המדענים, המהנדסים, המתכנתים - הם הגיבורים האמיתיים בהייטק, ולא השדירה הניהולית, שחשובת שמגיע לה הכל. הבכיינות בכתבה מעוררת סלידה מהמנכ"לים הנצלמים ומהח"כים הרוקיבם ורק גורמת לרבים ללכת ולסגוד לחברות הגדולות שמשלמות הרבה. והלוואי ויום אחד גם נעשה רילוקיישן ולא נחייה בתוך הצביעות הזאת.</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מסיתיהו את נהנתניהו </t>
+  </si>
+  <si>
+    <t>13.01.2018</t>
+  </si>
+  <si>
+    <t>אבירי השוק החופשי סובלים מהתקפי חרדה כל פעם שהמעסיק התורן "שובר שוק"</t>
+  </si>
+  <si>
+    <t>ושוב חוזרות אותן בכיות של תנינים ודגי רקק, אותן קריאות לייבא כוח אדם זול. מעניין שבשנים הקשות של ההיי טק לא שמענו את הקולות שמתנדבים לשמור על תנאי העובדים מאותם מעסיקים ששלחו אנשים הביתה ליום עד יומיים בשבוע...</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גל </t>
+  </si>
+  <si>
+    <t>לעזוב כי מעלים לך משכורת מותר</t>
+  </si>
+  <si>
+    <t>אבל לפטר כי המשכורת שלך מעיקה על הארגון זה לא? זה שוק דו כיווני עובדים חותכים את המעסיקים בשניה על כל הטבה במרום אחר ומתפלאים שמפטרים אחכ עובדים כדי לחסוך</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גם לעיתונות יש פה תפקיד </t>
+  </si>
+  <si>
+    <t>אנה</t>
+  </si>
+  <si>
+    <t>בל נשכח - את הבז התקשורתי סביב הטירוף של אמאזון - לדעתי התחילו ממש במדור הזה... וזה היה טריגר לאווירה שלילית בתעשייה, וכן, גם אם זה רק סימבולי ומייצג גם התנהגות של קורפורייטים אחרים. שימו לב שפה מדובר בחברה שמוכרת שירותים לחברות שבמקביל היא מנסה לחבל ביכולת שלהם לפתח מוצר כי אקטיבית שואבת להם עובדים... מריח רע. הכתבה הזו עושה גלים גם בארה"ב ופתחה דיונים שלמים באמזון ארה"ב על קווים אדומים. זה כבר טוב. לגבי ייבוא "עובדים זרים"... בתור מנהלת משאבי אנוש בכירה בחברה גדולה אני טוענת- לא ישים!!! באופן ספיים אחד יישבו מהנדס מרומניה , מהנדס מאוקריינה ובוגר טכניון, שיעשו אותה עבודה, ופערי השכר שלהם יהיו של 40%? הצחקתם. הנושא מדיר שינה מעיני. הדיון הזה חשוב שימשיך.</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ערן </t>
+  </si>
+  <si>
+    <t>12.01.2018</t>
+  </si>
+  <si>
+    <t>לא, כי עד אמאזון השוק התנהל בג׳נטלמניות</t>
+  </si>
+  <si>
+    <t>בחייכם</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עובד הסתדרות </t>
+  </si>
+  <si>
+    <t>עובדי היי טק תתאגדו תחת ההסתדרות</t>
+  </si>
+  <si>
+    <t>הסתדרות תמנע את הביזיון הזה ויבריח את ענקי הטכנולוגים הביתה!</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קואלה </t>
+  </si>
+  <si>
+    <t>לתהות האם תחרות חופשית היא לגיטימית זה לא לגיטימי</t>
+  </si>
+  <si>
+    <t>שלא יעבדו עליכם</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אמא </t>
+  </si>
+  <si>
+    <t>מה יכול סטארטאפ קטן לעשות?</t>
+  </si>
+  <si>
+    <t>לגייס עובדים בני 45 ומעלה. לפתוח סניף מחוץ לתחום חדרה גדרה (ירושלים, חיפה, באר שבע) לגייס נשים ואפילו ח"ח אמהות שיעבדו ב 90% משרה (ויקבלו 90% שכר)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דוד בן-גוריון </t>
+  </si>
+  <si>
+    <t>ועם זאת, עובדים מעל גיל 50 מתקשים למצוא עבודה...</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דניני </t>
+  </si>
+  <si>
+    <t>ליבא הודים במשכורת גבוהה יחסית להודו זה בסדר?</t>
+  </si>
+  <si>
+    <t>מדינת ישראל היא מדינה הזויה</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ניב </t>
+  </si>
+  <si>
+    <t>@דניני</t>
+  </si>
+  <si>
+    <t>כחלון שונא אנשי הייטק ידוע. הוא עושה כל דבר כדי לפגוע בהם. העלה מס הכנסה. העלה את מס הייסף (שזאת מכבסת מילים ל-"תוספת של 3% למס ההכנסה הרגיל"). העלה מס הכנסה על הפקדות המעסיק לפנסיה (שאתה משלם בכל חודש). העלה מס הכנסה על הפקדות המעסיק לפיצויים (שאתה משלם בכל חודש). הוריד לך את הנטו בכ-12,000 ש"ח בשנה. אז כמובן שהוא יביא עובדים בזול מהודו, בשביל לדפוק אותך עוד יותר.</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מנשה </t>
+  </si>
+  <si>
+    <t>לא הבנתי על מה המאומה?</t>
+  </si>
+  <si>
+    <t>אם יכולים לתת 90 אלף? למה שלא יתנו? חברה רווחית, פרטית, לא ניזונה מכספי משלמי המיסים. גם אם יוכלו לתת 900 אלף - שיתנו. והכל יהיה בסדר.. מה קשור עכשיו סטרטאפים ויזמים?? אם דני במספרה מרוויח 500 אלף שח בחודש, צריך לבקר אותו? בחור טוב, עובד, משלם מיסים, מרויח ביושר..</t>
+  </si>
+  <si>
+    <t>@מנשה</t>
+  </si>
+  <si>
+    <t>רק שהן לא משלמות מס בישראל ואולי בכלל.</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני </t>
+  </si>
+  <si>
+    <t>פתאום התחרות לא הוגנת?</t>
+  </si>
+  <si>
+    <t>גם השכר הסטנדרטי בהייטק גבוה מאד ביחס למקצועות אקדמאים אחרים, אז למה עד כאן זה היה הוגן, ופתאום כששמים להם תחרות אז לא????</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רועי </t>
+  </si>
+  <si>
+    <t>יש פתרון ברור - חלוקת אופציות לעובדים</t>
+  </si>
+  <si>
+    <t>הסטארטאפים יכולים לחלק יותר אופציות לעובדים ש"יפצו" על הפער במשכורת. אז כן, יישאר פחות לקרנות ולמייסדים, אבל יש מספיק בשביל לחלק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מהנדס שראה ושמע הרבה </t>
+  </si>
+  <si>
+    <t>לא אופציות, מניות</t>
+  </si>
+  <si>
+    <t>כשנותנים אופציות, העובדים לא שותפים אמיתיים כשיש אקזיט. את האופציות של העובדים אפשר לדלל במנותק מהמניות של הבכירים, ולפני שהעובד יראה שקל מהמכירה, קודם המשקיעים והיזמים יקחו את הנתח שלהם (להם יש "מניות בכורה"), והעובדים יתחלקו בפירורים שנשארו, אם ישארו. אם זה לא מספיק, העובדים צריכים "לקנות" את המניות, מה שמוריד מערכן, וגורם למנהלים להיות יצירתיים בתהליך חתימת הסכם המכירה של החברה. בקיצור, העובדים הולכים שולל אחרי חלומות שמוכרים להם היזמים והמנהלים בלי למצמץ. מי שהולך לסטארטאפ, שידאג לבקש תוכנית מניות שצמודות בתנאים וביחס הדילול לאלה של המייסדים (כמובן שלמייסד יהיו יותר מניות). אם סירבו לבקשה, תתרחקו מהחברה כמו מאש.</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יוסי </t>
+  </si>
+  <si>
+    <t>אם הדולר ימשיך לצלול לעומת השקל - אפשר לזרוק את הדיון הזה לפח</t>
+  </si>
+  <si>
+    <t>הדולר כבר ירד לעומת השקל ב-13% בשנה האחרונה, וכשזה יתקרב ל-20% (קרי: משכורת של מהנדס ישראלי תעלה 20% יותר בדולרים לחברות האמריקאיות) הם יתחילו לפטר אנשים כאן, ולשכור רוסים/אוקראינים/הודים וכו'. בינתיים נראה שזה הכיוון, אלא אם כן בנק ישראל יעשה את מה שהוא אמור לעשות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יר </t>
+  </si>
+  <si>
+    <t>16.01.2018</t>
+  </si>
+  <si>
+    <t>@מיזר</t>
+  </si>
+  <si>
+    <t>נכון.. הם מגיעים לכאן כנראה מסיבות אחרות, לא מחוסר תקציב, הם מגיעים לכאן בשביל חדשנות, כשרונות, ומדיניות שמעודדת צמיחת הי טק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מיזר </t>
+  </si>
+  <si>
+    <t>@יוסי</t>
+  </si>
+  <si>
+    <t>מה הפריע להם לשכור אתמול רוסים/אוקראינים/הודים. עד החלשות האחרונה של הדולר זה היה יותר יקר מישראל?</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הבעיה </t>
+  </si>
+  <si>
+    <t>גם אני רוצה</t>
+  </si>
+  <si>
+    <t>הבעיה היא שמספר האנשים שיזכו למשכורת מטורפת 60 ומעלה לחודש הוא מאד מוגבל. אלה אנשים עם נסיון מאד ספציפי, הטובים ביותר בתחומם. אבל אז באים מתכנתים זוטרים עם שנה נסיון ומבקשים בלי בושה לפחות 40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מנהל פיתוח </t>
+  </si>
+  <si>
+    <t>@ליאור שגיא ממש - אבל ממש - לא נכון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ליאור שגיא </t>
+  </si>
+  <si>
+    <t>@הבעיה לא בעיה - מגיע להם בקלות 35-40. זה מה שמקבלים בארה"ב</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עמית </t>
+  </si>
+  <si>
+    <t>אסון בפתח- השכר עולה</t>
+  </si>
+  <si>
+    <t>לא הצחקתם את עצמכם??? נכון: 1. צריך להגביל את כוחן של אמזון גוגל ושות'. זה תפקיד הפוליטיקאים. איך בדיוק אשמים בזה מתכנתים שירוויחו יותר? 2. מה הפתרון שמציעים פוליטיקאים? ליבא עובדים זרים על מנת לשבור את העובד הישראלי, להוריד את שכרו ולשרת את בעל ההון הישראלי. נפלא. אם חוק ההסדרים עובר כמו שהוא, אז לראשונה מזה 25 שנה אני לא אצביע ליכוד. הבנת את זה ביבי??? 3. סטרטאפיסט ישראלי? פתאום תחרות זה לא טוב? בתור סטרטאפיסט אומר לך כך: רוצה להעסיק הודים? בבקשה- בהודו. קשה להתחרות באמזון? תשמח. תחרות זה טוב.</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הטבח השבדי </t>
+  </si>
+  <si>
+    <t>לגיטימי מאד.הפיטורים בECI ,בטבע ודומיהם,לגיטימי?</t>
+  </si>
+  <si>
+    <t>במקום שאין לויאליות לעובדים מצד ההנהלה,אל תצפו ללויאליות מצד העובדים לחברה.</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סטודי </t>
+  </si>
+  <si>
+    <t>כיף להיות סטודנט למדמח</t>
+  </si>
+  <si>
+    <t>יש על מה לחלום....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה גם מה שאמרו בשנות השמונים </t>
+  </si>
+  <si>
+    <t>@יעקוב תקרא על "מחולל ישומים"</t>
+  </si>
+  <si>
+    <t>למתכנתים תהיה עבודה בעשרות השנים הקרובות לפחות.</t>
+  </si>
+  <si>
+    <t>ומי יכתוב את הרובוט? סטודנט למדמ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יעקוב </t>
+  </si>
+  <si>
+    <t>@סטודי</t>
+  </si>
+  <si>
+    <t>עד שתגמור ללמוד, כבר נמציא רובוט שיכתוב קוד במיליארדית זמן והרבה פחות באגים מהחרא שאתה תוכל לייצר</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דודי </t>
+  </si>
+  <si>
+    <t>יזמים בוכים כי הם לא יודעים לנהל</t>
+  </si>
+  <si>
+    <t>לתכנת זה לא לנהל. הקמת חברה אתה צריך להבין משהו בלנהל ובזה כלול גם בידול בגיוס ושימור עובדים. אתה לא יודע? לך ללמוד. לא רוצה ללמוד? אכלת אותה. אתה לא מתאים להיות יזם. לך להיות שכיר באמזון.</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>21.01.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא ארהב ולא ישראל ירושלים המזרחית בירת פלשטין נקודה. </t>
+    <t xml:space="preserve">קורא </t>
+  </si>
+  <si>
+    <t>תנו קצת יותר לעובדים. מה יקרה?</t>
+  </si>
+  <si>
+    <t>בסוף כשחברה מצליחה כל כך מעט אנשים עושים כל כך הרבה מהרווח מה רע בלחלק קצת יותר מהעוגה עם העובדים שלכם? סוציאליזם לא אמורה להיות מילה גסה בארץ אז סטארטאפ צריך להוציא יותר? שיגייס יותר או שייתן לעובדים יותר אופציות</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t xml:space="preserve">no one </t>
-  </si>
-  <si>
-    <t xml:space="preserve">you arnt wellcome ...mr Pense. </t>
+    <t xml:space="preserve">עובד אמזון </t>
+  </si>
+  <si>
+    <t>אנשים צריכים להבין</t>
+  </si>
+  <si>
+    <t>גם בשכר המוגזם שכתוב בכתבות בארץ, עלות השכר לאמזון עדין זולה יותר מעובד בארצות הברית. תגובות לתגובות: 1) "תרבות העבודה של בזוס" לא "גרועה" תפסיק לברבר שטויות. אמזון זה מקום ענק עם תרבות מסויימת שלנסיוני מתאימה מאד לישראלים. 2) אמזון כל כך גדולה שצודק מגיב מספר אחד, אפשר ליפול על צוות/מנהל לא משהו. היתרון הוא שזאת חברה כל כך גדולה שאפשר לעבור לאן שרוצים ואם אתה טוב תמצא את המקום שירגיש מדהים עבורך. 3) מספר 2 צודק בהחלט. אחרי שנה אפשר לעבור לאן שרוצים מבלי להיות תלויים בלוטרי של ויזה. עדיף שמנהלי הסטארטפים יפסיקו להתבכיין ולאיים לייצא משרות, יבואו אחרים במקומם, עלות המחייה בישראל לא מפסיקה לעלות, הגיע הזמן שגם השכר התחרותי יעלה קצת. גוגל עושה את זה כבר שנים בארץ ורק כתבות על כמה יפה הקמפוס שלהם ראיתי. בהצלחה לכולם.</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve">תוריון </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 2000 3000 סיבות יש לראש </t>
+    <t xml:space="preserve">Shl </t>
+  </si>
+  <si>
+    <t>טווח קצר</t>
+  </si>
+  <si>
+    <t>אמזון מציעה הרבה כסף לטווח קצר. עם התרבות האירגונית שם קשה לשרוד. מתאים לחלק מהאנשים. וכמובן כסף זה לא הכל במקום עבודה</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">הכורדי </t>
-  </si>
-  <si>
-    <t>צודק מיליון %</t>
-  </si>
-  <si>
-    <t>אבל יש תחליף לטראמפ המטורף, איך אומרים החבר׳ה בכספת</t>
+    <t xml:space="preserve">מהנדס באמריקה </t>
+  </si>
+  <si>
+    <t>כל הדיון הזה הזוי.</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t xml:space="preserve">נתי </t>
-  </si>
-  <si>
-    <t>המלך עבדאללה???</t>
-  </si>
-  <si>
-    <t>המלך עבדאללה אמר כי "ההכרה בירושלים כבירת ישראל לא יכולה להיות חלק מפתרון הסכסוך"... פח...פח...פח...פח...פח...פח...פח...</t>
+    <t xml:space="preserve">אבי </t>
+  </si>
+  <si>
+    <t>משכורות שמנות</t>
+  </si>
+  <si>
+    <t>כל מערך המשכורת בישראל מעוות. שופט מקבל 80 אלף שקל. נתב בנמל מקבל גם הוא 80 אלף. קלדנית ברשות שדות תעופה מקבלת 30 אלף. סוואר בנמל מקבל 50 אלף. פועל בחברת חשמל שתפוקתו קרוב לאפס מקבל 50 אלף. אז יש טענות מדוע איש הייטק שעובד יום ולילה מקבל 50 אלף?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עם דרקון צרפתי </t>
+  </si>
+  <si>
+    <t>רס"ר יפרח ממליץ על פנסיה תקציבית, דירות להשקאה מקינוסים ותיולים באולם</t>
+  </si>
+  <si>
+    <t>היום בקבע על 25 שנות עבודה ניתן לקבל 60 שנות פנסיה. 25שנות עבודה (מגיל 21 עד 46). 40 שנות פנסיה (גיל 46 עד 86). 20 שנות פנסיה נוספות לפיליפינית הצעירה יחסית שמתחתנים איתה (קיצבת שארים פנסיית גישור=מכבסת מילים לפנסיה תקציבית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סנג׳ו </t>
+  </si>
+  <si>
+    <t>@אבי</t>
+  </si>
+  <si>
+    <t>הבעיה היא עם מורים ושוטרים שצריכים להרוויח לפחות חצי ממה שמרוויח מהנדס, ולו בגלל שאנחנו כחברה מעונינים למשוך אנשים מצוינים לתפקידים הללו.</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t xml:space="preserve">אוהבאל </t>
-  </si>
-  <si>
-    <t xml:space="preserve">גם אין תחליף לנתניהו הגאון היפה החכם המדהים הישר ורחב הלב,  </t>
+    <t xml:space="preserve">זה היתרון היחסי שלהן </t>
+  </si>
+  <si>
+    <t>מה שהחברות האלה באמת יכולות להציע זה אופציה לרילוקיישן</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">ירדן </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הכרזות לצרכי פנים בלי שום ערך לפתרון </t>
+    <t xml:space="preserve">מתכנת </t>
+  </si>
+  <si>
+    <t>והנה הדור הבא של הסטארט אפים בישראל</t>
+  </si>
+  <si>
+    <t>אנשים שעבדו 3 שנים בשביל בזוס, יצאו עם פיצויי פיטורים של 200,000, עוד 300,000 יושבים בקרן השתלמות וכנראה שחסכו עוד לפחות 100,000 בצד. לזה אפשר להוסיף עוד 60,000 דמי אבטלה בחצי שנה הראשונה ועם עתודות הון כאלה וניסיון איכותי, אפשר להקים סטארט אפ בלי משקיעים ובלי אף "יזם" שיבלבל את המוח. קצת באסה לקרנות הון סיכון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זאבי </t>
+  </si>
+  <si>
+    <t>אמן</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>השמאל לביבי : אין תחליף לאיסלאם</t>
-  </si>
-  <si>
-    <t>לא רוצים קפיטליזם דמוקרטי רוצים ח׳ליפות איסלאמית ללא שחיתות !!!! חוקים מסודרים, מה ששלי שלך ומה ששלך שלי, אחדות וללא שיסוע בעם בשבילי, רק איסלאם. אסלי אסלי</t>
+    <t xml:space="preserve">ולא רק לקשקש ולרייר על אקזיט </t>
+  </si>
+  <si>
+    <t>11.01.2018</t>
+  </si>
+  <si>
+    <t>מה יכולים הסטארט-אפים לעשות? לבטא את ה"חלק מצוות הקמה" באחוזים</t>
+  </si>
+  <si>
+    <t>היזמים שופכים דמעות תנין - עבור רובם החלום הרטוב הוא להפוך את עובדיהם לעובדי אמזון (רק בדרך קצת אחרת). מילא lemonade ו-zebra-medical, הם עוד יכולים לטעון שהם באמת משפרים את העולם. (ואז עבור העובדים שזה חשוב להם אמזון היא לא באמת תחרות במובן הזה- אז מה יש לדאוג?) אבל כל הסטארט-אפים של הקניות האינטרנט שבוכים על אמזון? פחחחחחחחח. שמענו.</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">ש </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אירופה זה תחליף הוגן </t>
+    <t xml:space="preserve">נדב </t>
+  </si>
+  <si>
+    <t>אמזון פיסבוק גוגל ואפל גורמות נזק</t>
+  </si>
+  <si>
+    <t>לא משלמות מיסים. כל מהנדס שמגויס יכל להוביל קבוצה של 10 צעירים בסטרטאפ.</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">מארק </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ברור, מי לא ירצה ״מתווך״ משוחד. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">שמעון הצדיק </t>
-  </si>
-  <si>
-    <t>ממש מצחיק</t>
-  </si>
-  <si>
-    <t>הפלשתינים כבר כמעט 40 שנה מנסים לעשות שלום והישראלים עובדים עליהם בעיניים ביחד עם האמריקניזציה תראו כמה מתנחלים יש היום והרבה מהם אמריקאיים כולל השגריר ביבי נותן כלום ולוקח הכל ועוד מתבכיין חחח...</t>
-  </si>
-  <si>
-    <t>22.01.18</t>
-  </si>
-  <si>
-    <t>רון בן ישי</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>נאום פנס בכנסת: התחייבויות בסימן שאלה</t>
-  </si>
-  <si>
-    <t>נאום סגן נשיא ארה"ב היה יותר אידיאולוגי-דתי-רגשי מאשר הצהרה פוליטית, אבל כל עוד פנס בבית הלבן - מובטחת תמיכה. למרות החרם מרמאללה, הוא השאיר דלת פתוחה למו"מ עם הפלסטינים ושלח מסר ברור ותקיף לאיראן. עם זאת, הממשל הנוכחי בארה"ב לא מצטיין בעמידה בהתחייבויות</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> לא היו חידושים של ממש בנאום סגן נשיא ארה"ב, מייק פנס, בכנסת היום. אף על פי כן, זה היה אירוע חשוב עבור המדינה היהודית ואזרחיה. הדברים שאמר סגן הנשיא הנוכחי של ארה"ב ושפת הגוף שלו - כשאמר את הדברים - מעידים שלישראל יש תומך בלב ובנפש, מתוך אמונה עמוקה, בבית הלבן. מכל משפט שאמר מייקל פנס עלתה והתבררה מחויבותו לביטחונה ושגשוגה של מדינת היהודים במזרח התיכון. אני משתמש במונח "מדינת היהודים" משום שהנאום של סגן נשיא ארה"ב היה יותר אידיאולוגי-דתי-רגשי מאשר הצהרה פוליטית. אחרי שהאזנתי לו אני משוכנע - ואני חושב שכולנו יכולים להיות משוכנעים, שכל עוד מייקל פנס בבית הלבן עם טראמפ, או בלעדיו, תמיכתה הבלתי מעורערת של וושינגטון מובטחת לנו. לעובדה זו יש משמעות מבחינתנו, ראשית לכול, כיוון שקיימת אפשרות שטראמפ לא ישלים את כהונתו כנשיא מסיבה זו או אחרת. ההסתברות שזה יקרה אינה גדולה, אבל צריך להביאה בחשבון.סיבה שנייה היא שלפנס יש השפעה רבה על הנשיא טראמפ, ויש לו אלקטורט גדול ומחויב בקרב הנוצרים האוונגליסטים בארה"ב. מייקל פנס הוא לא רק פוליטיקאי הנהנה מתמיכתם - הוא אחד ממנהיגי הקהילה הזאת, שיש לה עוצמה פוליטית והשפעה על הבית הלבן, לא רק בתקופת נשיא שמרן כמו טראמפ, אלא גם בתקופת הנשיא אובמה והשלטון הדמוקרטי. לכן גם סביר להניח שביקורו הנוכחי של פנס במזרח התיכון נועד להעניק לו נקודות זכות בקרב בוחריו, כשם שנועד לעשותו כשיר לטפל בענייני החוץ של ארה"ב.לא קשה לראות שביקור סגן נשיא ארה"ב הנוכחי באזור, ובעיקר בישראל, משרת היטב את כל הצדדים. פנס מקבל חיזוק למעמדו בקרב בוחריו וגם כמדינאי שעוסק בענייני חוץ. ישראל נהנית ממפגן תמיכה בעם היהודי וברעיון הציוני מצד המעצמה החשובה בעולם. סביר להניח שלהצהרת התמיכה הזו יהיו משמעויות מעשיות בתחום הביטחון הלאומי והתמיכה המדינית שתקבל מדינת ישראל. שני נושאים מדיניים-ביטחוניים עומדים במרכזו של מסע סגן נשיא ארה"ב במזרח התיכון: האחד הוא תהליך ההסדרה של הסכסוך הישראלי-פלסטיני, האחר הוא הסכנה הנשקפת מאיראן לשלום המזרח התיכון וליציבותו.בעניין הסכסוך הישראלי-פלסטיני, פנס עשה דבר אחד. בנאומו היום בכנסת, כמו גם בשיחותיו עם נשיא מצרים א-סיסי ועם המלך עבדאללה השני בירדן, הוא השאיר את הדלת פתוחה למשא ומתן. לכאורה, זה דבר מובן מאליו, אבל לנוכח החרמות הפלסטיניות וה"יחרב-ביתכ" של אבו מאזן בגלל ההכרה של טראמפ בירושלים כבירת ישראל, ולנוכח המחאה של מלך ירדן - מהווה הצהרתו של פנס בכנסת הוכחה שארה"ב עדיין מתכוונת להמשיך לחפש תהליך הסדרה יצירתי לסכסוך הישראלי-פלסטיני. אשר לאיראן, פנס התווה - למעשה בפעם הראשונה - מדיניות כוללת לבלימת שאיפותיה של איראן להגמוניה דתית ואסטרטגית במזרח התיכון ולשאיפות האייתוללות להשמדת מדינת ישראל. הוא פרש אחד לאחד את כל מרכיבי המדיניות והאסטרטגיה האמריקנית לבלימת איראן, החל בשיפור הסכם הגרעין עמה וגמור בקריאה לעם האיראני להתקומם נגד המשטר הדתי המדכא. לא צריך להיסחף בהתלהבות. הממשל הנוכחי בארה"ב לא מצטיין בעמידה בהתחייבויות ובמדיניות ברורה, בעיקר בזירה הבינלאומית. אבל אנחנו יודעים היום פחות או יותר מה היא המדיניות המקובלת כרגע על וושינגטון בנוגע לאיראן, ואפשר להיות בטוחים לגבי דידו של פנס, זוהי המדיניות והאסטרטגיה שאותה ינקטו האמריקנים גם בעתיד. ולסיום, ניכר היה שפנס מתרגש באמת שהוא מדבר על גורל העם היהודי ועל עתידו. ולכן, שפת הגוף שלו הייתה לא פחות חשובה מהמילים שהשמיע.</t>
-  </si>
-  <si>
-    <t>ידיד אמת : תודה לך אדוני סגן נשיא ארהב בשם רוב רובן של הים ,על תמיכתך האמיתית מכל הלב במדינת ישראל.
-אתה ידיד אמת ושאלוהים יעמוד לצידך.תודה ידיד יקר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יהודי ציוני </t>
-  </si>
-  <si>
-    <t>22.01.1</t>
-  </si>
-  <si>
-    <t>ידיד אמת</t>
-  </si>
-  <si>
-    <t>תודה לך אדוני סגן נשיא ארהב בשם רוב רובן של הים ,על תמיכתך האמיתית מכל הלב במדינת ישראל.
-אתה ידיד אמת ושאלוהים יעמוד לצידך.תודה ידיד יקר</t>
-  </si>
-  <si>
-    <t>איתמר אייכנר</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>יחזק את דברי טראמפ: סגן נשיא ארה"ב מגיע לישראל</t>
-  </si>
-  <si>
-    <t>מייק פנס, ידיד מובהק של ישראל, ינחת היום בנתב"ג לביקור בפרופיל נמוך. הוא יביע את מחויבות הממשל לביטחון ישראל - אך בנאומו בכנסת ידגיש את הצורך בוויתורים כואבים. לרשות הפלסטינית הוא לא יגיע, וגם הרשימה המשותפת מחרימה אותו: "מסוכן וגזען"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> הביקור נדחה פעמיים, אבל הפעם זה סוף סוף יקרה: מייק פנס, סגן נשיא ארה"ב, מגיע היום (יום א') לביקור ראשון בישראל במסגרת תפקידו. ביקורו של פנס, ידיד מובהק של ישראל, ייערך בצל החרם הפלסטיני על הנשיא האמריקני דונלד טראמפ בגין הצהרתו להכיר בירושלים כבירת ישראל - הצהרה שסגן הנשיא פנס היה מיוזמיה ומהדוחפים שתתרחש במציאות. פנס משלם את המחיר על ההצהרה של טראמפ וההשלכות שלה. הביקור מתקיים בפרופיל נמוך ולא חגיגי. סגן הנשיא מגיע לכאן לקטוף את הפירות על הצהרתו של טראמפ בקרב הבייס שלו: החוגים האוונגליסטים בארה"ב והתומכים היהודים שלו במפלגה הרפובליקנית. ילדיו של סגן הנשיא לא יצטרפו אליו, אולם אשתו קארן הצטרפה למסעו למזרח התיכון.בנאומו מחר בצהריים במליאת הכנסת יביע פנס את המחויבות הבלתי ניתנת לערעור של ממשל טראמפ לביטחונה של ישראל אך גם ידגיש את הצורך בקידום השלום עם הפלסטינים ובוויתורים כואבים. הוא גם יתייחס להעברת השגרירות האמריקנית לירושלים, יבהיר שאין מדובר בהבטחה ריקה וכי הממשל יעמוד מאחוריה. בסוף השבוע דיווח "ניו יורק טיימס" כי השגריר האמריקני דיוויד פרידמן וצוות מצומצם שלו יחלו לעבוד מירושלים כבר בשנה הבאה. מטוס ה"אייר פורס 2" של פנס צפוי לנחות בנתב"ג בשעה 21:30 בערב. הוא יתקבל על ידי שר התיירות יריב לוין, אך בשדה לא יתקיים טקס קבלת פנים ממלכתי. מחר יגיע פנס למשרד ראש הממשלה ויתקבל בטקס קבלת פנים, ללא נאומים והצהרות. לאחר מכן הוא יקיים פגישת עבודה עם ראש הממשלה בנימין נתניהו. מחר בשעה 13:30 בצהריים יגיע פנס למשכן הכנסת, ובשעה 14:00 יישא כאמור נאום בפני מליאה מיוחדת של הכנסת. בהמשך הוא ייפגש עם יו"ר הכנסת יולי אדלשטיין. בשעה 20:00 בערב יגיע פנס למעון ראש הממשלה - שם יסעד לארוחת ערב חגיגית עם ראש הממשלה נתניהו ושתי הרעיות. באותו מעמד ישמיעו נתניהו ופנס הצהרות משותפות.ביום שלישי בבוקר, יוועד פנס עם נשיא המדינה ראובן ריבלין. אשתו קארן תיפגש בנפרד עם רעיית הנשיא נחמה ריבלין. בשעה 12:00 יבקר פנס ב"יד ושם" בירושלים ויניח זר באוהל יזכור. בשעה 13:45 יערוך ביקור פרטי בכותל המערבי בלוויית רב הכותל שמואל רבינוביץ' וללא ליווי של גורם ישראלי בכיר. מיד עם תום הביקור בכותל - תעשה הפמליה את פעמיה לנמל התעופה בן גוריון וסגן הנשיא ימריא מישראל. סגן הנשיא לא יבקר ברשות הפלסטינית, ואף שהוא נוצרי אדוק - הוא לא יתפלל בכנסיית הקבר בירושלים או באתרים הקדושים לנצרות בצפון. ראש הממשלה נתניהו אמר לקראת הביקור כי מדובר ב"ביטוי נוסף לקשר העוצמתי בין ישראל לארה"ב. נדבר על כמה נושאים חשובים בתחום המדיני הבינלאומי". ראש הרשימה המשותפת, ח"כ איימן עודה, הודיע לקראת הביקור כי חברי הכנסת הערבים של מפלגתו יחרימו את נאומו של פנס בכנסת. לדבריו, "נשאלתי האם יש שינוי בעמדתנו לגבי ביקור סגן הנשיא פנס. מדובר באדם מסוכן בעל חזון משיחי שכולל את חורבן האזור כולו, שמגיע בשליחותו של אדם מסוכן אף יותר, פירומן פוליטי, גזען ומיזוגן שאסור שיהיה מתווה דרך באזורנו. הרשימה המשותפת כולה תחרים את נאומו במליאה". לקראת הביקור של פנס בישראל, ערך המכון למחקרי ביטחון לאומי INSS סקר דעת קהל ולפיו 71% מהציבור סבורים כי מערכת היחסים עם ארה"ב השתפרה מאז כניסתו של טראמפ לבית הלבן. 31% מהישראלים סבורים כי מעמדה של ארה"ב כמעצמה התחזק, 31% חושבים שנחלש, ו-38% חושבים שנותר ללא שינוי. רוב הציבור סבור כי טראמפ יוכל לקדם מהלך מדיני משמעותי.בתוך כך, פנס ופמלייתו נפגשו אמש בקהיר עם נשיא מצרים עבד אל-פתאח א-סיסי. דובר נשיא מצרים מסר לאחר הפגישה כי א-סיסי ציין בפני אורחו כי היחסים בין מצרים וארה"ב הם אסטרטגיים ונשענים על היסטוריה ארוכה של שיתוף פעולה. א-סיסי הבהיר את החשיבות של היחסים בין שתי המדינות, ש"מהווים את אחד מגורמי היציבות באזור המזרח התיכון". השניים שוחחו גם על סוגיית ההכרה האמריקנית בירושלים כבירת ישראל. בעניין זה אמרו בקהיר כי "הנשיא א-סיסי הדגיש את העמדה העקרונית של מצרים בנוגע לסוגיה הפלסטינית - תמיכה בזכויות העם הפלסטיני להקמת מדינה עצמאית שמזרח ירושלים בירתה. הסדרת הסכסוך הישראלי-פלסטיני תיפתר רק באמצעות משא ומתן על בסיס פתרון שתי המדינות, ומצרים לא תחסוך מאמצים כדי לתמוך בכך". א-סיסי גם ציין את החשיבות שארה"ב תמשיך לשאת בתפקידה במסגרת זו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ביקור פרטי בכותל? בקיצור עבדו עלינו בעיניים  : הביקור מתקיים בפרופיל נמוך ולא חגיגי? : הביקור מתקיים בפרופיל נמוך ולא חגיגי
-זה מה שיש לאייכנר השמאלן להגיד?הרשימה המשותפת מיותרת ,תתפרקו  : איפה דגל ארה"ב? : ....ברוך הבא סגן הנשיא!  : ויתורים כואבים? מי אמר? תפסיקו להכריח את הגוים לכפות עלינו! : יהודים בוגדנים!
-דרך אגב מה קרה אין הפגנה ברוטשילד או שהפעם גם אתם כבר לא יכולים לשקר במספרים.
-דיקטטורה עיתונאית במיטבה!ביקור פרטי : את.הביקור הפרטי הבא אצל נתניהו נראה שפנס יצטרך לקיים במעשיהו.#ReleaseTheMemo : Why are you not covering #releasethememo??? The real news are not here. Search elsewhere.. Bad!פלפטין מגיע לבדוק עניינים מקרוב...   : “Jewish Base” : Although I voted for him and personally, I would rather see him serving as the US president, I thought that mentioning the “evangelicals and the Republican Jews “ as “ “ “Trump’s base” is utterly ridiculous. The number of Republican Jews (and I’m one of them) is minuscule while the evangelicals count for a part of Trump’s base. Most of his voters are Americans who got sick and tired of the Democrats’ useless, dishonest, agenda. And by the way, there is no Hebrew word for BASE? How about בסיס?פנס משלם את המחיר... חחח, צחקתי עד דמעות!  : באמת חשוב להדגיש בכותרת מה חושבים האוייבים שלנו : יותר חשוב מהכללסיים את הכיבוש מיד : ארץ ישראל לעם ישראל. לסלק את המוסלמים מידביקור סגן הנשיא : לזרוק את הפלסטינים (קבוצת אספסוף ) לים .מה זה פרופיל נמוך בגובה רצפה! בלי דגל אמריקאי ?  : ידיד אמת תותח אמיתי : אי אפשר לשכוח את זה שפנס הלך בעצמו לתקן ולסדר בית קברות יהודי לאחר שגזענים השחיתו אותואמן שיהיה הנשיא  : מי צריך אותך פה?? נמאס לנו מהטכסים של ביבי ושרלה  : עם ישראל חי !!!   : איימן אודה ממש איפיין את עצמו : אדם מסוכן בעל חזון משיחי שכולל את חורבן האזור כולו, בשליחותו של אדם מסוכן אף יותר, פירומן פוליטי, גזען ומיזוגן שאסור שיהיה בכלל באזורנו, בוודאי לא בכנסת.הוא לא ידבר על שום ויתורים כואבים תפסיקו לשקר שקרים  : משעשע שהרשימה הגזענית מדברת על גזענות של סגן נשיא ארה"ב.... : זה נשמע כל כך מגוחך ומשעשע...חוץ מכמה הזויים אף אחד לא מתייחס ברצינות לשטויות שעודה פולט...בטח המשרתות של גברת נתניהו מתוללות שם כמו עכברות מורעלות : נכון!! גם אני שונא את הזוג המלכותי גברת ואדון נתניהומצויין שהרשימה המטומטמת לא משתתפת ,, בלי טובות !!!  : לא מעניין ...  : איתמר אייכנר : שלוחו של נוני. אל תלקקו, טראמפ סימן אתכם ויבוא חשבון . צאו הבוקר בכותרות.השמיצות ,נראה אתכם....מוגי לב מסיתים רודפי בצע. הקרבתם את אחדות העם על מזבח הממון .שרת מוכשר : זה הוא שתפס את המטאטא וניקה בית הקברות ברצון כדרישת אדוניו ??הפינס מגיע בךךךך : היית משאיר את אשתך אצל טרמפ כך עושים המוקרבים אליו חחחחחחחחח לך חזרה פושיעהעיקר אנחנו צריכים תמיד לעשות "ויתורים כואבים" : מדינה של מפגרים נהיינוטראמפ צריך להזדרז : נותרו לו 3 שנים והוא חייב לבצע בזריזות פעולות קשות שיחייבו את הפלסטינים לחתום עם ישראל על הסכם שלום. הפלסטינים עושים את כל שביכולתם כדי להימנע ממו"מ. המטרה שלהם הרי ברורה, מדינה אחת לשני עמים. יש מישהו שבאמת מאמין שהפלסטינאים רוצים מדינת גטו?7 אתה צודק ..רק תזכיר לי מה זה מזכיר לנו ?  : לא רואה בלו"ז סלפי עם אורן חזן!? חמור מאד  : תמוה שאין בלו״ז פגישה עם ביבי, חוץ מארוחת הערב המישפחתית   : מסוכן וגזען וסגן של נשיא טמבל  : לשם שינוי אני מסכים עם הרשימה המשותפת: : עם כאלה חברים לא צריך אויבים.הכל פקא פקא : ישראל תשלם בגדול לאחר שטראמפ יודח ב2020.חכה ל2024 תאכל ת'לב : ואחכ עוד 8 שנים של פנס .בקיצור אנחנו מכוסים עד2032 .מדינת ישראל אימפריה עולמית.איזה שמאלני חולה אתה  : רוב אזרחי ארה"ב יתמכו בו : בשנה הראשונה לכהונתו הוא הוריד מיסים וחברות גדולות הגדילו את המשכורות לעובדים שלהן. הנטו של אמריקני ממוצע גדל בכ - 1,000$ לחודש!!
-אין סיכוי שהם יורידו אותו.
-תשכח ממה שאתה קורא בעיתונים. הם יהיו נגדו גם אם הוא יגיד שהוא רשע מרושע, קלינטון צדיקה, הדמוקרטים צודקים והרפובליקנים מפגרים. לא משנה מה הוא יעשה הם יכתבו נגדו. מזכיר קצת את ביבי כאן.
-תכל'ס הוא הנשיא הכי טוב שהיה לארה"ב מאז רייגן.לא נכון, חלק מהם הוא קישקוש בלבוש.  : המצרים והפלשתינים בגדו בירדנים : למה אסיסי קיבל אותו..היו צריכים הם וירדן להחרים אותו. בוז לפנס..אין מצב שארה"ב תתווך בסכסוך.מה כואב לך?  : איפה דגל ארהב : למה אין את דגל ארה"ב ליד הדגל של מצרים ?
-מזכיר לי משהו..עין חדה...מעניין מאוד....כשרפרף שהוגש לשגריר הטורקי : מעניין למה הביקור בפרופיל נמוך בישראלחבל על הזמן צריך לסיים את הכיבוש !!! : ולהעיף את כל הערבים למדינות ערב ורק המאמינים שזו מדינת העם היהודי יוכלו לחיות איתנו בשלוםאמתתת  : התכוונת להשלים את ההתיישבות של עם ישראל בארצו...  : אין לי ספק שהוא ממש מצטער על החרמתו ע"י הרשימה המשותפת : ולגבי הביקור ברשות הפלסטינית, אני מניח שלא בגלל זה הוא לא יישן בלילה.שנתו לא נדדה בכלל... : רק זה עוד ממש חסר לו... שחבורת הליצים מרמאללה תדיר שינה מעיניו... ממש בדיחהאוי אוי   : עם ידידים כאלה מי צריך אוייבים  : ביבי צדק לגבי ה ״נוהרים״ : הרבה פעמים יוצא להגיד שבדיעבד ביבי צדק, למרות כל הצחקוקים והעלבונות בזמן אמתממש : אין שכל אין דאגותמה הקשר? לוגיקה? הגיון? או פשוט פנאטיזם  : אוי לא הרשימה המשותפת מחרימה  : מקווה שהוא מגיע עם פנסים במכנסיים  : לא , הוא מגיע עם פנסים וזרקורים  : </t>
+    <t xml:space="preserve">לכל חזיר - יש חזיר גדול ממנו! </t>
+  </si>
+  <si>
+    <t>פתאום, הקפיטליזם החזירי הפך הרבה פחות נוח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סניור סניור </t>
+  </si>
+  <si>
+    <t>כסף פחות משחק תפקיד כאן</t>
+  </si>
+  <si>
+    <t>אני לא מכיר מישהו שעוזב חברה או בוחר בחברה בשביל עוד 5,000 שקל לפה או לשם. בסופו של דבר זה לא המון בנטו וברמות שכר כאלו זה לא משנה אם אני מרוויח 21 נטו או 23 נטו. מה שמעניין אותי זו סביבת עבודה ואנשים שעובדים איתי. כל מי שעבד עם בוס בעייתי או חבר צוות בעייתי יודע שבשביל מנהל שיודע לנהל כמו שצריך וחברי צוות/קולגות מגניבים, ידענים וקומוניקטיבים מוכנים להתפשר גם (קצת) בשכר. מה יהיו שווים לי ה-2,000 או ה-3,000 נטו אם אני מגיע למשרד כבוי. אם מקום העבודה שלי דורש ממני לעבוד 12 שעות מינימום ואם שיתוף הידע בחברה הוא אפס? אני חושב שאני יכול להרוויח 5+ ברוטו יותר בכל מקום אחר. בוודאות. אבל אני עובד 9 שעות ביום, לפעמים מהבית, בלי טלפונים בלילה/סוף שבוע/חופשות, עם מנהל נהדר וקולגות מקצועיים ביותר. אני לומד ועושה דברים חדשים כל יום ואני ממש נהנה בעבודה. האם זה שווה לי את ה-2.5 נטו? בוודאי שכן.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">משה מ </t>
+  </si>
+  <si>
+    <t>@המשחק לא שם</t>
+  </si>
+  <si>
+    <t>אדם שעושה 21 נטו מרוויח 35-40 ברוטו. כדי להעלות את זה ב10 נטו הוא צריך להרוויח 55-60 ברוטו + מאות אלפי דולרים בשנה של rsu (בחיים לא שמעתי על סכומים כאלה). אני חושב שאם אמאזון הייתה מציעה את מה שאתה אומר אז היו עוברים אליה גם מגוגל, פייסבוק ומייקרוסופט ולא רק מסטארטאפים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלי </t>
+  </si>
+  <si>
+    <t>דווקא בסטארטאפ ידרשו ממך לעבוד מסביב לשעון</t>
+  </si>
+  <si>
+    <t>כי יש מעט עובדים והכל על הכתפיים שלך.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blacknasa </t>
+  </si>
+  <si>
+    <t>@סניור סניור בום , פשוט נכון , הרבה מסונוורים מהמשכורת</t>
+  </si>
+  <si>
+    <t>לוקח הרבה זמן להבין שלעבוד קרוב לבית , עם אנשים טובים ושיש שיתוף מידע ותיקשורות טובה שווה הרבה מאוד כסף ... לא כולם מבינים את זה ומסתנוורים מהמשכורות , יפה כתבת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">משה </t>
+  </si>
+  <si>
+    <t>@סניור סניור</t>
+  </si>
+  <si>
+    <t>המעבר הוא לא תוספת של 5000 אלא פי 2 מהמשכורת שלך ( אלא אם אתה מקבל 90000 ) דרך אגב - אני מכיר אותך....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נו, אז איפה אתה עובד? אבוא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">צדק </t>
+  </si>
+  <si>
+    <t>כל הכבוד! הסבר יפה</t>
+  </si>
+  <si>
+    <t>אין מה לאוסיף. כל מילה במקום</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הכסף חשוב כי כל השאר ראנדום </t>
+  </si>
+  <si>
+    <t>כשאתה מתראיין הסביבה היא נעלם. כנ"ל לגבי המקום הנוכחי בעוד שנה!</t>
+  </si>
+  <si>
+    <t>אתה צודק והחזון שלך יפה אבל המציאות מורכבת יותר. אתה לא ממש מייצג. ברור שאם באמת טוב לך, ואתה אף מרגיש שזה לא סתם נוחות זמנית אלא אתה מתפתח - אתה בכלל לא יעד לחטיפה. אך העובדה היא שרוב העובדים עוברים כל 3-4 שנים במקרה הטוב. הסבר אפשרי הוא של-90% מהעובדים יש בוס בינוני שדואג לקידום של עצמו בלבד.. זה מתחלק בצורה די ברורה. כשאתה צעיר ממש, כדאי ללכת לחברה גדולה כדי לקבל חניכה מסודרת. כשאתה מבושל יותר ורוצה לקבל יותר אחריות, לעומק ולרוחב, הזדמנויות צמיחה, אולי להכנס לתחום חדש - סטארטאפ זה אחלה. אבל כשאתה מקצועי באמת, ומתכוון להשאר בתחום, ומספיק מבושל בשביל לפתור לבד בעיות טכניות ולהתמודד עם כל סביבה וכל בוס - אז כל החברות כבר נראות לך די אותו דבר. ואז אתה מרגיש שאולי אין סיבה לא לתת למשפחה שלך את רמת החיים הכי טובה שאתה יכול... חוץ מאולי יזמות - אך הדרך לשם יותר ויותר עוברת דרך תקופה בחברה גדולה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222 </t>
+  </si>
+  <si>
+    <t>צודק</t>
+  </si>
+  <si>
+    <t>תרבות העבודה של בזוס היא איומה, הוא לא מתבייש בזה, נכתב על זה המון, מי שעובר לשם בלי להבין לגמרי למה הוא נכנס, יעזוב בסופו של דבר.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המשחק לא שם </t>
+  </si>
+  <si>
+    <t>לא מדובר כ5 לחודש אלא יותר לכיוון ה10. אם אתה מרוויח 21 או 30 נטו משנה גם לך... ואז השיקול של הסביבה המושלמת אל מול האופציה לפנסיה מוקדמת כבר לא כל כך ברור מאליו. מעבר להעלאה בשכר של ה5 ברוטו יש מענקי RSU של מאות אלפי דולרים בשנה... סטארטאפ לא יכול להבטיח כזה דבר גם אם יימכר בסכום פסיכי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">האחד </t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>אני חותם על כל מילה של זה מעלי :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סטטיק קונסט </t>
+  </si>
+  <si>
+    <t>אתה צודק ב100 אחוז אבל</t>
+  </si>
+  <si>
+    <t>אם המספרים בכתבה באמת נכונים ההפרשים בשכר הם הרבה יותר מ5000 שקל ברוטו.</t>
+  </si>
+  <si>
+    <t>https://www.themarker.com/realestate/MAGAZINE-1.5599450</t>
+  </si>
+  <si>
+    <t>05.01.2018 07:32</t>
+  </si>
+  <si>
+    <t>רוני וולף</t>
+  </si>
+  <si>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>3,700 שקל לדירה במגדל הכי חדש בתל אביב. בתנאי אחד</t>
+  </si>
+  <si>
+    <t>בית החולים איכילוב בתל אביב חשש שיתקשה לגייס עובדים בגלל מחירי הדירות הגבוהים בעיר - אז הוא בנה עבורם מגדל מגורים מפנק ■ עכשיו, הרופאות, האחים ועובדי המשק מתווכחים לא רק על טמפרטורת המזגן בחדר הניתוח - אלא גם על השאלה אם מותר להכניס כלבים ללובי</t>
+  </si>
+  <si>
+    <t>רופאה מרדימה, פמפיסט (טכנולוג לב־ריאה), אחות במחלקה פנימית, איש תחזוקה, פסיכולוגית ילדים ומנהלת אדמניסטרטיבית מתכנסים בסלון ביתו של הפמפיסט. "מישהו רוצה ויסקי?" שואל המארח, ולא זוכה לתשובה. "ויסקי פעם ראשונה, פעם שנייה", הוא ממשיך לנסות, עד שנשמעת תשובה חיובית מאחד האורחים שנכנס בדיוק.זאת אינה ישיבת צוות שגלשה לשעות המאוחרות של הלילה, ואיש מהם אינו חוגג יום הולדת. למעשה, חוץ מהרופאה המרדימה והפמפיסט, הנוכחים בחדר אפילו לא עובדים באותה מחלקה. המכנה המשותף שלהם, מלבד היותם עובדי בית החולים איכילוב, הוא כתובת המגורים - כולם גרים במגדל העובדים החדש של בית החולים בפינת הרחובות דפנה והנרייטה סולד בתל אביב. המארח איתן וויזגן גר בקומה העשירית, אחת מ-29 הקומות במגדל, הכולל 274 דירות.המאורע שלכבודו התכנסו הוא הדלקת נר ראשון של חנוכה. מרבית הנוכחים הם בשנות ה-30 לחייהם, חלקם רווקים, לאחרים יש ילדים וגם הם נמצאים שם. וויזגן מארגן סיור מודרך לחדר האמבטיה, שנהפך למוקד השיחה. בניגוד לרוב הדיירים, לוויזגן יש מקלחון במקום אמבטיה, אך האטרקציה המרכזית אינה המקלחון, כי אם גודלו יוצא הדופן, הן ביחס לגודל הממוצע והן ביחס לקומפקטיות של הדירה - 36 מ"ר בלבד. הדירה של וויזגן נגישה, כלומר נועדה למגורים של אדם בכיסא גלגלים, והמקלחון הותאם לאפשרות הזאת, אבל משום שלא היה לה ביקוש על ידי נכים, וויזגן קיבל רשות לגור בה, בידיעה שאם יהיה בה צורך - יהיה עליו להתפנות.אחת הסיבות שבגללן וויזגן, 38, במקור מאילת, הסכים לסידור הזה, היא הסיוט שקדם לו. עד שעבר לדירתו הנוכחית, הוא היה מגיע מדי יום לאיכילוב מהתנחלות בדרום־מערב השומרון. "לא היתה לי ברירה. חיפשתי דירה בתל אביב, אבל לא היה לי משתלם לגור פה בגלל המחירים הגבוהים", הוא אומר. וויזגן העדיף את הפקקים על פני בית שהוא לא יכול להרשות לעצמו לגור בו, עד שגילה כי הוא זכאי לדירה בבניין.שכנתו לקומה, עדי פינטו, 27, אחות באחת המחלקות הפנימיות, הגיעה עד לא מזמן לאיכילוב מצפת הרחוקה. "הייתי על קו תל אביב־צפת במשך כמעט שנה, ולכן הייתי עם אחוז משרה נמוך יותר. לא יכולתי להרשות לעצמי להגיע לעוד משמרות", היא מספרת, ומברכת לשלום אדם נוסף שנכנס בדלת. "לא רציתי לגור עם שותפים, והמחיר הכי נמוך שמצאתי לדירת יחיד לא ירד מ-5,000 שקל בחודש. העדפתי לעשות את הנסיעות האלה, לשלם על חופשי־חודשי, להתארח אצל קרובי משפחה במרכז, ולחזור לצפון. ברגע שאמרו שפתחו את הבניין הגשתי מועמדות, טסתי לתאילנד, חזרתי והצלחתי לתפוס דירה".שכר הדירה שאותו משלמים וויזגן ופינטו - 3,700 שקל בחודש על דירת 2 חדרים חדשה - נמוך ב-20%–30% ממחירי השוק. "אני משלם 3,700 שקל, וזה עדיין זול לעומת מה ששילמתי בשומרון, אם משקללים את עלות הדלק והזמן שבו ביליתי בפקקים", אומר וויזגן, שמעריך כי רבים מדיירי הבניין עברו אליו מהפריפריה."הכי קשה למצוא דירת יחיד"המרפסת של וויזגן צופה על מגדלים רבים שמעטרים את קו הרקיע מצפון לקניון עזריאלי - ממגדל Yoo ועד מגדלי אקירוב - שכרטיס הכניסה אליהם הוא כסף. והרבה. בשונה מהם, הדירות במגדל איכילוב, שנבנה בשטח בית החולים, מיועדות להשכרה לסגל העובדים וקרוביהם מדרגה ראשונה בלבד. הרעיון נולד ב-2013, בעת הקדנציה של מנכ"ל בית החולים הקודם, פרופ׳ גבי ברבש, שהבחין ששכר הדירה הגבוה בתל אביב מקשה עליו לגייס עובדים חדשים. ברבש העביר את הלפיד למנכ״ל הנוכחי, פרופ׳ רוני גמזו, שהמשיך לקדם את הפרויקט ואף היה מעורב בו באופן אישי."בית החולים מעסיק 7,000 עובדים, וכשיש לך ארגון שמעסיק הרבה עובדים שהם לאו דווקא ברמה סוציו־אקונומית גבוהה - אחיות שעובדות בשכר מינימום ואנשי משק - אך מקום העבודה שלהם הוא במרכז תל אביב, בשיא של החיים היקרים, נוצר דיסוננס״, מסביר גמזו ל–Markerweek. "אם אתה לא פותר את זה, ומספק ל–10%–20% מהעובדים שלך דיור בר השגה, זה יכול להגיע למצב שבו תהיה לך בעיית העסקה. היה לנו קשה לגייס אחיות וכוחות עזר, וגם המתמחים היו במצוקה, שרק גדלה בשנתיים האחרונות".הבנייה התחילה ב-2015, והדירות אוכלסו בספטמבר האחרון. שמונה הקומות הראשונות הן חניון המשרת את כל עובדי איכילוב, והתשיעית היא קומת לובי משותפת הכוללת מעון יום של ויצ"ו, גן עירייה, משחקייה, מכבסה (כי רוב הדירות קטנות מכדי לשים בהן מכונת כביסה), פינות ישיבה, ובעתיד גם חדר כושר ובית קפה. יתר הקומות נועדו למגורים, ובכל קומה 14 דירות בממוצע. עלות ההקמה היתה יותר מ–100 מיליון שקל, במימון משותף של בית החולים, משרדי האוצר והבריאות ותרומה אנונימית של יותר מ-10 מיליון שקל. בית החולים מעריך כי ייקחו לו עשר שנים להחזיר את ההשקעה.רוב הדירות במגדל בנות 2 חדרים (115 בסך הכל), והיתר דירות 3 חדרים (82) ודירות סטודיו (77). הדירות קומפקטיות למדי, וגודלן הוא 25 מ"ר לדירת סטודיו, 36 מ"ר לדירת 2 חדרים ו-56 מ"ר לדירת 3 חדרים. המחירים מתחילים ב-2,868 שקל לחודש לדירת סטודיו, 3,681 שקל לדירת 2 חדרים ו-4,780 שקל לדירת 3 חדרים. ככל שהדירה ממוקמת בקומה גבוהה יותר - כך עולה שכר הדירה. כמו כן, כל הדירות אובזרו בריהוט חלקי ובמכשירי חשמל, ובהם מקרר, תנור, כיריים, מיקרוגל וטלוויזיה המחוברת לסלקום TV.״אין כיום דמי שכירות של 4,000 שקל לדירת 3 חדרים בתל אביב באזור הזה, אומרת איירין סאקצר־בנשטרית מ-A to Z נדל"ן, משרד תיווך ברחוב ויצמן הסמוך. "במחיר הזה את תמצאי באזור רק דירה מחולקת. דירת 3 חדרים לא תמצאי בפחות מ-6,000 שקל. השכירות לדירות 4 חדרים היא כבר קצת יותר מ-7,000 שקל בחודש, והקושי הגדול ביותר הוא למצוא דירת יחיד".שוק הנדל"ן התל־אביבי הוא הגיהינום הפרטי של אנשים רבים בעיר, אבל מי שסובל ממנו במיוחד הוא ציבור הרווקים והרווקות, שברגע שמאסו בחיי השותפות, נאלצים לשלם סכומים אדירים מדי חודש, הקרובים מאוד לאלה שמשלם זוג. "המחירים באזור לדירת יחיד של 20–25 מ"ר הם סביב 4,500 שקל בחודש, ואפילו 5,000 - לא זול בהרבה מדירת 3 חדרים", אומרת סאקצר־בנשטרית, שמסבירה כי הסיבה לכך היא הביקוש הגבוה לעומת ההיצע הנמוך. "אם את לא רוצה לגור עם שותפים אין כמעט דירות יחיד, אז כשכבר יוצאת דירה לשוק אנשים חוטפים אותה".ובכל זאת, לא כולם משוכנעים שהבחירה במגדל מגורי העובדים היא החסכונית ביותר. סמיר עווד, 25, אח במחלקה הנוירו־כירורגית, שגר לבדו בדירת סטודיו, עבר לבניין החדש ממעונות העובדים שמעל בית הספר לסיעוד, שם הוא שילם 1,500 שקל לחודש. "הייתי חוזר לגור במעונות בכיף", הוא אומר. ״בהתחלה התלהבתי מהבניין, הוא חדיש ומודרני, אבל ביחס למשכורת לא נשאר לי ממה לחיות. שכר הדירה בצירוף דמי הניהול (כ–200 שקל בחודש), הארנונה (400 שקל לחודשיים) והחשבונות מצטברים לסכום שמגיע ל–60% מהמשכורת שלי".עווד מציין כי בהחלטה לגור בבניין הוא מוותר על סיוע בסך 1,500 שקל בחודש בשכר הדירה, שאותו היה זכאי לקבל מבית החולים, לו היה שוכר דירה במקום אחר (אחים ואחיות מקבלים סיוע בשכר דירה בסך 500–1,500 שקל, לפי עומס העבודה במחלקה; ר״ו). אף שהוא שוקל לעזוב, הוא מודה כי לבניין גם יתרונות: ״אני יכול לישון יותר, מפני שזה קרוב, וזה משמעותי במיוחד אחרי משמרות לילה. המקום די נחמד, קומה טובה, והכל חדש הכל לבן"."בלי נחשים"למנהלי הבניין לא יהיה קשה לאכלס את דירתו של עווד אם יחליט לעזוב, מהסיבה הפשוטה שהביקוש מצד העובדים היה כמעט פי שלושה מההיצע. יותר מ–700 מעובדי בית החולים התמודדו על 274 הדירות במגדל. ההחלטה הופקדה בידי ועדה מיוחדת של בית החולים, שפעלה לפי קריטריונים שנקבעו מראש. למשל, ניתנה עדיפות לעובדים בתחומי הטראומה וההשתלות כדי לשפר את זמן התייצבותם בעבודה במקרי חירום, וגם למי שעובדים 16 ואפילו 24 שעות במשמרת.יותר מ-100 דירות הוקצו למגזר הסיעוד, 80 לרופאים, כ-40 לעובדי מינהל ומשק וכ-40 דירות נוספות למקצועות הבריאות. "במגדל כמעט לא גרים עובדים מהדרג הניהולי", אומר גמזו. "וגם אם אנשים במצב כלכלי טוב יותר קיבלו זכאות לגור בו מסיבות אחרות - שמו אותם בקומות הגבוהות, שם גם השכירות גבוהה יותר״. גמזו, אגב, אינו רשאי לגור בבניין.תהליך המיון לא היה קל, מספר סמנכ"ל משאבי אנוש שבי שמלו, שחלון משרדו צופה על הבניין. "התהליך היה ארוך מאוד. בילינו פה לילות עם ההנהלה, ועברנו על מאות שמות. יש פה אנשים שלא כל כך אוהבים אותי, מפני שהם קיבלו תשובה שלילית״, הוא מספר, ומתגאה בכך שגם מנהל המיון החדש גר בבניין עם שלושת ילדיו.על שלל ההחלטות שקדמו לאכלוס - ובעיקר השאלה אם לאפשר לדיירים להביא עמם בעלי חיים או לא - הוא טוען שהיה יכול לכתוב ספר. "התלבטנו כמעט בכל נושא אפשרי, כולל צבע הקרמיקה. כשהבאתי לשולחן ההנהלה את סוגיית החיות, חלקם אמרו 'אתם השתגעתם, אלה מגורי עובדים', ואחרים סברו שאלה לא מגורי עובדים - זה בית. במגורים אתה בא לישון, עובד וחוזר, אבל הבניין הוא בית לכל דבר ועניין. לבסוף החלטנו שמותר להכניס חיות, אבל בלי נחשים".ההחלטה לאפשר להכניס בעלי חיים לבניין נהפכה לסוגיה נפיצה לאחר שאחד הדיירים הואשם בפומבי בכך שהתיר לכלבו לעשות את צרכיו בלובי הפתוח. המאשים העלה תמונה מפלילה לכאורה של הדייר וכלבו לקבוצת הווטסאפ של הבניין - שבה חברים יותר מ-250 איש - לצד כיתוב נוזף. הדייר טען לחפותו, ואיים בתביעה, שבוטלה בעקבות פרסום הודעת התנצלות בקבוצה מצד הדייר המאשים. בעקבות הפרשה, זכו שונאי הכלבים בבניין לכינוי "דוג קלוקס קלאן", וההחלטה הסופית בדבר השהייה של כלבים בלובי הפתוח תוכרע סופית ברגע שייבחר ועד לבניין וינוסח תקנון.הדיירים אמנם נפגשים מדי יום בחדר הכביסה, בגני הילדים ובמעליות, אך הזירה העיקרית שבה מתרחשים החיים המשותפים היא הזירה הדיגיטלית - דרך שלל קבוצות ווטסאפ משותפות לדיירי הבניין, המהוות תתי־קהילות. פינטו, למשל, חברה בלא פחות משש קבוצות שונות: "קבוצת בעלי הכלבים, קבוצת הדירות הנגישות, קבוצה של קומה 11, קבוצה של כמה דירות סביבי שנהפכנו לחברים, קבוצת האחיות והקבוצה הכללית של הבניין. מאז שעברתי לפה הווטסאפ שלי נהיה בלתי־נסבל".הנושאים שמעוררים את הדיונים הסוערים ביותר בקבוצת הווסטאפ הכללית הם דמי הניהול ותשלומי הארנונה. הדיירים טוענים כי דמי הניהול (200–270 שקל בחודש, תלוי בגודל הדירה) גבוהים מכפי שהובטח להם בתחילה, וגם מוחים על כך שנגבו מהם דמי ניהול מלאים גם בעבור החודשים הראשונים לאכלוס, שבהם היו לטענתם ליקויים רבים בבניין, כמו מעליות שלא עובדות ("אנשים עשו הרבה ספורט"), קירות לא צבועים, חדר כושר שעדיין לא פועל ופיר אשפה שנסתם בכל סוף שבוע. כמה דיירים אף תיארו את המגורים בבניין בחודשים האלה כשהות בתוך אתר בנייה.בהקשר זה אומר שמלו כי "נעשה מאמץ אדיר לאכלס את הבניין במועד, וגובה דמי הניהול הוחלט מראש. ערכנו סקר; אין פה מגדל בסדר גודל כזה שגובה כזה סכום (דמי ניהול במגדלים אחרים באזור יכולים להגיע ל–1,000 שקל בחודש; ר״ו), ויש הפרש שבית החולים סופג. גמזו הציב מראש גבול נמוך מאוד של תשלום לצד דרישות גבוהות באחזקה", טוען שמלו.ואולם הסערה הגדולה באמת מתחוללת סביב תשלומי הארנונה. על דירת סטודיו של 25 מ"ר דורשת העירייה מהדיירים ארנונה בסך 400 שקל לחודשיים, ועל דירות 3 חדרים יותר מ–900 שקל. בימים אלה מנהלים העובדים מאבק לקבלת הנחה בארנונה. "אלה מגורי עובדים לכל דבר - אנחנו נמצאים בתוך שטח של בית החולים, ומי שיוצא או נכנס לבניין מקומה מינוס אחת מגיע מהאזור של המשק וחדרי הקירור, שם את נפגשת עם זק"א והגופה הנחמדה שיוצאת מהמקרר באמצע הלילה", מספרת מילנה דובין־סטופ, אחות במחלקת טיפול נמרץ לב, המתגוררת בדירת 3 חדרים בקומה עשירית עם בעלה ובתה ארבל בת השלוש."למרגלות הבניין יש טורבינות ורעש בלתי־פוסק שאין לך שליטה עליו. בבניין רגיל יש חוק מניעת רעש - שלא חל פה. הדיירים לא יכולים לומר 'הרעש של חצר המשק היא מטרד'. גם הדירות עצמן - אין לנו מקום למכונת כביסה בדירה, צריך להתפשר לכאן או לכאן", היא מוסיפה.דובין־סטופ עברה למגדל באיכילוב מדירת 100 מ"ר בנתניה שעליה שילמה 4,400 שקל בחודש - כמעט 400 שקל פחות משכר הדירה הנוכחי שלה, ודמי ועד הבית היו 150 שקל בחודש. עם זאת, היא לא מתלוננת. "הוספתי לעצמי שעתיים של איכות חיים עם הילדה שלי, שהולכת לגן בבניין. אני רואה איך היא גדלה, ואני זמינה יותר בעבודה״.בניגוד לטענות על גובה דמי הניהול, ההנהלה תומכת במאבק העובדים להפחית את תשלומי הארנונה, וטוענת כי הסכומים הגבוהים נובעים ככל הנראה מטעות מדידה של העירייה בגודל הדירות. עד שהנושא יגיע להכרעה, הדיירים התבקשו לא להעביר את התשלום לעירייה."זה אמנם אזור 1, היקר ביותר בתל אביב, אבל אנחנו חושבים שנכון שאנשים שגרים בבניין עם כל כך הרבה דירות בקומה יקבלו מקדם סבירות", אומר גמזו. "אנחנו בבירורים עם העירייה לגבי המטראז׳, הוא קצת גבוה יותר ממה שאנחנו מכירים, וייתכן שנמדדו אלמנטים שלא אמורים להיות מובאים בחשבון (ככל הנראה המרפסות; ר״ו). זה לא פרויקט מגורים רגיל, ואנחנו מנסים למצוא את המסגרת הנכונה״."מותאם לנוף התל־אביבי"מתחמי מגורים עירוניים המיועדים לעובדים של תעשייה מסוימת אינם המצאה חדשה, והיו קיימים פה עוד לפני מגדל איכילוב. הדוגמה הבולטת לכך היא השיכון העירוני השיתופי, שהוקם בשנות ה-20 ביוזמת המוסדות הציוניים. ספינות הדגל של השיכון העירוני השיתופי באותה תקופה היו שיכוני העובדים, שהוקמו ברובם בתל אביב, ושתכנונם נועד לממש את רעיון השיתופיות ואת בידולה של השכונה מהעיר."הרעיון היה ליצור קהילה ולייעד אותה לעובדים - לא בהכרח עובדים מסוג מסוים, אבל חברי עובדי ההסתדרות״, מספר פרופ׳ אמנון להבי, דקאן בית ספר רדזינר למשפטים, המרכז הבינתחומי הרצליה והמנהל האקדמי של מכון גזית־גלוב לחקר נדל"ן. "היה בית עם המון דירות, והאדמה היתה של קק"ל, שמסרה את נכסיה לימים לרשות מקרקעי ישראל. האגודה השיתופית שהוקמה לצורך העניין שכרה את כל הבית כמכלול ומי שהתקבל כחבר לאגודה רכש מניה - שנתנה את הזכות לחזקה בדירה מסוימת״.מי שהתקבל למגורי העובדים היה יכול לגור בהם במשך כל חייו - זאת בניגוד לעובדי איכילוב הרשאים להשתכן בהם רק כל עוד הם עובדי בית החולים, ובמשך לא יותר מחמש שנים. עם זאת, לא מתוכנן גירוש המוני ב-2022, וכוונת בית החולים היא להאריך את החוזים למי שידרוש ונחיצותו עבור בית החולים תישאר גבוהה.בניגוד לבניין תל־אביבי ממוצע, שבו כל דלת צבועה בצבע אחר ובכל קומה יש ארבע דירות לכל היותר, הקומות במגדל זהות לחלוטין וכך גם המפרט של הדירות. הניסיון לשמור בכל זאת על מידה של אינדיבידואליזם מחלץ מהדיירים פתרונות יצירתיים, כמו הדבקת אריחים במטבח, החלפת הווילונות שמגיעים עם הדירה, והתקנת אהילים דומיננטיים."כל דירה היא אחרת. את תראי את האישיות של האדם שגר בה - אפילו אם יש לו אותה ספה (שמגיעה עם הדירה; ר״ו)", אומרת דובין־סטופ, שמצאה פתרון יצירתי משלה לבעיה. משקוף דלתה מעוטר במגנטים רבים שבהם מופיעים היא, בעלה ובתה בשלל אירועים. "מצאתי פתרון שאינו מקובע לקיר. היה לי חשוב השיוך לבית, שיראו מי גר כאן".מתכנן הבניין, אדריכל חיים קהת ממשרד מנספלד קהת אדריכלים, אומר כי קיים קושי אדריכלי לתכנן מגדל מגורים מסוג זה בלי שהדיירים ירגישו שהם גרים בבית חולים או בבית מלון. אחד האמצעים לכך, לדבריו, היה יצירת כניסה לבניין גם מהרחוב. "אם את באה מבחוץ, את נכנסת למגדל כמו בכל בניין אחר. יש אמנם כניסה גם מבית החולים, אבל מבחינת התפישה, את באה לבניין מגורים", הוא מסביר.אמצעי נוסף הוא הקשר לקרקע. "יצרנו קרקע מלאכותית - אמנם בקומה השמינית - אבל נעשה מאמץ עיצובי גדול כדי שמי שיורד למטה יקבל מקום מפגש, מכיוון שבדרך כלל הלובי הוא בקומת הקרקע, מה שלא התאפשר לנו בפרויקט הזה (שנבנה על חניון; ר״ו). רצינו ליצור מקום שבו הדיירים ירגישו שהם בבית ולא בבית חולים או מוסד ציבורי, ולכן גם החלטנו מראש לא לעטוף את הבניין בזכוכית".קהת אומר שהבניין "מותאם לנוף התל־אביבי", ורואה לחיוב את העובדה שהוא נועד למגורי עובדים. "ברגע שמישהו רוצה לשווק דירות יוקרה, הוא צריך לעשות כל מיני פעולות כדי לשוות לבניין מראה מכירתי. אני שמח שלא ביקשו ממני לקשט את הבניין. חשתי הזדהות עם המטרה".על ניצול השטח הוא מספר כי הבניין נבנה על חניון בן שלוש קומות, דבר שדרש תכנון בשכבות, פתרון שמדובר בו יותר ויותר לאור מצוקת הקרקעות החמורה בערים הגדולות בישראל. על העובדה ששליש מהבניין הוא בכלל חניון שנועד לעובדי איכילוב, אומר קהת: "בניגוד לתכנון המסורתי, שבו בכל מבנה רק סוג אחד של שימושים - כיום ברור שצריך לערב שימושים ולתכנן בשכבות".לגבי דמי הניהול, הוא אומר: "לבנייה לגובה יש מחיר - היא יקרה יותר וזה דורש אחזקה. בנייה כזאת גם דורשת מערכות יקרות יותר. זה עולם אחר וצריך להפנים שיש פה טרייד אוף: את גרה קרוב יותר, בצנטרום של הפיילה, ואת מקבלת יותר נוף".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איזה שטויות זה נוף : כמה זמן כבר מסתכלים מהחלון. העיקר שמהחלון לא יהיה משהו מזעזע. אבל נוף? מה זה ים,פארק - זה סתם קישקוש הנוף משם - דיבור של איש מכירות. סופית ת"א הפכה לעיר של עשירים. אין מה לעשות השיטה הכלכלית של כסף כחוב עשתה את שלה. מן הסתם במקום הכי מבוקש המחירים הכי גבוהים. התכנון של הסדר העולמי החדש זה לשים את העשירים בביניינים הגבוהים והעובדים מתחת לאדמה. יש רק 2 בעיות עם זה - הבניה מתחת לאדמה יקרה יותר ואין שם נוף...האם הם משלמים שווי מס? : בהיטק היה נהוג רכב צמוד עד שהמדינה ביקשה שנשלם שווי מס שהכחיד את התופעה. האם ידרשו ברשות המיסים לשלם שווי מס על ההבדל בין המחיר המסובסד למחיר המלא של הדירות?67 מטר בגבעתיים ב 4000 עדיף על 56 מטר ב 4780 באיכילוב : אז למה לא? כי כולם רוצים לגור בתל אביבהלוואי והיו בונים אלפיים דירות : החזר השקעה ב 10 שנים זו החצנת עלויות של 400% : החזר השקעה במגורים הוא 40 שנה ואיננו כדאי. כאן בוצע סבסוד עצום ממשאבי הציבור. דיור בהישג יד הוא בעיה בכל הערים היקרות שעדיין זקוקות לעובדים בשכר נמוך בזמינות גדולה. הפתרון הוא כמובן ניהול הביקושים באופן שמחירי הדיור לא יצאו מפרופורציות ולא סבסוד הכישלון. ברלין כדוגמה.שאפו על הכתבה : כתבה משובחת, מקיפה, מסקרת מכל כיוון ומושקעת מאוד. יפה מאוד. כל הכבוד לך.זה גם מגדל המגורים הכי יפה בתל אביב : נקי, אנושי, ופשוט.וכמה המדינה משקיעה בהשארת צוות טיפול-בית או בי"ח בצפת בהשוואה לזה? : שירות רפואי שיוויוני ומגורים זולים יחסית : הכי פשוט: למכור את שטח הנדלן הסופר יקר עליו בנוי קומפלקס איכילוב ולהעביר את כל הפעילות לדרום תל אביב. יפתור כמה בעיות בבת אחת.מחירי שכירות נחתכים גם במדינת ת'א : בגלל ירידות מחירי הדיור ,גם מחירי השכירות בירידות חדות ,חוק שכירות הוגנת הוזיל מחירים בוודאות.חתול-בריאות בתמונה השישית... : מכניסים גם מחבלים? : התנחלות בשומרון - ימח שמך רוני וולף טינופת : קרקרעיון טוב : לא פותר את בעיית הדיור בת"א, רק פיקוח על המחיר כמו שמקובל באמסטרדם ביחד עם בנייה מהירה של דיור בר השגה, ולא רק מגדלי יוקרה עם דמי ניהול אסטרונומיים. מה קרה לפרויקט הקונטיינרים, לחברות סיניות או רוסיות שמשתמשים במדפסות תלת-מימד ומקימים בית תוך מספר ימים-שבועות?זאת שחיתות : למה שעובדי מדינה יהנו מאדמות מדינה השייכות לכולנו . גם שוכר שעובד בפיצריה מגיע לו לחיות טוב@שוקי : אם הוא עובד 16 שעות ביממה בשביל לטפל בי, בהחלט מגיע לו.@שוקי ועוד בת"א, מילא היו רוצים לקדם עריות פיתוח. : תפנימו אנשים רק מאורגן. פחות כסף באוויר יותר חיים : אשליית הבחירה הקפיטליסטית התחלפה במירוץ מטורף אחר עוד וחזירות של בעלי ההון. מגורים מאורגנים, חנויות חברתיות וכד, תוך הבטחה שבעלי עניין רעים לא השתלטו על זה זה התשובה לצורך הביסיסי של האדם. ביטחון ואושר. הלאה החזירות הקפיטליסטית. פחות מטר בדירה וחיים מלאים יותר.@הסוציאליסט כמו קיבוץ לדוגמא? באמת עבד יופי... : 3700 שקל ל 36 מטר ואתם מציגים את זה כדבר חיובי ?? : 200 ש"ח ארנונה לחודש והם בוכים?שכ"ד מצחיק,אין עלויות רכב וחניה,גן ילדי : מה שלא יעשו למען אנשים הם יתבכיינו. קיבלו דירות חדשות מאובזרות , קיבלו שעתיים שלוש מהחיים בכל יום, אין להם בעיות של פקקים, חניה או בלאי על רכב או נסיעה באוטובוס צפוף. דירה במיקום בין הטובים במדינה, גן ילדים, גינת משחקים, דירות חדשות מאובזרות ועם הנהלה לבניין כך שהדירות מתוחזקות, הנחות בתשלומי עירייה... בקיצור קיבלו הטבה ששווה אלפי ש"ח, שווה איכות חיים, שווה שעות שינה או שעות בילוי עם המשפחה או שעות חסכון לשלם למטפלת או בייביסיטר . ומה עושים הישראליים שזכו להטבה שכל עובד במדינה היה חולם עליה ? רוצים עוד . מתבכיינים שכל הדירות נראות אותו דבר , כי באמת בכל בניין ישראלי ממוצע הדלתות שונות אחת מהשנייה... וזה מאוד חשוב . לא טוב לכם הספות שקיבלתם בחינם? תחליפו אותן, באמת בעיה קשה הפילו עליכם. עכשיו פועלים לקבל הנחות מהעירייה. למה ? אנשים בריאים ועובדים ומשתכרים יפה. מדוע שיקבלו הנחה? מי כמוהם יודע איך נראים חיים של אלה החולים הקשים , הנכים שאכן זקוקים להנחות כי אינם יכולים לעבוד באופן מלא.שבעלי הדירות מתעללים בדיירים בתל אביב : במקום לבנות מגדלים כאלה בכל הארץ עם חברות בנייה גדולות וערבות מדינה . כך שהשוכרים יכולים להתנהל מול חברה שתשמור על הבתים תתנהג בכבוד לדיירים עם שירות ונתינה , תתן שירותי כביסה ואינטרנט , לובי בתי קפה וסופר . חברות שינהלו בניינים כאלה לשכירות ויוכיחו התנהלות הוגנת ושביעות רצון של רוב הדיירים יקבלו עדיפות במכרזים לבנייה , לקרקעות במחיר מוזל ולבניינים באזורי תעשייה . שירות טוב יקבל תגמול מעולה וייצור תחרות ובסופו של דבר יגרום לירידת מחירים ולא להתעללות בלתי פוסקת בצעירים ובזוגות צעירים שרוצים להקים משפחה או סתם לחיות בכבוד.ככה מתחילה עבדות : המעסיק (מעביד?) מספק לך דיור וחינוך לילד (בינתיים רק גן)... תפסיק לעבוד אצלו, תאבד את המגורים והחינוך... התחלה יפהכל הכבוד להנהלת איכילוב על הפיתרון היצירתי : העירייה יכולה לוותר על 50% מתשלום הארנונה לטובת העובדים החיוניים לעירהיה טוב אם היו מקימים עוד הרבה מגדלים כאלה בתל אביב ובגוש דן. : תל אביכס : עיר של דוגמניות שבאות לתפוס טייקונים בימבות. כסף קונה אהבה ????@פקקים וגנבים איכס של עיר : גגהמיגדל הכי חדש בת״א : פשוט פיתרון נהדר ! לכל אנשיי הצוות הרפואי שעובד במרת״א זה פשוט מגיע הם עושים עבודת קודש ומגיע להם זכויות כאלוו אני ממש בעדבית חולים לא יכול לקבל מהעירייה פטור מארנונה? זה פחות חשוב מבית כנסת? : האנשים האלה מספקים את השירות הכי חשוב שיש. כל עוד הם מתגוררים באיזור בית החולים - הם זכאים לפטור מארנונה!@איתם בגרמניה יש שם אחר למס הזה. והוא עולה ועולה... : @איתם קשקוש. מאיפה מגיע תקציב העירייה? כך או כך אתה משלם. : @סוציולוג האנשים האלה אנשים עובדים כמו כל אזרח עובד במדינה.לא מתנדבים : הוא לא אמור. אין בשום עיר נורמלית בעולם שקר כזה : שנקרא ארנונה. אני חי בברלין חברים שלי בוינה ובפריס וברומא ואין גנבים מהסוג הזה שיש לכם שם בגיהנום שלכםאיזה רעיון יצירתי : אצלנו אפילו לא דואגים לחנייה לעובדיםזה מגדל יוקרה שלא יבלבלו אתכם..יש כאן כוונה לקבל תקציב או משהו כזה : כי כל מי שהיה שם רואה את הפאר מכל פינה ומי שגר שם רחוק מלהיות במצב סוציואקונומי כמו שמנסים להראות בכתבה. אין שום רעש ויש את הנוף הכי יפה בתל אביב.. כנראה שמנסים להשיג הנחה בארנונה או משהו כזה אז ממציאים את הכתבה הזוקנאי : ... לא מכובד.... תאחל לעצמך גם כן כאלו מגורים (אם אתה אוהב את זה) אבל אל תלכלך בגלל קינאה.רעיון נחמד מאוד. בהצלחה. : חרא של עיר : גם אם הייתי מקבל את זה לא הייתי שורד חודש עם המשכורת שלי@מישהו תחזור לשטיטל, משם הגיע אביך העגלון : הקברן : במקום לממן להם באותו הסכום השתתפות במגורים במקום בו יעדיפו לגור. ותזכורת ל"זוכים": אין מתנות חינםעובדים מרוצים : מחשבה מחוץ לקופסא - גאוני ומהפכניכתבה מדהימה : כתוב טוב כל כך מי זאת הרוני האלמונית הזאת?@יחזקאל סתם טינופת : דררכתבה מרתקת : *אשמח לעבור לשם מחר בבוקר; אולי גם אמצא גם אחות רחמניה : רק מה עם רעש האמבולנסים?עצוב ושערורייתי שמתלהבים מכזה מחיר על כזו דירה : 3700 ש"ח לחודש על דירה קטנטונת של 36 מ"ר? זה מעל 100 ש"ח ל-1 מ"ר, זה כמו לשלם על דירת 4 חדרים (יחסית קטנה) של 100 מ"ר מעל 10,000 ש"ח לחודש! ממש מחיר מדהים פחחחח@השוואה מוזרה. : איזה מגדל יוקרה ואיזה נעליים? דירת חדר מצ'וקמקת... אתה מאלו שאוכלים כל לוקש :(@יוסי זה בכל זאת דירה מרוהטת וחדשה במגדל יוקרה. : פתרון הזוי לבעיה. שתי מילים: תחבורה ציבורית. : לת@אחד הבעיה האמיתית היא תחרות עם הפריפריה על רופאים. : החליטו לתגמל רופאים בפריפריה עם שכר גבוה יותר, ואיכילוב לא רוצים לאבד רופאים. ברור שעובדי בית יכולים להרשות לעצמם לשכור דירה בת"א או בערי הלווין אם הם מעוניינים, אבל חלק עלולים להחליט שיותר משתלם לעבוד בפריפריה. אז איכילוב מצאו דרך חדשה לתגמל עובדים. ת"א זה המקום האחרון שחסר בו כח אדם איכותי, ואין באיכילוב שום בעיה לגייס כוח אדם. כח האדם האיכותי חסר בפריפריה. לא ברור איך משרד הבריאות אישר את זה, ביד אחד מאשר תוכנית למשוך רופאים לפריפריה באמצעות תוספת שכר, ביד השניה מסבסד לרופאים דיור כדי שישארו בת"א. חלם.@אחד תחבורה ציבורית מקלה אבל לא פותרת, ראה לונדון פריס אמסטרדם : ומה עם מיסים? : כשמקבלים את התשלום על העבודה בשקלים יש את כל הקטע המעצבן עם המיסוי. חבל שאני לא עובד באחוזה פאודלית.יחזירו את ההשקעה בתוך עשור : מהלך עסקי נטו יכלו להסתפק בשכר דירה נמוך יותר גם 5 אחוז תשואה זה הסדרשכל : קצת שכל והנה התוצאה למה לא רואים עוד פרוייקטים כאלהתל אביב הפכה לעיר דוחה בלי הפסקה : ווואו כמה שטויות בכתבה הארוכה והמייגעת הזאת : מה שמדהים באמת : זו העובדה שהציבור הישראלי מדבר על דירות במונחים של חדרים במקום במונחים של שטח. ככה אפשר להגיד שאתה גר בדירת 2 חדרים או 3 חדרים ולא להתקפל מבפנים מהמחשבה שמדובר ב-35 או 55 מטר רבוע. מבזק - 35 מטר רבוע זו דירת סטודיו, חדר אחד, ולא 2. 55 מטר רבוע זו דירת 2 חדרים, ולא 3.ממתי אחות מרוויחה שכר מינימום?? הם המתוגמלים ביותר : התרגלו להתבכיין כמו המורות, אכלו לי שתו לי - יאללה ועד, להשבית המשק!אתה צודק בבהחלט : רוב החברה האלה חוצים את ה10 בקלות ומרוחים הרבה יותר מרבים שעושים משמרות ושבתות במקומות תחרותיים. העלייה במחירי הדירות היא בדיוק בגלל עובדי המדינה שמקבלים משכורות גבוהות והם ברובם יכולים לקנות דירות או לשכור במחירים זולים בתל אביב@שכל זאת עבודה קשה. והמשכורות בארץ עוד מאוד נמוכות. : תסתכל מה שאחיות מרוויחות בארה"ב.@שכל : אני מרוייח משכורת יפה, לא יפה כמו של מהנדס אבל אל תשכח שבשביל המשכורת היפה הזאת, צריך לעבוד לילות, חגים ושבתות, בזמן שאתה ובני משפחתך יושבים סביב שולחן שבת או חג, או יוצאים לטייל עם המשפחה אני מגיעה לבית חולים לטפל בחולים, ותגיד תודה שאנחנו נמצאים שם, כי אם אתה ומישהוא מבני משפחתך לא ירגיש טוב ( חס וחלילה), יש לאן להגיעה. אגב את מוזמן להצטרף, תמיד זקוקים לאחיםמשכורת מינימום : המשכורת הגבוהה היא כתוצאה מעבודה בהרבה משמרות כפולות, משמרות לילה, שבתות, חגים, עם חולים ומחלות מכל הסוגים, מי שמוכן לעבודה אינטנסיבית כזאת ראוי למשכורת ולתנאים מכובדים!flats : the flat to small and the price are high-hope that the people find other flat@אחת טעות: האחת באנגלית בריטית, השנייה באמריקנית, אותו פירוש : These are apartments : Flat זה על קומה שלמה. כשזה מחולק אלו הן Apartmentsמחיר מדהים : אין ספק שציבור האחים והאחיות בישראל הוא הבכיין ביותר ביחס לתמורה שהוא מקבל. 3700 לחודש במיקום הזה ובבניין הזה? מדהים.מה מדהים - 70% ממשכורת בישראל : </t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מומחה לקנוניות </t>
+  </si>
+  <si>
+    <t>24.01.2018</t>
+  </si>
+  <si>
+    <t>איזה שטויות זה נוף</t>
+  </si>
+  <si>
+    <t>כמה זמן כבר מסתכלים מהחלון. העיקר שמהחלון לא יהיה משהו מזעזע. אבל נוף? מה זה ים,פארק - זה סתם קישקוש הנוף משם - דיבור של איש מכירות. סופית ת"א הפכה לעיר של עשירים. אין מה לעשות השיטה הכלכלית של כסף כחוב עשתה את שלה. מן הסתם במקום הכי מבוקש המחירים הכי גבוהים. התכנון של הסדר העולמי החדש זה לשים את העשירים בביניינים הגבוהים והעובדים מתחת לאדמה. יש רק 2 בעיות עם זה - הבניה מתחת לאדמה יקרה יותר ואין שם נוף...</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t xml:space="preserve">דוד </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ביקור פרטי בכותל? בקיצור עבדו עלינו בעיניים </t>
+    <t xml:space="preserve">הייטקיסט </t>
+  </si>
+  <si>
+    <t>האם הם משלמים שווי מס?</t>
+  </si>
+  <si>
+    <t>בהיטק היה נהוג רכב צמוד עד שהמדינה ביקשה שנשלם שווי מס שהכחיד את התופעה. האם ידרשו ברשות המיסים לשלם שווי מס על ההבדל בין המחיר המסובסד למחיר המלא של הדירות?</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t xml:space="preserve">המגיב יגיב </t>
-  </si>
-  <si>
-    <t>הביקור מתקיים בפרופיל נמוך ולא חגיגי?</t>
-  </si>
-  <si>
-    <t>הביקור מתקיים בפרופיל נמוך ולא חגיגי
-זה מה שיש לאייכנר השמאלן להגיד?</t>
+    <t xml:space="preserve">א </t>
+  </si>
+  <si>
+    <t>67 מטר בגבעתיים ב 4000 עדיף על 56 מטר ב 4780 באיכילוב</t>
+  </si>
+  <si>
+    <t>אז למה לא? כי כולם רוצים לגור בתל אביב</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t xml:space="preserve">ערבי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הרשימה המשותפת מיותרת ,תתפרקו </t>
+    <t xml:space="preserve">אליהו </t>
+  </si>
+  <si>
+    <t>08.01.2018</t>
+  </si>
+  <si>
+    <t>הלוואי והיו בונים אלפיים דירות</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t xml:space="preserve">Ert </t>
-  </si>
-  <si>
-    <t>איפה דגל ארה"ב?</t>
-  </si>
-  <si>
-    <t>....</t>
+    <t xml:space="preserve">אריק </t>
+  </si>
+  <si>
+    <t>07.01.2018</t>
+  </si>
+  <si>
+    <t>החזר השקעה ב 10 שנים זו החצנת עלויות של 400%</t>
+  </si>
+  <si>
+    <t>החזר השקעה במגורים הוא 40 שנה ואיננו כדאי. כאן בוצע סבסוד עצום ממשאבי הציבור. דיור בהישג יד הוא בעיה בכל הערים היקרות שעדיין זקוקות לעובדים בשכר נמוך בזמינות גדולה. הפתרון הוא כמובן ניהול הביקושים באופן שמחירי הדיור לא יצאו מפרופורציות ולא סבסוד הכישלון. ברלין כדוגמה.</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t xml:space="preserve">ברוך הבא סגן הנשיא! </t>
+    <t>שאפו על הכתבה</t>
+  </si>
+  <si>
+    <t>כתבה משובחת, מקיפה, מסקרת מכל כיוון ומושקעת מאוד. יפה מאוד. כל הכבוד לך.</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t xml:space="preserve">אביחיל </t>
-  </si>
-  <si>
-    <t>ויתורים כואבים? מי אמר? תפסיקו להכריח את הגוים לכפות עלינו!</t>
-  </si>
-  <si>
-    <t>יהודים בוגדנים!
-דרך אגב מה קרה אין הפגנה ברוטשילד או שהפעם גם אתם כבר לא יכולים לשקר במספרים.
-דיקטטורה עיתונאית במיטבה!</t>
+    <t xml:space="preserve">שכן </t>
+  </si>
+  <si>
+    <t>06.01.2018</t>
+  </si>
+  <si>
+    <t>זה גם מגדל המגורים הכי יפה בתל אביב</t>
+  </si>
+  <si>
+    <t>נקי, אנושי, ופשוט.</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t xml:space="preserve">מרדכי </t>
-  </si>
-  <si>
-    <t>ביקור פרטי</t>
-  </si>
-  <si>
-    <t>את.הביקור הפרטי הבא אצל נתניהו נראה שפנס יצטרך לקיים במעשיהו.</t>
+    <t xml:space="preserve">ניר צבר </t>
+  </si>
+  <si>
+    <t>וכמה המדינה משקיעה בהשארת צוות טיפול-בית או בי"ח בצפת בהשוואה לזה?</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t xml:space="preserve">#ObamaGate </t>
-  </si>
-  <si>
-    <t>#ReleaseTheMemo</t>
-  </si>
-  <si>
-    <t>Why are you not covering #releasethememo??? The real news are not here. Search elsewhere.. Bad!</t>
+    <t xml:space="preserve">פרברית </t>
+  </si>
+  <si>
+    <t>שירות רפואי שיוויוני ומגורים זולים יחסית</t>
+  </si>
+  <si>
+    <t>הכי פשוט: למכור את שטח הנדלן הסופר יקר עליו בנוי קומפלקס איכילוב ולהעביר את כל הפעילות לדרום תל אביב. יפתור כמה בעיות בבת אחת.</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t xml:space="preserve">פלפטין מגיע לבדוק עניינים מקרוב...  </t>
+    <t xml:space="preserve">מוריס </t>
+  </si>
+  <si>
+    <t>מחירי שכירות נחתכים גם במדינת ת'א</t>
+  </si>
+  <si>
+    <t>בגלל ירידות מחירי הדיור ,גם מחירי השכירות בירידות חדות ,חוק שכירות הוגנת הוזיל מחירים בוודאות.</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruth </t>
-  </si>
-  <si>
-    <t>“Jewish Base”</t>
-  </si>
-  <si>
-    <t>Although I voted for him and personally, I would rather see him serving as the US president, I thought that mentioning the “evangelicals and the Republican Jews “ as “ “ “Trump’s base” is utterly ridiculous. The number of Republican Jews (and I’m one of them) is minuscule while the evangelicals count for a part of Trump’s base. Most of his voters are Americans who got sick and tired of the Democrats’ useless, dishonest, agenda. And by the way, there is no Hebrew word for BASE? How about בסיס?</t>
+    <t xml:space="preserve">Darwin </t>
+  </si>
+  <si>
+    <t>חתול-בריאות בתמונה השישית...</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t xml:space="preserve">ששי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">פנס משלם את המחיר... חחח, צחקתי עד דמעות! </t>
+    <t xml:space="preserve">?? </t>
+  </si>
+  <si>
+    <t>מכניסים גם מחבלים?</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t xml:space="preserve">ישראל, ישראל </t>
-  </si>
-  <si>
-    <t>באמת חשוב להדגיש בכותרת מה חושבים האוייבים שלנו</t>
-  </si>
-  <si>
-    <t>יותר חשוב מהכל</t>
+    <t xml:space="preserve">כרק'' </t>
+  </si>
+  <si>
+    <t>התנחלות בשומרון - ימח שמך רוני וולף טינופת</t>
+  </si>
+  <si>
+    <t>קרק</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t xml:space="preserve">מנחם  </t>
-  </si>
-  <si>
-    <t>לסיים את הכיבוש מיד</t>
-  </si>
-  <si>
-    <t>ארץ ישראל לעם ישראל. לסלק את המוסלמים מיד</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אמיר </t>
-  </si>
-  <si>
-    <t>ביקור סגן הנשיא</t>
-  </si>
-  <si>
-    <t>לזרוק את הפלסטינים (קבוצת אספסוף ) לים .</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðﾟﾤﾔ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה זה פרופיל נמוך בגובה רצפה! בלי דגל אמריקאי ? </t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אמעמרי </t>
-  </si>
-  <si>
-    <t>ידיד אמת תותח אמיתי</t>
-  </si>
-  <si>
-    <t>אי אפשר לשכוח את זה שפנס הלך בעצמו לתקן ולסדר בית קברות יהודי לאחר שגזענים השחיתו אותו</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איתי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אמן שיהיה הנשיא </t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ישראלי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מי צריך אותך פה?? נמאס לנו מהטכסים של ביבי ושרלה </t>
-  </si>
-  <si>
-    <t>26</t>
+    <t xml:space="preserve">דני </t>
+  </si>
+  <si>
+    <t>רעיון טוב</t>
+  </si>
+  <si>
+    <t>לא פותר את בעיית הדיור בת"א, רק פיקוח על המחיר כמו שמקובל באמסטרדם ביחד עם בנייה מהירה של דיור בר השגה, ולא רק מגדלי יוקרה עם דמי ניהול אסטרונומיים. מה קרה לפרויקט הקונטיינרים, לחברות סיניות או רוסיות שמשתמשים במדפסות תלת-מימד ומקימים בית תוך מספר ימים-שבועות?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שוקי </t>
+  </si>
+  <si>
+    <t>זאת שחיתות</t>
+  </si>
+  <si>
+    <t>למה שעובדי מדינה יהנו מאדמות מדינה השייכות לכולנו . גם שוכר שעובד בפיצריה מגיע לו לחיות טוב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רותי </t>
+  </si>
+  <si>
+    <t>15.01.2018</t>
+  </si>
+  <si>
+    <t>@שוקי</t>
+  </si>
+  <si>
+    <t>אם הוא עובד 16 שעות ביממה בשביל לטפל בי, בהחלט מגיע לו.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא קונה את הקושי לגייס עובדים </t>
+  </si>
+  <si>
+    <t>@שוקי ועוד בת"א, מילא היו רוצים לקדם עריות פיתוח.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הסוציאליסט </t>
+  </si>
+  <si>
+    <t>תפנימו אנשים רק מאורגן. פחות כסף באוויר יותר חיים</t>
+  </si>
+  <si>
+    <t>אשליית הבחירה הקפיטליסטית התחלפה במירוץ מטורף אחר עוד וחזירות של בעלי ההון. מגורים מאורגנים, חנויות חברתיות וכד, תוך הבטחה שבעלי עניין רעים לא השתלטו על זה זה התשובה לצורך הביסיסי של האדם. ביטחון ואושר. הלאה החזירות הקפיטליסטית. פחות מטר בדירה וחיים מלאים יותר.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רעיונות לחוד ומציאות לחוד </t>
+  </si>
+  <si>
+    <t>22.01.2018</t>
+  </si>
+  <si>
+    <t>@הסוציאליסט כמו קיבוץ לדוגמא? באמת עבד יופי...</t>
   </si>
   <si>
     <t xml:space="preserve">שי </t>
   </si>
   <si>
-    <t xml:space="preserve">עם ישראל חי !!!  </t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יהודה </t>
-  </si>
-  <si>
-    <t>איימן אודה ממש איפיין את עצמו</t>
-  </si>
-  <si>
-    <t>אדם מסוכן בעל חזון משיחי שכולל את חורבן האזור כולו, בשליחותו של אדם מסוכן אף יותר, פירומן פוליטי, גזען ומיזוגן שאסור שיהיה בכלל באזורנו, בוודאי לא בכנסת.</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תקשורת של שקרנים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא לא ידבר על שום ויתורים כואבים תפסיקו לשקר שקרים </t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">רודף הצדק </t>
-  </si>
-  <si>
-    <t>משעשע שהרשימה הגזענית מדברת על גזענות של סגן נשיא ארה"ב....</t>
-  </si>
-  <si>
-    <t>זה נשמע כל כך מגוחך ומשעשע...חוץ מכמה הזויים אף אחד לא מתייחס ברצינות לשטויות שעודה פולט...</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>בטח המשרתות של גברת נתניהו מתוללות שם כמו עכברות מורעלות</t>
-  </si>
-  <si>
-    <t>נכון!! גם אני שונא את הזוג המלכותי גברת ואדון נתניהו</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יורם </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מצויין שהרשימה המטומטמת לא משתתפת ,, בלי טובות !!! </t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">סמי  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא מעניין ... </t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אריה יהושע </t>
-  </si>
-  <si>
-    <t>שלוחו של נוני. אל תלקקו, טראמפ סימן אתכם ויבוא חשבון . צאו הבוקר בכותרות.השמיצות ,נראה אתכם....מוגי לב מסיתים רודפי בצע. הקרבתם את אחדות העם על מזבח הממון .</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אלמוני </t>
-  </si>
-  <si>
-    <t>שרת מוכשר</t>
-  </si>
-  <si>
-    <t>זה הוא שתפס את המטאטא וניקה בית הקברות ברצון כדרישת אדוניו ??</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חוגלה </t>
-  </si>
-  <si>
-    <t>הפינס מגיע בךךךך</t>
-  </si>
-  <si>
-    <t>היית משאיר את אשתך אצל טרמפ כך עושים המוקרבים אליו חחחחחחחחח לך חזרה פושיע</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>העיקר אנחנו צריכים תמיד לעשות "ויתורים כואבים"</t>
-  </si>
-  <si>
-    <t>מדינה של מפגרים נהיינו</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אלי </t>
-  </si>
-  <si>
-    <t>טראמפ צריך להזדרז</t>
-  </si>
-  <si>
-    <t>נותרו לו 3 שנים והוא חייב לבצע בזריזות פעולות קשות שיחייבו את הפלסטינים לחתום עם ישראל על הסכם שלום. הפלסטינים עושים את כל שביכולתם כדי להימנע ממו"מ. המטרה שלהם הרי ברורה, מדינה אחת לשני עמים. יש מישהו שבאמת מאמין שהפלסטינאים רוצים מדינת גטו?</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">רוני </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 אתה צודק ..רק תזכיר לי מה זה מזכיר לנו ? </t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ידיד האומה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא רואה בלו"ז סלפי עם אורן חזן!? חמור מאד </t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תמוה שאין בלו״ז פגישה עם ביבי, חוץ מארוחת הערב המישפחתית  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">משה, ירושלים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מסוכן וגזען וסגן של נשיא טמבל </t>
-  </si>
-  <si>
-    <t>לשם שינוי אני מסכים עם הרשימה המשותפת:</t>
-  </si>
-  <si>
-    <t>עם כאלה חברים לא צריך אויבים.</t>
-  </si>
-  <si>
-    <t>20.01.1</t>
-  </si>
-  <si>
-    <t>הכל פקא פקא</t>
-  </si>
-  <si>
-    <t>ישראל תשלם בגדול לאחר שטראמפ יודח ב2020.</t>
-  </si>
-  <si>
-    <t>חכה ל2024 תאכל ת'לב</t>
-  </si>
-  <si>
-    <t>ואחכ עוד 8 שנים של פנס .בקיצור אנחנו מכוסים עד2032 .מדינת ישראל אימפריה עולמית.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">גד </t>
-  </si>
-  <si>
-    <t xml:space="preserve">איזה שמאלני חולה אתה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">משה </t>
-  </si>
-  <si>
-    <t>רוב אזרחי ארה"ב יתמכו בו</t>
-  </si>
-  <si>
-    <t>בשנה הראשונה לכהונתו הוא הוריד מיסים וחברות גדולות הגדילו את המשכורות לעובדים שלהן. הנטו של אמריקני ממוצע גדל בכ - 1,000$ לחודש!!
-אין סיכוי שהם יורידו אותו.
-תשכח ממה שאתה קורא בעיתונים. הם יהיו נגדו גם אם הוא יגיד שהוא רשע מרושע, קלינטון צדיקה, הדמוקרטים צודקים והרפובליקנים מפגרים. לא משנה מה הוא יעשה הם יכתבו נגדו. מזכיר קצת את ביבי כאן.
-תכל'ס הוא הנשיא הכי טוב שהיה לארה"ב מאז רייגן.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">את מי זה מעניין </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא נכון, חלק מהם הוא קישקוש בלבוש. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מצרים דפוקים </t>
-  </si>
-  <si>
-    <t>המצרים והפלשתינים בגדו בירדנים</t>
-  </si>
-  <si>
-    <t>למה אסיסי קיבל אותו..היו צריכים הם וירדן להחרים אותו. בוז לפנס..אין מצב שארה"ב תתווך בסכסוך.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חולה נפש </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה כואב לך? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבי </t>
-  </si>
-  <si>
-    <t>איפה דגל ארהב</t>
-  </si>
-  <si>
-    <t>למה אין את דגל ארה"ב ליד הדגל של מצרים ?
-מזכיר לי משהו..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יריב א. </t>
-  </si>
-  <si>
-    <t>עין חדה...מעניין מאוד....כשרפרף שהוגש לשגריר הטורקי</t>
-  </si>
-  <si>
-    <t>מעניין למה הביקור בפרופיל נמוך בישראל</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שמעון, ראשלצ </t>
-  </si>
-  <si>
-    <t>חבל על הזמן צריך לסיים את הכיבוש !!!</t>
-  </si>
-  <si>
-    <t>ולהעיף את כל הערבים למדינות ערב ורק המאמינים שזו מדינת העם היהודי יוכלו לחיות איתנו בשלום</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אמתתת </t>
-  </si>
-  <si>
-    <t xml:space="preserve">שוקי... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">התכוונת להשלים את ההתיישבות של עם ישראל בארצו... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">שאול א. </t>
-  </si>
-  <si>
-    <t>אין לי ספק שהוא ממש מצטער על החרמתו ע"י הרשימה המשותפת</t>
-  </si>
-  <si>
-    <t>ולגבי הביקור ברשות הפלסטינית, אני מניח שלא בגלל זה הוא לא יישן בלילה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שוקי </t>
-  </si>
-  <si>
-    <t>שנתו לא נדדה בכלל...</t>
-  </si>
-  <si>
-    <t>רק זה עוד ממש חסר לו... שחבורת הליצים מרמאללה תדיר שינה מעיניו... ממש בדיחה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ציון </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוי אוי  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יזיז </t>
-  </si>
-  <si>
-    <t xml:space="preserve">עם ידידים כאלה מי צריך אוייבים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">גל </t>
-  </si>
-  <si>
-    <t>ביבי צדק לגבי ה ״נוהרים״</t>
-  </si>
-  <si>
-    <t>הרבה פעמים יוצא להגיד שבדיעבד ביבי צדק, למרות כל הצחקוקים והעלבונות בזמן אמת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ביבי בעצמו טען שהצהר </t>
-  </si>
-  <si>
-    <t>ממש</t>
-  </si>
-  <si>
-    <t>אין שכל אין דאגות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה הקשר? לוגיקה? הגיון? או פשוט פנאטיזם </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוי לא הרשימה המשותפת מחרימה </t>
+    <t>3700 שקל ל 36 מטר ואתם מציגים את זה כדבר חיובי ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שווה אלפי ש"ח תוספת במשכורת </t>
+  </si>
+  <si>
+    <t>200 ש"ח ארנונה לחודש והם בוכים?שכ"ד מצחיק,אין עלויות רכב וחניה,גן ילדי</t>
+  </si>
+  <si>
+    <t>מה שלא יעשו למען אנשים הם יתבכיינו. קיבלו דירות חדשות מאובזרות , קיבלו שעתיים שלוש מהחיים בכל יום, אין להם בעיות של פקקים, חניה או בלאי על רכב או נסיעה באוטובוס צפוף. דירה במיקום בין הטובים במדינה, גן ילדים, גינת משחקים, דירות חדשות מאובזרות ועם הנהלה לבניין כך שהדירות מתוחזקות, הנחות בתשלומי עירייה... בקיצור קיבלו הטבה ששווה אלפי ש"ח, שווה איכות חיים, שווה שעות שינה או שעות בילוי עם המשפחה או שעות חסכון לשלם למטפלת או בייביסיטר . ומה עושים הישראליים שזכו להטבה שכל עובד במדינה היה חולם עליה ? רוצים עוד . מתבכיינים שכל הדירות נראות אותו דבר , כי באמת בכל בניין ישראלי ממוצע הדלתות שונות אחת מהשנייה... וזה מאוד חשוב . לא טוב לכם הספות שקיבלתם בחינם? תחליפו אותן, באמת בעיה קשה הפילו עליכם. עכשיו פועלים לקבל הנחות מהעירייה. למה ? אנשים בריאים ועובדים ומשתכרים יפה. מדוע שיקבלו הנחה? מי כמוהם יודע איך נראים חיים של אלה החולים הקשים , הנכים שאכן זקוקים להנחות כי אינם יכולים לעבוד באופן מלא.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ההזוי ביותר </t>
+  </si>
+  <si>
+    <t>שבעלי הדירות מתעללים בדיירים בתל אביב</t>
+  </si>
+  <si>
+    <t>במקום לבנות מגדלים כאלה בכל הארץ עם חברות בנייה גדולות וערבות מדינה . כך שהשוכרים יכולים להתנהל מול חברה שתשמור על הבתים תתנהג בכבוד לדיירים עם שירות ונתינה , תתן שירותי כביסה ואינטרנט , לובי בתי קפה וסופר . חברות שינהלו בניינים כאלה לשכירות ויוכיחו התנהלות הוגנת ושביעות רצון של רוב הדיירים יקבלו עדיפות במכרזים לבנייה , לקרקעות במחיר מוזל ולבניינים באזורי תעשייה . שירות טוב יקבל תגמול מעולה וייצור תחרות ובסופו של דבר יגרום לירידת מחירים ולא להתעללות בלתי פוסקת בצעירים ובזוגות צעירים שרוצים להקים משפחה או סתם לחיות בכבוד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אריאל </t>
+  </si>
+  <si>
+    <t>ככה מתחילה עבדות</t>
+  </si>
+  <si>
+    <t>המעסיק (מעביד?) מספק לך דיור וחינוך לילד (בינתיים רק גן)... תפסיק לעבוד אצלו, תאבד את המגורים והחינוך... התחלה יפה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כל הכבוד </t>
+  </si>
+  <si>
+    <t>כל הכבוד להנהלת איכילוב על הפיתרון היצירתי</t>
+  </si>
+  <si>
+    <t>העירייה יכולה לוותר על 50% מתשלום הארנונה לטובת העובדים החיוניים לעיר</t>
   </si>
   <si>
     <t xml:space="preserve">נועם </t>
   </si>
   <si>
-    <t xml:space="preserve">מקווה שהוא מגיע עם פנסים במכנסיים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא , הוא מגיע עם פנסים וזרקורים </t>
-  </si>
-  <si>
-    <t>20.01.18</t>
-  </si>
-  <si>
-    <t>ynet</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>האיש שהניע את ההחלטה על ירושלים: פנס מגיע למזה"ת</t>
-  </si>
-  <si>
-    <t>סגן נשיא ארה"ב המריא הלילה לביקור במצרים, ירדן, וישראל - שבה ישהה מראשון עד שלישי. בכיר בממשל סיפר כי פנס שיחק תפקיד משמעותי בהחלטה של טראמפ להכיר בירושלים כבירת ישראל, חרף התנגדות הגורמים המודיעיניים והדיפלומטיים בארצו, והמחאה העולמית</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    סגן נשיא ארצות הברית, מייק פנס, המריא הלילה (שבת) לביקור במזרח התיכון. תחנתו הראשונה תהיה במצרים, לאחר מכן ימשיך לירדן ומחר יגיע לישראל, שבה יבקר עד ליום שלישי. הדוברת של סגן הנשיא הודיעה כי למרות ההשבתה של הממשל האמריקני, הביקור יתקיים כמתוכנן, מכיוון שהוא חיוני לביטחון הלאומי וליחסי החוץ של ארה"ב. בכיר בממשל סיפר כי פנס שיחק תפקיד משמעותי בהחלטתו של הנשיא דונלד טראמפ להכיר בירושלים כבירת ישראל בחודש שעבר. פנס סייע לשכנע את טראמפ לקיים את הבטחתו ממסע הבחירות ולהפוך על פניה את המדיניות האמריקנית בנושא, למרות התנגדות מדינות ערב ורבות מבנות הברית המערביות של ארה"ב, כמו גם גורמים מודיעיניים ודיפלומטיים בממשל.     השפעתו מאחורי הקלעים, שתוארה בראיונות עם יותר מ-20 פעילים שמרנים, מחוקקים וגורמים בממשל – מוסיפה ממד לא מוכר לאדם שפעמים רבות הושם ללעג בשל התנהגותו הפומבית, שנתפסה כהתרפסות בפני הבוס שלו.תוך כדי שהוא הטביע את חותמו על המדיניות, הוא חיזק את קשריו עם פעילים שמרנים, תורמים ומחוקקים - בריתות שישרתו אותו היטב אם יחליט בעתיד להתמודד בעצמו לנשיאות. פנס, חבר קונגרס לשעבר, שמתנגד בתוקף לזכות לביצוע הפלה ותומך בהתלהבות בהפחתת הרגולציה על עסקים ובהקטנת הממשל, הותיר את חותמו כסגן נשיא גם על מדיניות הפנים. אך בעוד הוא נחשב ליקיר הרפובליקנים השמרנים, הוא לעיתים קרובות נמצא מימין למיינסטרים של דעת הקהל האמריקנית בסוגיות חברתיות כמו זכויות הלהט"ב. למשל, בשנת 2015, כמושל אינדיאנה, הוא אולץ לשנות חוק שכונה "חירות דתית" שעליו חתם, ומתנגדיו טענו כי התיר אפליה נגד הומוסקסואלים. בנוסף, הוא מינה מתנגדים להפלות לתפקידי מפתח במשרד הבריאות, שקיבל מאז כמה החלטות שקידמו מדיניות שמרנית, בהן הרחבת הפטורים שניתנים למעסיקים שמציינים כי אינם מסבסדים אמצעי מניעה לעובדיהם מסיבות דת או מוסר. פנס גם הוביל לחידוש והרחבתה של "מדיניות מקסיקו סיטי", המגבילה את הזכות של ארגונים התומכים בהפלות לקבל סיוע מהתקציב הפדרלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ברוך הבא  : כל הכבוד והרבה כבוד לסגן הנשיא   : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ברוך הבא </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יוסי  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כל הכבוד והרבה כבוד לסגן הנשיא  </t>
-  </si>
-  <si>
-    <t>אטילה שומפלבי ואלכסנדרה לוקש</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>ח"כ טיבי: "פנס - מהקיצונים וההזויים בממשל האמריקני"</t>
-  </si>
-  <si>
-    <t>חברי הרשימה המשותפת מתכוונים להחרים מחר את נאומו של סגן נשיא ארה"ב בכנסת. ח"כ טיבי הסביר בריאיון לאולפן ynet: "לא יכולים להתנהג בהערכה כלפי פנס, טראמפ ומה שהם מייצגים". סגן השר מייקל אורן הגיב: "גם בכנסת צריכה להיות דרך ארץ". נתניהו: "ההחרמה - חרפה"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ח"כ אחמד טיבי (הרשימה המשותפת) התייחס הבוקר (יום א') להחלטת מפלגתו להחרים את נאומו של סגן נשיא ארה"ב מייק פנס מחר בכנסת. כמה שעות לפני שהבכיר האמריקני ינחת בארץ, אמר ח"כ טיבי בריאיון לאולפן ynet כי "סגן הנשיא פנס הוא אחד האנשים הכי קיצוניים והזויים בממשל האמריקני". טיבי אמר עוד כי "היעד הסופי שלו לא ממש אמור לרצות את כלל הציבור היהודי בארץ, אבל בשל העובדה שהוא מאמץ ודוחף לנאום של טראמפ על העברת השגרירות וההכרזה על 'סו קולד' בירת העם היהודי, אנשים מתלהבים ממנו כאן. לנו ברשימה המשותפת יש עמדה פוליטית מנוגדת לחלוטין להתנהלות של הממשל הזה, שהוכיח כי הוא חלק מהבעיה ולא חלק מהפתרון". -למה שלא תהיה במליאה ותתווכח עם פנס?"אתה יודע שלפי התקנון אי אפשר להתווכח. חכה מחר ותראה מה נעשה. הרשימה המשותפת תגיד את דברה באמצעות ההחרמה המחאתית. אין לנו ספק שאנחנו לא יכולים להתנהג בהערכה כלפי פנס, טראמפ וכל מה שהם מייצגים. אני מקווה שגם בעולם הערבי כולו ובעולם החופשי יחרימו את הממשל הזה. בסוף השבוע אלפי אנשים הפגינו בארה"ב נגד הממשל הזה, ואני חושב שרבים בישראל העריכו באופן חיובי את ההפגנות האלה". -הביקור של פנס עלול להדליק את האזור?"לא. העמדות של הממשלה, הנאום של פנס ומה שמודלף על ידי הממשל הם גורם שמערער את היציבות, ואין ספק שהוא מהווה פגיעה קשה גם בעם הפלסטיני, ובעיקר יוצר ביטול מוחלט לזכויות הלגיטימיות של הפלסטינים. אני מעוניין בשלום ישראלי-פלסטיני המבוסס על סיום הכיבוש ושתי מדינות. הממשל הזה עד היום לא אמר את המושג 'שתי מדינות'. זה אמור להדאיג הרבה ישראלים והרבה פלסטינים ואת העולם כולו". סגן השר מייקל אורן (כולנו) ציין כי הגיש אתמול תלונה לוועדת האתיקה של הכנסת נגד ראש הרשימה המשותפת, ח"כ איימן עודה, שכינה את סגן הנשיא פנס "משיחי ומסוכן". אורן, שהתראיין אף הוא לאולפן ynet, אמר כי "גם בכנסת יש דרך ארץ. גם בכנסת יש מגבלות. גם בכנסת חושבים על מה אומרים ומה לא אומרים. יש כאן אורח ולא סתם". אורן, לשעבר שגריר ישראל בארה"ב, אמר כי ביקורו של פנס בארץ חשוב ביותר. לדבריו, "הוא מגיע לכאן כדי להפגין נוכחות, להראות שהאמריקנים מעורבים. הם חזרו למזרח התיכון אחרי כמה שנים של נסיגה מהמזרח התיכון. הוא ביקר במצרים ובירדן ויש לנו מסכת ארוכה מאוד של נושאים לדון עליהם. לא מדובר רק בנושא הפלסטיני אלא גם בנושא האיראני, האו"ם וגם את הנושא של חס וחלילה אם יפרוץ סבב מלחמה נוסף בינינו לבין חיזבאללה וחמאס". -מה אנחנו יודעים לספר על פנס?"אני מכיר אותו הרבה שנים. בפעם האחרונה שהוא ביקר בארץ לקחתי אותו לנגב חומוס בדרום תל אביב. נכון, הוא דתי, הוא מאמין גדול, אבל הוא לא אוכף את האמונה שלו על המציאות של המזרח התיכון. הוא קודם כל נאמן לנשיא שלו. מה שאחמד טיבי אמר שהוא דוחה על הסף את הרעיון של שתי מדינות - זה לא נכון. הנשיא אמר לא אחת שאם הפתרון של שתי מדינות מקובל על שני הצדדים אז הוא יתמוך. פנס התיישר כל הזמן עם הקו של הנשיא טראמפ". ראש הממשלה בנימין נתניהו התייחס בפתח ישיבת הממשלה לביקור פנס: "הערב מגיע לישראל ידיד גדול שלנו. אנחנו נדון במאמצי ממשל טראמפ לבלום את התוקפנות האיראנית ואת תוכנית הגרעין האיראנית, וכמובן לקדם את הביטחון והשלום באזור. מי שבאמת שואף להגשים את המטרות האלה, יודע שאין תחליף למנהיגותה והובלתה של ארה"ב". על החרם של הרשימה המשותפת אמר נתניהו: "אני רואה זאת כחרפה שחברי כנסת מתכוונים להחרים את הביקור החשוב הזה בכנסת ואפילו מבקשים להפריע לו. אנחנו כולנו נהיה שם ונחלוק לסגן הנשיא פנס את הכבוד הגדול והראוי לו". עוד לפני הגעתו לישראל נועד פנס בעמאן עם עבדאללה מלך ירדן. המלך אמר כי ההכרה האמריקנית בירושלים כבירת ישראל היא החלטה מדאיגה לאזור ורק פתרון שתי מדינות הוא חיוני לסכום הסכסוך. </t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>אחרי הקפאת הסיוע: אונר"א במבצע גיוס תרומות</t>
-  </si>
-  <si>
-    <t>סוכנות הסיוע של האו"ם לפליטים פלסטינים פתחה במבצע "לכבוד אין מחיר", שנועד לגייס 500 מיליון דולר בעקבות ההחלטת ממשל טראמפ להקפיא מחצית מכספי הסיוע: "שיבושים בחינוך ובבריאות מסוכנים למזרח התיכון"</t>
-  </si>
-  <si>
-    <t>סוכנות הסיוע של האו"ם לפליטים פלסטינים (אונר"א) פתחה היום (ב') במבצע "חסר תקדים" לגיוס תרומות של מאות מיליוני דולרים, בעקבות הקפאת הסיוע של ממשל טראמפ. בשבוע שעבר הודיעה מחלקת המדינה לאונר"א שארה"ב מקפיאה יותר ממחצית מכספי הסיוע שהסוכנות אמורה לקבל (65 מ-125 מיליון דולר). ארה"ב הבהירה לסוכנות הסיוע שהתרומות הבאות של ארה"ב תלויות בשינויים משמעותיים בסוכנות הסיוע, שבישראל מותחים עליה ביקורת קשה. בכיר אמריקני הבהיר שהסוכנות תקבל את הסכום שהוקפא "ברגע שתשנה את דרכי הפעולה והמימון שלה".מזכ"ל אונר"א, פייר קראנבול, אמר שההחלטה האמריקנית "פתאומית ומזיקה". הוא הוסיף שהסוכנות מתכוון לכרות בריתות עם מקורות מימון חדשים, ושמזכ"ל האו"ם אנטוניו גוטרש ישתתף בשיחות בין גורמים בכירים כדי להשיג תרומות ממדינות אחרות. הקמפיין של אונר"א, "לכבוד אין מחיר", נועד לגייס 500 מיליון דולר כדי להבטיח שהשירותים המרכזיים שמעניקה הסוכנות לא ייפגעו. הסוכנות מספקת שירותים לפלסטינים בגדה המערבית, רצועת עזה, ירדן, סוריה ולבנון."לא נוכל לקבל הפרעה כלשהי לכבוד, ולהשקעה בחינוך ובבריאות", הזהיר מזכ"ל אונר"א. "זה מסוכן למזרח התיכון כולו". ארה"ב היא התורמת הגדולה ביותר לסוכנות הסיוע, ומספקת לה כמעט 30% מהתקציב. היא מעבירה לקופתה כ-300 מליון דולר מדי שנה. רק בשנת 2016 תרמה לאונר"א 368,429,712 דולר.</t>
-  </si>
-  <si>
-    <t>צחנה.צביר שבטים שממומן ע''י אחרים.שיחזרו למצבם הטבעי : שהוא. צביר שבטים.לא עם ולא עמהבואו נגיד ש... : כל הערבים במזרח התיכון הם פליטים פלסטינים וכולם היו בכלל פעם כנענים..ושירושלים מוזכרת בקוראן..וישו לא היה יהודי...ושמוחמד לא היה מנהיג זרם ביהדות שבמשך השנים הפכה לאיסלאם..נכניס הכל לספר אחד ופתאום יש למוסלמים מה ללמד בבתי הספר..אני רץ מחר לבנק לשבור תוכנית חיסכון. השאלה למי לתרום- : לסודאנים בתל אביב או לאונראיש כמה טייסים באל על שרוצים  : צידוק הקיום : זה 70 שנה מדביקים הפלסטינים לעצמם תווית של פליטות למרות שהם מיושבים בבתיהם ולהם עסקים, נכסים וקרקעות (ידע אישי), אלא שהמוסד ההזוי הזה שנקרא אונרא, מנציח את מעמדם כפליטים, מכמה סיבות: המערך הפקידותי הענק הזה חייב להצדיק את קיומו, אחרת כל המנגנון הענק הזה יתפרק חס וחלילה. שנית, איך ימשיכו הפלסטינים לטעון לזכות השיבה למדינתנו? הרי ה"פליטים" האלה שומרים מכל משמר על "המפתח". והאבסורד הגדול בכל הענין שאונרא מעניק את המעמד פליט לכל הצאצאים שנולדו מאז מלחמת 48 שאוי לנו אם היינו מפסידים בה, כך ש 600 אלף פליטים אז, הפכו היום לכ-20 מליון. לכן ממשלת הימין בצדק חותרת לעשות לפארסה הזאת סוף, רק חבל שהשמאל עושה מאמצים בלתי נלאים לחבל במאמצים אלה.על איזה חינוך וכבוד אתם מדברים ..רק דם ודמעות ראינו  : תרמתי במשרד  : מי ירצה לתרום למגעילים האלו?  : הסכנה למזרח התיכון הוא הסתה לשנאה ולטרור במוסדות של אונרא!!! : צריך לחנך את הפליטים לשלום ולאהבה ולא מה שמתבצע במוסדות החינוך באונרא שמסיתים לשנאה וטרור ושוטפים את המוח בתעמולה שיקרית זה לא חינוך זה ההפך הרס והרעלה של המוח להוציא טרוריסטים ושהידים רוצחיםארה"ב צריכה להפסיק כל התשלומים ושילכו לחפש נדבות  : מאות מיליוני פליטים בעולם : אבל פותחים סוכנות מיוחדת לשתי מליון פלסטינים. העולם כבר מקיא מרוב אינטרסים פוליטייםזהו ארגון ערבי מובהק, ולא יכול עוד להיות : חלק מארגון האומות המאוחדות.
-אפשר לארגנו מחדש במסגרת הליגה הערבית, ואת החמצן יספקו הפטרודולרים של סעודיה ונסיכויות המפרץ.תרומה לאונרא תרומה לטרור  : אהבתי. אמנם קבצנים - אבל עם כבוד! : אצל הפלסטינאים הכבוד הוא הדבר האחרון שמת.פיקוח על הכספים : מעניין איזה פיקוח יש לתרומות לאן הם מגיעיםשהמדינות המיפרץ העשירות ישלמו להם : שיעזרו לאחים המסלמים שלהם. הבעיה שהמוסלמים שונאים זה את זה.
-צביעות!מבחינת האמריקאים זו סיטואציה של WIN WIN : אם מבצע התרומות יצליח, ארה"ב תוכל לקצץ בריש גלי את כל הסיוע השנתי ותטען שאין פגיעה בפליטים אלא חסכון למשלם המיסים האמריקני. אם מבצע התרומות ייכשל, הפלשתינאים יצטרכו לזחול חזרה לשולחן המו"מ או להגר לאירופה כפי שאבו מאזן איים (ובטווח הארוך האירופאים יבינו סוף סוף מי ומה זה הפלשתינאים)לא תרמתי ולא יתרום  : מצוין : לארצות הברית יש הרבה דרכים להשתמש בכסף. אני מציע שיודיעו היום שהפלשתינאים לא יקבלו גם את החלק השני עד שאונר״א תדאג שלא יהיו מנהרות מתחת לבתי ספר ושמחבלים יפסיקו להסתתר שם. עד אז הם יכולים למות מרעב מצידיעד מתי תחיו על נדבות... : פשוט קבצנים... נסו לעמוד על הרגליים.. כל עוד יש אונרא - אין להם מוטיבציה לבנות תשתית מיסים יציבה לממן את היום-יום שלהםפחחחח את זה אומר ישראלי : נסה לחיות 4 דקות בלי הסיוע מממשלת ארצות הברית ותרומות של יהודים.אפשר לחשוב כמה כסף האמריקאים נותנים לנו : אולי 4% מתקציב המדינה , נסתדר גם בלי זה.אתם אמורים להיות ארגון סיוע איזה כבוד יש לכם? : טמבליםעל איזה חינוך בדיוק אתם מדברים ??? : מחנכים לאימות , לשינאת יהודים ולאנטישמיות. אם הייתם משקיעים בחיים ובתרבות הייתם עם ככל העמים. הבכיינות שלכם תח'רב ביתכוםאלה לא פליטים!!! שיעזרו לפליטים מסוריה ועירק. : הפלסטינים כבר מזמן אינם פליטים. הם עובדים ומשולבים בחברות בהן הם גרים. אף אחד לא מונע מעבר שלהם ממחנה הפליטים ליישובים סביבם.
-עולם שפוי היה משקיע בפליטים אמיתיים שזקוקים להגנה וסיוע. סוריה עירק ועוד.אונ רע : חחחחחחחחחחחחחח ליצניםהתחילו לדבר על "כבוד" בדיוק כמו המוסלמים הפאנטיים : עוד מעט יתחילו גם רציחות באו"ם על רקע כבוד האונר"א? ארגון של חולי נפש. מדברים על "כבוד" כמו ילדים קטנים שהולכים מכות.מוסלמים פנאטיים = עארסווטים  : תנחשו איזו מדינה תשלם את הכסף החסר להם? : המדינה הכי מפגרת בעולם. מדינה שנותנת טיפול חינם לאויביה, מדינה שמכניסה מלט לחמאס כדי שהם יבנו מנהרות, מדינה שמכניסה 1000 משאיות ביום כדי להאכיל אל מחבלי חמאס. נכון. נישחתם נכון.נישחתם נכון : תפחדו ממי שחסר לו , תפחדו ממי שאין לו מה להפסיד יותר , תפחדו ממי שאין לו . להפסיק סיוע לאונרא זה כמו לגייס דורות של ילדים שיבחרו בדרך האלימות.ניחוש נכון - אתה איש נחמד . מצדך להרעיב מאות אלפי אנשים : זה מעשה נכון . תגיד אתה באמת יהודי ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">גלעד, ישראל </t>
-  </si>
-  <si>
-    <t>צחנה.צביר שבטים שממומן ע''י אחרים.שיחזרו למצבם הטבעי</t>
-  </si>
-  <si>
-    <t>שהוא. צביר שבטים.לא עם ולא עמה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שמעון </t>
-  </si>
-  <si>
-    <t>בואו נגיד ש...</t>
-  </si>
-  <si>
-    <t>כל הערבים במזרח התיכון הם פליטים פלסטינים וכולם היו בכלל פעם כנענים..ושירושלים מוזכרת בקוראן..וישו לא היה יהודי...ושמוחמד לא היה מנהיג זרם ביהדות שבמשך השנים הפכה לאיסלאם..נכניס הכל לספר אחד ופתאום יש למוסלמים מה ללמד בבתי הספר..</t>
-  </si>
-  <si>
-    <t>אני רץ מחר לבנק לשבור תוכנית חיסכון. השאלה למי לתרום-</t>
-  </si>
-  <si>
-    <t>לסודאנים בתל אביב או לאונרא</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יוסי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש כמה טייסים באל על שרוצים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ציבי </t>
-  </si>
-  <si>
-    <t>צידוק הקיום</t>
-  </si>
-  <si>
-    <t>זה 70 שנה מדביקים הפלסטינים לעצמם תווית של פליטות למרות שהם מיושבים בבתיהם ולהם עסקים, נכסים וקרקעות (ידע אישי), אלא שהמוסד ההזוי הזה שנקרא אונרא, מנציח את מעמדם כפליטים, מכמה סיבות: המערך הפקידותי הענק הזה חייב להצדיק את קיומו, אחרת כל המנגנון הענק הזה יתפרק חס וחלילה. שנית, איך ימשיכו הפלסטינים לטעון לזכות השיבה למדינתנו? הרי ה"פליטים" האלה שומרים מכל משמר על "המפתח". והאבסורד הגדול בכל הענין שאונרא מעניק את המעמד פליט לכל הצאצאים שנולדו מאז מלחמת 48 שאוי לנו אם היינו מפסידים בה, כך ש 600 אלף פליטים אז, הפכו היום לכ-20 מליון. לכן ממשלת הימין בצדק חותרת לעשות לפארסה הזאת סוף, רק חבל שהשמאל עושה מאמצים בלתי נלאים לחבל במאמצים אלה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">על איזה חינוך וכבוד אתם מדברים ..רק דם ודמעות ראינו </t>
-  </si>
-  <si>
-    <t xml:space="preserve">תרמתי במשרד </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מי ירצה לתרום למגעילים האלו? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אמי </t>
-  </si>
-  <si>
-    <t>הסכנה למזרח התיכון הוא הסתה לשנאה ולטרור במוסדות של אונרא!!!</t>
-  </si>
-  <si>
-    <t>צריך לחנך את הפליטים לשלום ולאהבה ולא מה שמתבצע במוסדות החינוך באונרא שמסיתים לשנאה וטרור ושוטפים את המוח בתעמולה שיקרית זה לא חינוך זה ההפך הרס והרעלה של המוח להוציא טרוריסטים ושהידים רוצחים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ע.ט, ראשון לציון </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ארה"ב צריכה להפסיק כל התשלומים ושילכו לחפש נדבות </t>
-  </si>
-  <si>
-    <t>מאות מיליוני פליטים בעולם</t>
-  </si>
-  <si>
-    <t>אבל פותחים סוכנות מיוחדת לשתי מליון פלסטינים. העולם כבר מקיא מרוב אינטרסים פוליטיים</t>
+    <t>היה טוב אם היו מקימים עוד הרבה מגדלים כאלה בתל אביב ובגוש דן.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פקקים וגנבים </t>
+  </si>
+  <si>
+    <t>05.01.2018</t>
+  </si>
+  <si>
+    <t>תל אביכס</t>
+  </si>
+  <si>
+    <t>עיר של דוגמניות שבאות לתפוס טייקונים בימבות. כסף קונה אהבה ????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ציפי לבני </t>
+  </si>
+  <si>
+    <t>@פקקים וגנבים איכס של עיר</t>
+  </si>
+  <si>
+    <t>גג</t>
   </si>
   <si>
     <t xml:space="preserve">צביקה </t>
   </si>
   <si>
-    <t>זהו ארגון ערבי מובהק, ולא יכול עוד להיות</t>
-  </si>
-  <si>
-    <t>חלק מארגון האומות המאוחדות.
-אפשר לארגנו מחדש במסגרת הליגה הערבית, ואת החמצן יספקו הפטרודולרים של סעודיה ונסיכויות המפרץ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה לא ברור? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">תרומה לאונרא תרומה לטרור </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני </t>
-  </si>
-  <si>
-    <t>אהבתי. אמנם קבצנים - אבל עם כבוד!</t>
-  </si>
-  <si>
-    <t>אצל הפלסטינאים הכבוד הוא הדבר האחרון שמת.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לוגסי דוד </t>
-  </si>
-  <si>
-    <t>פיקוח על הכספים</t>
-  </si>
-  <si>
-    <t>מעניין איזה פיקוח יש לתרומות לאן הם מגיעים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">פליט, פליט אלק </t>
-  </si>
-  <si>
-    <t>שהמדינות המיפרץ העשירות ישלמו להם</t>
-  </si>
-  <si>
-    <t>שיעזרו לאחים המסלמים שלהם. הבעיה שהמוסלמים שונאים זה את זה.
-צביעות!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ג, ת"א </t>
-  </si>
-  <si>
-    <t>מבחינת האמריקאים זו סיטואציה של WIN WIN</t>
-  </si>
-  <si>
-    <t>אם מבצע התרומות יצליח, ארה"ב תוכל לקצץ בריש גלי את כל הסיוע השנתי ותטען שאין פגיעה בפליטים אלא חסכון למשלם המיסים האמריקני. אם מבצע התרומות ייכשל, הפלשתינאים יצטרכו לזחול חזרה לשולחן המו"מ או להגר לאירופה כפי שאבו מאזן איים (ובטווח הארוך האירופאים יבינו סוף סוף מי ומה זה הפלשתינאים)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אחד העם, חיפה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא תרמתי ולא יתרום </t>
-  </si>
-  <si>
-    <t>מצוין</t>
-  </si>
-  <si>
-    <t>לארצות הברית יש הרבה דרכים להשתמש בכסף. אני מציע שיודיעו היום שהפלשתינאים לא יקבלו גם את החלק השני עד שאונר״א תדאג שלא יהיו מנהרות מתחת לבתי ספר ושמחבלים יפסיקו להסתתר שם. עד אז הם יכולים למות מרעב מצידי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">רועי </t>
-  </si>
-  <si>
-    <t>עד מתי תחיו על נדבות...</t>
-  </si>
-  <si>
-    <t>פשוט קבצנים... נסו לעמוד על הרגליים.. כל עוד יש אונרא - אין להם מוטיבציה לבנות תשתית מיסים יציבה לממן את היום-יום שלהם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בני </t>
-  </si>
-  <si>
-    <t>פחחחח את זה אומר ישראלי</t>
-  </si>
-  <si>
-    <t>נסה לחיות 4 דקות בלי הסיוע מממשלת ארצות הברית ותרומות של יהודים.</t>
-  </si>
-  <si>
-    <t>אפשר לחשוב כמה כסף האמריקאים נותנים לנו</t>
-  </si>
-  <si>
-    <t>אולי 4% מתקציב המדינה , נסתדר גם בלי זה.</t>
-  </si>
-  <si>
-    <t>אתם אמורים להיות ארגון סיוע איזה כבוד יש לכם?</t>
-  </si>
-  <si>
-    <t>טמבלים</t>
+    <t>המיגדל הכי חדש בת״א</t>
+  </si>
+  <si>
+    <t>פשוט פיתרון נהדר ! לכל אנשיי הצוות הרפואי שעובד במרת״א זה פשוט מגיע הם עושים עבודת קודש ומגיע להם זכויות כאלוו אני ממש בעד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סוציולוג </t>
+  </si>
+  <si>
+    <t>בית חולים לא יכול לקבל מהעירייה פטור מארנונה? זה פחות חשוב מבית כנסת?</t>
+  </si>
+  <si>
+    <t>האנשים האלה מספקים את השירות הכי חשוב שיש. כל עוד הם מתגוררים באיזור בית החולים - הם זכאים לפטור מארנונה!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">א.א. </t>
+  </si>
+  <si>
+    <t>@איתם בגרמניה יש שם אחר למס הזה. והוא עולה ועולה...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רינה </t>
+  </si>
+  <si>
+    <t>@איתם קשקוש. מאיפה מגיע תקציב העירייה? כך או כך אתה משלם.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">להיפך-צריכים לשלם כמו כולם </t>
+  </si>
+  <si>
+    <t>@סוציולוג האנשים האלה אנשים עובדים כמו כל אזרח עובד במדינה.לא מתנדבים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איתם </t>
+  </si>
+  <si>
+    <t>הוא לא אמור. אין בשום עיר נורמלית בעולם שקר כזה</t>
+  </si>
+  <si>
+    <t>שנקרא ארנונה. אני חי בברלין חברים שלי בוינה ובפריס וברומא ואין גנבים מהסוג הזה שיש לכם שם בגיהנום שלכם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ברור שמותר כלבים בלובי </t>
+  </si>
+  <si>
+    <t>איזה רעיון יצירתי</t>
+  </si>
+  <si>
+    <t>אצלנו אפילו לא דואגים לחנייה לעובדים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כיגי </t>
+  </si>
+  <si>
+    <t>זה מגדל יוקרה שלא יבלבלו אתכם..יש כאן כוונה לקבל תקציב או משהו כזה</t>
+  </si>
+  <si>
+    <t>כי כל מי שהיה שם רואה את הפאר מכל פינה ומי שגר שם רחוק מלהיות במצב סוציואקונומי כמו שמנסים להראות בכתבה. אין שום רעש ויש את הנוף הכי יפה בתל אביב.. כנראה שמנסים להשיג הנחה בארנונה או משהו כזה אז ממציאים את הכתבה הזו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חח </t>
+  </si>
+  <si>
+    <t>קנאי</t>
+  </si>
+  <si>
+    <t>... לא מכובד.... תאחל לעצמך גם כן כאלו מגורים (אם אתה אוהב את זה) אבל אל תלכלך בגלל קינאה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זמבורה בחשיכה </t>
+  </si>
+  <si>
+    <t>רעיון נחמד מאוד. בהצלחה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מישהו </t>
+  </si>
+  <si>
+    <t>חרא של עיר</t>
+  </si>
+  <si>
+    <t>גם אם הייתי מקבל את זה לא הייתי שורד חודש עם המשכורת שלי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחמוד רבינוביץ </t>
+  </si>
+  <si>
+    <t>@מישהו תחזור לשטיטל, משם הגיע אביך העגלון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עצוב. רק חסר שם בית קברות... </t>
+  </si>
+  <si>
+    <t>הקברן</t>
+  </si>
+  <si>
+    <t>במקום לממן להם באותו הסכום השתתפות במגורים במקום בו יעדיפו לגור. ותזכורת ל"זוכים": אין מתנות חינם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ציני </t>
+  </si>
+  <si>
+    <t>עובדים מרוצים</t>
+  </si>
+  <si>
+    <t>מחשבה מחוץ לקופסא - גאוני ומהפכני</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יחזקאל </t>
+  </si>
+  <si>
+    <t>כתבה מדהימה</t>
+  </si>
+  <si>
+    <t>כתוב טוב כל כך מי זאת הרוני האלמונית הזאת?</t>
+  </si>
+  <si>
+    <t>@יחזקאל סתם טינופת</t>
+  </si>
+  <si>
+    <t>דרר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אסטריד </t>
+  </si>
+  <si>
+    <t>כתבה מרתקת</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בתקווה שיש בידוד טוב </t>
+  </si>
+  <si>
+    <t>אשמח לעבור לשם מחר בבוקר; אולי גם אמצא גם אחות רחמניה</t>
+  </si>
+  <si>
+    <t>רק מה עם רעש האמבולנסים?</t>
+  </si>
+  <si>
+    <t>עצוב ושערורייתי שמתלהבים מכזה מחיר על כזו דירה</t>
+  </si>
+  <si>
+    <t>3700 ש"ח לחודש על דירה קטנטונת של 36 מ"ר? זה מעל 100 ש"ח ל-1 מ"ר, זה כמו לשלם על דירת 4 חדרים (יחסית קטנה) של 100 מ"ר מעל 10,000 ש"ח לחודש! ממש מחיר מדהים פחחחח</t>
+  </si>
+  <si>
+    <t>@השוואה מוזרה.</t>
+  </si>
+  <si>
+    <t>איזה מגדל יוקרה ואיזה נעליים? דירת חדר מצ'וקמקת... אתה מאלו שאוכלים כל לוקש :(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">השוואה מוזרה. </t>
+  </si>
+  <si>
+    <t>@יוסי זה בכל זאת דירה מרוהטת וחדשה במגדל יוקרה.</t>
+  </si>
+  <si>
+    <t>פתרון הזוי לבעיה. שתי מילים: תחבורה ציבורית.</t>
+  </si>
+  <si>
+    <t>לת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי זאת לא הבעיה האמיתית </t>
+  </si>
+  <si>
+    <t>@אחד הבעיה האמיתית היא תחרות עם הפריפריה על רופאים.</t>
+  </si>
+  <si>
+    <t>החליטו לתגמל רופאים בפריפריה עם שכר גבוה יותר, ואיכילוב לא רוצים לאבד רופאים. ברור שעובדי בית יכולים להרשות לעצמם לשכור דירה בת"א או בערי הלווין אם הם מעוניינים, אבל חלק עלולים להחליט שיותר משתלם לעבוד בפריפריה. אז איכילוב מצאו דרך חדשה לתגמל עובדים. ת"א זה המקום האחרון שחסר בו כח אדם איכותי, ואין באיכילוב שום בעיה לגייס כוח אדם. כח האדם האיכותי חסר בפריפריה. לא ברור איך משרד הבריאות אישר את זה, ביד אחד מאשר תוכנית למשוך רופאים לפריפריה באמצעות תוספת שכר, ביד השניה מסבסד לרופאים דיור כדי שישארו בת"א. חלם.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שניים </t>
+  </si>
+  <si>
+    <t>@אחד תחבורה ציבורית מקלה אבל לא פותרת, ראה לונדון פריס אמסטרדם</t>
+  </si>
+  <si>
+    <t>ומה עם מיסים?</t>
+  </si>
+  <si>
+    <t>כשמקבלים את התשלום על העבודה בשקלים יש את כל הקטע המעצבן עם המיסוי. חבל שאני לא עובד באחוזה פאודלית.</t>
   </si>
   <si>
     <t xml:space="preserve">תומר </t>
   </si>
   <si>
-    <t>על איזה חינוך בדיוק אתם מדברים ???</t>
-  </si>
-  <si>
-    <t>מחנכים לאימות , לשינאת יהודים ולאנטישמיות. אם הייתם משקיעים בחיים ובתרבות הייתם עם ככל העמים. הבכיינות שלכם תח'רב ביתכום</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוהד </t>
-  </si>
-  <si>
-    <t>אלה לא פליטים!!! שיעזרו לפליטים מסוריה ועירק.</t>
-  </si>
-  <si>
-    <t>הפלסטינים כבר מזמן אינם פליטים. הם עובדים ומשולבים בחברות בהן הם גרים. אף אחד לא מונע מעבר שלהם ממחנה הפליטים ליישובים סביבם.
-עולם שפוי היה משקיע בפליטים אמיתיים שזקוקים להגנה וסיוע. סוריה עירק ועוד.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חיים </t>
-  </si>
-  <si>
-    <t>אונ רע</t>
-  </si>
-  <si>
-    <t>חחחחחחחחחחחחחח ליצנים</t>
-  </si>
-  <si>
-    <t>התחילו לדבר על "כבוד" בדיוק כמו המוסלמים הפאנטיים</t>
-  </si>
-  <si>
-    <t>עוד מעט יתחילו גם רציחות באו"ם על רקע כבוד האונר"א? ארגון של חולי נפש. מדברים על "כבוד" כמו ילדים קטנים שהולכים מכות.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אזרח פשוט </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מוסלמים פנאטיים = עארסווטים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ניחוש נכון </t>
-  </si>
-  <si>
-    <t>תנחשו איזו מדינה תשלם את הכסף החסר להם?</t>
-  </si>
-  <si>
-    <t>המדינה הכי מפגרת בעולם. מדינה שנותנת טיפול חינם לאויביה, מדינה שמכניסה מלט לחמאס כדי שהם יבנו מנהרות, מדינה שמכניסה 1000 משאיות ביום כדי להאכיל אל מחבלי חמאס. נכון. נישחתם נכון.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נישחתם  </t>
-  </si>
-  <si>
-    <t>נישחתם נכון</t>
-  </si>
-  <si>
-    <t>תפחדו ממי שחסר לו , תפחדו ממי שאין לו מה להפסיד יותר , תפחדו ממי שאין לו . להפסיק סיוע לאונרא זה כמו לגייס דורות של ילדים שיבחרו בדרך האלימות.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חי </t>
-  </si>
-  <si>
-    <t>ניחוש נכון - אתה איש נחמד . מצדך להרעיב מאות אלפי אנשים</t>
-  </si>
-  <si>
-    <t>זה מעשה נכון . תגיד אתה באמת יהודי ?</t>
-  </si>
-  <si>
-    <t>19.01.18</t>
-  </si>
-  <si>
-    <t>אורלי אזולאי, וושינגטון</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>בכירים אמריקנים: השגרירות תעבור לירושלים בשנה הבאה</t>
-  </si>
-  <si>
-    <t>לפי הדיווח ב"ניו יורק טיימס", מחלקת המדינה הכינה תוכנית להפיכת הקונסוליה בבירה לשגרירות שתאפשר את העברת השגריר האמריקני וצוותו לירושלים כבר בשנה הבאה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  גורמים אמריקנים בכירים אמרו כי ממשל טראמפ פועל מהר מהצפוי להעביר את השגרירות האמריקנית לירושלים כבר ב-2019. כך פורסם הלילה (ו') בעיתון "ניו יורק טיימס".על פי הדיווח ב"ניו יורק טיימס", במחלקת המדינה פעלו להכנת תוכנית צנועה יותר להפיכת הקונסוליה בירושלים לשגרירות האמריקנית. מדובר בתוכנית שתקטין את העלויות ותאפשר לשגריר האמריקני דייויד פרידמן ולצוות שלו לעבור לשם כבר בשנה הבאה. עיתוי המעבר גרם למתחים בין השגריר פרידמן לבית הלבן. פרידמן דחף להעביר את השגרירות לירושלים עוד השנה והוא זכה לתמיכת חתנו של טראמפ ויועצו לענייני המזרח התיכון, ג'ארד קושנר. מנגד ביקש טילרסון לדחות את המעבר בזמן נוסף כדי לשדרג את האבטחה של הבניין והנשיא נעתר.ראש הממשלה בנימין נתניהו העלה השבוע את האפשרות שהשגרירות האמריקנית תועבר לישראל מהר מהצפוי. "השגרירות תעבור הרבה יותר מהר ממה שאתם חושבים, בוודאי בטווח של שנה", אמר נתניהו במהלך ביקורו בהודו. הנשיא האמריקני דונלד טראמפ הגיב לדברים של נתניהו והגיב בראיון לסוכנות הידיעות רויטרס: "אנחנו מדברים על תרחישים שונים. אנחנו לא באמת מסתכלים על זה". גורמים בלשכת נתניהו אמרו כי אין סתירה בין דבריו של טראמפ לדברי נתניהו. "כמובן שבניית שגרירות חדשה לוקחת שנים, אך ראש הממשלה מאמין שארה"ב שוקלת צעדי ביניים, שעשויים להביא לפתיחת שגרירות בזמן קצר יותר". לפי גורמים בכירים, ככל הנראה טראמפ לא עודכן בנוגע ללוח הזמנים בעת שהתראיין. לדבריהם, טראמפ התכוון להקמת מתחם חדש לחלוטין של השגרירות בירושלים. לפי גורמים במחלקת המדינה, תהליך כזה יעלה בין 600 מיליון למילאירד דולרים והוא יימשך כשש שנים. בחודש שעבר אמר מזכיר המדינה טילרסון כי ייקח שנים עד שארצות הברית תעביר את השגרירות שלה מתל אביב לירושלים. בביקור בפריז אמר טילרסון כי "ייקח זמן" להכשיר את המקום שבו לכאורה תוקם השגרירות וכי המהלך ככל הנראה לא יקרה השנה, וגם לא ב-2018. "אבל הנשיא דונלד טראמפ נחוש שזה יקרה", הוא הוסיף. ההחלטה להעביר את השגרירות לירושלים היא המשך להכרזתו הפומבית של טראמפ בכך שארצות הברית מכירה בירושלים כבירת ישראל. מדובר בהכרזה שעוררה זעם רב בעולם המערבי ובעולם הערבי. בעקבות ההכרזה היחסים בין הרשות הפלסטינית לארצות הברית התדרדרו וטראמפ העביר מחצית מהכספים שיועדו לסוכנות האו"ם שמטפלת בפליטים הפלסטינים.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">השגרירות תועבר לירושלים ב-3 פעימות  : נאום יפהפה beautiful speech  : השדרירות צריכה להישאר בתל אביב כי תל אביב היא בירת ישראל : האום צודק ישראל טועה תודו בזהעוד פרק ב: ״חייו של טרול״. ועוד אחד לא ממש מוצלח...  : אני לא מבין למה הימנים הטיפשים פה חושבים שהשמאל נגד המעבר? : לדעת הרב זוהי החלטה נכונה ותיקון עוול היסטורי, להיות שמאל זה להיות ציוני ולהיות ציוני זה להכיר בציון (ירושלים לכל הימנים שלא הבינו) כעיר הבירה של מדינת ישראל.נעמילי : מה אכפת לי השגרירות.
-העיקר שאת תשארי איתי.ירושלים : מאז ומתמיד היו הפחדות בקשר להעברת שגרירות לירושלים.
-סוף סוף קם מנהיג עם ביצים ואומץ לקחת החלטה גורלית בקשר למעמד החדש של ירושלים בעיני העולם ובעיני ישראל.
-אנחנו צריכים להיות אסירי תודה על כך שקיבלנו את העיר העתיקה ללא תמורה מדינית.
-שני האהודים ברק ואולמרט מכרו את ירושלים: ביבי הציל את ירושלים מחלוקה, המינימום מצד המנתנגדים לפחות לבקש ממנו סליחה ומחילה על כך שהמנהיגים שלהם לא עמדו בלחץ והיו כושלים לכל אורך הדרך.הם צריכים זמן להתארגן על ציוד ריגול חדש : עכשיו הם שוברים את הראש איך מרגלים אחרי הנציגויות הזרות (והמקומיות) שבתל אביב מירושלים.
-טראמפ דפק להם את עמדת הריגול הכי טובה, עכשיו תשמעו על "קונסוליה מורחבת" בתל אביב עקב צרכים מיוחדים.טרמפ את נתניהו הולכים לסבך את מדינת ישראל כמו שצריך......... : גינויים בעולם ,ניתוק יחסים ,מהומות ופיגועים ,אלה הדברים שאדון טרמפ וחתנו ונתניהו הולכים לסדר לנו........ כנראה לא למדנו כלום , ואנחנו זקוקים לעוד שיעור ........ אלה שזה יקר ופוגע בציבור ......ששון בוא נחיה באמת ולא בשקר : מי שלא מקבל את ירושלים כבירתינו שיגנה עד מחר היחסים עם ישראל הם מתוך אינטרסים לא כל כך מהר מנתקים יחסים ומי שמנתק באמת עדיף בלי קשר עימו לעולם לא נוותר על ירושלים הגיע הזמן שזה יובהר ללא צל של ספק את השכונות שמעבר לגדר הם יקבלו רק כאשר יפסיקו לקדש מוות ולהלל רוצחים להסית לרצח ולתגמל מחבלים ורק כאשר יקבלו את זכותו של העם היהודי לבית בארץ ישראל . כל דבר אחר ייצר אשליה שתייצר אכזבה שתייצר מלחמה כבר הוכח מס פעמים בעבר הלא כל כך רחוקדי די להפחיד : יהיו קצת מהומות יהיו קצת כעסים וככול שהזמן יעבור הכול ירגע והעובדה הצודקת תהיה קיימת.
-תשמע את הקולות במדינות ערב שמדברות על ישראל בשפה אחרת ולועגים לכול הערבים שממשיכים בהתנגדות לישראל
-צריך להמשיך בהתמדה ולקבוע עובדות לא לפחד.כי עד היום לא היה שום דבר מכל זה נכון?  : הם מצילים את המדינה מבוגדים שמאלנים שפלים  : יום שחור לשמאלנים והערבים   : וגם למוח החלול שלך. " ככה כתוב. הרב אמר " חשיבה עצמאית ? אפס  : ירושלים של פוטין או ליברמן ,טובים השניים מן האחד ,התשע"ח פסח  : "בשנה הבאה..." באיזה "באה" עלינו לטובה??? : אולי זה יתמשך עד שטראמפ כבר לא יהיה נשיא - ואז האחריות כבר לא תהיה מוטלת עליו, הרי הכוונות שלו היו הטובות שבעולם...
-חבל שחיים היום בדור שאין יותר אמון באף אחד!בשנה הבאה בירושלים  : כל מה שצריך זה להחליף את השלט בכניסה מקונסוליה לשגרירות...  : לא חשוב מתי : העיקר שיקרה מהר בימינו אמן. ירושלים היא הבירה של ישראל. אפשר, אולי, להתווכח על החלק המזרחי שמלא בערבים ממילא.
-אפשר. אולי. לתת להם את... שער שכם. רק השער יהיה בריבונות מוסלמית. למצוא מדינה מוסלמית קטנה שתשמח להיות הריבון רק על השער.אני משתתף בצערם של חברי מר"צ על ההחלטה להעביר את השגרירות : לירושלים בירתנו.
-ואני ממש לא ציני.תעברו לירושלים ובתל אביב יהיה לכם שימוש יותר יעיל למבנה. : הסבה לבית מלון.שמאלנים - אכלתם את הכובע : כל הכבוד לנתניהו, ראש הממשלה הטוב מאז הקמת מדינתנו. עצה צנועה לאחיי השמאלנים: תתפקחו ותתחילו לראות את הטוב.proud : way to go Donald from a PROUD AMERICAN.בהמשך לחדשות ששמענו כל היום האחרון : משום מה בהאזנה לרדיו במשך כל היום שמעתי תקחפות על ביבי איך הוא רומז או אומר כי השגרירות תעבור כבר השנה בניגוד למה שנאמר ע"י טרמפ . זה היה עיסוק משמעותי שכרגיל עוסק בהשמצות ביבי ולא בדברים החיובייםהשגריר האמריקאי... : אדם הגון וישר דרך.וואו  : מי ראשון מתנצל על הציקצוקים והליגלוגים על נתניהו? חולרות!!  : "כל הכבוד"  : </t>
-  </si>
-  <si>
-    <t>19.01.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">השגרירות תועבר לירושלים ב-3 פעימות </t>
-  </si>
-  <si>
-    <t xml:space="preserve">נאום יפהפה beautiful speech </t>
-  </si>
-  <si>
-    <t>השדרירות צריכה להישאר בתל אביב כי תל אביב היא בירת ישראל</t>
-  </si>
-  <si>
-    <t>האום צודק ישראל טועה תודו בזה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עוד פרק ב: ״חייו של טרול״. ועוד אחד לא ממש מוצלח... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבנר </t>
-  </si>
-  <si>
-    <t>אני לא מבין למה הימנים הטיפשים פה חושבים שהשמאל נגד המעבר?</t>
-  </si>
-  <si>
-    <t>לדעת הרב זוהי החלטה נכונה ותיקון עוול היסטורי, להיות שמאל זה להיות ציוני ולהיות ציוני זה להכיר בציון (ירושלים לכל הימנים שלא הבינו) כעיר הבירה של מדינת ישראל.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איתן </t>
-  </si>
-  <si>
-    <t>נעמילי</t>
-  </si>
-  <si>
-    <t>מה אכפת לי השגרירות.
-העיקר שאת תשארי איתי.</t>
-  </si>
-  <si>
-    <t>ירושלים</t>
-  </si>
-  <si>
-    <t>מאז ומתמיד היו הפחדות בקשר להעברת שגרירות לירושלים.
-סוף סוף קם מנהיג עם ביצים ואומץ לקחת החלטה גורלית בקשר למעמד החדש של ירושלים בעיני העולם ובעיני ישראל.
-אנחנו צריכים להיות אסירי תודה על כך שקיבלנו את העיר העתיקה ללא תמורה מדינית.
-שני האהודים ברק ואולמרט מכרו את ירושלים: ביבי הציל את ירושלים מחלוקה, המינימום מצד המנתנגדים לפחות לבקש ממנו סליחה ומחילה על כך שהמנהיגים שלהם לא עמדו בלחץ והיו כושלים לכל אורך הדרך.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אורי </t>
-  </si>
-  <si>
-    <t>הם צריכים זמן להתארגן על ציוד ריגול חדש</t>
-  </si>
-  <si>
-    <t>עכשיו הם שוברים את הראש איך מרגלים אחרי הנציגויות הזרות (והמקומיות) שבתל אביב מירושלים.
-טראמפ דפק להם את עמדת הריגול הכי טובה, עכשיו תשמעו על "קונסוליה מורחבת" בתל אביב עקב צרכים מיוחדים.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ששון, קרית אתא </t>
-  </si>
-  <si>
-    <t>טרמפ את נתניהו הולכים לסבך את מדינת ישראל כמו שצריך.........</t>
-  </si>
-  <si>
-    <t>גינויים בעולם ,ניתוק יחסים ,מהומות ופיגועים ,אלה הדברים שאדון טרמפ וחתנו ונתניהו הולכים לסדר לנו........ כנראה לא למדנו כלום , ואנחנו זקוקים לעוד שיעור ........ אלה שזה יקר ופוגע בציבור ......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נוף ים </t>
-  </si>
-  <si>
-    <t>ששון בוא נחיה באמת ולא בשקר</t>
-  </si>
-  <si>
-    <t>מי שלא מקבל את ירושלים כבירתינו שיגנה עד מחר היחסים עם ישראל הם מתוך אינטרסים לא כל כך מהר מנתקים יחסים ומי שמנתק באמת עדיף בלי קשר עימו לעולם לא נוותר על ירושלים הגיע הזמן שזה יובהר ללא צל של ספק את השכונות שמעבר לגדר הם יקבלו רק כאשר יפסיקו לקדש מוות ולהלל רוצחים להסית לרצח ולתגמל מחבלים ורק כאשר יקבלו את זכותו של העם היהודי לבית בארץ ישראל . כל דבר אחר ייצר אשליה שתייצר אכזבה שתייצר מלחמה כבר הוכח מס פעמים בעבר הלא כל כך רחוק</t>
-  </si>
-  <si>
-    <t xml:space="preserve">צהוב בנשמה </t>
-  </si>
-  <si>
-    <t>די די להפחיד</t>
-  </si>
-  <si>
-    <t>יהיו קצת מהומות יהיו קצת כעסים וככול שהזמן יעבור הכול ירגע והעובדה הצודקת תהיה קיימת.
-תשמע את הקולות במדינות ערב שמדברות על ישראל בשפה אחרת ולועגים לכול הערבים שממשיכים בהתנגדות לישראל
-צריך להמשיך בהתמדה ולקבוע עובדות לא לפחד.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כי עד היום לא היה שום דבר מכל זה נכון? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ירון </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הם מצילים את המדינה מבוגדים שמאלנים שפלים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אריה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יום שחור לשמאלנים והערבים  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ליצמן </t>
-  </si>
-  <si>
-    <t xml:space="preserve">וגם למוח החלול שלך. " ככה כתוב. הרב אמר " חשיבה עצמאית ? אפס </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ירושלים של פוטין או ליברמן ,טובים השניים מן האחד ,התשע"ח פסח </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בספק, כרגיל </t>
-  </si>
-  <si>
-    <t>"בשנה הבאה..." באיזה "באה" עלינו לטובה???</t>
-  </si>
-  <si>
-    <t>אולי זה יתמשך עד שטראמפ כבר לא יהיה נשיא - ואז האחריות כבר לא תהיה מוטלת עליו, הרי הכוונות שלו היו הטובות שבעולם...
-חבל שחיים היום בדור שאין יותר אמון באף אחד!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשנה הבאה בירושלים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 דקות בדיוק </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כל מה שצריך זה להחליף את השלט בכניסה מקונסוליה לשגרירות... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אריק </t>
-  </si>
-  <si>
-    <t>לא חשוב מתי</t>
-  </si>
-  <si>
-    <t>העיקר שיקרה מהר בימינו אמן. ירושלים היא הבירה של ישראל. אפשר, אולי, להתווכח על החלק המזרחי שמלא בערבים ממילא.
-אפשר. אולי. לתת להם את... שער שכם. רק השער יהיה בריבונות מוסלמית. למצוא מדינה מוסלמית קטנה שתשמח להיות הריבון רק על השער.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m </t>
-  </si>
-  <si>
-    <t>אני משתתף בצערם של חברי מר"צ על ההחלטה להעביר את השגרירות</t>
-  </si>
-  <si>
-    <t>לירושלים בירתנו.
-ואני ממש לא ציני.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ברטל, ישראל </t>
-  </si>
-  <si>
-    <t>תעברו לירושלים ובתל אביב יהיה לכם שימוש יותר יעיל למבנה.</t>
-  </si>
-  <si>
-    <t>הסבה לבית מלון.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מוטי </t>
-  </si>
-  <si>
-    <t>שמאלנים - אכלתם את הכובע</t>
-  </si>
-  <si>
-    <t>כל הכבוד לנתניהו, ראש הממשלה הטוב מאז הקמת מדינתנו. עצה צנועה לאחיי השמאלנים: תתפקחו ותתחילו לראות את הטוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avi, drom </t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>way to go Donald from a PROUD AMERICAN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מאזין </t>
-  </si>
-  <si>
-    <t>בהמשך לחדשות ששמענו כל היום האחרון</t>
-  </si>
-  <si>
-    <t>משום מה בהאזנה לרדיו במשך כל היום שמעתי תקחפות על ביבי איך הוא רומז או אומר כי השגרירות תעבור כבר השנה בניגוד למה שנאמר ע"י טרמפ . זה היה עיסוק משמעותי שכרגיל עוסק בהשמצות ביבי ולא בדברים החיוביים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מייק </t>
-  </si>
-  <si>
-    <t>השגריר האמריקאי...</t>
-  </si>
-  <si>
-    <t>אדם הגון וישר דרך.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מוישה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">וואו </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ס </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מי ראשון מתנצל על הציקצוקים והליגלוגים על נתניהו? חולרות!! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא משנה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"כל הכבוד" </t>
+    <t>יחזירו את ההשקעה בתוך עשור</t>
+  </si>
+  <si>
+    <t>מהלך עסקי נטו יכלו להסתפק בשכר דירה נמוך יותר גם 5 אחוז תשואה זה הסדר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בן </t>
+  </si>
+  <si>
+    <t>שכל</t>
+  </si>
+  <si>
+    <t>קצת שכל והנה התוצאה למה לא רואים עוד פרוייקטים כאלה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחד שנולד שם </t>
+  </si>
+  <si>
+    <t>תל אביב הפכה לעיר דוחה בלי הפסקה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ידידיה </t>
+  </si>
+  <si>
+    <t>ווואו כמה שטויות בכתבה הארוכה והמייגעת הזאת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דויד </t>
+  </si>
+  <si>
+    <t>מה שמדהים באמת</t>
+  </si>
+  <si>
+    <t>זו העובדה שהציבור הישראלי מדבר על דירות במונחים של חדרים במקום במונחים של שטח. ככה אפשר להגיד שאתה גר בדירת 2 חדרים או 3 חדרים ולא להתקפל מבפנים מהמחשבה שמדובר ב-35 או 55 מטר רבוע. מבזק - 35 מטר רבוע זו דירת סטודיו, חדר אחד, ולא 2. 55 מטר רבוע זו דירת 2 חדרים, ולא 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שכל </t>
+  </si>
+  <si>
+    <t>ממתי אחות מרוויחה שכר מינימום?? הם המתוגמלים ביותר</t>
+  </si>
+  <si>
+    <t>התרגלו להתבכיין כמו המורות, אכלו לי שתו לי - יאללה ועד, להשבית המשק!</t>
+  </si>
+  <si>
+    <t>אתה צודק בבהחלט</t>
+  </si>
+  <si>
+    <t>רוב החברה האלה חוצים את ה10 בקלות ומרוחים הרבה יותר מרבים שעושים משמרות ושבתות במקומות תחרותיים. העלייה במחירי הדירות היא בדיוק בגלל עובדי המדינה שמקבלים משכורות גבוהות והם ברובם יכולים לקנות דירות או לשכור במחירים זולים בתל אביב</t>
+  </si>
+  <si>
+    <t>@שכל זאת עבודה קשה. והמשכורות בארץ עוד מאוד נמוכות.</t>
+  </si>
+  <si>
+    <t>תסתכל מה שאחיות מרוויחות בארה"ב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אח מרמב"ם </t>
+  </si>
+  <si>
+    <t>@שכל</t>
+  </si>
+  <si>
+    <t>אני מרוייח משכורת יפה, לא יפה כמו של מהנדס אבל אל תשכח שבשביל המשכורת היפה הזאת, צריך לעבוד לילות, חגים ושבתות, בזמן שאתה ובני משפחתך יושבים סביב שולחן שבת או חג, או יוצאים לטייל עם המשפחה אני מגיעה לבית חולים לטפל בחולים, ותגיד תודה שאנחנו נמצאים שם, כי אם אתה ומישהוא מבני משפחתך לא ירגיש טוב ( חס וחלילה), יש לאן להגיעה. אגב את מוזמן להצטרף, תמיד זקוקים לאחים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רופא </t>
+  </si>
+  <si>
+    <t>משכורת מינימום</t>
+  </si>
+  <si>
+    <t>המשכורת הגבוהה היא כתוצאה מעבודה בהרבה משמרות כפולות, משמרות לילה, שבתות, חגים, עם חולים ומחלות מכל הסוגים, מי שמוכן לעבודה אינטנסיבית כזאת ראוי למשכורת ולתנאים מכובדים!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ron </t>
+  </si>
+  <si>
+    <t>flats</t>
+  </si>
+  <si>
+    <t>the flat to small and the price are high-hope that the people find other flat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joe </t>
+  </si>
+  <si>
+    <t>@אחת טעות: האחת באנגלית בריטית, השנייה באמריקנית, אותו פירוש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחת </t>
+  </si>
+  <si>
+    <t>These are apartments</t>
+  </si>
+  <si>
+    <t>Flat זה על קומה שלמה. כשזה מחולק אלו הן Apartments</t>
+  </si>
+  <si>
+    <t>מחיר מדהים</t>
+  </si>
+  <si>
+    <t>אין ספק שציבור האחים והאחיות בישראל הוא הבכיין ביותר ביחס לתמורה שהוא מקבל. 3700 לחודש במיקום הזה ובבניין הזה? מדהים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דן </t>
+  </si>
+  <si>
+    <t>מה מדהים - 70% ממשכורת בישראל</t>
+  </si>
+  <si>
+    <t>https://www.themarker.com/wallstreet/1.5586238</t>
+  </si>
+  <si>
+    <t>03.01.2018 10:33</t>
+  </si>
+  <si>
+    <t>בלומברג</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>הסערה הגדולה הגיעה: הכללים בשוקי ההון האירופיים משתנים, החל מהיום</t>
+  </si>
+  <si>
+    <t>לאחר שנים של הכנות ועלות של 2 מיליארד דולר, שינויים רגולטוריים בקנה מידה היסטורי נכנסים היום לתוקף. כך הם ישפיעו על השווקים באירופה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לאחר שבע שנים של הכנות, עלויות של 2 מיליארד דולר והתחלה מדומה אחת, הטלטלה העצומה ברגולציה האירופית סוף סוף כאן. כל כך הרבה עומד על הפרק – שסביר שהמשקיעים יחכו לראות מה קורה, לפני שיתחילו לפעול.היקפי המסחר צנחו לפני השינויים הרגולטורים האלה – שנקראים MiFID II – ונכנסים היום לתוקף. תעשיית הפיננסים מתכוננת לאחד השינויים הרגולטורים המשמעותיים ביותר אי-פעם, שישפיעו על כל השחקנים בתחום. אין רגע מסוים היום שבו החוקים נכנסים לתוקף, וחברות ברוקראז' עדיין דנו אתמול בערב כיצד לסחור תחת הרגולציה החדשה – שתיצור הרבה בעיות, כמו גם הזדמנויות, לבנקים ולמנהלי נכסים.     החוקים נותנים לבנקים הזדמנויות לצמיחה בתחום ההשקעות הפאסיביות והמחקר, אבל גם יוצרים תחרות עזה יותר מחברות מחקר קטנות ופלטפורמות שמציעות אפשרויות לסחור בעלויות נמוכות. בנקים קמעונאים עלולים להיפגע מהאיסור על תמריצים מסוימים לייעוץ השקעות וניהול תיקים.   "בטווח הארוך נוכל לראות את השינויים המהותיים שהרגולציה הזו תיצור, ויהיה יותר ברור מי המרוויחים ומי המפסידים ממנה", כתב אנליסט S&amp;P  ג'ילס אדוארדס.מנהלי קרנות יצטרכו לשלם מעתה עבור המחקרים שבהם ישתמשו. הם כבר לא יוכלו להתקשר לאנליסט החביב עליהם ולבקש שיגיד להם (ללא תשלום) מה המניות החמות, או כיצד השינויים האחרונים במשא ומתן על הברקזיט ישפיע על תיקי ההשקעות שלהם. ייתכן אף שלא יוכלו לקבל גישה למאות המחקרים שקיבלו בעבר למייל שלהם, אם אינם מתכוונים לשלם עליהם.הסיבה לכך היא שהחוקים החדשים מחייבים את הבנקים לגבות כסף בנפרד על מחקר ועל שירותי מסחר (ברוקראז') כדי להימנע מניגוד אינטרסים. עד כה, עלות המחקר נכללה בעמלות שבנקים כמו גולדמן סאקס ודומיהם גבו עבור שירותי המסחר. המצב הזה הדאיג את הרגולטורים, משום שהעמלות הגיעו לבנקים עם הטיפים והגישה הטובים ביותר – ולא לאלה שהציעו את מחירי המסחר האטרקטיביים ביותר.מיפיד 2 אמורה לטפל גם במה שמכונה "המאגרים האפלים" (פלטפורמות מסחר בעילום שם שפועלות במקביל לבורסות הרגילות). אפילו הרגולטורים מכירים בכך שהמאגרים האלה משרתים פונקציה חשובה בשווקים, ומונעים טלטלות מסוכנות בשווקים הרגילים.   אבל הבורסות התלוננו במשך שנים כי יותר מדי מסחר נעשה במאגרים האפלים, מונע ממשקיעים את המחירים הטובים ביותר – ומהם את עמלות המסחר. אז הרגולציה החדשה מנסה לרסן את התופעה: רק 8% מנפח המסחר בבורסה יכול להיעשות במאגר אפל.בנוסף, הרגולטורים רוצים לזהות סיכונים מוקדם יותר ולהגיב מהר יותר כאשר קורה משהו יוצא דופן. מיפיד 2 תאלץ את קהילת ההשקעות לעשות רישום של כמעט כל דבר. למשל, מוסדות יהיו מחויבים לרשום כל מסחר באופן כמעט מיידי, כולל מחיר והיקף; סוחרים בניירות ערך של האיחוד האירופי יצטרכו למסור מידע אישי כמו מספר הדרכון שלהם, לכל פלטפורמה שדרכה הם סורים; ברוקרים יצטרכו לסנכרן את השעונים ולשים חותמת של השעה על כל פעולת סחר; סוחרים באג"ח יצטרכו לדווח לשוק על כל עסקה שביצעו בתוך 15 דקות מהביצוע.  </t>
+  </si>
+  <si>
+    <t>וואוו איזה הגדרות מרעישות! : שטות מוחלטת. אלף דרכים לעקוף את זהבלתי אפשרי לקריאה : מה קורה עם לעשות הגהה לפני שאתן מפרסמות כתבה מתורגמת? ממש עצלות ורשלנות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וווואו </t>
+  </si>
+  <si>
+    <t>03.01.2018</t>
+  </si>
+  <si>
+    <t>וואוו איזה הגדרות מרעישות!</t>
+  </si>
+  <si>
+    <t>שטות מוחלטת. אלף דרכים לעקוף את זה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הטרחן </t>
+  </si>
+  <si>
+    <t>בלתי אפשרי לקריאה</t>
+  </si>
+  <si>
+    <t>מה קורה עם לעשות הגהה לפני שאתן מפרסמות כתבה מתורגמת? ממש עצלות ורשלנות</t>
+  </si>
+  <si>
+    <t>https://www.themarker.com/wallstreet/MAGAZINE-1.5190879</t>
+  </si>
+  <si>
+    <t>29.12.2017 18:15</t>
+  </si>
+  <si>
+    <t>צוות גלובל</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>הביטקוין, המרד, הסערה הגדולה - ומותה של הבושה: כך נזכור את 2017</t>
+  </si>
+  <si>
+    <t>2017 היתה שנה של קיטוב והתעצמות הבדלנות, פרישה מהסכמים בינלאומיים וביצור האינטרסים של בעלי ההון ■ מלבד השינויים הפוליטיים, חזינו באירועים שעשויים לשנות את עולם העבודה והאופן שבו מתבצעים עסקים</t>
+  </si>
+  <si>
+    <t>1. קריפטומניה: קדחת המטבעות הדיגיטלייםהמטבעות הקריפטוגרפיים קיימים כבר כמעט עשור, ומעוררים עניין גובר והולך, אך 2017 היתה ללא ספק שנת הפריצה המדהימה שלהם.ביטקוין, הגדול והראשון שבהם, עלה ב–1,700% השנה עד אמצע דצמבר (1,400% עד אתמול), והוציא מדעתם את המשקיעים ברחבי העולם. מאנליסטים שטוענים שמדובר בבועת מחירים שתתפוצץ, ועד טכנופילים שנשבעים כי עתיד הכסף והמערכת הפיננסית טמון בטכנולוגיה שעליה מבוססים המטבעות (בלוקצ'יין) — המטבעות הקריפטוגרפיים מעוררים מחלוקת ועניין, שלא נראה כי ידעך בקרוב.בעולם של קיטוב פוליטי וחברתי גדל והולך, חדשות מזויפות (פייק ניוז) שמוגשות על ידי מנהיגי מדינות דמוקרטיות, ובנקים מרכזיים שעומדים נבוכים מול חידת היעלמה של האינפלציה בעולם של ריבית אפסית והרחבה כמותית — ביטקוין, לייטקוין ושלל המצאות הנגזרות מהבלוקצ'יין ומטכנולוגיות אחרות משמשים חלופה לרבים המאבדים את אמונם במערכת הפיננסית והפוליטית.עם זאת, הקדחת הגיעה לנקודת רתיחה שגוררת מופעים מגוחכים לחלוטין, כמו נסיקה בשווי של חברות שהוסיפו לשמן את המילה ביטקוין או קריפטו, אף שלא הוסיפו ערך כלשהו לעסקיהן.התחזית: האבק ישקע, אנשים יפסידו כסף פה ושם, אבל הקריפטו אתנו לעוד הרבה זמן.(דפנה מאור)2. מרד הנשיםאחרי ש–2016 הסתיימה בהפסד צורב של מי שיכולה היתה להיות הנשיאה הראשונה של ארה"ב, 2017 היתה השנה שבה נשים בכל העולם השמיעו את קולן, מבלי לבקש רשות מאף אחד.זה התחיל בינואר, כאשר ימים ספורים אחרי השבעת דונלד טראמפ לנשיא ארה"ב צעדו יותר ממיליון בני אדם בצעדת הנשים. זו היתה מחאה נגד הממשל החדש — שהעומד בראשו כינה את יריבתו "אישה רעה", והתרברב כי הוא יכול לתפוס נשים באיבר מינן. זה המשיך על מסך הטלוויזיה עם הסדרה הדיסטופית "סיפורה של שפחה", והגיע למסך הגדול עם ההצלחה הגדולה של "וונדרוומן", שגרף עד כה יותר מ–800 מיליון דולר בכל העולם, והוא השני ברשימת שוברי הקופות של השנה בארה"ב. הסרט זכה לביקורת מהללות, שיש האומרים שהיו תגובת נגד לרוח הרעה המנשבת מוושינגטון.הנשים שצעדו בתחילת השנה החליטו לקראת סופה להפסיק לשתוק על הזלזול, על פערי השכר, על "מועדוני הגברים" במקומות העבודה שלהן ועל ההטרדות והתקיפות המיניות שרובן עברו. ההאשטאג #Metoo התפשט ברשתות החברתיות כמו אש בשדה של זיפים. בזה אחר זה נחשפו במערומיהם גברים חזקים שחשבו פעם שכל העולם — וכל הנשים בעולם — בהישג ידם, מבכירים בהיי־טק דרך מפיקי על כמו הארווי ויינשטיין, ועד כוכבים כמו קווין ספייסי. אם פעם אפשר היה לקנות שתיקה בכסף, היום לנשים נמאס לשתוק.תחזית: קו פרשת מים נחצה. למרות תגובות נגד, הנורמות הבין־אישיות השתנו ללא שוב, וקשר ההשתקה חוסל.(רונית דומקה)3. הוריקנים של פעם ב-100 שנהכמדי שנה, אמא טבע מתמרדת ומכה בילדיה. אלה הסוררים, המכחישים את השינוי האקלימי והשפעות מעשי ידי אדם על הסביבה, יושבים אולי בבית הלבן, מוגנים היטב מפגעיה — ואולם מיליונים אחרים נהרגים, נעקרים ומאבדים את רכושם בסופות, רעידות אדמה, מפולות ושלל אסונות אחרים.ההוריקן הארווי, שהכה בדרום ארה"ב השנה, המחיש כי חלום הצמיחה הכלכלית האינסופית עולה לאדם במחיר, לעתים כבד מאוד. פלישתם של קבלנים לשטחי ערבה והצפה ששימשו כאגן הניקוז באזור יוסטון חיסלה שטחי ספיגה. הפיתוח המהיר לא לווה בבניית מערכת תעלות המספיקה להעברת מי גשמים במקרי קיצון, והתוצאה: נזק כלכלי של כמעט 200 מיליארד דולר, הקשה ביותר מלבד הוריקן קטרינה, כ–40 אלף בתים הרוסים וקרוב למיליון מכוניות טבועות.בסופה מריה — שפגעה בפוארטו ריקו, מדינה בפשיטת רגל — הושמדה רשת החשמל ונגרם נזק של 90 מיליארד דולר על האי. בדצמבר פגעו בקליפורניה שריפות ענק, שהשמידו אלפי קמ"ר ופגעו גם באזורים מיושבים.תחזית: גם היעדר אירועי מזג אוויר — כמו החורף השחון בישראל — הוא אסון טבע שנצטרך ללמוד לחיות עמו.(דפנה מאור)4. הבושה מתה, הכסף ניצחתהליך של עשרות שנים לכיבוש הדמוקרטיה האמריקאית על ידי האינטרסים של בעלי ההון עבר השנה קפיצת מדרגה. בזמן הקצר שעבר מאז בחירת טראמפ התגלה החזון האמיתי של נשיאותו: לפעול ללא בושה לטובת האינטרסים האישיים שלו ולטובת קבוצה צרה של בעלי ממון.בשבוע של חג המולד, שבו התיימר לתת "מתנת חגים" בדמות קיצוצי מס למעמד הביניים, התפאר טראמפ באירוע פרטי בפני חבריו המיליונרים: "עזרתי לכם להתעשר". טראמפ התכוון לחוק המס הרגרסיבי, שמחלק מחדש את העושר לטובת קצה הפירמידה. מינויים לתפקידי שופטים, סוכנויות רגולציה ומשרדי ממשל בכירים מתמלאים בבעלי אינטרסים, ובמקום לנקז את הביצה — טראמפ שופך לתוכה עוד ועוד בוץ וסחי.באקלים כזה אין פלא שכאשר שר האוצר סטיבן מנוצ'ין, מיליארדר יוצא וול סטריט, יוצא לחופשה פרטית במטוס סילון ממשלתי בעלות עצומה למשלמי המסים, משיבה אשתו חובבת המותגים למטיחי הביקורת שאין להם זכות דיבור, כי הם משלמים פחות מסים ממנה ומבעלה, ומצטלמת אתו במטבעה הממשלתית כאילו היתה על הסט של "אושן 11".תחזית: יהיה עוד הרבה יותר גרוע לפני שהמצב ישתפר. הדמוקרטיה ואוכלוסיות מוחלשות יפסידו עוד בשנים הקרובות.(דפנה מאור)5. מעצמות האינטרנט: כוח חסר תקדים, שגורר תגובת נגדתאגידים גדולים וחזקים היו עמנו במשך שנים רבות, אך מעולם לא היו תאגידים מעטים כל כך — פייסבוק, גוגל, אמזון, אפל ומיקרוסופט — חזקים וגדולים כל כך. ההכנסות, חלקן בנתח ההכנסות התאגידיות הכוללות, הרווחים, מספר הלקוחות והמשתמשים, חדירתן לחיי היומיום של כל המשתמשים והשפעתן הפוליטית — כל אלה חסרי תקדים. ואולם הדבר התקדימי, החשוב והמסוכן ביותר הוא כמות המידע המטורפת שאוספים תאגידים אלה עלינו ועל חיינו.אם ב–2011 נחשבו טוויטר ופייסבוק למקפצה לשחרור מכבלי עריצות ושופר לדמוקרטיה, בזמן האביב הערבי, למשל, ב–2017 הן כבר שימשו כלי הרס מדויקים אך רבי עוצמה בידיהם של משטרים עוינים ואוטוקרטיים שפעלו לדכא מתנגדים ויריבים, ולהשפיע באמצעות שקרים ומנגנוני תעמולה מתוחכמים בארצם ומחוצה לה — ע"ע הפיליפינים ורוסיה.תגובת הנגד מצד פוליטיקאים בארה"ב, הציבור והרגולטורים באירופה ובעוד מקומות בעולם רחוקה מלהיות מענה הולם, וכך גם הטיפול הרופס של חברות האינטרנט עצמן בווירוס השנאה שמשתולל במערכות שלהן.תחזית: גם גורמים דמוקרטים ייאלצו ללמוד להשתמש בכלים החיוניים האלה כדי לבצע לוחמת גרילה דיגיטלית. בה בעת, הרגולציה תנוע לרסן את הענקיות, אך באטיות כה רבה, עד שככל הנראה תאחר את הרכבת.(דפנה מאור)6. טרולים, האקרים ומתקפת סייבר שגרמה לנו לבכותביום שישי, 12 במאי, פרצה אחת ממתקפות הסייבר הגדולות שידע העולם. המתקפה, שזכתה לכינוי WannaCry, פגעה בבתי עסק שבמחשביהם פעלו תוכנות חלונות לא מעודכנות. התוקפים — במקרה הזה מצפון קוריאה — הצפינו את המחשבים בכל ארגון ודרשו כופר תמורת שחרורם בסכומים של כמה מאות דולרים. בסך הכל, נפגעו יותר מ–300 אלף מחשבים ב–150 מדינות, כולל מערכת הרכבות בגרמניה, בתי החולים בבריטניה, פירמות רואי חשבון וחברות טלקום גלובליות.לא היתה זו התקיפה היחידה: שורה של מתקפות סייבר פגעו במוסדות, חברות וארגונים ברחבי העולם — מרביתן מונעות מבצע כסף. השימוש בתוכנות כופר נהפך השנה לפופולרי במיוחד. לפי הערכות, דמי הכופר ששולמו כתוצאה ממתקפות סייבר ב–2017 הסתכמו ב–2 מיליארד דולר — פי שניים מב–2016. על פי תחזיות, סכום זה יגדל ל–9 מיליארד דולר ואף יותר ב–2018.נוסיף לכך את מתקפות צבאות הטרולים הפוליטיים, בעיקר שלוחי הקרמלין, ובפיליפינים, מטעם הנשיא רודריגו דוטרטה, שהתערבו במערכות בחירות ומשאלי עם באיטליה, בריטניה, ארה"ב וגרמניה — ונקבל עולם שבו רשת האינטרנט אינה הנתיב לחופש ואחווה, אלא פרצה לפלישה לפרטיות ואיום על ביטחוננו ועל החופש שלנו.תחזית: משחק חתול ועכבר בין האקרים לגופי הסייבר יימשך לנצח. פריצה קריטית אחת עלולה לגרום נזק חסר תקדים.(טלי גולדשטין)7. הבדלנות הגיעה מהמקום המפתיע ביותר2017 היתה שנה שבה גל בדלנות שלא נראה כמותו מאז שנות ה–30 של המאה ה–20 שטף את העולם. היו אלה דווקא הבריטים והאמריקאים שבישרו במפתיע על עלייתה המחודשת של הלאומנות והבדלנות: במשאל עם ביוני 2016 הצביעו רוב תושבי הממלכה המאוחדת לפרוש מהאיחוד האירופי; בנובמבר 2016 נבחר דונלד טראמפ לנשיא ה–45 של ארה"ב, הודות למצע שקרא לאמץ מדיניות בדלנית שכמותה לא נראתה מלפני מלחמת העולם השנייה. האמצעים: מכסים, מחסומי סחר, ביטול הסכמים כלכליים בינלאומיים ומלחמה נגד ההגירה.בעיראק, רוב מוחץ של בני המיעוט הכורדי הצביעו השנה בעד הקמת מדינה עצמאית וניתוק מהמדינה. בדרום אמריקה, שלוש מדינות בדרום ברזיל ערכו משאל עם לא רשמי על עצמאותן, בהובלת התנועה הבדלנית "הדרום הוא המדינה שלי", שסיסמתה המרכזית היא "די לברזיליה".הממשלה הקטלונית קיימה משאל עם על עצמאות החבל, ויותר מ–90% מהבוחרים הצביעו בעד עצמאות מספרד. אפילו שניים מהמחוזות העשירים באיטליה, ונטו ולומברדיה, ערכו משאלי עם על השאלה אם לבקש אוטונומיה רבה יותר מהשלטון המרכזי ברומא. תנועות בדלניות פועלות גם בצרפת, גרמניה, בלגיה, רומניה ועוד. רגע לפני ש–2017 מסתיימת, נראה כי הגל שפרץ את הסכר נהפך לצונאמי.תחזית: תנודת המטוטלת הלאומנית היא מהסוג שנמשך שנים ואפילו עשורים, אך כוחות הגלובליזציה לא ייסוגו בקלות.(טלי גולדשטין)ועוד אירועים חשובים בכלכלה העולמית:■ קץ שלטונו של רוברט מוגאבה, שהרס את הכלכלה בזימבבואה והשליט שלטון רודני ומושחת■ ונצואלה מדינה בקריסה — רעב ועוני מתפשטים■ עליית הימין בדרום אמריקה■ רפורמה כלכלית וחברתית, אולי מאוחרת מדי, בסעודיה■ הימין הקיצוני מתקדם אך לא מגיע להישגים משמעותיים באירופה■ הבורסות בעולם נוסקת לשיאים■ ארה"ב מאותתת לשאר העולם על נסיגה מהריבית האפסית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ממליץ לקרוא את הספר "המלחמה השלישית" נבואה מתגשמת מול עיננו : מה זה ביטקוין? יצור עוד ועוד מיליארדרים מיותרים ותו לא : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ג'יימס </t>
+  </si>
+  <si>
+    <t>30.12.2017</t>
+  </si>
+  <si>
+    <t>ממליץ לקרוא את הספר "המלחמה השלישית" נבואה מתגשמת מול עיננו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פול </t>
+  </si>
+  <si>
+    <t>27.12.2017</t>
+  </si>
+  <si>
+    <t>מה זה ביטקוין? יצור עוד ועוד מיליארדרים מיותרים ותו לא</t>
+  </si>
+  <si>
+    <t>https://www.themarker.com/news/macro/1.4730465</t>
+  </si>
+  <si>
+    <t>19.12.2017 07:38</t>
+  </si>
+  <si>
+    <t>מירב ארלוזורוב</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>החוק לעידוד השקעות הון אינו עניין של הון-שלטון, גם במקרה של טבע</t>
+  </si>
+  <si>
+    <t>בניגוד לזעקות של חברי הכנסת, המדינה כבר זיהתה את הבעיות בחוק עידוד השקעות הון - וערכה בו חמישה תיקונים בשבע שנים ■ זה לא אומר שאין מקום לתיקון נוסף, שיבחן הוספת תנאי תעסוקה, אבל רק בתמורה להטבות מס גדולות ■ וטבע? לגביה זה בכל מקרה לא ישנה</t>
+  </si>
+  <si>
+    <t>חברת הכנסת שלי יחימוביץ' (המחנה הציוני) השתמשה אתמול בחסינות הפרלמנטרית שלה כדי לחשוף את המחלוקת המיסויית השוררת בין חברת טבע לרשות המסים, בנוגע לתשלומי המס של החברה ב–2014–2015.אף שמדובר בשנתיים רווחיות מאוד עבור טבע, כשהרווחים מתרופת הקופקסון היו עדיין בשיא, טבע טוענת להפסדים מצטברים של 3 מיליארד שקל בשנתיים האלה, שמביאים לכך שהיא כמובן לא צריכה לשלם מסים. ככל הידוע, הטענה של טבע היא שמדובר ב–3 מיליארד שקל של הפסדים צבורים מהעשור הקודם, שבמהלכו נהנתה מפטור מלא ממס, ושהיא משתמשת בהם כמגן מס בעיתוי הראשון שבו הדבר התאפשר — כלומר בפעם הראשונה בכעשור שבו היא נדרשת להתחיל לשלם מס.קשה להביע עמדה בנוגע לתכנון המס הזה של טבע, ואם הוא לגיטימי משפטית או לא. רשות המסים היא זאת שצריכה להחליט אם היא מקבלת את הטענות של טבע. ככל הידוע, לפחות חלק מהעמדות ברשות המסים נוטות לדחות את הפרשנות הזאת של טבע, בטענה כי היא נהנית מ"כפל מבצעים". טבע קיבלה מהמדינה מבצע של 0% מס במשך קרוב לעשור, וכשהמבצע הראשון הסתיים — היא משתמשת בהפסדים שנצברו במהלכו כמגן מס על מנת להמשיך שלא לשלם מסים גם בהמשך.בכל מקרה, הוויכוח על תכנון המס של טבע ב–2014–2015 חושף את מה שיחימוביץ' ניסתה להבליע — שבניגוד גמור לצעקות הרמות שלה ושל שאר חברי הכנסת (מוסי רז ממרצ כבר הציע להקים "ועדת חקירה פרלמנטרית להטבות המס"), בעיית המס האפסי של טבע היא כבר בעיה פתורה.חברי הכנסת שואגים במלוא גרונם, אבל הם נזכרים לעשות זאת שבע שנים אחרי שהמדינה כבר התעוררה בעצמה, והחלה לטפל בבעיה. היה זה מנכ"ל משרד האוצר, חיים שני, שהבחין כבר ב–2010 באבסורד של הטבת המס הענקית שקיבלה טבע — הבטחה ל–0% מס במשך כעשור — ודאג לבטל אותה. לכן, מ–2011 המסלול של 0% מס לא קיים יותר.זאת הסיבה שמ–2014 טבע נדרשת לשלם מס — המסלול שבו היתה ושהבטיח לה פטור ממס למשך עשור נגמר, והוחלף במסלולים אחרים, נדיבים הרבה פחות. בעקרון טבע חשופה היום לשיעורי מס שבין 7.5% ל–16%, בהתאם למסלולים השונים בחוק לעידוד השקעות הון. אבל 0% מס כבר אינו אחת מהחלופות העומדות לפניה.חוסר יציבות קריטיזהו דיון היסטורי ארוך מדוע נדחפה מדינת ישראל לטעות של הצעת מסלול השקעה פטור לחלוטין ממס, שנולד בתיקון בחוק לעידוד השקעות הון ב–2005. זהו דיון בהיסטוריה קצת יותר קרובה מדוע נדרשה מדינת ישראל, בחלוף שש שנים בלבד, לתקן את התיקון לחוק מ–2005 — תיקון שכולם הרגישו שהיה מופרז לחלוטין, ושיחק לידהן של החברות הגדולות.הבעיה היא שמאז התיקון שנעשה ב–2011 על ידי שני (תיקון 68 לחוק) נוספו עוד לא פחות מחמישה תיקונים שונים לחוק (הגענו כבר עד לתיקון 73), שיעורי המס עלו וירדו חמש פעמים — וגם הוקם צוות בינמשרדי נוסף שבחן את מבנה החוק לעידוד השקעות הון בראשותה של מנכ"לית משרד האוצר ב–2015 יעל אנדורן, ארבע שנים בלבד אחרי שהצוות של שני כבר הגיש מסקנות בנוגע לחוק. עכשיו, בגלל פיטורי הענק בטבע, חברי הכנסת דורשים להקים ועדת חקירה כדי לדון, בפעם השלישית בתוך שבע שנים, באותו חוק עצמו.אין ספק שהחוק לעידוד השקעות הון מעורר הסתיגויות רבות, ומדינת ישראל לא מצליחה לגבש את עמדתה הסופית לגביו. מאחר שמדובר בחוק כבד, שהיקף הטבות המס בו ב–2013 הגיע כבר ל–7.7 מיליארד שקל בשנה — אין הערכה לגבי היקף הטבות המס לאחר 2013, בגלל הוויכוח על ההפסדים הצבורים של טבע. נזכיר שמתוך 7.7 מיליארד שקל בהטבות, טבע גרפה לכיסה כ–3 מיליארד שקל.המחלוקת מטלטלת את המדינה מקוטב אחד למשנהו. התוצאה היא חוסר יציבות קריטי בהטבות שמציע החוק, ובסופו של דבר טרפוד הצלחת החוק: איזה יזם יסתכן בפתיחת מפעל בישראל, כשאחת לשנה וחצי משנים לו את כללי המיסוי שעל פיהם הוא פועל?פיטורי 1,700 עובדי טבע יוצרים טלטלה נוספת, מחודשת, כשמוקד המחלוקת נוגע לשאלת ההתניות: האם הטבות המס של החוק לעידוד השקעות הון צריכות להינתן עם התניות בנוגע לתעסוקה או השקעות? ב–2011 שני הכריע באופן קטגורי נגד התניות כלשהן. שמה של הביורוקרטיה הישראלית יצא לשמצה, וההנחה היתה שהכפפת הטבות המס לתנאים שונים, שהעמידה בהם תצטרך לקבל את אישור הביורוקרטיה, תהפוך את ההטבות ללא אטרקטיביות עבור חברות היי־טק מצליחות.שני העדיף חוק פשוט, שכל היצואנים יכולים ליהנות ממנו בקלות וללא מחסומי ביורוקרטיה, ולכן במקום התניות שני הפך את החוק לעידוד השקעות הון לחוק הוגן יותר: מסלול ה–0% מס ליצואני הענק בוטל מצד אחד, ומצד שני ניתנו הקלות ליצואנים קטנים.בעולם מציבים תנאים להקלות במסמה הטעם לשלם לטבע 20 מיליארד שקל בהטבות מס במשך עשור, אם החברה כלל אינה נדרשת לתת תמורה כלשהי בתעסוקה ובהשקעות בגין ההטבות?ועדת אנדורן עסקה ב–2015 בדיוק בשאלה הזאת: "כיום הזכאות להטבות מס אינה מותנית בעמידה ביעדים תוספתיים המקדמים מטרות מרכזיות של החוק. עובדה זו מצמצמת את יכולת המדינה להשפיע באמצעות תמריצי המס על החלטות החברה ביחס לפעילותה בישראל: החברה תזכה באותן הטבות מס בין אם תגדיל ובין אם תקטין את פעילותה בישראל; בין אם תיקח סיכונים עסקיים ותשקיע בייזום פעילות חדשה וחדשנית ובין אם תימנע מביצוע השקעות בהון ובחדשנות; בין אם תגדיל את היקף התעסוקה האיכותית ובין אם תצמצם אותה".לפחות שלושה מחברי ועדת אנדורן — אנדורן עצמה, הכלכלן הראשי באוצר יואל נוה, ומנהל מרכז ההשקעות נחום איצקוביץ' — סברו כי זהו מצב לא סביר, וכי יש מקום להתנות את מתן הטבות המס. כדי לא ליצור שוב ביורוקרטיה שתרוקן את החוק מתוכנו, הם העלו הצעה לפיה רק 20 החברות שמקבלות את ההטבה הגדולה ביותר (רווח של יותר מ–400 מיליון שקלים), יצטרכו לעמוד בהתניות. אם היקף הטבת המס שלהן עלה על היקף תשלומי השכר שלהן, הרי שיתרת הטבת המס שלהן תחויב בהגדלת השקעה או הגדלת תעסוקה איכותית.ההצעה, נתקלה בהתנגדות נחרצת של ארבעה חברים אחרים בוועדה — ראש המועצה הלאומית לכלכלה יוג'ין קנדל, מנכ"ל משרד הכלכלה עמית לנג, מנהל רשות המסים משה אשר וכן אגף התקציבים באוצר. ההתנגדות נבעה מחשש לביורוקרטיה מרתיעה, אבל בעיקר מהחשש כי העלאת רף הדרישות עלולה לגרום לחברות היי־טק מצליחות — כאלה שיש להן לא מעט הצעות מיסוי אטרקטיביות אחרות בעולם — לנטוש את ישראל.עקרונית, יוג'ין קנדל טען שכל החישוב של הטבות מס הוא מקושקש, מאחר שלא מדובר בהטבה כי אם בשיעור המס המירבי שישראל יכולה לגבות מחברות, שיש להן חלופות אטרקטיביות בעולם.המחלוקת הביאה לכך שההצעה לא אומצה. בדיעבד, לנוכח הסערה שמחוללים הפיטורים בטבע והדרישות של הח"כים להקים ועדת חקירה לבדיקת החוק לעידוד השקעות הון כולו, אולי חבל שכך. מדובר היה בהצעה מידתית, שהטילה הגבלות של היקף הטבת המס רק על מספר מצומצם של חברות, רק בהיקפי הטבה גדולים מאוד, ובכל מקרה לא דובר על הגבלת ההטבות כי אם על הצבת דרישות נוספות אם וכאשר ההטבה חורגת מגבול מסוים.אמנם קיים הסיכון שהצבת דרישות כאלה עלולה להביא להרחקת השקעות מישראל, אבל בשל מידתיות ההצעה ניתן להניח שלא מדובר בסיכון משמעותי. מה עוד שבדיקה של ועדת אנדורן העלתה כי חלק גדול מהמדינות הגדולות בעולם — בריטניה, גרמניה, הולנד, יפן ואחרות — מציבות תנאים שונים על מתן הטבות מס.אז כן, למרות הצעקות של חברי הכנסת, החוק לעידוד השקעות הון הוא דווקא אחד החוקים שהמדינה בחנה בתשומת לב, וכבר תיקנה לא מעט ליקויים שהיו בו. גם אם יש תיקונים נוספים שניתן וצריך לשקול אותם, בוודאי לא מדובר בחוק שערורייתי, שמשרת מטרות של הון־שלטון, אלא בחוק מרובה אילוצים, שעדיין לא נמצאה נוסחת הקסם לגביו. בכל מקרה, הזעקות הרמות לא יעלו ולא יורידו לגבי מפוטרי טבע, גם מכיוון שהשינויים שנשקלים לא יחולו עליהם, וגם מכיוון שהמדינה גם כך הרעה כבר את תנאיה של טבע בחוק.</t>
+  </si>
+  <si>
+    <t>כתבה מאוזנת, כל הכבוד למירב : אחת שטורחת להתעניין ולהבין לפני שפונה למקלדת. הלוואי היו רבים יותר כמוה ובטח בעיתון זהלמה בכלל צריך מס חברות? יש למסות בני אדם שמרוויחים כסף / מושכים כסף,חב : חברה היא יישות וירטואלית שבקלות יכולה להיות רשומה באיי ברמודה, למרות שכל העובדים בארץ, לא?מי מתייחס ליחמוביץ הקומוניסטית. והצעקנית? : כל הכבוד מירב. צריך אומץ להגיד את האמת גם אם זה לא פופולרי. גם שולץ עושה את הדבר הנכון. רוב חברות ההייטק הותיקות החזירו את הכספים שקבלו מהמדען הראשי ומייצרות בחו"ל. בארץ מייצרים רק אבי טיפוס וסדרות ראשונות. אלפי תכנתי עובדים בחו"ל עבור חברות ישראליות והמגמה תמשיך. פולין, רומניה, אוקראינה, סינגפור והודו יהנו ממנה.את פסולה ממתן עדות : לא מאמין יותר למילה שאת כותבת. מבזה את המקצוע עיתונאי@דני לא כתבה מה שרצית? מציאותי מדי? : לא קשקשה קשקושים פופוליסטים אז פסלת אותה? מעדיף שישקרו אותך?</t>
+  </si>
+  <si>
+    <t>20.12.2017</t>
+  </si>
+  <si>
+    <t>כתבה מאוזנת, כל הכבוד למירב</t>
+  </si>
+  <si>
+    <t>אחת שטורחת להתעניין ולהבין לפני שפונה למקלדת. הלוואי היו רבים יותר כמוה ובטח בעיתון זה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גדעון </t>
+  </si>
+  <si>
+    <t>למה בכלל צריך מס חברות? יש למסות בני אדם שמרוויחים כסף / מושכים כסף,חב</t>
+  </si>
+  <si>
+    <t>חברה היא יישות וירטואלית שבקלות יכולה להיות רשומה באיי ברמודה, למרות שכל העובדים בארץ, לא?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איש הייטק </t>
+  </si>
+  <si>
+    <t>מי מתייחס ליחמוביץ הקומוניסטית. והצעקנית?</t>
+  </si>
+  <si>
+    <t>כל הכבוד מירב. צריך אומץ להגיד את האמת גם אם זה לא פופולרי. גם שולץ עושה את הדבר הנכון. רוב חברות ההייטק הותיקות החזירו את הכספים שקבלו מהמדען הראשי ומייצרות בחו"ל. בארץ מייצרים רק אבי טיפוס וסדרות ראשונות. אלפי תכנתי עובדים בחו"ל עבור חברות ישראליות והמגמה תמשיך. פולין, רומניה, אוקראינה, סינגפור והודו יהנו ממנה.</t>
+  </si>
+  <si>
+    <t>19.12.2017</t>
+  </si>
+  <si>
+    <t>את פסולה ממתן עדות</t>
+  </si>
+  <si>
+    <t>לא מאמין יותר למילה שאת כותבת. מבזה את המקצוע עיתונאי</t>
+  </si>
+  <si>
+    <t>@דני לא כתבה מה שרצית? מציאותי מדי?</t>
+  </si>
+  <si>
+    <t>לא קשקשה קשקושים פופוליסטים אז פסלת אותה? מעדיף שישקרו אותך?</t>
   </si>
 </sst>
 </file>
@@ -1375,228 +1504,218 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>419</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>423</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>425</v>
       </c>
       <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>426</v>
+      </c>
+      <c r="M4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>434</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>436</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>437</v>
       </c>
       <c r="G5" t="s">
-        <v>245</v>
+        <v>438</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>439</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>440</v>
       </c>
       <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>441</v>
+      </c>
+      <c r="M5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>449</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="G6" t="s">
-        <v>254</v>
+        <v>452</v>
       </c>
       <c r="H6" t="s">
-        <v>255</v>
+        <v>453</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>454</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I7" t="s">
-        <v>261</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>339</v>
-      </c>
-      <c r="D8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G8" t="s">
-        <v>343</v>
-      </c>
-      <c r="H8" t="s">
-        <v>344</v>
-      </c>
-      <c r="I8" t="s">
-        <v>345</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>455</v>
+      </c>
+      <c r="M6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1615,1062 +1734,1182 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="H28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
         <v>130</v>
       </c>
-      <c r="G29" t="s">
-        <v>131</v>
-      </c>
       <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
         <v>132</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>133</v>
       </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
         <v>135</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
         <v>136</v>
       </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>137</v>
       </c>
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>138</v>
       </c>
       <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
         <v>139</v>
       </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
       <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
         <v>140</v>
       </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
       <c r="H32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>144</v>
       </c>
       <c r="H33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="H34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="H37" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="H38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H40" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>171</v>
@@ -2678,2370 +2917,2646 @@
       <c r="H41" t="s">
         <v>9</v>
       </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H42" t="s">
+        <v>176</v>
+      </c>
+      <c r="I42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H43" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="H45" t="s">
+        <v>186</v>
+      </c>
+      <c r="I45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="H46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="H47" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H48" t="s">
+        <v>195</v>
+      </c>
+      <c r="I48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H49" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="F51" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="H51" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="G52" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H52" t="s">
+        <v>205</v>
+      </c>
+      <c r="I52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="F53" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="H53" t="s">
+        <v>208</v>
+      </c>
+      <c r="I53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F54" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="G54" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H54" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="H55" t="s">
+        <v>213</v>
+      </c>
+      <c r="I55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F56" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="G56" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H56" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="F57" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G57" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H57" t="s">
+        <v>229</v>
+      </c>
+      <c r="I57" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="H58" t="s">
+        <v>233</v>
+      </c>
+      <c r="I58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="F59" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="H59" t="s">
+        <v>237</v>
+      </c>
+      <c r="I59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="F60" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="H60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="H61" t="s">
+        <v>246</v>
+      </c>
+      <c r="I61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="F62" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="G62" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="H62" t="s">
+        <v>249</v>
+      </c>
+      <c r="I62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="H63" t="s">
+        <v>254</v>
+      </c>
+      <c r="I63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="F64" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G65" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="H65" t="s">
+        <v>261</v>
+      </c>
+      <c r="I65" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="D66" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="F66" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G66" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="H66" t="s">
+        <v>265</v>
+      </c>
+      <c r="I66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>266</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="F67" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
+        <v>268</v>
       </c>
       <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="F68" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="H69" t="s">
+        <v>275</v>
+      </c>
+      <c r="I69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>278</v>
       </c>
       <c r="H70" t="s">
+        <v>279</v>
+      </c>
+      <c r="I70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="F71" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="H71" t="s">
+        <v>282</v>
+      </c>
+      <c r="I71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="F72" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="H72" t="s">
+        <v>286</v>
+      </c>
+      <c r="I72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="F73" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G73" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="F74" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="G74" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="H74" t="s">
+        <v>291</v>
+      </c>
+      <c r="I74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E75" t="s">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="F75" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G75" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H75" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="F76" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="H76" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="F77" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="G77" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="H77" t="s">
+        <v>299</v>
+      </c>
+      <c r="I77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="E78" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="F78" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>301</v>
       </c>
       <c r="H78" t="s">
+        <v>302</v>
+      </c>
+      <c r="I78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="F79" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="H79" t="s">
+        <v>305</v>
+      </c>
+      <c r="I79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="F80" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="H80" t="s">
+        <v>308</v>
+      </c>
+      <c r="I80" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="D81" t="s">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="G81" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="H81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="F82" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="H82" t="s">
+        <v>314</v>
+      </c>
+      <c r="I82" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E83" t="s">
-        <v>67</v>
+        <v>315</v>
       </c>
       <c r="F83" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="G83" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="H83" t="s">
+        <v>317</v>
+      </c>
+      <c r="I83" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="G84" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="H84" t="s">
+        <v>320</v>
+      </c>
+      <c r="I84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="H85" t="s">
+        <v>323</v>
+      </c>
+      <c r="I85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="F86" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="G86" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="H86" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="D87" t="s">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="F87" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="G87" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="H87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="F88" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="G88" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="H88" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="E89" t="s">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="F89" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="G89" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="H89" t="s">
+        <v>332</v>
+      </c>
+      <c r="I89" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D90" t="s">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>67</v>
+        <v>333</v>
       </c>
       <c r="F90" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="H90" t="s">
+        <v>335</v>
+      </c>
+      <c r="I90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>67</v>
+        <v>336</v>
       </c>
       <c r="F91" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G91" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="H91" t="s">
+        <v>338</v>
+      </c>
+      <c r="I91" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>75</v>
       </c>
       <c r="E92" t="s">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="F92" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="G92" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="H92" t="s">
+        <v>341</v>
+      </c>
+      <c r="I92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="E93" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="F93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G93" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="H93" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>67</v>
+        <v>344</v>
       </c>
       <c r="F94" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G94" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="H94" t="s">
+        <v>346</v>
+      </c>
+      <c r="I94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E95" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="F95" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="G95" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="H95" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>67</v>
+        <v>349</v>
       </c>
       <c r="F96" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G96" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="H96" t="s">
+        <v>351</v>
+      </c>
+      <c r="I96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="D97" t="s">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="E97" t="s">
-        <v>67</v>
+        <v>352</v>
       </c>
       <c r="F97" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G97" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="H97" t="s">
+        <v>354</v>
+      </c>
+      <c r="I97" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>67</v>
+        <v>355</v>
       </c>
       <c r="F98" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G98" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="H98" t="s">
+        <v>357</v>
+      </c>
+      <c r="I98" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>67</v>
+        <v>315</v>
       </c>
       <c r="F99" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="G99" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="H99" t="s">
+        <v>359</v>
+      </c>
+      <c r="I99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
-        <v>328</v>
+        <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
+        <v>360</v>
       </c>
       <c r="F100" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="G100" t="s">
-        <v>9</v>
+        <v>361</v>
       </c>
       <c r="H100" t="s">
+        <v>362</v>
+      </c>
+      <c r="I100" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="D101" t="s">
-        <v>330</v>
+        <v>28</v>
       </c>
       <c r="E101" t="s">
-        <v>67</v>
+        <v>363</v>
       </c>
       <c r="F101" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="G101" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="H101" t="s">
+        <v>365</v>
+      </c>
+      <c r="I101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D102" t="s">
-        <v>333</v>
+        <v>28</v>
       </c>
       <c r="E102" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F102" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="G102" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="H102" t="s">
+        <v>367</v>
+      </c>
+      <c r="I102" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D103" t="s">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="E103" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F103" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="G103" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="H103" t="s">
+        <v>369</v>
+      </c>
+      <c r="I103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E104" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="F104" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
+        <v>371</v>
       </c>
       <c r="H104" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>346</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
+        <v>372</v>
       </c>
       <c r="H105" t="s">
+        <v>373</v>
+      </c>
+      <c r="I105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E106" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="F106" t="s">
-        <v>349</v>
+        <v>252</v>
       </c>
       <c r="G106" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="H106" t="s">
+        <v>376</v>
+      </c>
+      <c r="I106" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E107" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="F107" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="G107" t="s">
-        <v>9</v>
+        <v>378</v>
       </c>
       <c r="H107" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>352</v>
+        <v>28</v>
       </c>
       <c r="E108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F108" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="G108" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="H108" t="s">
+        <v>380</v>
+      </c>
+      <c r="I108" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D109" t="s">
-        <v>355</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="F109" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="G109" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="H109" t="s">
+        <v>383</v>
+      </c>
+      <c r="I109" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="E110" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="F110" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="G110" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="H110" t="s">
+        <v>386</v>
+      </c>
+      <c r="I110" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D111" t="s">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="F111" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="G111" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="H111" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D112" t="s">
-        <v>363</v>
+        <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="F112" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="G112" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="H112" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
         <v>172</v>
       </c>
       <c r="D113" t="s">
-        <v>366</v>
+        <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="F113" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="G113" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="H113" t="s">
+        <v>393</v>
+      </c>
+      <c r="I113" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C114" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D114" t="s">
-        <v>369</v>
+        <v>28</v>
       </c>
       <c r="E114" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="F114" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="G114" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="H114" t="s">
+        <v>396</v>
+      </c>
+      <c r="I114" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="F115" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
+        <v>397</v>
       </c>
       <c r="H115" t="s">
+        <v>398</v>
+      </c>
+      <c r="I115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D116" t="s">
-        <v>373</v>
+        <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="F116" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="G116" t="s">
-        <v>9</v>
+        <v>399</v>
       </c>
       <c r="H116" t="s">
+        <v>400</v>
+      </c>
+      <c r="I116" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D117" t="s">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="E117" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="F117" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="G117" t="s">
-        <v>9</v>
+        <v>402</v>
       </c>
       <c r="H117" t="s">
+        <v>403</v>
+      </c>
+      <c r="I117" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D118" t="s">
-        <v>377</v>
+        <v>75</v>
       </c>
       <c r="E118" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="F118" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="H118" t="s">
+        <v>406</v>
+      </c>
+      <c r="I118" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E119" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="F119" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
+        <v>408</v>
       </c>
       <c r="H119" t="s">
+        <v>409</v>
+      </c>
+      <c r="I119" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D120" t="s">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="E120" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
       <c r="F120" t="s">
-        <v>381</v>
+        <v>252</v>
       </c>
       <c r="G120" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="H120" t="s">
+        <v>9</v>
+      </c>
+      <c r="I120" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="F121" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="G121" t="s">
-        <v>9</v>
+        <v>413</v>
       </c>
       <c r="H121" t="s">
+        <v>414</v>
+      </c>
+      <c r="I121" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="E122" t="s">
-        <v>346</v>
+        <v>86</v>
       </c>
       <c r="F122" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="G122" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="H122" t="s">
+        <v>416</v>
+      </c>
+      <c r="I122" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="E123" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="F123" t="s">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="G123" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="H123" t="s">
+        <v>9</v>
+      </c>
+      <c r="I123" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="D124" t="s">
-        <v>389</v>
+        <v>28</v>
       </c>
       <c r="E124" t="s">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="F124" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="G124" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="H124" t="s">
+        <v>430</v>
+      </c>
+      <c r="I124" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>392</v>
+        <v>28</v>
       </c>
       <c r="E125" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="F125" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="G125" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="H125" t="s">
+        <v>433</v>
+      </c>
+      <c r="I125" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="D126" t="s">
-        <v>395</v>
+        <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="F126" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="G126" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="H126" t="s">
+        <v>9</v>
+      </c>
+      <c r="I126" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>398</v>
+        <v>28</v>
       </c>
       <c r="E127" t="s">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="F127" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="G127" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="H127" t="s">
+        <v>9</v>
+      </c>
+      <c r="I127" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="D128" t="s">
-        <v>401</v>
+        <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>346</v>
+        <v>90</v>
       </c>
       <c r="F128" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="G128" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="H128" t="s">
+        <v>458</v>
+      </c>
+      <c r="I128" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="D129" t="s">
-        <v>404</v>
+        <v>28</v>
       </c>
       <c r="E129" t="s">
-        <v>346</v>
+        <v>459</v>
       </c>
       <c r="F129" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="G129" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="H129" t="s">
+        <v>461</v>
+      </c>
+      <c r="I129" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="D130" t="s">
-        <v>407</v>
+        <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>346</v>
+        <v>462</v>
       </c>
       <c r="F130" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="G130" t="s">
-        <v>9</v>
+        <v>463</v>
       </c>
       <c r="H130" t="s">
+        <v>464</v>
+      </c>
+      <c r="I130" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>409</v>
+        <v>28</v>
       </c>
       <c r="E131" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="F131" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="G131" t="s">
-        <v>9</v>
+        <v>466</v>
       </c>
       <c r="H131" t="s">
+        <v>467</v>
+      </c>
+      <c r="I131" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="E132" t="s">
-        <v>346</v>
+        <v>90</v>
       </c>
       <c r="F132" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="G132" t="s">
-        <v>9</v>
+        <v>468</v>
       </c>
       <c r="H132" t="s">
+        <v>469</v>
+      </c>
+      <c r="I132" t="s">
         <v>9</v>
       </c>
     </row>

--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="693">
   <si>
     <t>num.</t>
   </si>
@@ -66,7 +66,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>Ynet</t>
@@ -93,30 +93,58 @@
     <t xml:space="preserve">למעלה מ-4,200 אתרים המשוייכים למוסדות ממשלתיים בארצות הברית ובבריטניה, שימשו היום (ב') לכרייה זדונית של מטבעות קריפטוגרפיים. תהליך הכרייה נעשה באמצעות תוסף לדפדפני אינטרנט, שמטרתו להנגיש אתרים עבור לקויי ראייה. התוסף, Browsealoud, מוטמע באלפי אתרים - וגישה אליו פירושה גישה לכל הפעילות שנעשית באתרים אלה. הלכה למעשה, כל מי שנכנס אל אחד מהאתרים - סייע להאקרים לכרות מטבעות קריפטוגרפיים.  בין האתרים ברשימה אפשר למצוא את שירותי הבריאות של בריטניה (NHS), מספר רשויות מקומיות בממלכה, אתרים של מערכת בתי המשפט בארצות הברית, וכן אתרים של מספר משרדי ממשלה באוסטרליה. הרעיון הוא שבמקום לפרוץ לאתרים עצמם ולשלב נוזקה בצורת קוד לכריית מטבעות, הפריצה נעשית דרך גורם שלישי - במקרה הזה, דרך התוסף. כך שכל האתרים שעושים שימוש בתוסף בעצם חשופים ומהווים בעצמם פלטפורמת כרייה. על פי הדיווח, הקוד היה באוויר במשך מספר שעות עד שהתגלה על ידי חוקר אבטחת מידע. בהמשך להודעתו דיווחה חברת Texthelp, יצרנית התוסף, על חקירה בנוגע לפרצת האבטחה שהתגלתה, ואף הפסיקה את פעילות התוסף עד לתיקון הפרצה. מטבעות קריפטוגרפיים - ובראשם הביטקוין, יכולים להיווצר גם בתהליך של כרייה. התהליך עושה שימוש במשאבים כבדים מאוד - מחשבים עוצמתיים ותשתית חשמל. האקרים שמבצעים כרייה באופן הזה, בדרך כלל יעדיפו לקבל גישה לאלפי מחשבים, שביחד יצרכו כמות משאבים גדולה מספיק על מנת לייצר ביטקוין. למרות שהמטבע הדיגיטלי נמצא בחודש האחרון בדעיכה משמעותית, הוא עדיין המטבע המוביל בשוק ושוויו עומד היום על כ-8,600 דולרים.   </t>
   </si>
   <si>
-    <t>למי יותר כדאי להיות עבד? : לבנקים שם לפחות אנחנו יודעים למי אנחנו עבדים ולעיתים יש גם אפשרות להיטיב עימנו - לעומת גורמים אנונימיים, שחלקם לפחות עברייני ללא שום כוונות אמיתיות להיטיב עמנו. כשנשתעבד להם כבר לא תהיה דרך חזרה כי לא נדע מי הם. נשקיע את כספנו בביטקוין שלא מיצג שום ערך כלכלי אמיתי - לא מפעלים, לא רשתות חנויות, לא מכרות, לא מאגרי נפט או גז, לא מקורות בעלי ערך כמו יערות, שטחי דייג ,לא כשרונות טכנולוגיים, ועוד ועוד דברים שיוצרים ערך למטבע של כל מדינה שאותו המדינה מוכנה לגבות. מה באמת עומד מאחורי הביטקוין חוץ מתעלול מדהים שהצליח לשגע אנשים - איזה פעילות כלכלית עומדת מאחריו? מי יגבה אותו אם וכאשר ירד חזרה ל חמישים סנט? ומי יידע מי הם האנשים שגזלו את כספכם בשוד מתוחכם כזה? עם מי תבואו חשבון על שיצרו אשלייה שעלתה לכם 10,000 דולר ליחידה ועכשיו שווה אגורה אחת ליחידה?מכירים משהו חוץ מביטקוין???? : פעם היה טלפון מנגו, מוצר יקר בטירוף שיש למעט אנשים עם רשת קטנה (זה ביטקוין). היום יש אלפי מטבעות בשוק (הרבה יותר מוצלחים מביטקוין) וכן רבותיי, זה העתיד.
+    <t>הביטקוין ז"ל - צפו פגיעה : אוטוטו הוא ייאסר לשימוש גם באירופה - לאחר שנאסר בסין - ואז המטבע יתרסק ללא כל ספק.
+וכמובן שזה לא שאלה של אם אלא שאלה של מתי... מדינות המערב, ובראשן ארה"ב, יצאו למלחמה בעשור האחרון בכסף המזומן שמשרת את מעלימי המס, סוחרי נשק/סמים, טרור וכיוצ"ב. הביטקוין למעשה מתנהג ככסף מזומן שכן לא ניתן להתחקות אחריו, בכדי להעביר היום כסף לחו"ל כבר לא צריך להבריח שטרות, אפשר להבריח כונן קשיח עם ארנק ביטקוין או דרך הענן...
+לגבי כל המגיבים שקראו שטכנולוגיית הקריפטוגרפיה היא העתיד, זה נכון, אבל לא בתחום המטבעות אלא בתחום אבטחת המידע.
+ואם כבר, הטכנולוגייה של האתריום מבחינה טכנולוגית שווה הרבה יותר מהביטקוין.למי יותר כדאי להיות עבד? : לבנקים שם לפחות אנחנו יודעים למי אנחנו עבדים ולעיתים יש גם אפשרות להיטיב עימנו - לעומת גורמים אנונימיים, שחלקם לפחות עברייני ללא שום כוונות אמיתיות להיטיב עמנו. כשנשתעבד להם כבר לא תהיה דרך חזרה כי לא נדע מי הם. נשקיע את כספנו בביטקוין שלא מיצג שום ערך כלכלי אמיתי - לא מפעלים, לא רשתות חנויות, לא מכרות, לא מאגרי נפט או גז, לא מקורות בעלי ערך כמו יערות, שטחי דייג ,לא כשרונות טכנולוגיים, ועוד ועוד דברים שיוצרים ערך למטבע של כל מדינה שאותו המדינה מוכנה לגבות. מה באמת עומד מאחורי הביטקוין חוץ מתעלול מדהים שהצליח לשגע אנשים - איזה פעילות כלכלית עומדת מאחריו? מי יגבה אותו אם וכאשר ירד חזרה ל חמישים סנט? ומי יידע מי הם האנשים שגזלו את כספכם בשוד מתוחכם כזה? עם מי תבואו חשבון על שיצרו אשלייה שעלתה לכם 10,000 דולר ליחידה ועכשיו שווה אגורה אחת ליחידה?הבורות שלך בנושא מדממת מיותר מדי חורים, לא אוכל לעזור.  : מכירים משהו חוץ מביטקוין???? : פעם היה טלפון מנגו, מוצר יקר בטירוף שיש למעט אנשים עם רשת קטנה (זה ביטקוין). היום יש אלפי מטבעות בשוק (הרבה יותר מוצלחים מביטקוין) וכן רבותיי, זה העתיד.
 מי שקורא את חדשות ה"ביטקוין" שלו בynet ודה מרקר פשוט לא מבין על מה הוא מדבר.זה כמו שיפסיקו את כרטיסי האשראי בגלל שגנבו כרטיס : צא מהסרטהבנקים בלחץ מהמטבעות האלה : לא אומר שהביטקוין הוא זה שיצליח בסוף, אבל עצם הרעיון שמייתר את השימוש בבנקים לבסוף יבשיל לכדי משהו שיחליף את המערכת הכל כך לא יעילה שנקראת בנק.
-אפילו הכלכלן נתניהו אמר (בלי ציניות).ביטקוין הוא חופש, בסוף גם עבדי בנקים מטומטמים כמוכם יבינו  : הביטקוין בקרוב יהיה שווה 0 בריבוע  : כפול מזה  : חבורת ילדים שקיבלו דואר זבל ולחצו ..  : הביטקוין מסמל את שקיעתם של הבנקים למצולות : בקרוב , יעלמו גם הדינוזאורים האחרונים, שהם הבנקים , הגופים הכי לא יעילים במשק העולמי , שהם מתווכים לכל דבר , ומרוויחים כסף חינם , על גב אזרחי העולם , הנעשקים , תחת מעמסת העמלות , והשקעות אפס , שמציעים הבנקים, הכריפטו מסמל דרך חדשה , ומוצלחת , לויתור סופי על ההצטרכות בשירותי הבנקים , ותגרום להיעלמותם , ב10 -15 שנים הבאות , כל מי שישקיע במטבעות הדיגיטליים , פשוט צריך להמתין בסבלנות , ולגלות יום אחד , שהוא עשיר , ושמחכה לו קרן השתלמות , אבל לשם שינו מהבנקים , עם תשואה פנומנלית , ולכן כל אויבי המטבעות הדיגיטליים , מתקוממים , עומדים על רגליים אחוריות , מסרבים להאמין שמהפכת הכסף יצאה לדרך , ואט אט , דוחקת את הכסף הישן החוצה , ומאפשרת לרוב אזרחי העולם להתקדם , ולבסוף להשאיר את ״ העשירים ״ הישנים מאחור משתאים ומקנאיםשכחת לשים פסיק בסוף אחרי "מאחור"  : ושכחת גם נקודה בסוף (בעצם אולי כבר עדיף לשים גם בסוף פסיק).  : זה בסה״כ סימן לזה שהביטקוין ינצח גם את הממשלות : וגם את הבנקים שצוחקים עליכם בפרצוף ואתם מבסוטים מזה.
+אפילו הכלכלן נתניהו אמר (בלי ציניות).ביטקוין הוא חופש, בסוף גם עבדי בנקים מטומטמים כמוכם יבינו  : אתה מזכיר לי את שנת 2000 : כשאנשים כמוך קישקשו שהכלכלה הישנה מתה והחוק החדש הוא שכמה שחברה מפסידה יותר היא שווה יותר כל עוד יש בשם שלה .com
+אני מקווה שאתה לא מאוד קשור לכסף שלך, אני צופה פרידה כואבתהביטקוין בקרוב יהיה שווה 0 בריבוע  : כפול מזה  : חבורת ילדים שקיבלו דואר זבל ולחצו ..  : הביטקוין מסמל את שקיעתם של הבנקים למצולות : בקרוב , יעלמו גם הדינוזאורים האחרונים, שהם הבנקים , הגופים הכי לא יעילים במשק העולמי , שהם מתווכים לכל דבר , ומרוויחים כסף חינם , על גב אזרחי העולם , הנעשקים , תחת מעמסת העמלות , והשקעות אפס , שמציעים הבנקים, הכריפטו מסמל דרך חדשה , ומוצלחת , לויתור סופי על ההצטרכות בשירותי הבנקים , ותגרום להיעלמותם , ב10 -15 שנים הבאות , כל מי שישקיע במטבעות הדיגיטליים , פשוט צריך להמתין בסבלנות , ולגלות יום אחד , שהוא עשיר , ושמחכה לו קרן השתלמות , אבל לשם שינו מהבנקים , עם תשואה פנומנלית , ולכן כל אויבי המטבעות הדיגיטליים , מתקוממים , עומדים על רגליים אחוריות , מסרבים להאמין שמהפכת הכסף יצאה לדרך , ואט אט , דוחקת את הכסף הישן החוצה , ומאפשרת לרוב אזרחי העולם להתקדם , ולבסוף להשאיר את ״ העשירים ״ הישנים מאחור משתאים ומקנאיםשכחת לשים פסיק בסוף אחרי "מאחור"  : ושכחת גם נקודה בסוף (בעצם אולי כבר עדיף לשים גם בסוף פסיק).  : זה בסה״כ סימן לזה שהביטקוין ינצח גם את הממשלות : וגם את הבנקים שצוחקים עליכם בפרצוף ואתם מבסוטים מזה.
 מי שלא תומך ביטקוין - תומך בנקים (עבד של הבנקים)ציפי, את אשכרה דבילית!  : זה סימן שהביטקוין הולך להרגיז את מי שצריך בשביל למוטט אותו. : הבנקים עדיפים על עולם הפשע, קרטלי סמים, עברייינים, טרוריסטים, מלבני כספים, חלאות המין האנושי. כל הקשקוש על עמלות בטל בשישים לעומת הבולשיט של הביטקוין שעולה / יורד / נגנב / תומך במה שאמרתי למעלה. חלאס להפיץ שקרים.מישהו השקיע את התחתונים שלו בביטקוין... : Scared much?אהה, אוקיי.   : קשקוש, ציפי, קשקוש! קל לסנוור את ההמונים, אז הסתנוורת : בלי רגולציה (מדינה, בנק) אין גם לקריפטוגרפיה סיכוי, לפחות לא בעת הזו.
 מכאן, הכול תעתועים וסנוורת המונים.
 ספרי לנו כשחטפת מה שחטפת, מתי שחטפת, ותתחנני לסיוע ופיצוי.וזה הסוף של כל החרטא הזה שניקרא מטבעות קריפטוגרפיים  : מתי יגיע הסוף של נעליים כמוך?  : מה הקשר? : ההפך זה מראה כמה הם אטרקטיבים.מה הקשר ? : ?וואלה.. ממש ממש לא.. : אבל זכותך לדעה עצמאית</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלכס </t>
+  </si>
+  <si>
+    <t>13.02.18</t>
+  </si>
+  <si>
+    <t>הביטקוין ז"ל - צפו פגיעה</t>
+  </si>
+  <si>
+    <t>אוטוטו הוא ייאסר לשימוש גם באירופה - לאחר שנאסר בסין - ואז המטבע יתרסק ללא כל ספק.
+וכמובן שזה לא שאלה של אם אלא שאלה של מתי... מדינות המערב, ובראשן ארה"ב, יצאו למלחמה בעשור האחרון בכסף המזומן שמשרת את מעלימי המס, סוחרי נשק/סמים, טרור וכיוצ"ב. הביטקוין למעשה מתנהג ככסף מזומן שכן לא ניתן להתחקות אחריו, בכדי להעביר היום כסף לחו"ל כבר לא צריך להבריח שטרות, אפשר להבריח כונן קשיח עם ארנק ביטקוין או דרך הענן...
+לגבי כל המגיבים שקראו שטכנולוגיית הקריפטוגרפיה היא העתיד, זה נכון, אבל לא בתחום המטבעות אלא בתחום אבטחת המידע.
+ואם כבר, הטכנולוגייה של האתריום מבחינה טכנולוגית שווה הרבה יותר מהביטקוין.</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t xml:space="preserve">גבי </t>
   </si>
   <si>
-    <t>13.02.18</t>
-  </si>
-  <si>
     <t>למי יותר כדאי להיות עבד?</t>
   </si>
   <si>
     <t>לבנקים שם לפחות אנחנו יודעים למי אנחנו עבדים ולעיתים יש גם אפשרות להיטיב עימנו - לעומת גורמים אנונימיים, שחלקם לפחות עברייני ללא שום כוונות אמיתיות להיטיב עמנו. כשנשתעבד להם כבר לא תהיה דרך חזרה כי לא נדע מי הם. נשקיע את כספנו בביטקוין שלא מיצג שום ערך כלכלי אמיתי - לא מפעלים, לא רשתות חנויות, לא מכרות, לא מאגרי נפט או גז, לא מקורות בעלי ערך כמו יערות, שטחי דייג ,לא כשרונות טכנולוגיים, ועוד ועוד דברים שיוצרים ערך למטבע של כל מדינה שאותו המדינה מוכנה לגבות. מה באמת עומד מאחורי הביטקוין חוץ מתעלול מדהים שהצליח לשגע אנשים - איזה פעילות כלכלית עומדת מאחריו? מי יגבה אותו אם וכאשר ירד חזרה ל חמישים סנט? ומי יידע מי הם האנשים שגזלו את כספכם בשוד מתוחכם כזה? עם מי תבואו חשבון על שיצרו אשלייה שעלתה לכם 10,000 דולר ליחידה ועכשיו שווה אגורה אחת ליחידה?</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עזוב קנה דולר </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הבורות שלך בנושא מדממת מיותר מדי חורים, לא אוכל לעזור. </t>
   </si>
   <si>
     <t>8</t>
@@ -138,9 +166,6 @@
     <t>צא מהסרט</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t xml:space="preserve">אמיר </t>
   </si>
   <si>
@@ -157,6 +182,16 @@
     <t xml:space="preserve">ביטקוין הוא חופש, בסוף גם עבדי בנקים מטומטמים כמוכם יבינו </t>
   </si>
   <si>
+    <t xml:space="preserve">מורדי </t>
+  </si>
+  <si>
+    <t>אתה מזכיר לי את שנת 2000</t>
+  </si>
+  <si>
+    <t>כשאנשים כמוך קישקשו שהכלכלה הישנה מתה והחוק החדש הוא שכמה שחברה מפסידה יותר היא שווה יותר כל עוד יש בשם שלה .com
+אני מקווה שאתה לא מאוד קשור לכסף שלך, אני צופה פרידה כואבת</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -200,9 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">ושכחת גם נקודה בסוף (בעצם אולי כבר עדיף לשים גם בסוף פסיק). </t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">ציפי </t>
@@ -251,6 +283,9 @@
     <t>בלי רגולציה (מדינה, בנק) אין גם לקריפטוגרפיה סיכוי, לפחות לא בעת הזו.
 מכאן, הכול תעתועים וסנוורת המונים.
 ספרי לנו כשחטפת מה שחטפת, מתי שחטפת, ותתחנני לסיוע ופיצוי.</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">וזה הסוף של כל החרטא הזה שניקרא מטבעות קריפטוגרפיים </t>
@@ -751,9 +786,6 @@
 אם אתם נזרקתם עכשיו לרחוב. לא נורא. גם עכשיו יהיה לכם כיף. כי מכאן כבר לא תפלו.
 אף אחד לא נפל עד היום מהמרפסת של האוהל.
 תחפרו בחצר ואל תלכו רחוק. גם שם אולי תמצאו זהב. העיקר שהייתם עשירים חצי שעה בלי להתאמץ.</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve">ידוע מראש </t>
@@ -2296,31 +2328,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
         <v>9</v>
@@ -2329,7 +2361,7 @@
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -2346,31 +2378,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
         <v>9</v>
@@ -2396,31 +2428,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H5" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I5" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
@@ -2429,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
@@ -2446,31 +2478,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
@@ -2496,31 +2528,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="I7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="J7" t="s">
         <v>9</v>
@@ -2529,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -2546,31 +2578,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D8" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="E8" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="F8" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G8" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="H8" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="I8" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
@@ -2579,7 +2611,7 @@
         <v>9</v>
       </c>
       <c r="L8" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -2596,31 +2628,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C9" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F9" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="G9" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="H9" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="I9" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="J9" t="s">
         <v>9</v>
@@ -2629,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -2646,31 +2678,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D10" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E10" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F10" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G10" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="H10" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I10" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
@@ -2679,7 +2711,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -2696,31 +2728,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D11" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="E11" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="F11" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="G11" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="H11" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="I11" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="J11" t="s">
         <v>9</v>
@@ -2729,7 +2761,7 @@
         <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -2746,31 +2778,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C12" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="E12" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F12" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="G12" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="J12" t="s">
         <v>9</v>
@@ -2796,31 +2828,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="E13" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="F13" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="G13" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="H13" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="I13" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="J13" t="s">
         <v>9</v>
@@ -2846,31 +2878,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C14" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="D14" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E14" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="F14" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="G14" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="H14" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="I14" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="J14" t="s">
         <v>9</v>
@@ -2896,31 +2928,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C15" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E15" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="F15" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="G15" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
@@ -2946,31 +2978,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C16" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D16" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E16" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="F16" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G16" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="J16" t="s">
         <v>9</v>
@@ -3073,16 +3105,16 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -3093,22 +3125,22 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3119,13 +3151,13 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -3160,7 +3192,7 @@
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -3171,22 +3203,22 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -3197,19 +3229,19 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -3223,10 +3255,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -3238,7 +3270,7 @@
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -3249,22 +3281,22 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -3275,19 +3307,19 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -3301,19 +3333,19 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -3327,22 +3359,22 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -3353,19 +3385,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -3379,22 +3411,22 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -3405,16 +3437,16 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
@@ -3431,19 +3463,19 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -3457,22 +3489,22 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -3486,19 +3518,19 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -3512,16 +3544,16 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -3538,19 +3570,19 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -3561,22 +3593,22 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -3587,123 +3619,123 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -3711,22 +3743,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
       <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" t="s">
         <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>105</v>
       </c>
       <c r="G28" t="s">
         <v>110</v>
@@ -3737,7 +3769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -3763,129 +3795,129 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
         <v>117</v>
       </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" t="s">
-        <v>120</v>
-      </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
         <v>119</v>
       </c>
-      <c r="G31" t="s">
-        <v>124</v>
-      </c>
       <c r="H31" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" t="s">
         <v>125</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
         <v>129</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -3893,51 +3925,51 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -3945,25 +3977,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -3971,7 +4003,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -3980,30 +4012,30 @@
         <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H38" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
@@ -4012,10 +4044,10 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
@@ -4023,7 +4055,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -4032,16 +4064,16 @@
         <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
@@ -4049,22 +4081,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
         <v>149</v>
@@ -4075,360 +4107,360 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H47" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H49" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G52" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H52" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H53" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G54" t="s">
         <v>181</v>
       </c>
       <c r="H54" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D55" t="s">
         <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G55" t="s">
         <v>184</v>
@@ -4439,7 +4471,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -4454,7 +4486,7 @@
         <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G56" t="s">
         <v>188</v>
@@ -4465,129 +4497,129 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
       <c r="C57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" t="s">
         <v>190</v>
       </c>
-      <c r="D57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" t="s">
-        <v>191</v>
-      </c>
-      <c r="F57" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" t="s">
-        <v>192</v>
-      </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
       </c>
       <c r="C58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" t="s">
+        <v>193</v>
+      </c>
+      <c r="H58" t="s">
         <v>194</v>
-      </c>
-      <c r="D58" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58" t="s">
-        <v>195</v>
-      </c>
-      <c r="H58" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
         <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -4595,25 +4627,25 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -4621,51 +4653,51 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -4673,74 +4705,74 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G65" t="s">
         <v>212</v>
       </c>
       <c r="H65" t="s">
-        <v>213</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="C66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" t="s">
         <v>214</v>
       </c>
-      <c r="D66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>215</v>
-      </c>
-      <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>216</v>
-      </c>
-      <c r="H66" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
         <v>218</v>
@@ -4751,7 +4783,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
@@ -4766,7 +4798,7 @@
         <v>220</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G68" t="s">
         <v>221</v>
@@ -4777,7 +4809,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -4792,18 +4824,18 @@
         <v>224</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G69" t="s">
         <v>225</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -4812,13 +4844,13 @@
         <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G70" t="s">
         <v>227</v>
@@ -4829,33 +4861,33 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="F71" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -4867,21 +4899,21 @@
         <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G72" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H72" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -4890,16 +4922,16 @@
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H73" t="s">
         <v>9</v>
@@ -4907,7 +4939,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -4916,16 +4948,16 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G74" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H74" t="s">
         <v>9</v>
@@ -4933,126 +4965,126 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G75" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H75" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G76" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H76" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H77" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H78" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G79" t="s">
         <v>243</v>
@@ -5063,59 +5095,59 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G80" t="s">
         <v>245</v>
       </c>
       <c r="H80" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F81" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -5124,94 +5156,94 @@
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H83" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>254</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G84" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>253</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G85" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
@@ -5219,7 +5251,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
@@ -5231,131 +5263,131 @@
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E87" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
         <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G88" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H88" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H89" t="s">
-        <v>9</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D90" t="s">
         <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="F90" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H90" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
@@ -5364,62 +5396,62 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G91" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H91" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F92" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H92" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
         <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="F93" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G93" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H93" t="s">
         <v>9</v>
@@ -5427,7 +5459,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
@@ -5436,16 +5468,16 @@
         <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G94" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H94" t="s">
         <v>9</v>
@@ -5453,51 +5485,51 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F95" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G95" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H95" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s">
         <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E96" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H96" t="s">
         <v>9</v>
@@ -5505,25 +5537,25 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G97" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H97" t="s">
         <v>9</v>
@@ -5531,207 +5563,207 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E98" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F98" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G98" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H98" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>283</v>
       </c>
       <c r="F99" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G99" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H99" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E100" t="s">
-        <v>283</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G100" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H100" t="s">
-        <v>285</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>286</v>
       </c>
       <c r="F101" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G101" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E102" t="s">
-        <v>287</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H102" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E103" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="F103" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G103" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E104" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G104" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H104" t="s">
-        <v>292</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="F105" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G105" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H105" t="s">
         <v>9</v>
@@ -5739,129 +5771,129 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="F106" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G106" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H106" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F107" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G107" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H107" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E108" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G108" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H108" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E109" t="s">
-        <v>308</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G109" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H109" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
         <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E110" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G110" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H110" t="s">
         <v>9</v>
@@ -5869,207 +5901,207 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G111" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H111" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="B112" t="s">
         <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D112" t="s">
         <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H112" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D113" t="s">
         <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G113" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H113" t="s">
-        <v>317</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
       </c>
       <c r="C114" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" t="s">
         <v>60</v>
       </c>
-      <c r="D114" t="s">
-        <v>28</v>
-      </c>
-      <c r="E114" t="s">
-        <v>318</v>
-      </c>
       <c r="F114" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G114" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H114" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D115" t="s">
         <v>28</v>
       </c>
       <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>128</v>
+      </c>
+      <c r="G115" t="s">
         <v>321</v>
       </c>
-      <c r="F115" t="s">
-        <v>119</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>322</v>
-      </c>
-      <c r="H115" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" t="s">
+        <v>323</v>
+      </c>
+      <c r="F116" t="s">
+        <v>128</v>
+      </c>
+      <c r="G116" t="s">
         <v>324</v>
       </c>
-      <c r="C116" t="s">
-        <v>122</v>
-      </c>
-      <c r="D116" t="s">
-        <v>28</v>
-      </c>
-      <c r="E116" t="s">
-        <v>333</v>
-      </c>
-      <c r="F116" t="s">
-        <v>326</v>
-      </c>
-      <c r="G116" t="s">
-        <v>334</v>
-      </c>
       <c r="H116" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
       </c>
       <c r="E117" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F117" t="s">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="G117" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H117" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="B118" t="s">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D118" t="s">
         <v>28</v>
       </c>
       <c r="E118" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F118" t="s">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="G118" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -6077,13 +6109,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C119" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D119" t="s">
         <v>28</v>
@@ -6092,7 +6124,7 @@
         <v>341</v>
       </c>
       <c r="F119" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G119" t="s">
         <v>342</v>
@@ -6103,13 +6135,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
@@ -6118,7 +6150,7 @@
         <v>344</v>
       </c>
       <c r="F120" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G120" t="s">
         <v>345</v>
@@ -6129,13 +6161,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B121" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D121" t="s">
         <v>28</v>
@@ -6144,21 +6176,21 @@
         <v>347</v>
       </c>
       <c r="F121" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G121" t="s">
         <v>348</v>
       </c>
       <c r="H121" t="s">
-        <v>349</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C122" t="s">
         <v>144</v>
@@ -6167,166 +6199,166 @@
         <v>28</v>
       </c>
       <c r="E122" t="s">
+        <v>349</v>
+      </c>
+      <c r="F122" t="s">
+        <v>334</v>
+      </c>
+      <c r="G122" t="s">
         <v>350</v>
       </c>
-      <c r="F122" t="s">
-        <v>326</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>351</v>
-      </c>
-      <c r="H122" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B123" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C123" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D123" t="s">
         <v>28</v>
       </c>
       <c r="E123" t="s">
+        <v>352</v>
+      </c>
+      <c r="F123" t="s">
+        <v>334</v>
+      </c>
+      <c r="G123" t="s">
         <v>353</v>
       </c>
-      <c r="F123" t="s">
-        <v>326</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>354</v>
-      </c>
-      <c r="H123" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D124" t="s">
         <v>28</v>
       </c>
       <c r="E124" t="s">
+        <v>355</v>
+      </c>
+      <c r="F124" t="s">
+        <v>334</v>
+      </c>
+      <c r="G124" t="s">
         <v>356</v>
       </c>
-      <c r="F124" t="s">
-        <v>326</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>357</v>
-      </c>
-      <c r="H124" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C125" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D125" t="s">
         <v>28</v>
       </c>
       <c r="E125" t="s">
+        <v>358</v>
+      </c>
+      <c r="F125" t="s">
+        <v>334</v>
+      </c>
+      <c r="G125" t="s">
         <v>359</v>
       </c>
-      <c r="F125" t="s">
-        <v>326</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>360</v>
-      </c>
-      <c r="H125" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B126" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C126" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
       </c>
       <c r="E126" t="s">
+        <v>361</v>
+      </c>
+      <c r="F126" t="s">
+        <v>334</v>
+      </c>
+      <c r="G126" t="s">
         <v>362</v>
       </c>
-      <c r="F126" t="s">
-        <v>326</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>363</v>
-      </c>
-      <c r="H126" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B127" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C127" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D127" t="s">
         <v>28</v>
       </c>
       <c r="E127" t="s">
+        <v>364</v>
+      </c>
+      <c r="F127" t="s">
+        <v>334</v>
+      </c>
+      <c r="G127" t="s">
         <v>365</v>
       </c>
-      <c r="F127" t="s">
-        <v>326</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>366</v>
-      </c>
-      <c r="H127" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B128" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C128" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D128" t="s">
         <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>123</v>
+        <v>367</v>
       </c>
       <c r="F128" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G128" t="s">
         <v>368</v>
@@ -6337,13 +6369,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B129" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D129" t="s">
         <v>28</v>
@@ -6352,154 +6384,154 @@
         <v>370</v>
       </c>
       <c r="F129" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G129" t="s">
         <v>371</v>
       </c>
       <c r="H129" t="s">
-        <v>9</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C130" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D130" t="s">
         <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F130" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G130" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H130" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B131" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C131" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D131" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E131" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="F131" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G131" t="s">
         <v>376</v>
       </c>
       <c r="H131" t="s">
-        <v>9</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B132" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C132" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D132" t="s">
         <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F132" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G132" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H132" t="s">
-        <v>379</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B133" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C133" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D133" t="s">
         <v>28</v>
       </c>
       <c r="E133" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F133" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G133" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H133" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C134" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E134" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F134" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G134" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H134" t="s">
-        <v>384</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D135" t="s">
         <v>28</v>
@@ -6508,33 +6540,33 @@
         <v>385</v>
       </c>
       <c r="F135" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G135" t="s">
         <v>386</v>
       </c>
       <c r="H135" t="s">
-        <v>9</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B136" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C136" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D136" t="s">
         <v>28</v>
       </c>
       <c r="E136" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F136" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G136" t="s">
         <v>388</v>
@@ -6545,22 +6577,22 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E137" t="s">
         <v>390</v>
       </c>
       <c r="F137" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G137" t="s">
         <v>391</v>
@@ -6571,51 +6603,51 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B138" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C138" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D138" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E138" t="s">
         <v>393</v>
       </c>
       <c r="F138" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G138" t="s">
         <v>394</v>
       </c>
       <c r="H138" t="s">
-        <v>395</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B139" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C139" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D139" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E139" t="s">
+        <v>395</v>
+      </c>
+      <c r="F139" t="s">
+        <v>334</v>
+      </c>
+      <c r="G139" t="s">
         <v>396</v>
-      </c>
-      <c r="F139" t="s">
-        <v>326</v>
-      </c>
-      <c r="G139" t="s">
-        <v>391</v>
       </c>
       <c r="H139" t="s">
         <v>397</v>
@@ -6623,129 +6655,129 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B140" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C140" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D140" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E140" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F140" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G140" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H140" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B141" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C141" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E141" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F141" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G141" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
+        <v>403</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C142" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E142" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F142" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G142" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H142" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B143" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D143" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E143" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F143" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G143" t="s">
         <v>406</v>
       </c>
       <c r="H143" t="s">
-        <v>9</v>
+        <v>407</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B144" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C144" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E144" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F144" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G144" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6753,100 +6785,100 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B145" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C145" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D145" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E145" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F145" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G145" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H145" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B146" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E146" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F146" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G146" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H146" t="s">
-        <v>414</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B147" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C147" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E147" t="s">
         <v>415</v>
       </c>
       <c r="F147" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G147" t="s">
         <v>416</v>
       </c>
       <c r="H147" t="s">
-        <v>417</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B148" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C148" t="s">
         <v>223</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E148" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="F148" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G148" t="s">
         <v>418</v>
@@ -6857,13 +6889,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B149" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="D149" t="s">
         <v>28</v>
@@ -6872,7 +6904,7 @@
         <v>420</v>
       </c>
       <c r="F149" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G149" t="s">
         <v>421</v>
@@ -6883,48 +6915,48 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B150" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E150" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F150" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G150" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H150" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B151" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E151" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="F151" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G151" t="s">
         <v>426</v>
@@ -6935,10 +6967,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B152" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C152" t="s">
         <v>33</v>
@@ -6950,7 +6982,7 @@
         <v>428</v>
       </c>
       <c r="F152" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G152" t="s">
         <v>429</v>
@@ -6961,117 +6993,117 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B153" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E153" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="F153" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G153" t="s">
         <v>431</v>
       </c>
       <c r="H153" t="s">
-        <v>9</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B154" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C154" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E154" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F154" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="G154" t="s">
         <v>434</v>
       </c>
       <c r="H154" t="s">
-        <v>9</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B155" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C155" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E155" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="F155" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G155" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H155" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" t="s">
+        <v>332</v>
+      </c>
+      <c r="C156" t="s">
         <v>43</v>
       </c>
-      <c r="B156" t="s">
-        <v>324</v>
-      </c>
-      <c r="C156" t="s">
-        <v>45</v>
-      </c>
       <c r="D156" t="s">
         <v>28</v>
       </c>
       <c r="E156" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="F156" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="G156" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H156" t="s">
-        <v>439</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B157" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
@@ -7080,128 +7112,128 @@
         <v>440</v>
       </c>
       <c r="F157" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G157" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H157" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B158" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E158" t="s">
+        <v>370</v>
+      </c>
+      <c r="F158" t="s">
+        <v>334</v>
+      </c>
+      <c r="G158" t="s">
         <v>443</v>
       </c>
-      <c r="F158" t="s">
-        <v>326</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>444</v>
-      </c>
-      <c r="H158" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B159" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D159" t="s">
         <v>28</v>
       </c>
       <c r="E159" t="s">
+        <v>445</v>
+      </c>
+      <c r="F159" t="s">
+        <v>441</v>
+      </c>
+      <c r="G159" t="s">
         <v>446</v>
       </c>
-      <c r="F159" t="s">
-        <v>433</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>447</v>
-      </c>
-      <c r="H159" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B160" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C160" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D160" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E160" t="s">
+        <v>448</v>
+      </c>
+      <c r="F160" t="s">
+        <v>441</v>
+      </c>
+      <c r="G160" t="s">
         <v>449</v>
       </c>
-      <c r="F160" t="s">
-        <v>433</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>450</v>
-      </c>
-      <c r="H160" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B161" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E161" t="s">
+        <v>451</v>
+      </c>
+      <c r="F161" t="s">
+        <v>334</v>
+      </c>
+      <c r="G161" t="s">
         <v>452</v>
       </c>
-      <c r="F161" t="s">
-        <v>433</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>453</v>
-      </c>
-      <c r="H161" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B162" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
@@ -7210,62 +7242,62 @@
         <v>454</v>
       </c>
       <c r="F162" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G162" t="s">
         <v>455</v>
       </c>
       <c r="H162" t="s">
-        <v>9</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E163" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>441</v>
       </c>
       <c r="G163" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H163" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C164" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D164" t="s">
         <v>28</v>
       </c>
       <c r="E164" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F164" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G164" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -7273,65 +7305,65 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C165" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D165" t="s">
         <v>28</v>
       </c>
       <c r="E165" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F165" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G165" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H165" t="s">
-        <v>471</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B166" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C166" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D166" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E166" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F166" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="G166" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H166" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B167" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C167" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
@@ -7340,258 +7372,258 @@
         <v>475</v>
       </c>
       <c r="F167" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="G167" t="s">
         <v>476</v>
       </c>
       <c r="H167" t="s">
-        <v>477</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B168" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D168" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E168" t="s">
+        <v>477</v>
+      </c>
+      <c r="F168" t="s">
+        <v>441</v>
+      </c>
+      <c r="G168" t="s">
         <v>478</v>
       </c>
-      <c r="F168" t="s">
-        <v>460</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>479</v>
-      </c>
-      <c r="H168" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B169" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C169" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D169" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E169" t="s">
+        <v>480</v>
+      </c>
+      <c r="F169" t="s">
+        <v>441</v>
+      </c>
+      <c r="G169" t="s">
         <v>481</v>
       </c>
-      <c r="F169" t="s">
-        <v>460</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>482</v>
-      </c>
-      <c r="H169" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C170" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D170" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E170" t="s">
+        <v>483</v>
+      </c>
+      <c r="F170" t="s">
+        <v>441</v>
+      </c>
+      <c r="G170" t="s">
         <v>484</v>
       </c>
-      <c r="F170" t="s">
-        <v>433</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>485</v>
-      </c>
-      <c r="H170" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B171" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C171" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E171" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="F171" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="G171" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H171" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E172" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F172" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="G172" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H172" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B173" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C173" t="s">
         <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E173" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F173" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G173" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H173" t="s">
-        <v>492</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B174" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C174" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E174" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="F174" t="s">
+        <v>441</v>
+      </c>
+      <c r="G174" t="s">
         <v>494</v>
       </c>
-      <c r="G174" t="s">
-        <v>502</v>
-      </c>
       <c r="H174" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B175" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C175" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E175" t="s">
-        <v>350</v>
+        <v>496</v>
       </c>
       <c r="F175" t="s">
+        <v>441</v>
+      </c>
+      <c r="G175" t="s">
         <v>494</v>
       </c>
-      <c r="G175" t="s">
-        <v>504</v>
-      </c>
       <c r="H175" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B176" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C176" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D176" t="s">
         <v>28</v>
       </c>
       <c r="E176" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F176" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G176" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H176" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="B177" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C177" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D177" t="s">
         <v>28</v>
@@ -7600,7 +7632,7 @@
         <v>509</v>
       </c>
       <c r="F177" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="G177" t="s">
         <v>510</v>
@@ -7611,103 +7643,103 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="B178" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D178" t="s">
         <v>28</v>
       </c>
       <c r="E178" t="s">
+        <v>358</v>
+      </c>
+      <c r="F178" t="s">
+        <v>502</v>
+      </c>
+      <c r="G178" t="s">
         <v>512</v>
       </c>
-      <c r="F178" t="s">
-        <v>433</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>513</v>
-      </c>
-      <c r="H178" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="B179" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C179" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="D179" t="s">
         <v>28</v>
       </c>
       <c r="E179" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F179" t="s">
-        <v>523</v>
+        <v>441</v>
       </c>
       <c r="G179" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H179" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="B180" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C180" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D180" t="s">
         <v>28</v>
       </c>
       <c r="E180" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F180" t="s">
-        <v>523</v>
+        <v>441</v>
       </c>
       <c r="G180" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H180" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="B181" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C181" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="D181" t="s">
         <v>28</v>
       </c>
       <c r="E181" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F181" t="s">
-        <v>523</v>
+        <v>441</v>
       </c>
       <c r="G181" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7715,22 +7747,22 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B182" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C182" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D182" t="s">
         <v>28</v>
       </c>
       <c r="E182" t="s">
+        <v>530</v>
+      </c>
+      <c r="F182" t="s">
         <v>531</v>
-      </c>
-      <c r="F182" t="s">
-        <v>523</v>
       </c>
       <c r="G182" t="s">
         <v>532</v>
@@ -7741,13 +7773,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B183" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C183" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D183" t="s">
         <v>28</v>
@@ -7756,50 +7788,50 @@
         <v>534</v>
       </c>
       <c r="F183" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G183" t="s">
         <v>535</v>
       </c>
       <c r="H183" t="s">
-        <v>9</v>
+        <v>536</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B184" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="D184" t="s">
         <v>28</v>
       </c>
       <c r="E184" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F184" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G184" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H184" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B185" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="D185" t="s">
         <v>28</v>
@@ -7808,85 +7840,85 @@
         <v>539</v>
       </c>
       <c r="F185" t="s">
+        <v>531</v>
+      </c>
+      <c r="G185" t="s">
         <v>540</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>541</v>
-      </c>
-      <c r="H185" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>216</v>
+      </c>
+      <c r="B186" t="s">
+        <v>332</v>
+      </c>
+      <c r="C186" t="s">
         <v>27</v>
       </c>
-      <c r="B186" t="s">
-        <v>324</v>
-      </c>
-      <c r="C186" t="s">
-        <v>36</v>
-      </c>
       <c r="D186" t="s">
         <v>28</v>
       </c>
       <c r="E186" t="s">
-        <v>362</v>
+        <v>542</v>
       </c>
       <c r="F186" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G186" t="s">
         <v>543</v>
       </c>
       <c r="H186" t="s">
-        <v>544</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B187" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D187" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E187" t="s">
+        <v>544</v>
+      </c>
+      <c r="F187" t="s">
+        <v>531</v>
+      </c>
+      <c r="G187" t="s">
         <v>545</v>
       </c>
-      <c r="F187" t="s">
-        <v>523</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>546</v>
-      </c>
-      <c r="H187" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B188" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C188" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D188" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E188" t="s">
+        <v>547</v>
+      </c>
+      <c r="F188" t="s">
         <v>548</v>
-      </c>
-      <c r="F188" t="s">
-        <v>523</v>
       </c>
       <c r="G188" t="s">
         <v>549</v>
@@ -7897,10 +7929,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B189" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C189" t="s">
         <v>43</v>
@@ -7909,13 +7941,13 @@
         <v>28</v>
       </c>
       <c r="E189" t="s">
+        <v>370</v>
+      </c>
+      <c r="F189" t="s">
+        <v>548</v>
+      </c>
+      <c r="G189" t="s">
         <v>551</v>
-      </c>
-      <c r="F189" t="s">
-        <v>540</v>
-      </c>
-      <c r="G189" t="s">
-        <v>552</v>
       </c>
       <c r="H189" t="s">
         <v>552</v>
@@ -7923,22 +7955,22 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B190" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E190" t="s">
         <v>553</v>
       </c>
       <c r="F190" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G190" t="s">
         <v>554</v>
@@ -7949,22 +7981,22 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B191" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C191" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E191" t="s">
         <v>556</v>
       </c>
       <c r="F191" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G191" t="s">
         <v>557</v>
@@ -7975,126 +8007,126 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B192" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C192" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D192" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E192" t="s">
         <v>559</v>
       </c>
       <c r="F192" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="G192" t="s">
         <v>560</v>
       </c>
       <c r="H192" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B193" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C193" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D193" t="s">
         <v>28</v>
       </c>
       <c r="E193" t="s">
+        <v>561</v>
+      </c>
+      <c r="F193" t="s">
+        <v>548</v>
+      </c>
+      <c r="G193" t="s">
         <v>562</v>
       </c>
-      <c r="F193" t="s">
-        <v>540</v>
-      </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>563</v>
-      </c>
-      <c r="H193" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B194" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C194" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D194" t="s">
         <v>28</v>
       </c>
       <c r="E194" t="s">
+        <v>564</v>
+      </c>
+      <c r="F194" t="s">
+        <v>548</v>
+      </c>
+      <c r="G194" t="s">
         <v>565</v>
       </c>
-      <c r="F194" t="s">
-        <v>540</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>566</v>
-      </c>
-      <c r="H194" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B195" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E195" t="s">
+        <v>567</v>
+      </c>
+      <c r="F195" t="s">
+        <v>548</v>
+      </c>
+      <c r="G195" t="s">
         <v>568</v>
       </c>
-      <c r="F195" t="s">
-        <v>540</v>
-      </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>569</v>
-      </c>
-      <c r="H195" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B196" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D196" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E196" t="s">
         <v>570</v>
       </c>
       <c r="F196" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="G196" t="s">
         <v>571</v>
@@ -8105,100 +8137,100 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B197" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C197" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="D197" t="s">
         <v>28</v>
       </c>
       <c r="E197" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F197" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="G197" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H197" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B198" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C198" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="D198" t="s">
         <v>28</v>
       </c>
       <c r="E198" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F198" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="G198" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H198" t="s">
-        <v>586</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B199" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C199" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="D199" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E199" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F199" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="G199" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="H199" t="s">
-        <v>9</v>
+        <v>580</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C200" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D200" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E200" t="s">
         <v>589</v>
       </c>
       <c r="F200" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G200" t="s">
         <v>590</v>
@@ -8209,13 +8241,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B201" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C201" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D201" t="s">
         <v>28</v>
@@ -8224,7 +8256,7 @@
         <v>592</v>
       </c>
       <c r="F201" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="G201" t="s">
         <v>593</v>
@@ -8235,48 +8267,48 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C202" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E202" t="s">
         <v>595</v>
       </c>
       <c r="F202" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G202" t="s">
         <v>596</v>
       </c>
       <c r="H202" t="s">
-        <v>597</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C203" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E203" t="s">
-        <v>46</v>
+        <v>597</v>
       </c>
       <c r="F203" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="G203" t="s">
         <v>598</v>
@@ -8287,13 +8319,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C204" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D204" t="s">
         <v>28</v>
@@ -8302,180 +8334,180 @@
         <v>600</v>
       </c>
       <c r="F204" t="s">
+        <v>548</v>
+      </c>
+      <c r="G204" t="s">
         <v>601</v>
       </c>
-      <c r="G204" t="s">
+      <c r="H204" t="s">
         <v>602</v>
-      </c>
-      <c r="H204" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C205" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D205" t="s">
         <v>28</v>
       </c>
       <c r="E205" t="s">
+        <v>603</v>
+      </c>
+      <c r="F205" t="s">
+        <v>548</v>
+      </c>
+      <c r="G205" t="s">
         <v>604</v>
       </c>
-      <c r="F205" t="s">
-        <v>601</v>
-      </c>
-      <c r="G205" t="s">
+      <c r="H205" t="s">
         <v>605</v>
-      </c>
-      <c r="H205" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C206" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D206" t="s">
         <v>28</v>
       </c>
       <c r="E206" t="s">
+        <v>55</v>
+      </c>
+      <c r="F206" t="s">
+        <v>548</v>
+      </c>
+      <c r="G206" t="s">
+        <v>606</v>
+      </c>
+      <c r="H206" t="s">
         <v>607</v>
-      </c>
-      <c r="F206" t="s">
-        <v>601</v>
-      </c>
-      <c r="G206" t="s">
-        <v>608</v>
-      </c>
-      <c r="H206" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B207" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C207" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D207" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E207" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="F207" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="G207" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H207" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C208" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D208" t="s">
         <v>28</v>
       </c>
       <c r="E208" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F208" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G208" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H208" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C209" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D209" t="s">
         <v>28</v>
       </c>
       <c r="E209" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="F209" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G209" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="H209" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C210" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E210" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="F210" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
       <c r="G210" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H210" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C211" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D211" t="s">
         <v>28</v>
@@ -8484,88 +8516,88 @@
         <v>618</v>
       </c>
       <c r="F211" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G211" t="s">
         <v>619</v>
       </c>
       <c r="H211" t="s">
-        <v>9</v>
+        <v>620</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C212" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D212" t="s">
         <v>28</v>
       </c>
       <c r="E212" t="s">
-        <v>618</v>
+        <v>561</v>
       </c>
       <c r="F212" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G212" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H212" t="s">
-        <v>9</v>
+        <v>622</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D213" t="s">
         <v>28</v>
       </c>
       <c r="E213" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F213" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G213" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H213" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C214" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D214" t="s">
         <v>28</v>
       </c>
       <c r="E214" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F214" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G214" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8573,13 +8605,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B215" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C215" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D215" t="s">
         <v>28</v>
@@ -8588,10 +8620,10 @@
         <v>626</v>
       </c>
       <c r="F215" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G215" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8599,51 +8631,51 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B216" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
       </c>
       <c r="D216" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E216" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="F216" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="G216" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H216" t="s">
-        <v>586</v>
+        <v>631</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B217" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="D217" t="s">
         <v>28</v>
       </c>
       <c r="E217" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F217" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G217" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8651,25 +8683,25 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B218" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D218" t="s">
         <v>28</v>
       </c>
       <c r="E218" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F218" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G218" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8677,51 +8709,51 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B219" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D219" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E219" t="s">
-        <v>440</v>
+        <v>592</v>
       </c>
       <c r="F219" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
       <c r="G219" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="H219" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B220" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C220" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D220" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E220" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F220" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G220" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8729,77 +8761,77 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B221" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C221" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
       </c>
       <c r="E221" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F221" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G221" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H221" t="s">
-        <v>639</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B222" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C222" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D222" t="s">
         <v>28</v>
       </c>
       <c r="E222" t="s">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="F222" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G222" t="s">
         <v>641</v>
       </c>
       <c r="H222" t="s">
-        <v>9</v>
+        <v>642</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B223" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C223" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E223" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F223" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G223" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8807,51 +8839,51 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B224" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C224" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D224" t="s">
         <v>28</v>
       </c>
       <c r="E224" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F224" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G224" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H224" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B225" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C225" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D225" t="s">
         <v>28</v>
       </c>
       <c r="E225" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F225" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G225" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8859,62 +8891,62 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B226" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C226" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D226" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E226" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F226" t="s">
-        <v>523</v>
+        <v>609</v>
       </c>
       <c r="G226" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H226" t="s">
-        <v>651</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B227" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C227" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D227" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E227" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="F227" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="G227" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H227" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B228" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C228" t="s">
         <v>17</v>
@@ -8923,16 +8955,94 @@
         <v>28</v>
       </c>
       <c r="E228" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F228" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G228" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H228" t="s">
-        <v>655</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>211</v>
+      </c>
+      <c r="B229" t="s">
+        <v>332</v>
+      </c>
+      <c r="C229" t="s">
+        <v>17</v>
+      </c>
+      <c r="D229" t="s">
+        <v>37</v>
+      </c>
+      <c r="E229" t="s">
+        <v>657</v>
+      </c>
+      <c r="F229" t="s">
+        <v>531</v>
+      </c>
+      <c r="G229" t="s">
+        <v>658</v>
+      </c>
+      <c r="H229" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>211</v>
+      </c>
+      <c r="B230" t="s">
+        <v>332</v>
+      </c>
+      <c r="C230" t="s">
+        <v>17</v>
+      </c>
+      <c r="D230" t="s">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>592</v>
+      </c>
+      <c r="F230" t="s">
+        <v>548</v>
+      </c>
+      <c r="G230" t="s">
+        <v>660</v>
+      </c>
+      <c r="H230" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>211</v>
+      </c>
+      <c r="B231" t="s">
+        <v>332</v>
+      </c>
+      <c r="C231" t="s">
+        <v>84</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" t="s">
+        <v>661</v>
+      </c>
+      <c r="F231" t="s">
+        <v>609</v>
+      </c>
+      <c r="G231" t="s">
+        <v>662</v>
+      </c>
+      <c r="H231" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="564">
   <si>
     <t>num.</t>
   </si>
@@ -95,10 +95,10 @@
   <si>
     <t xml:space="preserve"> . ועל הבסיס הזה החליטו להגיש כתב אישום נגד ראש ממשלה מכהן?
 מילא לפיד כבר הוכיח את עצמו עם הפרויקט הכושל של דירה להשכיר אבל שהמשטרה תיפול על השטות הזאת?
-עד כדי כך גדולה הלהיטות. . אוהדי ביבי - מה אתם מקשקשים ?
+עד כדי כך גדולה הלהיטות.המגיב . אוהדי ביבי - מה אתם מקשקשים ?
 אין לזה קשר עם קיומו של החוק או אי קיומו .
 אלא לשאלה מדוע ביקש ביבי מלפיד להאריך את תוקף ההטבה עבור מילצ'ן 
-ל-20 שנה . . לפי הדיווח מילצ'ן דיבר ישירות עם חברו לפיד.האופציה להארכה נקבעה מראש בחוק המקורי שחתום על ידי אולמרט בראון ושמעון פרס.. וכל הכנסת ורשות המיסים הסכימו עליו. למה לפיד דיבר עם מילצן  ולמרות הכל לא הוארך.ואודי ברזילי המבין משהו בענחן זה אומר במפורש שזה אינטרס של המדינה ולא משהו אישי. . לאחר שקבל סירוב מלפיד , הוא פנה לביבי שידבר על ליבו של לפיד וכך קרה!!! . ולחכמי השמאל האנטישמי , יש גם עובדות שלא ממש מתיישבים עם הרצון האובססיבי שלכם לחסל כל סממן ציוני ולאומי , . אבל..... יאיר לפיד העיד במשטרה ..........
+ל-20 שנה .לאוילי הימין . לפי הדיווח מילצ'ן דיבר ישירות עם חברו לפיד.האופציה להארכה נקבעה מראש בחוק המקורי שחתום על ידי אולמרט בראון ושמעון פרס.. וכל הכנסת ורשות המיסים הסכימו עליו. למה לפיד דיבר עם מילצן  ולמרות הכל לא הוארך.ואודי ברזילי המבין משהו בענחן זה אומר במפורש שזה אינטרס של המדינה ולא משהו אישי.לחכמולוג מהשמאל . לאחר שקבל סירוב מלפיד , הוא פנה לביבי שידבר על ליבו של לפיד וכך קרה!!!לאוילי הימין . ולחכמי השמאל האנטישמי , יש גם עובדות שלא ממש מתיישבים עם הרצון האובססיבי שלכם לחסל כל סממן ציוני ולאומי , . אבל..... יאיר לפיד העיד במשטרה ..........
 אתם רוצים להגיד שהחוקרים לא הרימו טלפון לשאול ????? . חלם, העיקר לזרוק רפש לכל כיוון, עובדה בשטח החוק נחקק לפני שביבי היה ראש ממשלה , העיקר שכל עדר היניבים שמחים .בושה שזוהי המשטרה שלנו . . יותר מדי  סימני  שאלה  סביב  מאשימי  נתניהו....   להתחיל משם
 ויהי  אור
 .
@@ -106,7 +106,7 @@
 אך מדוע ביבי פנה ללפיד 
 וביקש לטפל  ולקדם באופן אישי את החלת החוק  ל-20 שנה עבור מילצ'ן ?
 פה נמצאת הבעיה . . ״מומחי המס״ לא מעניינים!!
-ביבי מודה שקיבל מאות אלפי שקלים מתנות!!! שילך הביתה. . ברור כשמש שליאיר לפיד יש אינטרס אישי להפיל את ראש הממשלה, ולכן התאים את העדות שלו לרצונות שלו..... . לך חפש מי ינענע אותך ,אתה רוצה שבנאדם ישקר בחקירת משטרה בגלל נתניהו את זה עשו שני שרים בחקירה "לא זוכרים"....</t>
+ביבי מודה שקיבל מאות אלפי שקלים מתנות!!! שילך הביתה. . ברור כשמש שליאיר לפיד יש אינטרס אישי להפיל את ראש הממשלה, ולכן התאים את העדות שלו לרצונות שלו.....אני . לך חפש מי ינענע אותך ,אתה רוצה שבנאדם ישקר בחקירת משטרה בגלל נתניהו את זה עשו שני שרים בחקירה "לא זוכרים"....</t>
   </si>
   <si>
     <t>11</t>
@@ -150,9 +150,6 @@
     <t>לחכמולוג מהשמאל</t>
   </si>
   <si>
-    <t>9h</t>
-  </si>
-  <si>
     <t>לפי הדיווח מילצ'ן דיבר ישירות עם חברו לפיד.האופציה להארכה נקבעה מראש בחוק המקורי שחתום על ידי אולמרט בראון ושמעון פרס.. וכל הכנסת ורשות המיסים הסכימו עליו. למה לפיד דיבר עם מילצן  ולמרות הכל לא הוארך.ואודי ברזילי המבין משהו בענחן זה אומר במפורש שזה אינטרס של המדינה ולא משהו אישי.</t>
   </si>
   <si>
@@ -174,7 +171,7 @@
     <t>bengo703</t>
   </si>
   <si>
-    <t>6h</t>
+    <t>7h</t>
   </si>
   <si>
     <t>ולחכמי השמאל האנטישמי , יש גם עובדות שלא ממש מתיישבים עם הרצון האובססיבי שלכם לחסל כל סממן ציוני ולאומי ,</t>
@@ -241,9 +238,6 @@
     <t>אחד שמבין</t>
   </si>
   <si>
-    <t>7h</t>
-  </si>
-  <si>
     <t>לא יאומן כי יסופר,רק מראה איזה שחיתות יש במשטרה,הפכה לפוליטית לחלוטין,לפטר את אלשיך וריטמן דחוף לא לפחד,מימלא הם צועקים שימשיכו לצעוק.</t>
   </si>
   <si>
@@ -251,6 +245,9 @@
   </si>
   <si>
     <t>גיא.</t>
+  </si>
+  <si>
+    <t>11h</t>
   </si>
   <si>
     <t>איזה משטרה חפיפניקית יש לעם ישראל ! שרפו עשרות מליוני שקלים בחקירות שניהלו והביאו הוכחות עלובות, עם מטרה אחת בלבד, להרשיע ראש ממשלה מכהן. נדרשת ועדת חקירה בכירה, לבדוק את מטרת ההתלהבות המשטרתית בהמלצות שהוציאה תחת ידה. הרבה אנשים עוד יואכלו את הכובע, על הפרשנות הסוחפת והמתלהמת בהטלת האשם על ראש הממשלה, עוד קודם שהדברים לובנו עד הסוף.</t>
@@ -274,6 +271,9 @@
     <t>חיים</t>
   </si>
   <si>
+    <t>9h</t>
+  </si>
+  <si>
     <t>״מומחי המס״ לא מעניינים!!
 ביבי מודה שקיבל מאות אלפי שקלים מתנות!!! שילך הביתה.</t>
   </si>
@@ -281,7 +281,7 @@
     <t>אני</t>
   </si>
   <si>
-    <t>5h</t>
+    <t>6h</t>
   </si>
   <si>
     <t>ברור כשמש שליאיר לפיד יש אינטרס אישי להפיל את ראש הממשלה, ולכן התאים את העדות שלו לרצונות שלו.....</t>
@@ -329,8 +329,8 @@
     <t>בעת כהונתו כשר אוצר בממשלת נתניהו השנייה, השר ד"ר יובל שטייניץ מנע חקיקת תקנות שהיו מאפשרות להאריך את הפטור ממס לתושבים חוזרים ועולים חדשים מ-10 ל-20 שנה.מבדיקת "גלובס" עולה כי הדרג המקצועי ברשות המסים קידם תקנות בתקופתו של שטייניץ כשר אוצר, שלפיהן השקעת הון במיזמי בנייה להשכרה ארוכת-טווח הייתה מזכה תושבים חוזרים ועולים חדשים בהארכת הפטור המלא ממס על הכנסות מפעילות בחו"ל לתקופה של 20 שנה. ההצעה נדונה בדרגים המקצועיים באוצר וברשות המסים, אך נדחתה בסופו של דבר על-ידי שטייניץ בהמלצת הדרג המקצועי באוצר. גורמים שעסקו בקידום התקנות אמרו ל"גלובס" כי לא ידוע להם על מעורבות גורמים פוליטיים בקידום ההצעה.המלצות המשטרה להעמיד לדין את ראש הממשלה, בנימין נתניהו, באשמת קבלת שוחד בתיק המתנות (תיק 1000) מתבססות, בין היתר, על החשד כי נתניהו פעל להארכת הפטור ממס לתושבים חוזרים מ-10 ל-20 שנה, מתוך מטרה לסייע בכך למיליארדר הישראלי, ארנון מילצ'ן. זאת, על-ידי חקיקת "חוק מילצ'ן".הפטורים הוענקו ללא כל התחייבות מצד הנהנה מהם, ואולם במסגרת זו הושארה אפשרות להאריך את הפטור מ-10 ל-20 שנה אם התושב החוזר (או העולה החדש) יחליט בנוסף להשקיע בישראל מהונו הפרטי. אפשרות זו נותרה לא מעשית עד היום, משום שרשות המיסים לא השלימה את התקנת התקנות שמסדירות אותה, וקובעות, למשל, מה יהיה סכום ההשקעה המינימלי שיזכה בפטור הכפול.מה שלא היה ידוע עד כה ומתברר כעת מבדיקת "גלובס" הוא כי רשות המסים יזמה תקנות כאלה, שהיו מאפשרות את הארכת הפטור ל-20 שנה, בתקופת כהונתו של דורון ארבלי כמנהל רשות המסים. גורמים שהיו מעורבים בקידום היוזמה, אמרו ל"גלובס" כי היוזמה נולדה במחלקת החקיקה ברשות המסים וכי לא חשו במעורבות כלשהי מצד הדרגים הפוליטיים.לדבריהם, הרעיון היה לקדם את נושא הבנייה להשכרה ארוכת-טווח באמצעות עידוד תושבים חוזרים ועולים להשקיע הון במיזמי בנייה להשכרה. באותה תקופה עלו גם הצעות לעודד גופים מוסדיים להשקיע בבנייה להשכרה ארוכת-טווח. לדברי אותם גורמים, התקנות הוצגו לדרג המקצועי באוצר לפחות בישיבה אחת. אותם גורמים הדגישו כי ההצעה לא כללה את הארכת הפטור מדיווח על הכנסות בחו"ל מעבר ל-10 השנים הקבועות בחוק "מילצ'ן".</t>
   </si>
   <si>
-    <t xml:space="preserve"> . "התיק לא בשל, לא להכל יש ראיות" גורם בפרקליטות הביע ביקורת חריפה על התנהלות המשטרה בפרסום המלצות החקירה של ראש הממשלה וטען כי כל נסיגה תיתפס כ"התרסקות" ומעריכים: "לא לכל הנטען בהמלצות יש כיסוי ראייתי". בפרקליטות הבהירו בנוסף: "ידרשו השלמות חקירה". במשטרה סבורים שהטיפול בתיקים יימשך כ-8 חודשים . האם נתניהו הפליל את אלקין ויריב לוין כשגילה שהם היו ביחד בפגישה עם נוני מוזס? . ואז הגיע יאיר לפיד לאוצר ... . אבל זה לא מסתדר עם העדות של יאיר לפיד ....
-מה שכתבי גלובס בדקו בשעה ,המשטרה לא בדקו במשך שנה ....... . למד לקרא עד הסוף . אתם לא בסדר. הכותרת יוצרת מצב כאילו מדובר בחוק שבו מאשימים את ראש הממשלה בהתערבות. מדובר בחוק אחר שאינו רלוונטי למילצין. ואינו מהווה סתירה לטענות כנגד ראש הממשלה. זו כותרת ליצירת אהדה לשטייניץ. במצבו הוא אכן זקוק לכך. ישנה התאמה גבוהה בין רמת האוכלוסיה לרמת השלטון שלה. כך שהכל בסדר. יש הרבה דרכים להפסיד המדינה אבל זו זכותנו. . הזו עוסקת באירועים אחרים ממה שמדברת עליהם המשטרה.  אין סתירה בין הדברים.  גם זה קרה וגם זה קרה. . גם הפרשן המשפטי ברוך קרא מחרטט כל יום ומניח הנחות משונות...לאף אחד אין את תמליל החקירות ןלא ממש יודע על מה מסתמכים החוקרים...אומר לכם מניסיון... . הראיות בתיקי 1000 ו2000 לא יעברו משפטית. המשטרה בחרה להציב רף גבוה ולהמליץ על שוחד בשני התיקים. מה שיגרום לכך שהפרקליטות והיועץ המשפטי יבקו האם יש ראיות לכך משפטית. שמעתי את ד"ר ווירוט וכבר יש תשתית לשימוע אם וכאשר יוחלט כל הגשת כתב אישום. היועץ המשפטי לא יתבזה בכך שהראיוץת במשפט יתבררו כלא כלום. ואני אומר לכם שהיועץ לא יתן יד ל"כאילו" אם הראיות לא חד משמעיות , הוא יוריד את זה מסדר היום. . החוק שהעניק פטור בסיסי ל10 שנים מקורו ביוזמה מ2003 ומי היה שר האוצר אז? ניחוש אחד. בחוק נתנה סמכות להארכת תוקף הפטור בידי שר האוצר. 10 שנים נראו כמו הרבה בהתחלה אבל חזירים לא מאבדים את התאבון. לקראת סוף העשור רצו (מילצ'ן בטוח רצה - לפי עדותו שלו) יותר ואז פעם אחר פעם נבלמה היוזמה להארכה. לא אתפלא אם גם אצל שטייניץ היה זה ביבי שניסה את מזלו שוב להשפיע בדרכים עקלקלות יותר. . שטייניץ, לא נשכח לך שהעלאת מס הכנסה לארבעת העשירונים העליונים. חתיכת אפס. . החוק שפוטר תושבים חוזרים מעל 10 שנים ממס על פעילות בחו"ל הוא מצויין ועוזר להרבה ישראלים לא מיליונרים אבל כאלה שיש להם עסקים או עבודה בחו"ל לחזור לישראל בלי לשרוף את הגשרים ולהיות מסוגלים להביא הכנסה נוספת לישראל.
+    <t xml:space="preserve"> . "התיק לא בשל, לא להכל יש ראיות" גורם בפרקליטות הביע ביקורת חריפה על התנהלות המשטרה בפרסום המלצות החקירה של ראש הממשלה וטען כי כל נסיגה תיתפס כ"התרסקות" ומעריכים: "לא לכל הנטען בהמלצות יש כיסוי ראייתי". בפרקליטות הבהירו בנוסף: "ידרשו השלמות חקירה". במשטרה סבורים שהטיפול בתיקים יימשך כ-8 חודשיםחדשות 2 . האם נתניהו הפליל את אלקין ויריב לוין כשגילה שהם היו ביחד בפגישה עם נוני מוזס? . ואז הגיע יאיר לפיד לאוצר ... . אבל זה לא מסתדר עם העדות של יאיר לפיד ....
+מה שכתבי גלובס בדקו בשעה ,המשטרה לא בדקו במשך שנה .......משטרת דימיקולות . למד לקרא עד הסוף . אתם לא בסדר. הכותרת יוצרת מצב כאילו מדובר בחוק שבו מאשימים את ראש הממשלה בהתערבות. מדובר בחוק אחר שאינו רלוונטי למילצין. ואינו מהווה סתירה לטענות כנגד ראש הממשלה. זו כותרת ליצירת אהדה לשטייניץ. במצבו הוא אכן זקוק לכך. ישנה התאמה גבוהה בין רמת האוכלוסיה לרמת השלטון שלה. כך שהכל בסדר. יש הרבה דרכים להפסיד המדינה אבל זו זכותנו. . הזו עוסקת באירועים אחרים ממה שמדברת עליהם המשטרה.  אין סתירה בין הדברים.  גם זה קרה וגם זה קרה. . גם הפרשן המשפטי ברוך קרא מחרטט כל יום ומניח הנחות משונות...לאף אחד אין את תמליל החקירות ןלא ממש יודע על מה מסתמכים החוקרים...אומר לכם מניסיון... . הראיות בתיקי 1000 ו2000 לא יעברו משפטית. המשטרה בחרה להציב רף גבוה ולהמליץ על שוחד בשני התיקים. מה שיגרום לכך שהפרקליטות והיועץ המשפטי יבקו האם יש ראיות לכך משפטית. שמעתי את ד"ר ווירוט וכבר יש תשתית לשימוע אם וכאשר יוחלט כל הגשת כתב אישום. היועץ המשפטי לא יתבזה בכך שהראיוץת במשפט יתבררו כלא כלום. ואני אומר לכם שהיועץ לא יתן יד ל"כאילו" אם הראיות לא חד משמעיות , הוא יוריד את זה מסדר היום. . החוק שהעניק פטור בסיסי ל10 שנים מקורו ביוזמה מ2003 ומי היה שר האוצר אז? ניחוש אחד. בחוק נתנה סמכות להארכת תוקף הפטור בידי שר האוצר. 10 שנים נראו כמו הרבה בהתחלה אבל חזירים לא מאבדים את התאבון. לקראת סוף העשור רצו (מילצ'ן בטוח רצה - לפי עדותו שלו) יותר ואז פעם אחר פעם נבלמה היוזמה להארכה. לא אתפלא אם גם אצל שטייניץ היה זה ביבי שניסה את מזלו שוב להשפיע בדרכים עקלקלות יותר. . שטייניץ, לא נשכח לך שהעלאת מס הכנסה לארבעת העשירונים העליונים. חתיכת אפס. . החוק שפוטר תושבים חוזרים מעל 10 שנים ממס על פעילות בחו"ל הוא מצויין ועוזר להרבה ישראלים לא מיליונרים אבל כאלה שיש להם עסקים או עבודה בחו"ל לחזור לישראל בלי לשרוף את הגשרים ולהיות מסוגלים להביא הכנסה נוספת לישראל.
 אז אולי 20 שנה זה הרבה, אלא אם כן אותו אדם משקיע מאות מיליוני דולרים במיזם לאומי אבל 10 שנים זה הגיוני מאד.
 גם אני במצב דומה, לא עם מאות מיליונים אבל עם הכנסות בחו"ל של מאות אלפים בשנה. . מי שצפה בסדרת נטפליקס בית הקלפים יזהה את כל מהלכי נתניהו בעבר ובעתיד . חרטטנים גדולים...חד משמעית שום דבר לא נבדק לעומק באתר הכל השערות...</t>
   </si>
@@ -341,7 +341,7 @@
     <t>חדשות 2</t>
   </si>
   <si>
-    <t>14h</t>
+    <t>15h</t>
   </si>
   <si>
     <t>"התיק לא בשל, לא להכל יש ראיות" גורם בפרקליטות הביע ביקורת חריפה על התנהלות המשטרה בפרסום המלצות החקירה של ראש הממשלה וטען כי כל נסיגה תיתפס כ"התרסקות" ומעריכים: "לא לכל הנטען בהמלצות יש כיסוי ראייתי". בפרקליטות הבהירו בנוסף: "ידרשו השלמות חקירה". במשטרה סבורים שהטיפול בתיקים יימשך כ-8 חודשים</t>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>איתי</t>
+  </si>
+  <si>
+    <t>18h</t>
   </si>
   <si>
     <t>ואז הגיע יאיר לפיד לאוצר ...</t>
@@ -408,13 +411,16 @@
     <t>ניב</t>
   </si>
   <si>
+    <t>14h</t>
+  </si>
+  <si>
     <t>שטייניץ, לא נשכח לך שהעלאת מס הכנסה לארבעת העשירונים העליונים. חתיכת אפס.</t>
   </si>
   <si>
     <t>בני</t>
   </si>
   <si>
-    <t>12h</t>
+    <t>13h</t>
   </si>
   <si>
     <t>החוק שפוטר תושבים חוזרים מעל 10 שנים ממס על פעילות בחו"ל הוא מצויין ועוזר להרבה ישראלים לא מיליונרים אבל כאלה שיש להם עסקים או עבודה בחו"ל לחזור לישראל בלי לשרוף את הגשרים ולהיות מסוגלים להביא הכנסה נוספת לישראל.
@@ -456,9 +462,6 @@
     <t>הברור מאליו</t>
   </si>
   <si>
-    <t>13h</t>
-  </si>
-  <si>
     <t>חברים? 
 אולי שותפים לעסקים ותו לא</t>
   </si>
@@ -483,28 +486,28 @@
   <si>
     <t xml:space="preserve"> . למה אף עיתונאי לא כותב על הקשר בין מוזס ללפיד שעבד אצלו ועל ידיעות שנוהג בו בכפפות של משי .
 ועל רעייתו של לפיד שעדיין מועסקת בידיעות אחרונות אצל מוזס שחשוד במצן שוחד . 
-זה תקיין ? . כי לא לפיד הוא זה שמוקלט, זה עונה על השאלה האווילית שלך?
-תמשיך לעשות לייקים לעצמך, אדם אטום! . נראה על פניו ולפי תשובתך כי אדם חכם אתה.. מי שהקליט הוא נתניהו והמקליט יודע שבבוא היום יוכל להשתמש כנגד המוקלט.. אז בוא רגע שבנין, האם ביבי טיפש כדי להפליל את עצמו? התשובה היא בגוף השאלה. לפיד הטיפש גרה לעצמו קבר פוליטי וההתרסקות שלו בוא תבוא כשהכל יופרך. לגבי אשתו של לפיד, היא לא הנושא כאן אלא הנשוא. . עוד אבל אבלים מאדם אטום.
+זה תקיין ?היהיר השטינקר . כי לא לפיד הוא זה שמוקלט, זה עונה על השאלה האווילית שלך?
+תמשיך לעשות לייקים לעצמך, אדם אטום!. . נראה על פניו ולפי תשובתך כי אדם חכם אתה.. מי שהקליט הוא נתניהו והמקליט יודע שבבוא היום יוכל להשתמש כנגד המוקלט.. אז בוא רגע שבנין, האם ביבי טיפש כדי להפליל את עצמו? התשובה היא בגוף השאלה. לפיד הטיפש גרה לעצמו קבר פוליטי וההתרסקות שלו בוא תבוא כשהכל יופרך. לגבי אשתו של לפיד, היא לא הנושא כאן אלא הנשוא.Orko . עוד אבל אבלים מאדם אטום.
 ההקלטות נמצאו בכלל בחקירה של עבריין אחר שחתם על הסכם עד מדינה ארי הרו. 
 גם אם את ההוראות נתן נתניהו וההקלטות נעשו לצורך העברתן לגברת נתניהו.
 ההקלטות נתפסו כשלל חקירתי רב שפתח צוהר לפגישות שהמשטרה חושדת שהן מושחתות. 
-תגיד, כמה שקרים אתה כותב? . אולי כי לפיד לא קידם עניינים לטובת מוזס בתוקף תפקידו כנבחר ציבור, טמבל? . עשיתי גוגל ומצאתי שמפלגת "יש עתיד" כולל לפיד הצביעו בעד החוק שהגיש כבל להפסקת הפצתו בחינם של "ישראל היום". האם זה לא חוק שהיה עוזר כלכלית לידיעות אחרונות? עכשיו מי הטמבל? . נו וזה יעזור לטהר את הרב נוכל ומחבל הזה ביבי המושחת? . למה ? כי זה לא תואם את האג׳נדה . אם יש לך חשד כלפי לפיד או כלפי מישהו אחר מהשמאל או מהימין , תיגשלמשטרה ותגיש תלונה , להגיד משהו לא מבוסס זה לא הבעיה ,זה בפירוש הוצאת דיבה .
- וגם אם מישהו אחר עשה עבירה זה לא אומר שלראש הממשלה היה מותר לעשות את מה שעשה . אם יש לך מידע ספציפי, או חשד לעבירה אזי גש להגיש תלונה במשטרה. במידה ולא אנא תתרכז בראיות שהובילו את המשטרה להמליץ על העמדתו של נתניהו לדין בגין לקיחת שוחד. מה מסובך? פשוט תתרכז... . לפיד  לא  רץ   לספר  , אלא  הוזמן  להעיד  במשטרה  ואמר  אמת  , מילה  את  חובתו  אזרחית   וזה  עומד  לזכותו  . . השב"כניק שחיבר את כל הנקודות ומומחה בעיקר בתחקור עדים ומתן לגיטימציה לצוות החוקרים להמשיך לפעול ללא לחץ. הוא מפכ"ל איכותי, ידען, נבון ומתוחכם.
+תגיד, כמה שקרים אתה כותב?היהיר השטינקר . אולי כי לפיד לא קידם עניינים לטובת מוזס בתוקף תפקידו כנבחר ציבור, טמבל?נו, באמת . עשיתי גוגל ומצאתי שמפלגת "יש עתיד" כולל לפיד הצביעו בעד החוק שהגיש כבל להפסקת הפצתו בחינם של "ישראל היום". האם זה לא חוק שהיה עוזר כלכלית לידיעות אחרונות? עכשיו מי הטמבל?היהיר השטינקר . נו וזה יעזור לטהר את הרב נוכל ומחבל הזה ביבי המושחת?היהיר השטינקר . למה ? כי זה לא תואם את האג׳נדההיהיר השטינקר . אם יש לך חשד כלפי לפיד או כלפי מישהו אחר מהשמאל או מהימין , תיגשלמשטרה ותגיש תלונה , להגיד משהו לא מבוסס זה לא הבעיה ,זה בפירוש הוצאת דיבה .
+ וגם אם מישהו אחר עשה עבירה זה לא אומר שלראש הממשלה היה מותר לעשות את מה שעשההיהיר השטינקר . אם יש לך מידע ספציפי, או חשד לעבירה אזי גש להגיש תלונה במשטרה. במידה ולא אנא תתרכז בראיות שהובילו את המשטרה להמליץ על העמדתו של נתניהו לדין בגין לקיחת שוחד. מה מסובך? פשוט תתרכז...היהיר השטינקר . לפיד  לא  רץ   לספר  , אלא  הוזמן  להעיד  במשטרה  ואמר  אמת  , מילה  את  חובתו  אזרחית   וזה  עומד  לזכותו  . . השב"כניק שחיבר את כל הנקודות ומומחה בעיקר בתחקור עדים ומתן לגיטימציה לצוות החוקרים להמשיך לפעול ללא לחץ. הוא מפכ"ל איכותי, ידען, נבון ומתוחכם.
 אנו מצרים על הסתבכויותיו של מילצ'ן שסיבך עד הראש את עצמו ואת נתניהו. 
 מעז יצא מתוק. אנו מודים על שרשרת ההסתבכויות שנתנה צוהר ואור שמש להתנהלויות קלוקלות שלכאורה למילצ'ן נראו נורמטיביות. 
-המפכ"ל ראוי גם ראוי להיות ראש שב"כ ללא קשר להבטחות המושחתות שימונה בלאוו הכי לתפקיד, הוא הוכיח אחריות, יצירתיות תעוזה תחת לחץ של כוחות אימתניים. . אין סיכוי שהמפכ"ל יתמנה לראש השב"כ .אף ראש ממשלה ימני לא ימנה אותו וראש ממשלה שמאלני בישראל כבר לא יהיה . המפכ"ל נתגלה כאוויל עם תעודות. טפשות הא ותו לא. . למה אוויל ? הצליח למצוא מספיק ראיות כדי להגיש כתב אישום נגד ראש הממשלה, לפני שאתה מצהיר על מישהו כטיפש תביט במראה . לאן אתה עף? לדעתך הראיות מאוד מוצקות. אין צל של ספק בדבריך . ראש הממשלה אשם! ומה אם האפשרות היא השנייה? ראש הממשלה זכאי!!! ? מה לראש ממשלה לא מגיע??? . לא ידעתי שהסמול ממנה את ראש השבכ . אם מילצ'ן יורשע הוא לא יוכל להיכנס לארה"ב יותר וייתקע בישראל לכל חייו האומללים. עונשו על שהפך לסנג'ר של שרה וביבי . במילים אחרות, אתה מזמן רוצה שנתניהו יעוף וחושב שאלשיך יצליח לעשות את זה ולפיכך אתה מחמיא לו. Wishful thinking. . יש תקדים לשוחד בצורת סיגרים פעם בחודש?
-בחיים לא יוכלו להרשיע .אלא אם כן כספים בפועל או דירות עברו מיד ליד. ראה אולמרט. טובות הנאה מסובך ביותר להוכיח. נתניהו יצא נקי לגמרי. . זה בדיוק הענין.  מי שמחפש דרך להלבין שוחד, מחפש דרך לעשות את זה בצורה "חסרת תקדים".  מה אתה מצפה, להעברות בנקאיות? . דווח שהיה בפירוש ניסיון להסוות את מה שאתה מתאר כמתנות תמימות. כנראה שבזמן אמת ידעו המעורבים שאין כאן שום דבר תמים והן אסורות. . סיגרים ומתנות -אם נתניהו היה חפץ כסף לא עובד 20 שעות ביום 17.5 אלף שח? הרצאה אחת בחול מקבל 150000 דולר- מדינה מפגרת . כך, למה נתניהו לא משלם על הסיגרים? . כי מקובל בעולם שראשי ממשלות ונשיאים מקבלים מתנות-האם אתה יודע כמה סיגרים קיבל לפיד ?  לפיד קיבל הרבה סיגרים ממילצ'ין אך פחות מנתניהו  -האם שוחד זה פרמטר של כמות? . אגב, אם יועמד לדין, אם יורשע ואם ישב בכלא...אז יקבל יותר על ההרצאות...
-ביבי גמור! חוץ מעדת המעודדים/ות, אף שר רציני מטעם הליכוד לא פוצה פה ומצפצף! הם כולם חושבים על התזמון הנכון. הם עסוקים בדיונים עם היועצים למיניהם. מי שחושב שרק ביבי עסוק בענייני הפלילים פשוט טועה. כל שריו הבכירים עסוקים בזה. עלובי החיים גרסת המאה ה-21... . ח"כ כבל קיבל ממו"ל ידיעות אחרונות הערות ותיקונים לחוק ישראל היום- למה לא נחקרו כל השמאל שהיה בעד הפלת ישראל היום ? המשטרה נגועה בקצה השמאלי  -ראשי הסיעות שתמכו בחוק ונדרשו לחשוף את פגישותיהם הם ח"כ יאיר לפיד (יש עתיד), ח"כ ציפי לבני (המחנה הציוני, בזמנו - התנועה), ח"כ יצחק הרצוג (העבודה), יוזם תיקון החוק, ח"כ איתן כבל (העבודה), ח"כ אביגדור ליברמן (ישראל ביתנו) וח"כ נפתלי בנט (הבית היהודי). אתמול צורף לבקשה גם ח"כ שי פירון (יש עתיד). . אם היית קורא מעט, היית שם לב שאיתן כבל נחקר.
-וגם הוא הוקלט. . טעות-כבל היה חכם לא להקליט-אין הקלטה ולכן לא ניתן להוכיח-כבל העיד פעמיים במשטרה במסגרת פרשת 2000, וגורם במערכת אכיפת החוק אמר לאחרונה כי בחודשים האחרונים חלה התפתחות בחקירה שמחזקת את הקשר בין מוזס לכבל סביב הצעת החוק. יש לציין כי אם אכן כבל עבד בשירות האינטרסים של מוזס ובשיתוף פעולה עמו, וקיבל במקביל סיקור חיובי, מדובר במקרה חמור. אולם, קשרי התן וקח קשים להוכחה ללא, למשל, הקלטה של השיחות ביניהם. . הוכחות יש -תביא ציטוט כי אני לא מצאתי וגם גוגל לא מצא . רוני אלשייך היתגלה כאדם מתוכחם שרואה מהלכים 5 צעדים קדימה. . יש הבדל גדול מאד בין חקירת אנשים במעצר לבין חקירת אנשים שבסוף החקירה חוזרים לביתם ומתחילים בסבבי התייעצויות. אין קשר בין חקירת מחבלים לחקירת אזרחים ובטח לא לחקירת ראש ממשלה. גם היועצים ועורכי הדין הם מרמה אחרת לגמרי. לבסוף, כאן יש עוד גורם והוא הנושא התקשורתי. הלך הרוח הציבורי. ההשפעות שלו על איש זה או אחר. לפסול את העניין הזה לחלוטין היא טעות. גם יועצים משפטיים וגם שופטים חשופים ואינם חסינים לחלוטין. פה טעה אלשייך. לא היה צריך להתראיין. הוא הדיוט בעניינים אלו. זה לא מגרש המשחקים אליו הוא הורגל. ביבי גאון בתחום. ממש לא כוחות. יחד עם זאת, ראיות חותכות יעשו צדק לעם ישראל! . מספר גופי תקשורת + גורמים בכירים במשטרה ובפרקליטות
+המפכ"ל ראוי גם ראוי להיות ראש שב"כ ללא קשר להבטחות המושחתות שימונה בלאוו הכי לתפקיד, הוא הוכיח אחריות, יצירתיות תעוזה תחת לחץ של כוחות אימתניים.מעז יצא מתוק . אין סיכוי שהמפכ"ל יתמנה לראש השב"כ .אף ראש ממשלה ימני לא ימנה אותו וראש ממשלה שמאלני בישראל כבר לא יהיהמעז יצא מתוק . המפכ"ל נתגלה כאוויל עם תעודות. טפשות הא ותו לא.ברגר . למה אוויל ? הצליח למצוא מספיק ראיות כדי להגיש כתב אישום נגד ראש הממשלה, לפני שאתה מצהיר על מישהו כטיפש תביט במראהיעקב . לאן אתה עף? לדעתך הראיות מאוד מוצקות. אין צל של ספק בדבריך . ראש הממשלה אשם! ומה אם האפשרות היא השנייה? ראש הממשלה זכאי!!! ? מה לראש ממשלה לא מגיע???מעז יצא מתוק . לא ידעתי שהסמול ממנה את ראש השבכמעז יצא מתוק . אם מילצ'ן יורשע הוא לא יוכל להיכנס לארה"ב יותר וייתקע בישראל לכל חייו האומללים. עונשו על שהפך לסנג'ר של שרה וביבימעז יצא מתוק . במילים אחרות, אתה מזמן רוצה שנתניהו יעוף וחושב שאלשיך יצליח לעשות את זה ולפיכך אתה מחמיא לו. Wishful thinking. . יש תקדים לשוחד בצורת סיגרים פעם בחודש?
+בחיים לא יוכלו להרשיע .אלא אם כן כספים בפועל או דירות עברו מיד ליד. ראה אולמרט. טובות הנאה מסובך ביותר להוכיח. נתניהו יצא נקי לגמרי.בוריס . זה בדיוק הענין.  מי שמחפש דרך להלבין שוחד, מחפש דרך לעשות את זה בצורה "חסרת תקדים".  מה אתה מצפה, להעברות בנקאיות?בוריס . דווח שהיה בפירוש ניסיון להסוות את מה שאתה מתאר כמתנות תמימות. כנראה שבזמן אמת ידעו המעורבים שאין כאן שום דבר תמים והן אסורות. . סיגרים ומתנות -אם נתניהו היה חפץ כסף לא עובד 20 שעות ביום 17.5 אלף שח? הרצאה אחת בחול מקבל 150000 דולר- מדינה מפגרתeytan587 . כך, למה נתניהו לא משלם על הסיגרים?אם . כי מקובל בעולם שראשי ממשלות ונשיאים מקבלים מתנות-האם אתה יודע כמה סיגרים קיבל לפיד ?  לפיד קיבל הרבה סיגרים ממילצ'ין אך פחות מנתניהו  -האם שוחד זה פרמטר של כמות?eytan587 . אגב, אם יועמד לדין, אם יורשע ואם ישב בכלא...אז יקבל יותר על ההרצאות...
+ביבי גמור! חוץ מעדת המעודדים/ות, אף שר רציני מטעם הליכוד לא פוצה פה ומצפצף! הם כולם חושבים על התזמון הנכון. הם עסוקים בדיונים עם היועצים למיניהם. מי שחושב שרק ביבי עסוק בענייני הפלילים פשוט טועה. כל שריו הבכירים עסוקים בזה. עלובי החיים גרסת המאה ה-21... . ח"כ כבל קיבל ממו"ל ידיעות אחרונות הערות ותיקונים לחוק ישראל היום- למה לא נחקרו כל השמאל שהיה בעד הפלת ישראל היום ? המשטרה נגועה בקצה השמאלי  -ראשי הסיעות שתמכו בחוק ונדרשו לחשוף את פגישותיהם הם ח"כ יאיר לפיד (יש עתיד), ח"כ ציפי לבני (המחנה הציוני, בזמנו - התנועה), ח"כ יצחק הרצוג (העבודה), יוזם תיקון החוק, ח"כ איתן כבל (העבודה), ח"כ אביגדור ליברמן (ישראל ביתנו) וח"כ נפתלי בנט (הבית היהודי). אתמול צורף לבקשה גם ח"כ שי פירון (יש עתיד).eytan587 . אם היית קורא מעט, היית שם לב שאיתן כבל נחקר.
+וגם הוא הוקלט.9867 . טעות-כבל היה חכם לא להקליט-אין הקלטה ולכן לא ניתן להוכיח-כבל העיד פעמיים במשטרה במסגרת פרשת 2000, וגורם במערכת אכיפת החוק אמר לאחרונה כי בחודשים האחרונים חלה התפתחות בחקירה שמחזקת את הקשר בין מוזס לכבל סביב הצעת החוק. יש לציין כי אם אכן כבל עבד בשירות האינטרסים של מוזס ובשיתוף פעולה עמו, וקיבל במקביל סיקור חיובי, מדובר במקרה חמור. אולם, קשרי התן וקח קשים להוכחה ללא, למשל, הקלטה של השיחות ביניהם.9867 . הוכחות יש -תביא ציטוט כי אני לא מצאתי וגם גוגל לא מצא . רוני אלשייך היתגלה כאדם מתוכחם שרואה מהלכים 5 צעדים קדימה.אבי . יש הבדל גדול מאד בין חקירת אנשים במעצר לבין חקירת אנשים שבסוף החקירה חוזרים לביתם ומתחילים בסבבי התייעצויות. אין קשר בין חקירת מחבלים לחקירת אזרחים ובטח לא לחקירת ראש ממשלה. גם היועצים ועורכי הדין הם מרמה אחרת לגמרי. לבסוף, כאן יש עוד גורם והוא הנושא התקשורתי. הלך הרוח הציבורי. ההשפעות שלו על איש זה או אחר. לפסול את העניין הזה לחלוטין היא טעות. גם יועצים משפטיים וגם שופטים חשופים ואינם חסינים לחלוטין. פה טעה אלשייך. לא היה צריך להתראיין. הוא הדיוט בעניינים אלו. זה לא מגרש המשחקים אליו הוא הורגל. ביבי גאון בתחום. ממש לא כוחות. יחד עם זאת, ראיות חותכות יעשו צדק לעם ישראל! . מספר גופי תקשורת + גורמים בכירים במשטרה ובפרקליטות
 פי אלף יותר מסוכן מכל פרשת שחיתות 
-מנסים לבצע הפיכה שלטונית ומשיגים בדיוק הפוך. כל העם ביבי. כל העם ליכוד. . ממש לא! . אדם חכם?  נפלתם על השכל?  הוא התראיין לתוכנית טלביזיה והתרברב שמתישהוא בשנות ה-60 או ה-70 כאשר ישראל פיתחה את תוכנית הגרעין - הוא היה חלק מצוות שפעל בארה"ב לגנוב משם טכנולוגיה אסורה לייצוא כדי לסייע לישראל.  בעקבות זה האמריקאים שללו את זכותו להיכנס לארה"ב - וזו היתה הסיבה שהוא רץ לביבי כדי לסייע לו עם הויזה. . זה מסביר למה הגיע לחקירה בלי עורכי דין. קל דעת מילצן הזה.. לא ברור יאך הגיע לרמתו . לא מדוייק. החוקרים רמזו למילצ'ן שהם רוצים רק לדפוק את נתניהו. הטמבל חשב שאפשר להרשיע רק את מקבל השוחד לכאורה. אז הוא סיפק להם את הגרסה שהם ביקשו שלא יפתיע אותי אם היא לא נכונה. ועכשיו המליארדר מסובך. כל התיק הזה נראה הזוי. . לא יקום ולא יהיה. המשטרע לא תצליח לבצע פוטש באמצעות נסיון לאכיפה סופר-בררנית ותיאוריות ספקולטיביות. . אתה מתבסס על עובדות או שיחות שעשית לאחרונה עם השמיים? . אשריך שאתה מאמין שניתן לנהל שיחות עם השמיים. ההערכה שלי מתבססת על מה שמתפרסם. . הקמצנות תעלה ביוקר,מעבר לכך רשויות ההגירה באמריקה ישללו את הרישיון שהייה בגלל מעורבותו בפלילים והקשורים בשוחד,יצא שכרו בהפסדו.מעבר לכך ובמקרה שכזה יגרם נזק תדמיתי כספי לעסקיו ,אצל האמרקאים אין משחקים כמו בישראל,בנוסף קיים סיכויי יותר מסביר שמילצן יהפוך לעד מדינה על מנת להשאר באמריקה . המסקנה שאנו עדים לה שכול הנחקרים שדאגו לבטחון המדינה בעבר בהווה נתפסים עם המכנסים למטה דפוס פעולה שפל האגו מעביר אותם על דעתם כאשר אתה מתקרב להר הוא נעשה יותר גבוה כאשר אתה מתקרב לנבחר צבור האכות יורדת לביבים לשפל המדרגה להגביל את הכהונה של הנבחרים לשתי קדנציות בלבד . מה אני אגיד לכם לא תארתי לעצמי עד כמה הליכוד יכול להידרדר . מאיר שטרית ואישתו קיבלו חבילה ממגה הקורסת 18 מיליון שקל הוא קיבל עבור כלום ואף אחד לא פוצה פה . זו קפיצה למרחקים ארוכים, לי נראה דווקא שהיועץ המשפטי ידרוש חקירה יותר עמוקה של לפיד בעניין. אף אחד לא מרוויח פה זה מסריח יותר מדי מכדי להיות אמתי. . איזה מסכן. רחמים על האיש בן ה74. כל עוונו ששיחד באופן שיטתי ראש ממשלה כדי שלא ישכח את האינטרסים שלו. אין לישראלים לב. . גם למלצין כנראה נמאס מהדרישות של נתניהו ורצה לשים לזה סוף וזו היתה הזדמנות בשבילו . למה אף עיתונאי לא בודק מי החברה שהביאה לישראל את החומר ראונד אפ???? .  . היה צריך לשתוק בחקירה כמו בוז'י ..... . חוק מילצ'ן נחקק במהלך 2008 בתקופתו של אהוד אולמרט כראש הממשלה. בזמן גיבוש החוק, כיהנו כשרי אוצר רוני בר-און ואברהם הירשזון. בדיון שהתקיים בוועדת העלייה, הקליטה והתפוצות, לקראת העלאת החוק לקריאה שנייה ושלישית, נכחו בין היתר יולי אדלשטיין (היום יו"ר הכנסת), זאב אלקין (היום השר להגנת הסביבה ולשעבר שר הקליטה) וראשי רשות המסים בזמנו, שתמכו בחוק: יהודה נסרדישי, אז מנהל רשות המסים, וגידי בר-זכאי, לשעבר סמנכ"ל בכיר ברשות המסים. עוד נכח מליץ היושר של החוק, עו"ד פיני רובין, שהשתמש בכל כישוריו המילוליים (ויש לו כאלה למכביר) כדי לקדמו. . נתניהו מקבל שכר של 17,500 ש"ח נטו עבור 18 שעות ביום=9000 ש"ח לעבודה של 8 שעות ביום כאשר מנהל קופת חולים מגיע ל 100,000 ש"ח ויותר - אז כולם מסתכלים על מתנות במשך 10 שנים כ 6000 ש"ח\חודש- כול ראשי הממשלה בכל העולם מקבלים מתנות וכבוד - מה המניע של נתניהו ? הרי אם היה מחפש ממון היה פורש עושה הרצאות בחול ומקבל כ 150000$\הרצאה . . מטרת החוק? במסגרת חגיגות ה-60 למדינה והרצון לעודד עלייה ולהחזיר ישראלים (ואת הונם) ארצה, תוקנה פקודת מס הכנסה באופן שמרחיב את הפטורים ממס הניתנים לתושב ישראל לראשונה ולתושבים חוזרים. התושבים שעמדו בקריטריונים שנקבעו קיבלו פטור ממס (אפס מס!) למשך 10 שנים על כל הכנסה שמקורה מחוץ לישראל. הפטור הקיף את מכלול ההכנסות, האקטיביות והפסיביות, שהיו לתושבים החוזרים. והיה גם בונוס: פטור מדיווח על נכסים והכנסות מעבר לים. למיליארדרים ש"עשו עלייה", הפטור הזה היה שווה זהב, מאות מיליונים לפחות - תלוי בהיקף ההון של כל אחד מהם. אחד המיליארדרים היה מילצ'ן, ובברנז'ה העסקית אף כינו את החוק הזה "חוק מילצ'ן", אבל צריך להדגיש, הוא היה רק אחד מהם. היו, כמובן, אחרים.
+מנסים לבצע הפיכה שלטונית ומשיגים בדיוק הפוך. כל העם ביבי. כל העם ליכוד.קואליציית הפשע . ממש לא! . אדם חכם?  נפלתם על השכל?  הוא התראיין לתוכנית טלביזיה והתרברב שמתישהוא בשנות ה-60 או ה-70 כאשר ישראל פיתחה את תוכנית הגרעין - הוא היה חלק מצוות שפעל בארה"ב לגנוב משם טכנולוגיה אסורה לייצוא כדי לסייע לישראל.  בעקבות זה האמריקאים שללו את זכותו להיכנס לארה"ב - וזו היתה הסיבה שהוא רץ לביבי כדי לסייע לו עם הויזה.מילצ'ן . זה מסביר למה הגיע לחקירה בלי עורכי דין. קל דעת מילצן הזה.. לא ברור יאך הגיע לרמתו . לא מדוייק. החוקרים רמזו למילצ'ן שהם רוצים רק לדפוק את נתניהו. הטמבל חשב שאפשר להרשיע רק את מקבל השוחד לכאורה. אז הוא סיפק להם את הגרסה שהם ביקשו שלא יפתיע אותי אם היא לא נכונה. ועכשיו המליארדר מסובך. כל התיק הזה נראה הזוי. . לא יקום ולא יהיה. המשטרע לא תצליח לבצע פוטש באמצעות נסיון לאכיפה סופר-בררנית ותיאוריות ספקולטיביות.Daniel174 . אתה מתבסס על עובדות או שיחות שעשית לאחרונה עם השמיים?דן . אשריך שאתה מאמין שניתן לנהל שיחות עם השמיים. ההערכה שלי מתבססת על מה שמתפרסם. . הקמצנות תעלה ביוקר,מעבר לכך רשויות ההגירה באמריקה ישללו את הרישיון שהייה בגלל מעורבותו בפלילים והקשורים בשוחד,יצא שכרו בהפסדו.מעבר לכך ובמקרה שכזה יגרם נזק תדמיתי כספי לעסקיו ,אצל האמרקאים אין משחקים כמו בישראל,בנוסף קיים סיכויי יותר מסביר שמילצן יהפוך לעד מדינה על מנת להשאר באמריקה . המסקנה שאנו עדים לה שכול הנחקרים שדאגו לבטחון המדינה בעבר בהווה נתפסים עם המכנסים למטה דפוס פעולה שפל האגו מעביר אותם על דעתם כאשר אתה מתקרב להר הוא נעשה יותר גבוה כאשר אתה מתקרב לנבחר צבור האכות יורדת לביבים לשפל המדרגה להגביל את הכהונה של הנבחרים לשתי קדנציות בלבד . מה אני אגיד לכם לא תארתי לעצמי עד כמה הליכוד יכול להידרדר . מאיר שטרית ואישתו קיבלו חבילה ממגה הקורסת 18 מיליון שקל הוא קיבל עבור כלום ואף אחד לא פוצה פה . זו קפיצה למרחקים ארוכים, לי נראה דווקא שהיועץ המשפטי ידרוש חקירה יותר עמוקה של לפיד בעניין. אף אחד לא מרוויח פה זה מסריח יותר מדי מכדי להיות אמתי. . איזה מסכן. רחמים על האיש בן ה74. כל עוונו ששיחד באופן שיטתי ראש ממשלה כדי שלא ישכח את האינטרסים שלו. אין לישראלים לב. . גם למלצין כנראה נמאס מהדרישות של נתניהו ורצה לשים לזה סוף וזו היתה הזדמנות בשבילו . למה אף עיתונאי לא בודק מי החברה שהביאה לישראל את החומר ראונד אפ???? .  . היה צריך לשתוק בחקירה כמו בוז'י ..... . חוק מילצ'ן נחקק במהלך 2008 בתקופתו של אהוד אולמרט כראש הממשלה. בזמן גיבוש החוק, כיהנו כשרי אוצר רוני בר-און ואברהם הירשזון. בדיון שהתקיים בוועדת העלייה, הקליטה והתפוצות, לקראת העלאת החוק לקריאה שנייה ושלישית, נכחו בין היתר יולי אדלשטיין (היום יו"ר הכנסת), זאב אלקין (היום השר להגנת הסביבה ולשעבר שר הקליטה) וראשי רשות המסים בזמנו, שתמכו בחוק: יהודה נסרדישי, אז מנהל רשות המסים, וגידי בר-זכאי, לשעבר סמנכ"ל בכיר ברשות המסים. עוד נכח מליץ היושר של החוק, עו"ד פיני רובין, שהשתמש בכל כישוריו המילוליים (ויש לו כאלה למכביר) כדי לקדמו. . נתניהו מקבל שכר של 17,500 ש"ח נטו עבור 18 שעות ביום=9000 ש"ח לעבודה של 8 שעות ביום כאשר מנהל קופת חולים מגיע ל 100,000 ש"ח ויותר - אז כולם מסתכלים על מתנות במשך 10 שנים כ 6000 ש"ח\חודש- כול ראשי הממשלה בכל העולם מקבלים מתנות וכבוד - מה המניע של נתניהו ? הרי אם היה מחפש ממון היה פורש עושה הרצאות בחול ומקבל כ 150000$\הרצאה . . מטרת החוק? במסגרת חגיגות ה-60 למדינה והרצון לעודד עלייה ולהחזיר ישראלים (ואת הונם) ארצה, תוקנה פקודת מס הכנסה באופן שמרחיב את הפטורים ממס הניתנים לתושב ישראל לראשונה ולתושבים חוזרים. התושבים שעמדו בקריטריונים שנקבעו קיבלו פטור ממס (אפס מס!) למשך 10 שנים על כל הכנסה שמקורה מחוץ לישראל. הפטור הקיף את מכלול ההכנסות, האקטיביות והפסיביות, שהיו לתושבים החוזרים. והיה גם בונוס: פטור מדיווח על נכסים והכנסות מעבר לים. למיליארדרים ש"עשו עלייה", הפטור הזה היה שווה זהב, מאות מיליונים לפחות - תלוי בהיקף ההון של כל אחד מהם. אחד המיליארדרים היה מילצ'ן, ובברנז'ה העסקית אף כינו את החוק הזה "חוק מילצ'ן", אבל צריך להדגיש, הוא היה רק אחד מהם. היו, כמובן, אחרים.
 במהלך השנים הבינו ברשות המסים, שהשתתפה בגיבוש החוק, שהם הלכו רחוק מדי, גם בעניין הפטור מדיווח, מאחר שהפטור מדיווח לא איפשר לרשות לכמת את היקף הטבות המס. באין דיווח, אין נתונים ואין שום יכולת לדעת כמה הפטור הזה היה שווה. בפועל, ישראל הפכה למקלט מס בדיוק כמו איי קיימן ודומיהם. הפטור ניתן לתקופה ארוכה מדי (10 שנים זה המון זמן) וכלל פטור ממתן מידע. בעידן גלובלי שבו יש שיתופי מידע, מדובר בשערורייה רבתי שפתחה אפשרות להלבין הון בהיקפים אדירים בלי שתהיה לרשות המסים שום יכולת לדעת דבר וחצי דבר על כך. גם היו בטוחים: מדובר בהטבות מס בהיקפים של מיליארדי שקלים לפחות. מאז חוק ההסדרים של 2013 ניסתה רשות המסים לבטל לפחות את הפטור הגורף מדיווח, אבל בכל שנה הדבר לא עלה בידה, במיוחד על רקע התנגדות שרי הקליטה. נדגיש, לא דובר על ביטול החוק, אלא רק על ביטול הפטור מדיווח על הכנסות הנישומים שנהנים מהחוק. . דיווח: "עשרות שיחות ומסרונים בין כבל למוזס"בחדשות 2 דווח הערב כי חוקרי המשטרה הציגו לחבר הכנסת כבל במהלך חקירתו, פרטי שיחות בינו לבין נוני מוזס, בשנה שקדמה לחוק החינמון שהוביל בכנסת. עורך העיתון רון ירון מסר עדות במשטרה
 ynet | פורסם 21:43, 18/01/2018
 בין חבר הכנסת איתן כבל (המחנה הציוני) לבין נוני מוזס התנהלו יותר מ-60 שיחות טלפון ומסרונים בשנה שקדמה לחוק החינמון שהוביל כבל לפני כמה שנים. כמו כן, עורך "ידיעות אחרונות" רון ירון מסר עדות במשטרה. כך דווח הערב (ה') במהדורות החדשות.
 לפי הדיווח, יותר מ-50 שיחות ומסרונים התנהלו גם בין כבל לעורך העיתון רון ירון. במשטרה חושדים שנרקמה עסקה בין מוזס לכבל, שעיקרה קידום חוק "ישראל היום" ובתמורה יקבל חבר הכנסת סיקור מוגבר בעיתון. כמו כן, דווח כי כבל הכחיש בתוקף בחקירתו היוםשנרקמה עסקה מכל סוג.
 כבל נחקר היום באזהרה במשרדי להב 433 במסגרת תיק 2000, חקירת השיחות בין מוזס לראש הממשלה בנימין נתניהו. מוזס עצמו התייצב לחקירה. כבל כתב בטוויטר לאחר חקירתו: "נחקרתי היום קצרות במסגרת פרשת 'ביבי-מוזס' המוכרת כתיק 2000. השבתי לכל מה שנשאלתי ואני סומך על רשויות החוק. כמו תמיד פעלתי כחוק ואני מציע להתאזר בסבלנות עד השלמת החקירה" . כל מה שהמשטרה עושה זה לאיים על מישהו כדי להפיל את ראש הממשלה , ממש משטרה פוליטית נגועה במחלות מין . הדבר האחרון שנתניהו צריך זה שיממנו לו סיגרים... והוא האחרון שייפול בשוחד בעבור שמפניה וסיגרים.
 לא חסר לו כסף וכל הרצאה שלו יכולה לממן 1000 סיגרים ושמפניות. אם כבר או שהוא מושחת ביג טיים עבור מאות מליוני דולרים או שהוא לא עשה כלום.
-לא הגיוני שיקח שוחד בשביל כמה סיגריות ושתיה חחח מה הוא ילד? . but he doesn't have pockets</t>
+לא הגיוני שיקח שוחד בשביל כמה סיגריות ושתיה חחח מה הוא ילד?בולשיט . but he doesn't have pockets</t>
   </si>
   <si>
     <t>26</t>
@@ -535,9 +538,6 @@
   </si>
   <si>
     <t>Orko</t>
-  </si>
-  <si>
-    <t>18h</t>
   </si>
   <si>
     <t>נראה על פניו ולפי תשובתך כי אדם חכם אתה.. מי שהקליט הוא נתניהו והמקליט יודע שבבוא היום יוכל להשתמש כנגד המוקלט.. אז בוא רגע שבנין, האם ביבי טיפש כדי להפליל את עצמו? התשובה היא בגוף השאלה. לפיד הטיפש גרה לעצמו קבר פוליטי וההתרסקות שלו בוא תבוא כשהכל יופרך. לגבי אשתו של לפיד, היא לא הנושא כאן אלא הנשוא.</t>
@@ -583,9 +583,6 @@
     <t>26.7</t>
   </si>
   <si>
-    <t>15h</t>
-  </si>
-  <si>
     <t>למה ? כי זה לא תואם את האג׳נדה</t>
   </si>
   <si>
@@ -621,6 +618,9 @@
   </si>
   <si>
     <t>מעז יצא מתוק</t>
+  </si>
+  <si>
+    <t>20h</t>
   </si>
   <si>
     <t>השב"כניק שחיבר את כל הנקודות ומומחה בעיקר בתחקור עדים ומתן לגיטימציה לצוות החוקרים להמשיך לפעול ללא לחץ. הוא מפכ"ל איכותי, ידען, נבון ומתוחכם.
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>לולה</t>
+  </si>
+  <si>
+    <t>12h</t>
   </si>
   <si>
     <t>לאן אתה עף? לדעתך הראיות מאוד מוצקות. אין צל של ספק בדבריך . ראש הממשלה אשם! ומה אם האפשרות היא השנייה? ראש הממשלה זכאי!!! ? מה לראש ממשלה לא מגיע???</t>
@@ -942,6 +945,994 @@
   </si>
   <si>
     <t>but he doesn't have pockets</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223971#FromSearchPage</t>
+  </si>
+  <si>
+    <t>טל שניידר</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>כל האופציות על השולחן</t>
+  </si>
+  <si>
+    <t>מה יעשה עכשיו נתניהו?</t>
+  </si>
+  <si>
+    <t>את המשפט "כל האופציות על השולחן", כמאמר מילון הקלישאות הדיפלומטי בחזית האיראנית, ניתן ליישם היום גם לגבי המצב הפוליטי. בין מערכת בחירות מיידית, דרך תקופת המתנה מתוחה עד להחלטת היועץ המשפטי לממשלה, לבין קיצור ימי הממשלה ה-34 או קואליציה דבוקה שתחזיק מעמד עד סוף 2019 - הכול פרוץ, והרשות נתונה. מי שחושב שהממשלה הזו תוציא את ימיה, צריך לחשוב על כך שוב.ראש הממשלה בנימין נתניהו מעביר ביממה האחרונה מסר ברור: הוא ממשיך בפועלו ובמדיניותו לעוד זמן רב, כולל מערכת בחירות נוספת שבה הוא עשוי להתמודד, גם כאשר הוא חשוד בשני מקרי שוחד ועבירות של הפרת אמונים, גם כאשר המשטרה הודיעה שיש נגדו ראיות, ואפילו אם היועץ המשפטי לממשלה יחליט להמשיך ולהעמידו לדין. למה לא ללכת עם זה עד הסוף? בסך-הכול ראש ממשלה מכהן שמאמין בחפותו ומוכן לגרור את כל המדינה לזירת קרבות משפטית.אך שחקנים מנוסים בזירה הפוליטית יודעים שהדבר אינו כה פשוט. ברגע שעדים או חשודים אחרים במערכת יזהו שהיועץ המשפטי לממשלה מתקרב לכיוון החלטה על כתב אישום (אם וכאשר), חומות ההגנה הבצורות עשויות לקרוס, ואנשים שחששו לומר דברים ברורים אולי יעברו צד."את יכולה לקרוא לזה מדד מירי", אמר לנו הבוקר בכיר מאוד בזירה הפוליטית כשהוא מתייחס לנקודת המפנה שעשויה להתרחש ברגע שבו שרת התרבות, מירי רגב, הנאמנה מאוד לראש הממשלה נתניהו, תזהה שהוא הגיע לסוף דרכו הפוליטית ותשנה באופן מידי את גישתה.חדי האוזן ודאי הבחינו בשינויים שחלו בתגובות נתניהו על פני 12 השעות הראשונות מאז פורסמה הודעת המשטרה. בערב, בשעות ההלם, כשנודע שהעבירה "שוחד" מופיעה בשני התיקים, 1000 ו-2000, המסר הכללי של נתניהו, וכך גם של כל השרים שמקיפים אותו, היה שיש להמתין עד להחלטת היועץ המשפטי לממשלה. כל שר או בכיר שהצהיר את הדברים הללו (ארדן, כ"ץ, חוטובלי, אלקין, הנגבי, גדעון סער, וגם מי שאינם שרי ליכוד, ליצמן, גפני, כחלון, בנט) - יידרש לתשובות ברגע שבו יכריע היועץ המשפטי. בכירי הליכוד בטוחים שהרגע הזה עוד רחוק, אבל אף אחד עוד לא הצליח לעצור את הזמן. היום הזה עוד יגיע.קיראו עוד ב"גלובס"לכן, שונו מעט נוסחי התגובות בליכוד (כך היה בחלק מאמירותיהן של השרה רגב וח"כ נאוה בוקר) בתוכניות הרדיו השונות. לפי הגישה העדכנית, גם אם יש כתב אישום ואפילו משפט פלילי - אין להן שום ציפיה שראש הממשלה יתפטר. לפי הגישה הזו, נתניהו ימשיך להיות ראש הממשלה גם תוך כדי משפט פלילי. מי יודע, אולי גם אחריו. המחשבה הזו נראית בלתי סבירה, ויהיה מי שימשיך לנגן לנתניהו את קטע האודיו שלו שבו הוא מסביר לאולמרט מדוע לראש ממשלה "ששקוע בחקירות אין מנדט מוסרי וציבורי לקבוע דברים גורליים".מה אם כן עשוי להניע את נתניהו מן המצב המאובטח שבו הוא נמצא כיום? מי שמצפה מאחד מבכיריו או שריו שיתבטא נגדו בצורה ברורה וגלויה - חי באשליות. הקואליציה של הממשלה ה-34 היא קואליציית "אנטי-בחירות". כל אחד מן השרים מבסוט בחייו הנוכחיים ומפחד מבחירות. סיעות יהדות התורה וש"ס דבוקות בסופר-גלו לכיסאותיהם והם לא צפויים ללכת לשום מקום. החיים מעולם לא נראו כל-כך טוב עבורם. שר הביטחון, אביגדור ליברמן, הגיע לפסגת חייו. מכאן יש לו רק לאן לרדת ומדוע שירצה לצנוח למטה מהאולימפוס? בעולמות של חקירות ומשפטים הוא מנוסה. מבחינתו שנתניהו לא יקשיב לקולות לפרוש, אפילו לא אחרי ערעור חלוש. הכול עורבא פרח, והמשטרה היא פח (אצלו).המצב בליכוד ובבית היהודי דומה. אתמול הם הספיקו לקבל איזו פליטת-פה על סיפוח, הבטחה עלומה שעשויה לרתק אותם לנתניהו לעולם ועד. כך גם ב"כולנו". ראש הממשלה חשוד בשני מקרי שוחד. אז מה? משיכת כתף, הם בעניין של "מחיר למשתכן", רפורמת הבנקאות ויוקר המחיה. העיניים של כולנו מפוקסות על תקציב המדינה, וכל הדברים האחרים הם בבחינת רעשי רקע.הלחץ הממשי המופעל על ראש הממשלה מגיע מן הזירה החקירתית, משפטית - ושם מתנהל קרב קשה. בין נאומים מאיימים של ראש הממשלה לבין החלטות המשטרה או הפרקליטים, ודעת הקהל נושבת מכאן לכאן. כל נאום פוליטי תוקפני של נתניהו מזין את דעת הקהל בתובנה חדשה, אך עשוי באותה העת להרגיז את אנשי המשפט והמשטרה. ההחלטה של ראש הממשלה לתקוף חזיתית את השוטרים עשויה עוד להתגלות כמזיקה.אנשים שונים בזירה הפוליטית ששוחחנו איתם היום העריכו שבכל מקרה יהיה כתב אישום. שהרי לא ייתכן שתהיה הודעה כה חריפה של המשטרה, אשר תואמה במידה רבה עם הפרקליטים, תבוטל בסופו של דבר כולה. ייתכן שהודעת המשטרה תקוצץ, וגם אם האישום בשוחד יוסר - ואפילו בשני התיקים - הבסיס העובדתי לעבירות הפרת אמונים יגרור את ראש הממשלה לתוך מאבק שהוא כולו פלילי-משפטי, וכבר לא פוליטי, כפי שהוא מנהל עכשיו.עד אתמול, ייתכן שנתניהו האמין שהוא עשוי לגרום ליועץ המשפטי לממשלה להטיל ספק בנוגע לתיקים. היועמ"ש אביחי מנדלבליט יכול היה אולי לקבל המלצות משטרה מרוככות ולמסמס אותן בדרכו, אך משהמשטרה הפילה שתי פצצות כבדות, הוא יתקשה לעשות זאת. כך שמבחינת נתניהו השאלה היא כבר לא אם ומה - אלא מתי זה יקרה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . Mugabee was kicked out
+Zuma finally bowed to pressure and resigned
+Now it is time for the BB to fade away . גב' שניידר תחזרי לחור בלוג שממנו באת, את ושכמותך, תקשורת מעוות ומוטה רדיקלית שמאלה. 
+לפני שאת ועמיתיך הרשלניים ממהרים לשרבט אותיות (בתשלום) תלקטו עוד מידע ובעיקר תזדיינו בסבלנות, לנוכח מפח נפש שבוא יבואגב' שניידר . תמחוק גם את זה, נקווה ברגעים אלו מאתרים אותך. אדם קיצוני ומסית עם תגובות מסוכנות. . לא סביר שראש ממשלה החשוד בשוחד ב- 2 פרשיות (לפחות) ימשיך להתנהל כרגיל.
+אפילו בנט מתחיל כבר להתבטא נגדו, ומאחורי הקלעים מלחמת הירושה בעיצומה ומעבירה הילוך.
+הוא צריך להתפטר. אחרת הוא רק גורם נזק, כולל לסיעתו. . הגברת שניידר ועוד 95% מאנשי התקשורת עמלים יומם וליל פוטש כנגד הדמוקרטיה. אבל את השלטון לא הם מחליפים אלא אנחנו ורק בקלפי, הניסיון של התקשורת וגם המהלך של אלשיך מהווים סיאוב שמאל פושע שיש לעוצרו ומיד</t>
+  </si>
+  <si>
+    <t>The Emigrant</t>
+  </si>
+  <si>
+    <t>Mugabee was kicked out
+Zuma finally bowed to pressure and resigned
+Now it is time for the BB to fade away</t>
+  </si>
+  <si>
+    <t>גב' שניידר</t>
+  </si>
+  <si>
+    <t>גב' שניידר תחזרי לחור בלוג שממנו באת, את ושכמותך, תקשורת מעוות ומוטה רדיקלית שמאלה. 
+לפני שאת ועמיתיך הרשלניים ממהרים לשרבט אותיות (בתשלום) תלקטו עוד מידע ובעיקר תזדיינו בסבלנות, לנוכח מפח נפש שבוא יבוא</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>לידיעתך</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>תמחוק גם את זה, נקווה ברגעים אלו מאתרים אותך. אדם קיצוני ומסית עם תגובות מסוכנות.</t>
+  </si>
+  <si>
+    <t>מצב חדש</t>
+  </si>
+  <si>
+    <t>לא סביר שראש ממשלה החשוד בשוחד ב- 2 פרשיות (לפחות) ימשיך להתנהל כרגיל.
+אפילו בנט מתחיל כבר להתבטא נגדו, ומאחורי הקלעים מלחמת הירושה בעיצומה ומעבירה הילוך.
+הוא צריך להתפטר. אחרת הוא רק גורם נזק, כולל לסיעתו.</t>
+  </si>
+  <si>
+    <t>פוטש תקשורתי</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>הגברת שניידר ועוד 95% מאנשי התקשורת עמלים יומם וליל פוטש כנגד הדמוקרטיה. אבל את השלטון לא הם מחליפים אלא אנחנו ורק בקלפי, הניסיון של התקשורת וגם המהלך של אלשיך מהווים סיאוב שמאל פושע שיש לעוצרו ומיד</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223991#FromSearchPage</t>
+  </si>
+  <si>
+    <t>מתי גולן</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>נתניהו: אין לי מנדט מוסרי</t>
+  </si>
+  <si>
+    <t>ראש הממשלה חושב שההמלצות והמעשים שלו ייעלמו מהעולם?</t>
+  </si>
+  <si>
+    <t>לא צריך להשלות את עצמנו. עבור רבים מאוד בציבור, העבירות שבהן חשוד בנימין נתניהו על-פי המשטרה, הן לא משהו שבגללו צריך להחליף ראש ממשלה. המהדרין, כמו השרה מירי רגב, אומרים שאפילו במקרה של כתב אישום נתניהו לא צריך להתפטר. אני בטוח שהיא ושכמותה חושבים שאפילו אם ימות, הוא לא צריך להתפטר. גם מהקבר, וברור שגם מהכלא, הוא יוכל לנהל את המדינה טוב יותר מכל אדם עלי אדמות.אחרי המלצות המשטרה נתניהו כבר לא יכול להסתתר מאחורי "לא היה כלום" בלה-בלה-בלה. היה, ולא כלום, אלא משהו כבד, מכוער. אבל הוא כן יכול להמשיך להשתמש בסלוגן ש"לא יהיה כלום". על סמך מה? איך הוא חושב שההמלצות והמעשים שלו ייעלמו מהעולם? היועץ המשפטי לממשלה, אביחי מנדלבליט. אנחנו יודעים שהיו יועצים לפניו שלא התחשבו בהמלצות המשטרה. לא כל שכן מנדלבליט, הנגוע מאוד בניגוד עניניים עם נתניהו, שאותו שירת במשך שנים כמזכיר הממשלה.לא מאוחר למנדלבליט לעשות את הדבר ההגון ולהעביר את ההכרעה בעניין נתניהו לאדם אחר בפרקליטות. ולו רק לשם מראית-העין, שהיא חשובה ביותר בפרשיות אלה. אני לא מניח שמנדלבליט יעשה זאת. אפשרות אחרת היא להחליט בהקדם האפשרי. שני התיקים פשוטים מאוד, את עיקר העבודה כבר עשתה המשטרה, כל מה שנותר למנדלבליט זה להחליט. אפשר לעשות זאת בכמה ימים.הבעיה היא שאפשר לעשות זאת גם בכמה שבועות, חודשים ואפילו שנים. כל דחייה תשרת את נתניהו. כל דחייה תוכיח בשביל מי עובד מנדלבליט. היום אנחנו לא יודעים כמה מפעולותיו לא תאמו שיקולים של יועץ משפטי נייטרלי. אם הוא כן ישר ומקצועי - החובה להוכיח זאת היא עליו. זו חובתו לציבור, קודם כל, אבל זו גם חובתו לחוק שהוא מופקד על אכיפתו.הנה כמה הנחיות שיוכלו לעזור למנדלבליט: "ראש ממשלה ששקוע עד הצוואר בחקירות, אין לו מנדט מוסרי וציבורי לקבוע דברים כל-כך גורליים למדינת ישראל, כי קיים חשש אמיתי שהוא יכריע הערכות על בסיס ההישרדות הפוליטית שלו ולא על בסיס האינטרס הלאומי". אלה דברי בנימין נתניהו בעת כהונתו של אהוד אולמרט כראש הממשלה. דברים כדורבנות. למה שלא תנהג על-פי הנחיות אלה של נתניהו, מנדלבליט? לפחות נבצרות?</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223914#FromSearchPage</t>
+  </si>
+  <si>
+    <t>יואב קרני</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>יעקב יורד מן הסולם</t>
+  </si>
+  <si>
+    <t>הקשר בין ראש הממשלה בנימין נתניהו לבין נשיא דרום אפריקה, ג'ייקוב זומה</t>
+  </si>
+  <si>
+    <t>זה הזמן לבקר את המושחתים, את החשודים בשחיתות, את המורשעים שעדיין לא הספיקו לערער, את המערערים שלא הורשעו, ואת מיליוני המצביעים שאין להם מושג מה לעשות בפעם הבאה. בעצם היום שבו התהפכה החרב מעל צווארו של בנימין נתניהו, הגיליוטינה ניסתה לרדת על צווארו של נשיא דרום אפריקה, ג'ייקוב זומה (Zuma). הוא עלה לשלטון 40 יום לאחר נתניהו, במאי 2009. שערוריות מסמרות שיער רדפו אותו מן היום הראשון של נשיאותו, מפני שהן רדפו אותו הרבה לפני נשיאותו.ספק אם איש זולתו היה מחזיק מעמד כמעט תשע שנים, מערים על יריביו, רוכש את חיבתם של חברי מפלגתו, ועושה משהו שראש ממשלת ישראל היטיב כל כך לעשות בשנים האחרונות ובשעות האחרונות: להציג את עצמו כקורבן של קונספירציה, ולהטיל את האשמה על האליטות.מה מסקרן הוא צירוף המקרים הזה, המסמיך את קו חייהם הפוליטיים מנקודת היציאה עד, אולי, נקודת הסיום. זמנו של הנשיא זומה אוזל והולך. אתמול, ההנהלה הארצית של מפלגת השלטון הנצחית, הקונגרס האפריקאי הלאומי (ANC), ציוותה עליו להתפטר. הוא רוצה שלושה עד שישה חודשים. המפלגה מוכנה להעניק לו 48 שעות.המפלגה אינה מפטרת, אלא "מחזירה" אותו. שימוש הלשון באנגלית הוא recall. בעיניה, היא העניקה לו מנדט, ועכשיו היא משתמשת בזכותה לשלול את המנדט.קיראו עוד ב"גלובס"מעניין מה היה קורה אילו מרכז הליכוד ניסה לעשות משהו מעין זה. אבל הליכוד אינו מפלגה כ-ANC. מעטות מאוד הן המפלגות בעולם הדמוקרטי הדומות ל-ANC. היא ארגון מהפכני עם הרגלים מהפכניים רבי שנים ועם הנהגה קולקטיבית. היא אמנם לא אסרה ויכוח חופשי, אבל ציפתה לציות מלא משהסתיים הוויכוח.היה מאלף לצפות אתמול במראיין טלוויזיה צעיר בדרום אפריקה מנסה לחלץ הסברים פשוטים מפי מזכ"ל ANC. מנהיגי הארגון הזה אינם רגילים להסביר את עצמם. שקיפות היא מהם והלאה. (בראיון אפשר לצפות ביוטיוב, http://tinyurl.com/sabc-anc-secgen; אפשר גם לצפות בנשיא זומה מלגלג על הדרישה שיתפטר בנאום באוזני פעילי מפלגה חתומי הבעה, http://tinyurl.com/zuma-mock).בספטמבר 2008, הנהלת המפלגה החליטה לסיים את כהונתו של הנשיא דאז, תאבו מ"בקי (Mbeki). אז זה לא היה קשור בשחיתות, אלא באי הסכמות פוליטיות ובסגנון עבודה. מ"בקי, אויבו המר של זומה, ציית להחלטת המפלגה, והתפטר כעבור יומיים. זומה ירש אותו.ציות לרצון המפלגה הוא עניין של משמעת מהפכנית, או כלל של כבוד, אבל הוא וולונטרי. אם המפלגה רוצה להכריח את הנשיא להתפטר, יש לה דרך רק דרך חוקית אחת: להצביע אי אמון במליאת הפרלמנט.נשיאות דרום אפריקה היא אמנם כהונה ביצועית, לא סמלית, אבל בניגוד כמעט לכל הנשיאויות הביצועיות עלי אדמות, רוב פשוט במליאת הפרלמנט מספיק להדיח את נושא הכהונה. אין צורך ברוב מיוחס, אין צורך במשפט הסנאט (כמו בארה"ב, למשל). צריך רק לבקש הצבעה, ולהרים ידיים.הרבה שרצים, או צילי שרצים, דבקו בזומה. חקירות פליליות על לא פחות מ-783 סעיפי אישום, כולל שוחד על עיסקת נשק, התנהלו נגדו עוד לפני נשיאותו. הוא נשלח לערכאות, אבל יצא משם בשלום, נבחר לנשיא המפלגה, ואחר כך היה מועמדה לנשיאות (הנשיא אינו נבחר במישרים, אלא בהצבעה בפרלמנט, ירושה קצת משונה מימי האפרטהייד).במרוצת כהונתו התחילה להתגלות פרשת שחיתות עצומת ממדים, גדולה מכל החשדות הקודמים: קונספירציה בין הנשיא ובני משפחתו לבין אימפריה כלכלית בשליטתה של משפחת מהגרים הודיים ששמה גופטה. היא שולטת בבנקים, בחברות תעופה, במכרות אוראניום וזהב, בגופי תקשורת ובעסקים רבים אחרים, בדרום אפריקה ובהודו.גילויים מסמרי שיער הוכברו על הדרום אפריקאים מאז 2013. הם הראו לכאורה, שהנשיא החכיר חלקים של ממשלתו למשפחת גופטה, והניח לה להחליט על מינויים בכירים במשרדי ממשלה. השערורייה איימה להטביע את זומה, לאחר שהוחשד כי הדיח את שר האוצר המוערך שלו, כמעט לפני שנה וחצי, כדי לרצות את מיטיביו מן הגופטה.בזמן כתיבת הרשימה הזו, הבוקר, מופיעות ידיעות באתרי חדשות דרום אפריקאיים, שמחלק הפלילים של משטרת דרום אפריקה עומד בעיצומה של פשיטה על מעונה של משפחת גופטה. זה סימן שימי חסינותה חלפו עברו. ראש התביעה הכללית בדרום אפריקה אמר אתמול, כי החלטה על הגשת כתב אישום נגד הנשיא עצמו תיפול "עד סוף השבוע הבא".מפלגת השלטון ידעה על ההאשמות במשך שנים. כל דרום אפריקה ידעה עליהן. העיתונות הבינלאומית חקרה אותן בהרחבה (אוסף עצום של קישורים אפשר למצוא בערך Gupta Family במהדורה האנגלית של וויקיפדיה). היא לא נקפה אצבע. מה הביא אותה אפוא אל המהלך הדרמטי של אתמול? התשובה פשוטה למדי: הסקרים.בפעם הראשונה מאז קץ האפרטהייד התחילה להסתמן בשנה האחרונה האפשרות, ש-ANC תאבד את הרוב המוחלט שלה בפרלמנט. מזכ"ל המפלגה הודה בראיון הטלוויזיה המוזכר למעלה, אם גם בחוסר חשק מופגן, כי "משתרר הרושם שהצטמצם בסיס התמיכה שלנו". הבחירות מיועדות להיערך בעוד קצת יותר משנה. מה טוב אם המפלגה תוכל לטעון שהיא ריעננה את עצמה מבעוד מועד.אם יתפטר זומה, המפלגה תוכל להחליף אותו מיד בסגנו, סיריל ראמאפוסה (Ramaphosa), שכבר ירש את זומה לפני חודשיים בנשיאות המפלגה. ראמאפוסה היה המנהיג הנועז והכריזמטי של האיגודים המקצועיים בסוף ימי האפרטהייד. נלסון מנדלה ראה בו את יורשו המועדף. המפלגה העדיפה את תאבו מ"בקי. לראמאפוסה הוענקה משימה אחרת, מסקרנת ומאלפת: להפוך לאיש עסקים עשיר, כדי להעניק למפלגה אחיזה במגזר הפרטי. הוא עמד במשימה. הוא עכשיו אחד מעשירי דרום אפריקה, והוא מוכן למשימה הבאה.אבל ראמאפוסה, על אף שורשיו באיגודים, קרוב אל האליטה של המפלגה, זו החשודה בעיני פעילים שהיא מתאמצת קצת פחות מדי לקעקע את המורשת הכלכלית של האפרטהייד.זומה היה קרוב יותר אל השטח. הוא נועד להחזיר את ה-ANC אל בסיסה הטבעי, אל המיליונים שהיציאה מן האפרטהייד לא הרעיפה עליהם את הברכות המקוות. הביקורת הרגילה הנשמעת מצד הרדיקלים ב-ANC היא שהדמוקרטיה הפוליטית לא הביאה איתה את הדמוקרטיה הכלכלית; שעושרה של דרום אפריקה עדיין נמצא בידי מעטים, גם אם לא עוד רק בידי לבנים; שמצוקה איומה שורה על רוב השחורים, בערים ובכפרים (האבטלה עומדת על 30% מכוח העבודה, והיא גדולה הרבה יותר בין צעירים).כישלון זומה הוא יותר מצירוף כל תכונותיו השליליות של פוליטיקאי מושחת. הוא כישלונו של דור האבות, אחרונים לאפרטהייד וראשונים לשחרור. מפלגת השלטון של דרום אפריקה שמטה את רוב האשראי שלה, ולא יהיה ביטוי הולם יותר לכישלונה ממיצוי הדין עם האיש שהיא שלחה להיות נשיא.■ רשימות קודמות ב-yoavkarny.com. ציוצים (באנגלית) ב-twitter.com/YoavKarny</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223974#FromSearchPage</t>
+  </si>
+  <si>
+    <t>יונתן כיתאין</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>אובססיה תקשורתית חסרת תקדים</t>
+  </si>
+  <si>
+    <t>נתניהו העמיד את התקשורת באתגר שטרם הכירה</t>
+  </si>
+  <si>
+    <t>לא פשוט לעכל את המצב התקדימי שנוצר אמש והבוקר, כשאמצעי התקשורת המרכזיים דיווחו על המלצות המשטרה בעניינו של ראש הממשלה בנימין נתניהו."ישראל היום", "ידיעות אחרונות", ערוץ 10 וכעת גם קשת ורשת - שני העיתונים הגדולים ושלושת ערוצי הטלוויזיה המרכזיים - כולם מככבים בצורה כזאת או אחרת בחשדות שפרסמה אמש המשטרה. אפילו הדיווח בתאגיד השידור הציבורי "כאן", שלא קשור כמובן בשום צורה לחשדות הפליליים, הוא דיווח בכלי התקשורת שראש הממשלה פעל בכל כוחו, בצורה גלויה ובוטה, כדי שלא יעלה לאוויר.גם אם נניח בצד את ההיבטים הפליליים שיש או אין בפרשות הללו, הם מאירים שוב את האובססיה התקשורתית הכמעט בלתי נתפסת של נתניהו. ראש ממשלה שמזה חודשים מודה בגלוי ובהתרסה - באופן שמשרת כמובן את קו ההגנה שלו כחשוד - כי פעל בכל כוחו כדי לסגור את ערוץ 10 או שפיזר את הכנסת והלך לבחירות בגלל חוק "ישראל היום".עצם העובדה שנתניהו - מצד אחד באמת לא פחות מרב-אמן בענייני תקשורת, ומצד שני חדור תחושה פנימית עמוקה של קיפוח ורדיפה על-ידיה - מקדיש כל-כך הרבה אנרגיות, תשומות ומשאבים לנושאים הללו, היא לא רק חסרת תקדים, אלא גם מעמידה בפני כלי התקשורת אתגר שלא הכירו בעבר.קצת כמו שקרה למשטרה, שנדחקה מעמדה של גוף ממלכתי חסר פניות לפוזיציה של גוף אינטרסנטי שמנהל קרב תקשורתי על דעת הקהל, גרסה מול גרסה עם ראש הממשלה, גם התקשורת נדחקת בשנתיים האחרונות לעמדה שמקשה עליה למלא את תפקידה.המתקפות הישירות של נתניהו, והעובדה שמהלכיו הפכו את התקשורת ואת בעלי המניות שלה - מי יותר ומי פחות - למעורבים ישירים בפרשות הנחקרות, מושך אותה פנימה אל לב ההתרחשויות. וככל שכלי התקשורת והעיתונאים ילכו וישקעו אל מעמקי הביצה החמה והדביקה, הם יתקשו יותר ויותר לספק את מבט העל הקריר והמרוחק הנדרש בסיקור מצב העניינים הנוכחי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . אצל מי האובססיה??? אצל ביבי מול העיתונות??? או ההיפך - אצל העיתונות מול ביבי! התבלבלת לגמרי . התשקורת מזמן איבדה את הציבור,היא מזמן בפוזיציה אבל ביבי הוא אומן הוא ריסק את השמאל ואת שני מדינות לשני עמים באופן טוטאלי !! . המטרה של המשטרה קדשה את כל האמצעים , האמת והצדק הם משניים בהקשר לביבי, העיקר להאשים להפיל ולפלג, המשטרה יד אחת עם התקשורת המזויפת, עשו ויעשו הכל כדי לנגח ובסוף לנצח, המדינה ממש לא בראש מעיניה של המשטרה או התקשורת העיקר שהאג׳נדה תנצח לא משנה הדרך, המהות, התוכן ומי נפל בדרך, העיקר לנצח , והפרקליטות יודעת שהקייס לא חזק, אבל הם נפלו קורבן להתלהמות השמאל הקיצוני, זה שמצייר שכאן הכי רע בגלל ביבי,  מגייסים את כל הכוחות כדי שהאג׳נדה שלהם תנצח, אבוי לנו שזאת הדמוקרטיה היחידה</t>
+  </si>
+  <si>
+    <t>אודי</t>
+  </si>
+  <si>
+    <t>אצל מי האובססיה??? אצל ביבי מול העיתונות??? או ההיפך - אצל העיתונות מול ביבי! התבלבלת לגמרי</t>
+  </si>
+  <si>
+    <t>יוסי</t>
+  </si>
+  <si>
+    <t>התשקורת מזמן איבדה את הציבור,היא מזמן בפוזיציה אבל ביבי הוא אומן הוא ריסק את השמאל ואת שני מדינות לשני עמים באופן טוטאלי !!</t>
+  </si>
+  <si>
+    <t>המטרה של המשטרה קדשה את כל האמצעים , האמת והצדק הם משניים בהקשר לביבי, העיקר להאשים להפיל ולפלג, המשטרה יד אחת עם התקשורת המזויפת, עשו ויעשו הכל כדי לנגח ובסוף לנצח, המדינה ממש לא בראש מעיניה של המשטרה או התקשורת העיקר שהאג׳נדה תנצח לא משנה הדרך, המהות, התוכן ומי נפל בדרך, העיקר לנצח , והפרקליטות יודעת שהקייס לא חזק, אבל הם נפלו קורבן להתלהמות השמאל הקיצוני, זה שמצייר שכאן הכי רע בגלל ביבי,  מגייסים את כל הכוחות כדי שהאג׳נדה שלהם תנצח, אבוי לנו שזאת הדמוקרטיה היחידה</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001224009#FromSearchPage</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>ארדן ליועמ"ש: בדוק את הטענות למעקב אחר חוקרי המשטרה</t>
+  </si>
+  <si>
+    <t>בעקבות דבריו של מפכ"ל המשטרה רוני אלשיך לגבי הכוח שהופעל נגד החוקרים בפרשיות נתניהו, פנה השר לביטחון פנים ליועץ המשפטי לממשלה ■ "ניסיון להטיל מורא על חוקרי המשטרה העושים את מלאכתם הוא מעשה שאין להשלים אתו"</t>
+  </si>
+  <si>
+    <t>השר לביטחון הפנים, גלעד ארדן, התייחס היום (ד') במליאת הכנסת להצעה לסדר היום בנושא המעקבים אחר חוקרי המשטרה שעסקו בחקירות ראש הממשלה בנימין נתניהו.הנושא עלה אחרי שמפכ"ל המשטרה, רוני אלשיך, אמר לפני כמה ימים בראיון ל"עובדה" כי בשלבים מוקדמים של החקירה הוא וחוקריו ידעו בוודאות כי "גורמים רבי-כוח" שילמו לחוקרים על-מנת שיעקבו אחרי העוסקים במלאכה. הנושא עורר ביקורת רבה, כולל את טענת נתניהו כי הדבר הופך את החקירה המשטרתית ל"מזוהמת".אלשיך זומן על-ידי ח"כ יואב קיש להגיע היום בבוקר  לוועדת הפנים של הכנסת כדי להשיב לשאלות חברי הכנסת בנושא. אך אחרי הודעת המשטרה אמש (ג') על ההמלצות נגד נתניהו, דיון זה נדחה ליום ראשון הקרוב.הערב פנה השר לביטחון פנים ליועץ המשפטי לממשלה, ד"ר אביחי מנדלבליט,  וביקש ממנו לבדוק את הטענות. "מדובר באמירה משמעותית ומדאיגה, שצריכה להדיר שינה מעיניו של כל מי ששלטון החוק ועצמאות רשויות האכיפה חשובים לו", כתב ארדן. "כשר לביטחון פנים וכאיש ציבור הרואה עצמו מופקד על שמירת אמון הציבור במערכת אכיפת החוק, איני יכול להתעלם מהדברים הללו ולעבור עליהם לסדר היום. ניסיון להטיל מורא על חוקרי המשטרה העושים את מלאכתם הוא מעשה שאין להשלים אתו".ארדן מציין במכתבו כי חברי כנסת רבים ואנשים מן הציבור פונים אליו בבקשה לבדוק ולקבל תשובות בנושא המדאיג הזה. עוד כותב ארדן כי פנה למפכ"ל לקבלת הבהרות בעניין, והלה השיב לו כי "אין באפשרותו לפרט ולעדכן בנושא הזה".</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223993#FromSearchPage</t>
+  </si>
+  <si>
+    <t>אבי טמקין</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>העולם פחות מתרגש מחקירות נתניהו - אך מתעניין בעתידו</t>
+  </si>
+  <si>
+    <t>ב"ניו-יורק טיימס" נתניהו מופיע בשער, תוך המלצה לא להגיע למסקנות פזיזות לגבי עתידו</t>
+  </si>
+  <si>
+    <t>אנחנו התעוררנו הבוקר לידיעות על המלצות משטרת ישראל להגיש כתב אישום נגד ראש הממשלה בנימין נתניהו בגין שוחד. עם זאת, העולם הגדול הראה התעניינות רבה בנושא, אבל הקדיש את העמודים הראשונים של העיתונות המודפס לצרות המקומית בכל מדינה. גם אתרי האינטרנט של אמצעי התקשורת הראשיים דיווחו על המתרחש, אך מתחת לידיעות אחרות, תוך שהם מנסים להסביר לגולשים מה זה תיק 1000 ותיק 2000.ב"ניו-יורק טיימס", למשל, הודעת משטרת ישראל מופיעה בעמוד הראשון של מהדורת הבוקר המודפסת, כיאה לעיתון שמתעניין מאוד בנעשה בישראל. באתר החדשות של העיתון הידיעה על נתניהו לא מובלטת, אך מדובר בדיווח מקיף המזכיר את כל הסוגיות, תוך דיון על עתידו הפוליטי של ראש הממשלה. "לא בכדי מכנים את נתניהו הקוסם", נכתב בידיעה, כדי להזהיר את הקוראים מפני מסקנות פזיזות. הוא גם מציין שזה לא סוף פסוק, שכן תיק 3000, תיק הצוללות, עומד בפתח.גם ה"וושינגטון פוסט" לא ממש כולל את סוגיית נתניהו בין החדשות הבוערות של היום, והדיווח נכלל בחלק של "חדשות העולם". הדיווח עצמו כולל, מלבד סקירת החשדות נגד ראש הממשלה וניתוח מצבו הפוליטי, גם תזכורת שנתניהו, כמו הנשיא דונלד טראמפ, הגיב לחקירה נגדו בהתרסה נגד המשטרה ומניעיה. ה"וושינגטון פוסט" נחשב על ידי טראמפ כסמל של ה"אליטות הליברליות" אותן הוא מוקיע.בצד השני של המתרס הפוליטי, אתר ברייטבארט, בעל הקשרים החזקים עם ממשל טראמפ והימין הקיצוני האמריקאי, מצדד בכל טענותיו של נתניהו. כתבת העיתון הישראלית קרוליין גליק, שמזוהה עם הימין, יוצרת באתר הקבלה בין נשיא ארה"ב לבין ראש ממשלת ישראל. הכותרת של הפרשנות שבאתר מזכירה ש"המדינה הסמויה" מפברקת האשמות שווא נגד נתניהו. המושג "המדינה הסמויה" הוא ביטוי בשימוש הימין הקיצוני בארה"ב המתאר את הפקידות כחלק ממזימה ליברלית לבלום את "הפטריוטים אמריקאים" האמיתיים, ובראשם הנשיא טראמפ.קיראו עוד ב"גלובס"בדומה ל"וושינגטון פוסט", אתר "לה מונד" הצרפתי לא מבליט את הידיעה על המלצות להעמיד לדין את נתניהו. הדיווח עצמו נכלל בחלק הבינלאומי, וכולל שני פריטים. הראשון, סקירת התיקים נגד בנימין נתניהו ובעיקר ניתוח קצר של סיכוי שרידותו ותגובת סיעות הקואליציה להאשמות המשטרה. בפריט השני, העיתו מדווח על הנסיון של ראש הממשלה להציג תמונה של יציבות, למרות הטלטלה שיצרה הודעת המשטרה.בבריטניה, ה"טיימס" של לונדון מדווח על פרשת נתניהו באתרו, בחלק התחתון של החלק המוקדש לידיעות מהעולם, ומתחת לידיעה על הריגת שכירי חרב רוסיים בסוריה. האתר מסקר את החשדות נגד נתניהו ואת מהות קשריו עם ארנון מילצ'ן ונוני מוזס. גם העיתון "גארדיאן"" נוהג כמו אתרים אחרים ואינו מכליל את הידיעה על נתניהו בחלק הקדמי של האתר. הידיעה עצמה נמצאת בחלק של ידיעות מהמזרח התיכון, בתוך חדשות העולם. הדיווח קצר יותר, אך הוא מלווה במעין מורה נבוכים לתיק 1000 ו-2000 ומביא בקצרה את תגובתו של ראש הממשלה לשעבר אהוד ברק. הוא גם מזכיר סקר שפרסם בקיץ האחרון ערוץ 10 אשר מצא ש-60% מהציבור מצדדים בהתפטרות ראש הממשלה אם יוגש נגדו כתב אישום.באתר "די וולט" הגרמני לא ממש מתרשמים מהחשיבות של פרשת נתניהו. קוראי האתר צריכים להקדיש לא מעט מאמצים עד שהם מגיעים לתחתית המדור של חדשות פוליטיות מחו"ל עד שהם מגיעים לדיווח יחסית קצר על פרשת נתניהו. הדיווח נפתח בפסקה המציינת כי "שוב שוב מופיעות טענות של שחיתות נגד ראש הממשלה נתניהו, אך הפעם זה כנראה רציני". למרות הדיווח על רצינות המקרה, האתר כולל הסבר מצוצמם על מהות האשמות נגד ראש הממשלה, ומצטט לא את הודעת המשטרה, אלא את הדיווחים בתקשורת הישראלית. "די וולט" מזכיר את ההתקפה של ראש הממשלה על משטרה, אך גם פה ההתייחסות היא מצומצמת.ה"קוריירה דה לה סרה" באיטליה כנראה יותר מורגל בדיווח על שחיתות ממשלתית. גם פה האתר מציג את הידיעה בין חדשות החוץ, אך העמיד אותה בראש המדור. האתר מדווח על הודעת המשטרה, תוך שהוא סוקר את מהות תיקים 1000, 2000 ו-3000, שבו נתניהו אינו חשוד לעת עתה. הוא גם מצטט את ההתקפה של ראש הממשלה על המשטרה ואת אמירתו לפיה ממשלתו יציבה. האתר גם מזכיר כי יחלוף זמן עד אשר היועץ המשפטי לממשלה, אביחי מנדלבליט, יחליט האם לאמץ את המלצות משטרת ישראל.</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223750#FromSearchPage</t>
+  </si>
+  <si>
+    <t>שירות גלובס</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>סגירה ירוקה בת"א; כיל עלתה ב-3.7% לאחר הדוחות</t>
+  </si>
+  <si>
+    <t>רביב צולר עומד ככל הנראה להתמנות לתפקיד מנכ"ל כיל לאחר שבתחילת החודש הודיע על רצונו לסיים את תפקידו כמנכ"ל חברת איידיאיי ביטוח ■ מזור רובוטיקה ירדה בכ-1.2% לאחר שדיווחה היום על הכנסות שיא לרבעון הרביעי ולשנת 2017</t>
+  </si>
+  <si>
+    <t>המסחר בבורסה בתל-אביב ננעל היום (ד') בעליות שערים לאחר הסגירה המעורבת אתמול בתל-אביב והפתיחה האדומה בוול סטריט היום. המסחר בבורסות אירופה ננעל אתמול במגמה שלילית. בורסות אסיה נסחרות במגמה מעורבת והחוזים העתידיים מאותתים על פתיחה חיובית.אתמול התנודד המסחר בבורסה ושינה כיוון מתחילת יום המסחר - שנפתח בעליות - אולם עבר בהמשך למגמה שלילית ונסגר לבסוף במגמה מעורבת.משטרת ישראל, בראשות המפכ״ל רוני אלשיך, הודיעה אתמול שיש תשתית ראייתית להעמדה לדין של ראש הממשלה בנימין נתניהו בגין שוחד והפרת אמונים בשני התיקים בהם הוא חשוד: 1000 ו-2000. היום, לאחר פרסום המלצות המשטרה נגדו, ראש הממשלה בנימין נתניהו הגיע לכנס של מרכז השלטון המקומי, ומתח נתניהו ביקורת חריפה על המלצות המשטרה להגשת כתבי אישום נגדו בגין שוחד, מרמה והפרת אמונים בתיקי 1000 ו-2000. נתניהו אמר כי "ההמלצות הן מסמך מוטה וקיצוני, מחורר כמו גבינה שווייצרית" [לקריאה נוספת].רביב צולר עומד ככל הנראה להתמנות לתפקיד מנכ"ל כיל 
+( 1,447     -0.28% )
+. צולר הוא המועמד המועדף על ידי יו"ר כיל, יוחנן לוקר, שעמד בראש ועדת האיתור של החברה, והוא צפוי להביא את מועמדותו לאישור דירקטוריון החברה, ככל הנראה בימים הקרובים. צולר יחליף בתפקיד את המנכ"ל הזמני אשר גרינבאום.קיראו עוד ב"גלובס"בתחילת החודש הודיע צולר על רצונו לסיים את תפקידו כמנכ"ל חברת איידיאיי ביטוח 
+( 24,550     +3.76% )
+. צולר אמור לעזוב את החברה באוגוסט הקרוב [להרחבה].בנוסף, החברה דיווחה הבוקר על תוצאות חזקות לרבעון הרביעי ולשנת 2017 כולה. כיל, הנמצאת בשליטת החברה לישראל ומנוהלת על ידי המנכ"ל הזמני אשר גרינבאום, הציגה הכנסות של כ-1.4 מיליארד דולר ברבעון הרביעי, גידול של 2% לעומת הרבעון המקביל ב-2016. החברה דיווחה על רווח תפעולי בסך 189 מיליון דולר ברבעון הרביעי אשתקד, קפיצה של 160% לעומת הרבעון המקביל [לידיעה המלאה].בתחילת השבוע פרסם הבית הלבן את התכנית לרפורמה בתשתיות בארה"ב - אותה התכנית עליה דיבר הנשיא טראמפ במהלך קמפיין הבחירות שלו לנשיאות ב-2016 - הכוללת תקצוב של כ-200 מיליארד דולר בעשור. מתוך הסכום הכולל, כ-100 מיליארד דולר יהיו זמינים למדינות ולרשויות המקומיות ברחבי ארה"ב בשיטת "מאצ'ינג" שתדרוש השקעה גם מצידן - המימון הפדרלי אמור לכסות עד 20% מעלות כל פרויקט, כשהמדינות והערים ישאו בשאר העלות.טבע 
+( 7,515.00     +12.74% )
+ ריכזה עניין גם היום, לאחר  שאתמול פורסם כי חברת מומנטה הודיעה על קבלת אישור לשווק גרסה גנרית לקופקסון במינון 40 מ"ג בארה"ב. מדובר על אישור צפוי אמנם, אך בתחזיות טבע ל-2018 (שממילא היו נמוכות ביחס לציפיות האנליסטים) ההערכה הייתה שמומנטה תשיק את הגרסה שלה רק בחודש אפריל [לקריאה נוספת]. חברת הדירוג מודיס' הודיעה כי היא לא תוריד את דירוג טבע בעקבות הפרסום.פורסם עוד כי עלות שכרו של קאר שולץ עמדה בשנת 2017 על 17 מיליון דולר, 14.2 מיליון דולר מתוכם תגמול מנייתי שניתן לו. שולץ נכנס לתפקיד מנכ"ל טבע בנובמבר 2017 וזכה בשנה החולפת לשכר של 333 אלף דולר, לאופציות בשווי 2 מיליון דולר ולתגמולים נוספים בסך 465 אלף דולר. היום המנייה יורדת בלמעלה מ-1%. ענקית התרופות נטלה על עצמה ברכישת הענק של אקטביס ב-2016. חוב זה עמד בסוף 2017 על 32.5 מיליארד דולר. מניית טבע נפלה בשנה שחלפה ב-48% - מה שגרם להשמדת ערך מצטברת של יותר מ-17 מיליארד דולר למשקיעים בחברה.  מהדוח המורחב שטבע פרסמה ביום ב' עולה כי 10 מנהלים בכירים בחברה גרפו אשתקד שכר מצטבר של כ-51 מיליון דולר [לידיעה המלאה]. גזית גלוב 
+( 3,347     +0.27% )
+השלימה אתמול בהצלחה גיוס של 850 מיליון שקל, זאת בשלב המקדים בהנפקת אגרות חוב מסדרה י"ג החדשה, שצמודה למדד המחירים לצרכן. בימים הקרובים יערך השלב הציבורי בהנפקה, בו תנסה החברה להשלים גיוס של כ-950 מיליון שקל [לקריאה נוספת].שלוש שנים לאחר שהחלו הליכי ההפרטה, אישרה הוועדה למכירת מניות המדינה בתעש עקרונית את מכירת החברה לאלביט מערכות 
+( 52,630     +0.63% )
+. [לקריאה נוספת].חברת נובה 
+( 9,490     -0.63% )
+, המספקת מערכות לבקרת תהליכי ייצור בתעשיית המוליכים למחצה, עקפה את התחזיות בדוחות הרבעון הרביעי וסיפקה תחזית הכנסות גבוהה מתחזיות האנליסטים לרבעון הראשון של השנה.נובה סיכמה את הרבעון הרביעי עם הכנסות של 57.4 מיליון דולר, צמיחה של 14.3% ביחס לרבעון המקביל. שנת 2017 הסתיימה עם צמיחה של 35.4% לרמה של כ-222 מיליון דולר. ההכנסות ממכירת מוצרים צמחו בשנה האחרונה ב-42.4% ל-174 מיליון דולר, וההכנסות משירותים עלו ב-14.9% ל-47.6 מיליון דולר [להרחבה].מניות הבנקים פועלים 
+( 2,453.00     -0.73% )
+, דיסקונט 
+( 977.2     -1.00% )
+, ובינלאומי 
+( 7,491     -0.12% )
+ ריכזו עניין לקראת אסיפת הנושים שצפויה להיערך בשבוע הבא לקראת ההסדר שאמור להיחתם בקבוצת יורוקום. מניות קבוצת בזק 
+( 525     +0.19% )
+ רשמו היום עליות אחרי ירדות אמש.מניות הגז (רציו 
+( 186.7     -0.32% )
+, ישראמקו 
+( 39.4     +0.25% )
+, דלק קידוחים 
+( 805     +0.65% )
+ו קבוצת דלק 
+( 52,110     +3.09% )
+ ריכזו גם היום עניין לאחר שמנכ"ל ענקית האנרגיה האיטלקית ENI, קלאודיו דסקלזי, הודיע לפני יומיים כי מאגר הגז החדש שהתגלה על ידי הקונסורציום ENI ו-Total מול חופי קפריסין עשוי להכיל יותר מ-230 BCM ולא פחות מ-170 BCM. המאגר התגלה בבלוק 6 שנקרא קליפסו במרחק של 80 ק"מ מהחוף הדרומי של קפריסין.מזור רובוטיקה 
+( 10,570     +1.63% )
+ירדה בכ-1.2% לאחר שדיווחה היום על הכנסות שיא לרבעון הרביעי ולשנת 2017 אשר הסתכמו ב-19.1 מיליון דולר ו-64.9 מיליון דולר, בהתאמה. כפי שדווח בעבר, החברה קיבלה הזמנות לרכישת 27 מערכות ברבעון הרביעי של 2017, ובכלל זה 24 מערכות Mazor X. ב-2017 כולה, קיבלה החברה הזמנות ל-73 מערכות, מהן 64 הזמנות עבור מערכות Mazor X ו-9 הזמנות עבור מערכות ה-Renaissance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . עליות קלות בפתיחה : לא היה כלום , ולא יהיה כלום...aizeq_nyuton . אתה אפס...
+הקולים יעלו היום לשמים
+שמעון קנה חבילות שם
+בקל המסומן . לא יעזור לכל המנוולים שמורידים את רציו וגורמים נזק אדיר למשקיעים.  ליויתן מתקדם !!! 
+נובל ותשובה והיהודים לא פרייריםליויתן מתקדם !! . תימחק ....רציו הלואי . התחלת איסוף פוט  1490/1480  בהצלחה לכולם כולל לשמעון מהבקבוקיםקולים נמכרו . שמעון בקבוקים גמר את 5000 שח בפוטים כעת הוא בים אוסף בקבוקים חוף פרישמןשמעון מחוק . שמעון אמסלם תותח של סוחר מעוף,,,
+הצאט שלו עם מאות אנשים
+מספיק עם הקינאת חינםפישקה מספונצר . חחח לא שמעון אמסלם בהצלחה שחור אדום ברולטה עדיף על המעוף  בכל מקרה לכו לגמילה אגפי הרווחה בעיריות . ביבי מככה בכל האתרים בעולם הפעם לא נראה טוב. האם הזרים יברחו היום?
+Israeli Police Have Called for Corruption Charges Against Prime Minister Benjamin Netanyahu? . מעניין ליכודניקים מוכנים שנתניהו יפול רק השופטים יעלו להם כי רק ליכודניקים טיפשים קונים פוטיםהפוטים ימחקו לך . מה הקשר לפוטים? המצב בעולם מסוכן, והבורסות לפני קריסה, הולכת להיות עליית ריבית אגריסיבית, כבר מדברים על לפחות 4 העלאות ריבית. אצלנו עוד יותר גרוע, איך ראש ממשלה יכול לכהן תחת חקירה פליליתשוש . רק פיפי וחרה . דייייי עד מתי תרד ??????????????????????????????????????? . הזרים יברחו מהבורסה בישראל החל מהיום. מצב פוליטי בעייתי. ראש ממשלה בחקירה פלילית. יתכן שנחך לבחירות בקרובמבין . הפראיירים שלא מבינים נכנסים בימים כאלה לשוק ההון....
+מישהו יעשה עליהם סיבובמבין . רחמים שוחטים לכם תפוטים לכו לעבוד דווקא הקדמת בחירות טוב לבורסה חחח חכו שנה חחח מה לעשות יש לכם רק שבוע לפקיעה חחח לכו לאסוף בקבוקים ולכו לבית של פושט רגל שיחזיר לכם את ההפסדים הוא הבטיח מפולתאיזה מסכנים אתם . אבל יש לו 40 שנה בבורסה חחחחחחחחחחחחחחהוא הבטיח חחח . קנאי
+שמעון אמסלם עושה בית ספר למעוףאיזה מסכנים אתם . קניתי את הפוטים שמכרתי אתמול ב-1000 ש"ח הנחה ליחידה :)
+780/1780מבין . מי משקיע כאן זו בורסה של נוכלים 300 חברות עזבו אתה מדבר על זרים תראה את המחזורים מחזורים של מכולת . . גלובס הכותרות שלכם בדיחה אחת גדולה עליות ? איזה עליות שנתיים הבורסה ירדה מ-1700 נקודות ראו בחו"ל כמה הדדים עלו , 
+סגרו את המכולת מחזורים של מכולת , בורסה של נוכלים , בריאותו יום טובעליות בדיחה . התכוונתי המדדים עלו בחו"ל וכאן כלום , קזינו ? של נוכלים . . רציו מה יהיה??ליויתן????? . כשיש כתבת כמו סוניה שממחזרת כתבות מה הפלא שכולם נסים על נפשם אל תיתנו לפחד להוביל אותכם . נראה שגל הצניחות השוורי מתחדש
+ אחרי כל ירידה חדה...העליה מינורית וקטנה יותר
+בסופו של דבר הכל מתדרדר שיטתית -ויקח שנים עד שיחזוראבי . אתה אפס ולא מבין לך לפקם . לברוח מהר מדד מחירים לצרכן בארהב הרגע זינק ב 0.5% הרבה מעל הציפיות.מפויה קריסה של 3% בבןרסההזהרתי . ותתחבא אלה שהפסידו בגללך יגיעו אליך . כולם חושבים שהכל נרגע ושב לקדמותו,
+סוף שבוע טומן סכנה גדולה
+תתכוננו...
+להתראות בראשוןוול סטרייט . חלומות באספמיה ירידות יכולות להיות כל יום מה הקשר השוק יציבות לצערך הפוטים לפברואר מחוקים . למה מניות הגז יורדות כל יום עכשיו רציו יורדת חזק מה קורה להםדני . ראה איזו שתיקה סביב מניות הגז. חסכונות של שנים הלכו לי. העיקר מצאנו גז במיליארדים . הסעיפים: שוחד, מרמה והפרת אמונים. אפילו אם יוכח סעיף 1 זה חמור מאד.איך יגול להנהיג מדינה במצב כזה?מוכר הכל . מה יש למכור נשאר לך בפוטים 500 שח בוא לים איזה כייף כאן אגב יש כאן הרבה בקבוקים גם חברים עבריינים בצהריים אני בארומה בסנטר . פחד להחזיק מניות גז 
+מוכרים ומוכרים בלי סוף
+רצוי לא נישאר כלום ממנה . רק קולים
+אני ושמעון מהצאט קנינו בבוקר קולים
+והולכים ל1485פישקה . אוי ואבווי בדיוק שעברתם לירושלים הם נופלים כתבתי לכם ב 7 בבוקר ישחקו לכם גם את הפוטים וגם את הקולים . אף מילה על הדוחו"ת המעולים של כי"ל? למנות את אשר גרינבאום למנכ"ל קבוע, עושה עבודה נהדרת.
+ו-2018 תהיה עוד טובה בהרבה אחרי שיפחיתו את החוב ב-1.2 מיליארד דולר מהמכירות של עסקי השמנים, מעכבי העירה וההתפלה.
+דיבידנד של 1.3% רבעוני, לא רע בכלל :)
+תודה להנהלה. תמשיכו להצליח. . שרה"מ נופל אז הבורסה.עולה.הכל הפןך . איך שופרסל ומזור העלובות בשיא ודלק קידוחים בתחתית . מעניין כמה העניין הפוליטי יעיב על המסחר,
+רק שלא יהיו ירידות חדות בגלל מתח פוליטישוחד . מחפש שביב של תקוה לפחות חצי שנה עד שהיועמש  יחליט חחחחחחחחחחחחחחחחחחשוחד . די מספיק לכם תעזבו את הפורום . כמו שכתבתי אתמול כשהיה מינוס חצי אחוז לקנות קולים, כעת לממש
+נקנים ברגע זה פוטים 1470 בשער 780רם . כל הכבוד בחור חכםבחור חכם . כן מכר פוטיםרם . על הפוטים שקנית היוםאתה תפסיד . אולי, 
+חושב שהעליות היום תמחקנה כמעט כליל.רם . והנה אדום..רם . כבר ב 7 בבוקר אמרתי ישחקו אותכם כותבים באלפים מוחקים באגורותרם . איזה מסכנים אתם אולקוס מחלות לב סוכר פסיכיאטריהנה ירוק חחח . אתה צוחק? חצי מכרתי ואת היתרה השארתי כי לא ליד מחשב רוב היום.....וגם היתרה 120 ש"ח לאופציה ברווח על הנייר כעת.
+הלוואי כל יום ככה.
+מחר בסיום המסחר צפויים לפקוע האופציות החודשיות על המדדים המובילים בארה"ב, כאשר האופציות המעניינות ביותר הן על מדד ה-VIX ("מדד הפחד") שזינק בשבועיים האחרונים, וייתכן שהדבר יוסיף לתנודתיות בשווקים. נראה כי השחקנים מצליחים להוריד משמעותית את מדד הפחד, ולהקטין הפסדים. 
+זו הסיבה היחידה לעליות היום!!!: 
+משחקי פקיעה, הנאסד"ק עבר לעלייה של 0.7%, מדד הפחד נופלרם . ועדיין ייתכן שיסיים אדום!! . חולשה במניות הגז 
+דוחות עם חולשה רבתי . שחיתות זה דבר משותף לביבי והבורסההמאוכזבים . אם לא היה ביבי לא היה בורסה בארץ השחיתות היא בבנקים עושי שוק ברוקרים שורטיסטים ובתי השקעות הבורסה כאן זה קזינו לא שייך בכלל לביבי .
+עם ביבי שהיה שר האוצר וגם ראש הממשלה במשבר שהיה כאן בארץ בזמן אריק שרון ז"ל המשק הישראלי היה מתרסק .
+כן יש שחיתות .
+אצל ביבי המדיה והעיתונות והמשטרה שהם גם מושחתים מרווחים הון תועפות מבררים כול הזמן חיים בדירות פאר מכוניות פאר וכול היום מלכלכים .
+לי חשוב הביטחון ראה מה קרה רק ביום שבת איזה שיקול דעת היה לביבי.
+עצתי לו כבר מזמן עזוב הכול על כול הרצאה הוא מקבל 100 אלף דולר,
+מחלקה ראשונה  לו לרעייתו קווארים סיגרים וגילדות בשפע בלי שום הכפשות והעלבות כבר עשרות שנים .
+נראה שהאדם אוהב את מדינתו יותר מכסף זה נדיר בעולמנו .
+הצג עוד . בשעה החופפת כאן בארה"ב שעה של פורענות .
+בארה"  המסחר 6 שעות וחצי וכאן 7שעות 45 15 דקות לפני המסחר ו-15 דקות סגירה אחרי המסחר 7 שעות נטו שעה יותר מארה"ב.
+תבטלו את השעה ואת החפיפה  זה הזמן של השורטיסטים על המדדים על מניות חו"ל על הסלים ועל הדולר . 
+אינכם רואים מה קורה ? וויסות ממש לא חוקי .ממש פורענות . עושים על טבע כול יום סיבובים של כ-4% , עושי שוק נוכלים עם דיפלומה . . כבר מזמן החוזים העתידיים בארה"ב שליליים ,למה אתם לא מעדכנים?????????????????? . אנחנו יום יום שוחקים לכם אופציות מוכרים לכם באלפים ומוחקים לכםיציבות זה טוב . לכן מכרתי אתמול את כולן :), לא תמיד חייבים להחזיקרם . רם אתה לא פראייר עושה הפוך ממה שממליץ פשיטת רגל ושמעון אוסף בקבוקיםיציבות זה טוב . ראלי ראלי  רע לי רע לי  אופציות עליות ירידות  לכו לעבוד לוקחים לכם תכסף  עבריינים חחחחחחחחחחחחחחח . גלובס לא יכולים בלי טבע הם שותפים מלאים וזה בדוק משחקים שורט על טבע ,
+כמה פעמים ממחזרים כתבות הכול שלילי ,
+זה היה בעבר כיום בטבע המציאות היא  חדשה .
+עד לאן הגיעו עיתון גלובס וזאת משנת 2013.
+בעקבות עתירה של העיתון "גלובס" לבית המשפט, נחשף בשנת 2013 כי "טבע" זוכה בישראל להטבות מס חסרות תקדים.
+בשנים 2006–2012 החברה זכתה בפטור מתשלום של כ-15 מיליארד שקל, 
+כשב-2012 זכתה החברה להטבת המס הגבוהה ביותר שניתנה בישראל מאז ומעולם. הטבות אלו מסתכמות בכ-40% מסך כל ההטבות שניתנות בישראל לפי חוק עידוד השקעות הון.
+הצג עוד . אל תהיו תמימים ותחשבו שהסערה חלפה, אחרי ימים של עליות יבואו ירידות חדות,  ממליץ להזהר . להתאבד. כל חסכונותיי הלכו ברציו .דיי לא יכול יותרנשאר רק . להתאבד? קצת נסחפת.
+כלכלית כמו כולם אתה תתמודד, אבל מה שיישאר גם אחרי זה הטימטום שלך, הוא אינסופי כנראה.רם . הגזמת עם התגובה אליו? אתה רואה שהבנאדם קשה לו ושבור לא צריך לקרוא לו מטומטם . מזור מזנקת אחרי הדו"ח הרווחי ותמשיך לזנק שיפתח הוול סטריט . האינפלציה יצאה משליטה בארהב זינקה פי 2 מהצפי
+ תבינו זה המתון הכי חשוב שבני העשורים האחרונים.השוק יקרוס היום חזקחזי . לך לישון שוק המעוף הרס לך את החיים . נאסדק נופל 1.2%מעליה ליריד חדה . אתה בדיכאון לקחו לך את הכסף באופציות לך לגמילה . יכול להיות שהפלת הממשלה מצויינת למשק ,
+תביא ממשלת שמאל שתביא שלום והכל יפרח וישגשג,
+אם כן: היום עליות חדות</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>aizeq_nyuton</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>עליות קלות בפתיחה : לא היה כלום , ולא יהיה כלום...</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>פישקה</t>
+  </si>
+  <si>
+    <t>אתה אפס...
+הקולים יעלו היום לשמים
+שמעון קנה חבילות שם
+בקל המסומן</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>ליויתן מתקדם !!</t>
+  </si>
+  <si>
+    <t>לא יעזור לכל המנוולים שמורידים את רציו וגורמים נזק אדיר למשקיעים.  ליויתן מתקדם !!! 
+נובל ותשובה והיהודים לא פריירים</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>תימחק ....רציו הלואי</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>קולים נמכרו</t>
+  </si>
+  <si>
+    <t>התחלת איסוף פוט  1490/1480  בהצלחה לכולם כולל לשמעון מהבקבוקים</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>שמעון מחוק</t>
+  </si>
+  <si>
+    <t>שמעון בקבוקים גמר את 5000 שח בפוטים כעת הוא בים אוסף בקבוקים חוף פרישמן</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>פישקה מספונצר</t>
+  </si>
+  <si>
+    <t>שמעון אמסלם תותח של סוחר מעוף,,,
+הצאט שלו עם מאות אנשים
+מספיק עם הקינאת חינם</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>שמעון בן דוד</t>
+  </si>
+  <si>
+    <t>חחח לא שמעון אמסלם בהצלחה שחור אדום ברולטה עדיף על המעוף  בכל מקרה לכו לגמילה אגפי הרווחה בעיריות</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ביבי מככה בכל האתרים בעולם הפעם לא נראה טוב. האם הזרים יברחו היום?
+Israeli Police Have Called for Corruption Charges Against Prime Minister Benjamin Netanyahu</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>הפוטים ימחקו לך</t>
+  </si>
+  <si>
+    <t>מעניין ליכודניקים מוכנים שנתניהו יפול רק השופטים יעלו להם כי רק ליכודניקים טיפשים קונים פוטים</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>שוש</t>
+  </si>
+  <si>
+    <t>מה הקשר לפוטים? המצב בעולם מסוכן, והבורסות לפני קריסה, הולכת להיות עליית ריבית אגריסיבית, כבר מדברים על לפחות 4 העלאות ריבית. אצלנו עוד יותר גרוע, איך ראש ממשלה יכול לכהן תחת חקירה פלילית</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>תבחרי נסראללה</t>
+  </si>
+  <si>
+    <t>רק פיפי וחרה</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>רציו ?????</t>
+  </si>
+  <si>
+    <t>דייייי עד מתי תרד ???????????????????????????????????????</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>מבין</t>
+  </si>
+  <si>
+    <t>הזרים יברחו מהבורסה בישראל החל מהיום. מצב פוליטי בעייתי. ראש ממשלה בחקירה פלילית. יתכן שנחך לבחירות בקרוב</t>
+  </si>
+  <si>
+    <t>27.1</t>
+  </si>
+  <si>
+    <t>צודק</t>
+  </si>
+  <si>
+    <t>הפראיירים שלא מבינים נכנסים בימים כאלה לשוק ההון....
+מישהו יעשה עליהם סיבוב</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>איזה מסכנים אתם</t>
+  </si>
+  <si>
+    <t>רחמים שוחטים לכם תפוטים לכו לעבוד דווקא הקדמת בחירות טוב לבורסה חחח חכו שנה חחח מה לעשות יש לכם רק שבוע לפקיעה חחח לכו לאסוף בקבוקים ולכו לבית של פושט רגל שיחזיר לכם את ההפסדים הוא הבטיח מפולת</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>הוא הבטיח חחח</t>
+  </si>
+  <si>
+    <t>אבל יש לו 40 שנה בבורסה חחחחחחחחחחחחחח</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>קנאי
+שמעון אמסלם עושה בית ספר למעוף</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>רם</t>
+  </si>
+  <si>
+    <t>קניתי את הפוטים שמכרתי אתמול ב-1000 ש"ח הנחה ליחידה :)
+780/1780</t>
+  </si>
+  <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>איפה יש זרים</t>
+  </si>
+  <si>
+    <t>מי משקיע כאן זו בורסה של נוכלים 300 חברות עזבו אתה מדבר על זרים תראה את המחזורים מחזורים של מכולת .</t>
+  </si>
+  <si>
+    <t>עליות בדיחה</t>
+  </si>
+  <si>
+    <t>גלובס הכותרות שלכם בדיחה אחת גדולה עליות ? איזה עליות שנתיים הבורסה ירדה מ-1700 נקודות ראו בחו"ל כמה הדדים עלו , 
+סגרו את המכולת מחזורים של מכולת , בורסה של נוכלים , בריאותו יום טוב</t>
+  </si>
+  <si>
+    <t>התכוונתי המדדים</t>
+  </si>
+  <si>
+    <t>התכוונתי המדדים עלו בחו"ל וכאן כלום , קזינו ? של נוכלים .</t>
+  </si>
+  <si>
+    <t>ליויתן?????</t>
+  </si>
+  <si>
+    <t>רציו מה יהיה??</t>
+  </si>
+  <si>
+    <t>גפי</t>
+  </si>
+  <si>
+    <t>כשיש כתבת כמו סוניה שממחזרת כתבות מה הפלא שכולם נסים על נפשם אל תיתנו לפחד להוביל אותכם</t>
+  </si>
+  <si>
+    <t>נראה שגל הצניחות השוורי מתחדש
+ אחרי כל ירידה חדה...העליה מינורית וקטנה יותר
+בסופו של דבר הכל מתדרדר שיטתית -ויקח שנים עד שיחזור</t>
+  </si>
+  <si>
+    <t>אתה מתוסכל</t>
+  </si>
+  <si>
+    <t>23h</t>
+  </si>
+  <si>
+    <t>אתה אפס ולא מבין לך לפקם</t>
+  </si>
+  <si>
+    <t>הזהרתי</t>
+  </si>
+  <si>
+    <t>לברוח מהר מדד מחירים לצרכן בארהב הרגע זינק ב 0.5% הרבה מעל הציפיות.מפויה קריסה של 3% בבןרסה</t>
+  </si>
+  <si>
+    <t>לך לישון שוב</t>
+  </si>
+  <si>
+    <t>ותתחבא אלה שהפסידו בגללך יגיעו אליך</t>
+  </si>
+  <si>
+    <t>וול סטרייט</t>
+  </si>
+  <si>
+    <t>כולם חושבים שהכל נרגע ושב לקדמותו,
+סוף שבוע טומן סכנה גדולה
+תתכוננו...
+להתראות בראשון</t>
+  </si>
+  <si>
+    <t>החודש פוטים מחו</t>
+  </si>
+  <si>
+    <t>חלומות באספמיה ירידות יכולות להיות כל יום מה הקשר השוק יציבות לצערך הפוטים לפברואר מחוקים</t>
+  </si>
+  <si>
+    <t>דני</t>
+  </si>
+  <si>
+    <t>למה מניות הגז יורדות כל יום עכשיו רציו יורדת חזק מה קורה להם</t>
+  </si>
+  <si>
+    <t>תקשורת מזוהמת</t>
+  </si>
+  <si>
+    <t>ראה איזו שתיקה סביב מניות הגז. חסכונות של שנים הלכו לי. העיקר מצאנו גז במיליארדים</t>
+  </si>
+  <si>
+    <t>מוכר הכל</t>
+  </si>
+  <si>
+    <t>הסעיפים: שוחד, מרמה והפרת אמונים. אפילו אם יוכח סעיף 1 זה חמור מאד.איך יגול להנהיג מדינה במצב כזה?</t>
+  </si>
+  <si>
+    <t>תמכור ולך לעבוד</t>
+  </si>
+  <si>
+    <t>מה יש למכור נשאר לך בפוטים 500 שח בוא לים איזה כייף כאן אגב יש כאן הרבה בקבוקים גם חברים עבריינים בצהריים אני בארומה בסנטר</t>
+  </si>
+  <si>
+    <t>פחד להחזיק מניות גז 
+מוכרים ומוכרים בלי סוף
+רצוי לא נישאר כלום ממנה</t>
+  </si>
+  <si>
+    <t>רק קולים
+אני ושמעון מהצאט קנינו בבוקר קולים
+והולכים ל1485</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>רולטה קזינו חחח</t>
+  </si>
+  <si>
+    <t>אוי ואבווי בדיוק שעברתם לירושלים הם נופלים כתבתי לכם ב 7 בבוקר ישחקו לכם גם את הפוטים וגם את הקולים</t>
+  </si>
+  <si>
+    <t>זאב</t>
+  </si>
+  <si>
+    <t>אף מילה על הדוחו"ת המעולים של כי"ל? למנות את אשר גרינבאום למנכ"ל קבוע, עושה עבודה נהדרת.
+ו-2018 תהיה עוד טובה בהרבה אחרי שיפחיתו את החוב ב-1.2 מיליארד דולר מהמכירות של עסקי השמנים, מעכבי העירה וההתפלה.
+דיבידנד של 1.3% רבעוני, לא רע בכלל :)
+תודה להנהלה. תמשיכו להצליח.</t>
+  </si>
+  <si>
+    <t>למי שחשב</t>
+  </si>
+  <si>
+    <t>שרה"מ נופל אז הבורסה.עולה.הכל הפןך</t>
+  </si>
+  <si>
+    <t>אין הגיון</t>
+  </si>
+  <si>
+    <t>איך שופרסל ומזור העלובות בשיא ודלק קידוחים בתחתית</t>
+  </si>
+  <si>
+    <t>שוחד</t>
+  </si>
+  <si>
+    <t>מעניין כמה העניין הפוליטי יעיב על המסחר,
+רק שלא יהיו ירידות חדות בגלל מתח פוליטי</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>חחחחחחחחחחחח</t>
+  </si>
+  <si>
+    <t>מחפש שביב של תקוה לפחות חצי שנה עד שהיועמש  יחליט חחחחחחחחחחחחחחחחחח</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>הפוטים לשחיטה</t>
+  </si>
+  <si>
+    <t>די מספיק לכם תעזבו את הפורום</t>
+  </si>
+  <si>
+    <t>כמו שכתבתי אתמול כשהיה מינוס חצי אחוז לקנות קולים, כעת לממש
+נקנים ברגע זה פוטים 1470 בשער 780</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>בחור חכם</t>
+  </si>
+  <si>
+    <t>כל הכבוד בחור חכם</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>לא קנה קולים</t>
+  </si>
+  <si>
+    <t>כן מכר פוטים</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>אתה תפסיד</t>
+  </si>
+  <si>
+    <t>על הפוטים שקנית היום</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>אולי, 
+חושב שהעליות היום תמחקנה כמעט כליל.</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>והנה אדום..</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>חיים קשים לשחקנים</t>
+  </si>
+  <si>
+    <t>כבר ב 7 בבוקר אמרתי ישחקו אותכם כותבים באלפים מוחקים באגורות</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>הנה ירוק חחח</t>
+  </si>
+  <si>
+    <t>איזה מסכנים אתם אולקוס מחלות לב סוכר פסיכיאטרי</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>22h</t>
+  </si>
+  <si>
+    <t>אתה צוחק? חצי מכרתי ואת היתרה השארתי כי לא ליד מחשב רוב היום.....וגם היתרה 120 ש"ח לאופציה ברווח על הנייר כעת.
+הלוואי כל יום ככה.
+מחר בסיום המסחר צפויים לפקוע האופציות החודשיות על המדדים המובילים בארה"ב, כאשר האופציות המעניינות ביותר הן על מדד ה-VIX ("מדד הפחד") שזינק בשבועיים האחרונים, וייתכן שהדבר יוסיף לתנודתיות בשווקים. נראה כי השחקנים מצליחים להוריד משמעותית את מדד הפחד, ולהקטין הפסדים. 
+זו הסיבה היחידה לעליות היום!!!: 
+משחקי פקיעה, הנאסד"ק עבר לעלייה של 0.7%, מדד הפחד נופל</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>ועדיין ייתכן שיסיים אדום!!</t>
+  </si>
+  <si>
+    <t>חולשה במניות הגז 
+דוחות עם חולשה רבתי</t>
+  </si>
+  <si>
+    <t>המאוכזבים</t>
+  </si>
+  <si>
+    <t>שחיתות זה דבר משותף לביבי והבורסה</t>
+  </si>
+  <si>
+    <t>אם לא היה ביבי</t>
+  </si>
+  <si>
+    <t>אם לא היה ביבי לא היה בורסה בארץ השחיתות היא בבנקים עושי שוק ברוקרים שורטיסטים ובתי השקעות הבורסה כאן זה קזינו לא שייך בכלל לביבי .
+עם ביבי שהיה שר האוצר וגם ראש הממשלה במשבר שהיה כאן בארץ בזמן אריק שרון ז"ל המשק הישראלי היה מתרסק .
+כן יש שחיתות .
+אצל ביבי המדיה והעיתונות והמשטרה שהם גם מושחתים מרווחים הון תועפות מבררים כול הזמן חיים בדירות פאר מכוניות פאר וכול היום מלכלכים .
+לי חשוב הביטחון ראה מה קרה רק ביום שבת איזה שיקול דעת היה לביבי.
+עצתי לו כבר מזמן עזוב הכול על כול הרצאה הוא מקבל 100 אלף דולר,
+מחלקה ראשונה  לו לרעייתו קווארים סיגרים וגילדות בשפע בלי שום הכפשות והעלבות כבר עשרות שנים .
+נראה שהאדם אוהב את מדינתו יותר מכסף זה נדיר בעולמנו .
+הצג עוד</t>
+  </si>
+  <si>
+    <t>ממש פורענות</t>
+  </si>
+  <si>
+    <t>בשעה החופפת כאן בארה"ב שעה של פורענות .
+בארה"  המסחר 6 שעות וחצי וכאן 7שעות 45 15 דקות לפני המסחר ו-15 דקות סגירה אחרי המסחר 7 שעות נטו שעה יותר מארה"ב.
+תבטלו את השעה ואת החפיפה  זה הזמן של השורטיסטים על המדדים על מניות חו"ל על הסלים ועל הדולר . 
+אינכם רואים מה קורה ? וויסות ממש לא חוקי .</t>
+  </si>
+  <si>
+    <t>עושים על טבע</t>
+  </si>
+  <si>
+    <t>עושים על טבע כול יום סיבובים של כ-4% , עושי שוק נוכלים עם דיפלומה .</t>
+  </si>
+  <si>
+    <t>shlomo3020</t>
+  </si>
+  <si>
+    <t>כבר מזמן החוזים העתידיים בארה"ב שליליים ,למה אתם לא מעדכנים??????????????????</t>
+  </si>
+  <si>
+    <t>יציבות זה טוב</t>
+  </si>
+  <si>
+    <t>אנחנו יום יום שוחקים לכם אופציות מוכרים לכם באלפים ומוחקים לכם</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>לכן מכרתי אתמול את כולן :), לא תמיד חייבים להחזיק</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>רם שאפו</t>
+  </si>
+  <si>
+    <t>רם אתה לא פראייר עושה הפוך ממה שממליץ פשיטת רגל ושמעון אוסף בקבוקים</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>מפולת מפולת</t>
+  </si>
+  <si>
+    <t>ראלי ראלי  רע לי רע לי  אופציות עליות ירידות  לכו לעבוד לוקחים לכם תכסף  עבריינים חחחחחחחחחחחחחחח</t>
+  </si>
+  <si>
+    <t>טבע</t>
+  </si>
+  <si>
+    <t>גלובס לא יכולים בלי טבע הם שותפים מלאים וזה בדוק משחקים שורט על טבע ,
+כמה פעמים ממחזרים כתבות הכול שלילי ,
+זה היה בעבר כיום בטבע המציאות היא  חדשה .
+עד לאן הגיעו עיתון גלובס וזאת משנת 2013.
+בעקבות עתירה של העיתון "גלובס" לבית המשפט, נחשף בשנת 2013 כי "טבע" זוכה בישראל להטבות מס חסרות תקדים.
+בשנים 2006–2012 החברה זכתה בפטור מתשלום של כ-15 מיליארד שקל, 
+כשב-2012 זכתה החברה להטבת המס הגבוהה ביותר שניתנה בישראל מאז ומעולם. הטבות אלו מסתכמות בכ-40% מסך כל ההטבות שניתנות בישראל לפי חוק עידוד השקעות הון.
+הצג עוד</t>
+  </si>
+  <si>
+    <t>ירידות חדות</t>
+  </si>
+  <si>
+    <t>אל תהיו תמימים ותחשבו שהסערה חלפה, אחרי ימים של עליות יבואו ירידות חדות,  ממליץ להזהר</t>
+  </si>
+  <si>
+    <t>נשאר רק</t>
+  </si>
+  <si>
+    <t>להתאבד. כל חסכונותיי הלכו ברציו .דיי לא יכול יותר</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>להתאבד? קצת נסחפת.
+כלכלית כמו כולם אתה תתמודד, אבל מה שיישאר גם אחרי זה הטימטום שלך, הוא אינסופי כנראה.</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
+    <t>הגזמת עם התגובה אליו? אתה רואה שהבנאדם קשה לו ושבור לא צריך לקרוא לו מטומטם</t>
+  </si>
+  <si>
+    <t>מזור מזנקת אחרי הדו"ח הרווחי ותמשיך לזנק שיפתח הוול סטריט</t>
+  </si>
+  <si>
+    <t>חזי</t>
+  </si>
+  <si>
+    <t>האינפלציה יצאה משליטה בארהב זינקה פי 2 מהצפי
+ תבינו זה המתון הכי חשוב שבני העשורים האחרונים.השוק יקרוס היום חזק</t>
+  </si>
+  <si>
+    <t>חזי קרחת</t>
+  </si>
+  <si>
+    <t>לך לישון שוק המעוף הרס לך את החיים</t>
+  </si>
+  <si>
+    <t>מעליה ליריד חדה</t>
+  </si>
+  <si>
+    <t>נאסדק נופל 1.2%</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>תחזור לישון חחח</t>
+  </si>
+  <si>
+    <t>אתה בדיכאון לקחו לך את הכסף באופציות לך לגמילה</t>
+  </si>
+  <si>
+    <t>יכול להיות שהפלת הממשלה מצויינת למשק ,
+תביא ממשלת שמאל שתביא שלום והכל יפרח וישגשג,
+אם כן: היום עליות חדות</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223994#FromSearchPage</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>העולם פחות התרגש מחקירות נתניהו ויותר התעניין בעתידו הפוליטי</t>
+  </si>
+  <si>
+    <t>ב"ניו יורק טיימס" נתניהו מופיע בשער, תוך המלצה לא להגיע למסקנות פזיזות לגבי עתידו</t>
+  </si>
+  <si>
+    <t>אנחנו התעוררנו הבוקר לידיעות על המלצות משטרת ישראל להגיש כתב אישום נגד ראש הממשלה בנימין נתניהו בגין שוחד. עם זאת, העולם הגדול הראה התעניינות רבה בנושא, אבל הקדיש את העמודים הראשונים של העיתונות המודפס לצרות המקומית בכל מדינה. גם אתרי האינטרנט של אמצעי התקשורת הראשיים דיווחו על המתרחש, אך מתחת לידיעות אחרות, תוך שהם מנסים להסביר לגולשים מה זה תיק 1000 ותיק 2000.ב"ניו יורק טיימס", למשל, הודעת משטרת ישראל מופיעה בעמוד הראשון של מהדורת הבוקר המודפסת, כיאה לעיתון שמתעניין מאוד בנעשה בישראל. באתר החדשות של העיתון הידיעה על נתניהו לא מובלטת, אך מדובר בדיווח מקיף המזכיר את כל הסוגיות, תוך דיון על עתידו הפוליטי של ראש הממשלה. "לא בכדי מכנים את נתניהו הקוסם", נכתב בידיעה, כדי להזהיר את הקוראים מפני מסקנות פזיזות. הוא גם מציין שזה לא סוף פסוק, שכן תיק 3000, תיק הצוללות, עומד בפתח.גם ה"וושינגטון פוסט" לא ממש כולל את סוגיית נתניהו בין החדשות הבוערות של היום, והדיווח נכלל בחלק של "חדשות העולם". הדיווח עצמו כולל, מלבד סקירת החשדות נגד ראש הממשלה וניתוח מצבו הפוליטי, גם תזכורת שנתניהו, כמו הנשיא דונלד טראמפ, הגיב לחקירה נגדו בהתרסה נגד המשטרה ומניעיה. ה"וושינגטון פוסט" נחשב על ידי טראמפ כסמל של ה"אליטות הליברליות" אותן הוא מוקיע.בצד השני של המתרס הפוליטי, אתר ברייטבארט, בעל הקשרים החזקים עם ממשל טראמפ והימין הקיצוני האמריקאי, מצדד בכל טענותיו של נתניהו. כתבת העיתון הישראלית קרוליין גליק, שמזוהה עם הימין, יוצרת באתר הקבלה בין נשיא ארה"ב לבין ראש ממשלת ישראל. הכותרת של הפרשנות שבאתר מזכירה ש"המדינה הסמויה" מפברקת האשמות שווא נגד נתניהו. המושג "המדינה הסמויה" הוא ביטוי בשימוש הימין הקיצוני בארה"ב המתאר את הפקידות כחלק ממזימה ליברלית לבלום את "הפטריוטים אמריקאים" האמיתיים, ובראשם הנשיא טראמפ.בדומה ל"וושינגטון פוסט", אתר "לה מונד" הצרפתי לא מבליט את הידיעה על המלצות להעמיד לדין את נתניהו. הדיווח עצמו נכלל בחלק הבינלאומי, וכולל שני פריטים. הראשון, סקירת התיקים נגד בנימין נתניהו ובעיקר ניתוח קצר של סיכוי שרידותו ותגובת סיעות הקואליציה להאשמות המשטרה. בפריט השני, העיתו מדווח על הנסיון של ראש הממשלה להציג תמונה של יציבות, למרות הטלטלה שיצרה הודעת המשטרה.קיראו עוד ב"גלובס"בבריטניה, ה"טיימס" של לונדון מדווח על פרשת נתניהו באתרו, בחלק התחתון של החלק המוקדש לידיעות מהעולם, ומתחת לידיעה על הריגת שכירי חרב רוסיים בסוריה. האתר מסקר את החשדות נגד נתניהו ואת מהות קשריו עם ארנון מילצ'ן ונוני מוזס. גם העיתון "גארדיאן"" נוהג כמו אתרים אחרים ואינו מכליל את הידיעה על נתניהו בחלק הקדמי של האתר. הידיעה עצמה נמצאת בחלק של ידיעות מהמזרח התיכון, בתוך חדשות העולם. הדיווח קצר יותר, אך הוא מלווה במעין מורה נבוכים לתיק 1000 ו-2000 ומביא בקצרה את תגובתו של ראש הממשלה לשעבר אהוד ברק. הוא גם מזכיר סקר שפרסם בקיץ האחרון ערוץ 10 אשר מצא ש-60% מהציבור מצדדים בהתפטרות ראש הממשלה אם יוגש נגדו כתב אישום.באתר "די וולט" הגרמני לא ממש מתרשמים מהחשיבות של פרשת נתניהו. קוראי האתר צריכים להקדיש לא מעט מאמצים עד שהם מגיעים לתחתית המדור של חדשות פוליטיות מחו"ל עד שהם מגיעים לדיווח יחסית קצר על פרשת נתניהו. הדיווח נפתח בפסקה המציינת כי "שוב שוב מופיעות טענות של שחיתות נגד ראש הממשלה נתניהו, אך הפעם זה כנראה רציני". למרות הדיווח על רצינות המקרה, האתר כולל הסבר מצוצמם על מהות האשמות נגד ראש הממשלה, ומצטט לא את הודעת המשטרה, אלא את הדיווחים בתקשורת הישראלית. "די וולט" מזכיר את ההתקפה של ראש הממשלה על משטרה, אך גם פה ההתייחסות היא מצומצמת.ה"קוריירה דה לה סרה" באיטליה כנראה יותר מורגל בדיווח על שחיתות ממשלתית. גם פה האתר מציג את הידיעה בין חדשות החוץ, אך העמיד אותה בראש המדור. האתר מדווח על הודעת המשטרה, תוך שהוא סוקר את מהות תיקים 1000, 2000 ו-3000, שבו נתניהו אינו חשוד לעת עתה. הוא גם מצטט את ההתקפה של ראש הממשלה על המשטרה ואת אמירתו לפיה ממשלתו יציבה. האתר גם מזכיר כי יחלוף זמן עד אשר היועץ המשפטי לממשלה, אביחי מנדלבליט, יחליט האם לאמץ את המלצות משטרת ישראל.</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223992#FromSearchPage</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>לא צריך להשלות את עצמנו. עבור רבים מאוד בציבור, העבירות שבהן חשוד בנימין נתניהו על פי המשטרה, הן לא משהו שבגללו צריך להחליף ראש ממשלה. המהדרין, כמו השרה מירי רגב, אומרים שאפילו במקרה של כתב אישום נתניהו לא צריך להתפטר. אני בטוח שהיא ושכמותה חושבים שאפילו אם ימות הוא לא צריך להתפטר. גם מהקבר, וברור שגם מהכלא, הוא יוכל לנהל את המדינה טוב יותר מכל אדם עלי אדמות.היה כלום, האם גם יהיה?אחרי המלצות המשטרה נתניהו כבר לא יכול להסתתר מאחורי "לא היה כלום" בלה-בלה-בלה. היה, ולא כלום, אלא משהו כבד, מכוער. אבל הוא כן יכול להמשיך להשתמש בסלוגן ש"לא יהיה כלום". על סמך מה? איך הוא חושב שההמלצות והמעשים שלו ייעלמו מהעולם? היועץ המשפטי לממשלה אביחי מנדלבליט. אנחנו יודעים שהיו יועצים לפניו שלא התחשבו בהמלצות המשטרה. לא כל שכן מנדלבליט, הנגוע מאוד בניגוד עניניים עם נתניהו, שאותו שירת במשך שנים כמזכיר הממשלה.לעשות את הדבר ההגוןלא מאוחר למנדלבליט לעשות את הדבר ההגון ולהעביר את ההכרעה בעניין נתניהו לאדם אחר בפרקליטות. ולו רק לשם מראית העין, שהיא חשובה ביותר בפרשיות אלה. אני לא מניח שמנדלבליט יעשה זאת. אפשרות אחרת היא להחליט בהקדם האפשרי. שני התיקים פשוטים מאוד, את עיקר העבודה כבר עשתה המשטרה, כל מה שנותר למנדלבליט זה להחליט. אפשר לעשות זאת בכמה ימים.קיראו עוד ב"גלובס"לפחות נבצרות?הבעיה היא שאפשר לעשות זאת גם בכמה שבועות, חודשים ואפילו שנים. כל דחייה תשרת את נתניהו. כל דחייה תוכיח בשביל מי עובד מנדלבליט. היום אנחנו לא יודעים כמה מפעולותיו לא תאמו שיקולים של יועץ משפטי נייטרלי. אם הוא כן ישר ומקצועי - החובה להוכיח זאת היא עליו. זו חובתו לציבור, קודם כל, אבל זו גם חובתו לחוק שהוא מופקד על אכיפתו. הנה כמה הנחיות שיוכלו לעזור למנדלבליט: "ראש ממשלה ששקוע עד הצוואר בחקירות, אין לו מנדט מוסרי וציבורי לקבוע דברים כל כך גורליים למדינת ישראל, כי קיים חשש אמיתי שהוא יכריע הערכות על בסיס ההישרדות הפוליטית שלו ולא על בסיס האינטרס הלאומי". אלה דברי בנימין נתניהו בעת כהונתו של אהוד אולמרט כראש הממשלה. דברים כדורבנות. למה שלא תנהג על פי הנחיות אלה של נתניהו, מנדלבליט? לפחות נבצרות?</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223990#FromSearchPage</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>לעזור לחברים של נתניהו: המקרה של פילבר</t>
+  </si>
+  <si>
+    <t>הרבה מאוד ביקורת סופג משרד התקשורת בכל שנות קיומו, וב-99% מהמקרים הביקורת מוצדקת. אבל יש חריגים והם מופיעים כאשר הדרג המקצועי מתעקש לשמור על עצמאותו ולא מוכן להיכנע לתכתיבים כשהוא יודע שמקורם פוליטי. זה מה שקרה לפילבר במשרד התקשורת. דרג מקצועי (בחלקו) שלא הסכים ליישר קו ולקבל מהלכים שנראו מוטים, בלשון המעטה. את הדרג המקצועי במשרדי הממשלה מרבים לתקוף על התפוקה הנמוכה ועל האיטיות ביישום החלטות מדיניות, אבל כאמור, לפעמים יש גם נקודות אור, כשהדרג הזה עושה שריר ומראה שהוא לא מוכן לכל גחמה ואף מוכן לשלם על כך מחיר אישי כבד.רק שרי תקשורת מעטים מינו מנכ"לים על בסיס מקצועי. לימור לבנת מינתה את דני רוזן, שולמית אלוני מינתה את שלמה וקס, גלעד ארדן מינה את אבי ברגר, והיו עוד כמה. רוצה לומר: היכן שהיו מינויים מקצועיים, לרוב גם היו תוצאות טובות.במקרה של פילבר, היה די ברור שהוא יוזעק לטובת אותה פגישה לילית עם נתניהו ומילצ'ן. נתניהו היה גם שר התקשורת ופילבר איש אמונו - טבעי שהוא יקרא לו כשהוא צריך לפתור בעיות לחברים. השאלה היא האם פילבר שיתף פעולה בניסיון להקל על מילצ'ן למזג את ערוץ 10 עם רשת, או שהפגין את מה שמצופה מדרג מקצועי עצמאי. כאן כל אחד יכול להבין לבד לאן נשבה הרוח. רבות נכתב על הנכונות של פילבר לשכב על הגדר בשביל נתניהו. כמו רבים לפניו הוא ננטש על ידו לעת צרה.</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223988#FromSearchPage</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>ביצה שלא נולדה? הפגישות של נתניהו עם מילצ'ן וטאטא על מפעל רכב בבקעת הירדן</t>
+  </si>
+  <si>
+    <t>מחומר החקירה בתיק 1000 עולה כי נתניהו הקים בשנת 2009 צוות בראשות אייל גבאי, מנכ"ל משרדו דאז, על מנת לקדם את המיזם של ארנון מילצ'ן ושל שותפו המיליארדר ההודי ראטן טאטא - אך גם כי הרעיון, שגורמים מקצועיים רבים התנגדו לו, נותר בשלב הבוסרי</t>
+  </si>
+  <si>
+    <t>המיליארדר ראטן טאטא, ששימש יו"ר קבוצת טאטא ההודית בין השנים 1991-2012, הוא חבר קרוב של המיליארדר הישראלי ארנון מילצ'ן. מחומרי החקירה עולה כי טאטא נפגש מספר פעמים עם נתניהו באמצעותו של מילצ'ן. במסגרת משולש היחסים הזה עלה בסביבות 2009 רעיון להקים מפעל לייצור מכוניות בבקעת הירדן שיהפוך לאזור סחר חופשי משותף לישראל, ירדן והרשות הפלשתינאית.על פי חומר החקירה בפרשות נתניהו, היה זה מילצ'ן שהציע את הרעיון ואף היה אמור לגרוף רווח נאה מהמיזם. קבוצת טאטא, המעסיקה ברחבי העולם כ-700 אלף עובדים, מייצרת מכוניות משנת 1998 ומאז 2008 מייצרת את Nano, הנחשבת למכונית הזולה בעולם. הרעיון היה להקים מפעל לייצור מכוניות שייצא את תוצרתו למדינות ערב. המפעל היה אמור להעסיק אלפי עובדים מקומיים וליהנות מפטור מלא ממסים.בידי חוקרי המשטרה נאסף מידע שלפיו מילצ'ן שכנע את נתניהו להירתם למיזם ייצור כלי הרכב באזור סחר חופשי. על פי המידע, הנתמך על ידי עדים מרכזיים, המיזם נועד להשיא רווחים משמעותיים מאוד למילצ'ן ולטאטא. נתניהו ניסה לרתום גורמים במשרד ראש הממשלה ובמשרד הביטחון לקידום הפרויקט והפגיש ביניהם לבין טאטא ומילצ'ן. בין היתר טוענים במשטרה כי נתניהו הקים לצורך כך צוות בראשותו של מי שהיה אז מנכ"ל משרדו, אייל גבאי (שהעיד בפרשה).גורמי המקצוע שנחשפו למיזם הביעו התנגדות נחרצת שנומקה בשלל נימוקים: במישור הביטחוני, הקמת המפעל באזור ספר רגיש חייבה עלויות אבטחה בלתי סבירות למדינה; מבחינה כלכלית נטען כי מדובר בפרויקט שאין לו היתכנות כלכלית ושכל ההצדקה לקיומו הן הטבות המס הנדיבות שהיזמים מקווים לקבל; נטען כי התרומה למשק של המיזם צפויה להיות מינימלית היות שבמפעל יועסקו בעיקר פועלים פלשתינאים וירדנים והמדינה לא תזכה לנתח כלשהו בהכנסות; ומבחינה משפטית נטען כי הקצאת הקרקע והזכויות הנדיבות למיזם חייבת להיעשות בדרך של מכרז. בסופו של דבר היוזמה לא יצאה אל הפועל, לא רק בגלל התנגדות הפקידים אלא גם כתוצאה מאירועי האביבי הערבי שחידדו את חוסר היציבות והסיכונים הביטחוניים באזור.יצוין כי הפרשה נחשפה רק לאחרונה במסגרת התקדמות החקירה בתיק 1000. אולם מחומרי החקירה עולים סימני שאלה לגבי מידת ההתקדמות של הפרויקט. בסוף 2009, בתקופה שבה המיזם עמד על הפרק, לא דווח עליו דבר - מה שעשוי להעיד כי הרעיון היה מאוד בוסרי. כך למשל לא פורסם דבר מינוי הצוות בראשותו של גבאי ולא ברור האם היה מדובר בצוות בין משרדי שכלל גם נציגים של האוצר, משרד המשפטים ורשות המסים, כמקובל במקרים דומים. גורמים שמילאו באותה עת תפקידים בכירים באוצר וברשות המסים אמרו היום ל"גלובס" כי אינם זוכרים דבר על המיזם של טאטא.קיראו עוד ב"גלובס"יצוין כי רעיון הקמת אזורי יצוא לסחר חופשי (איל"ח) עלה כבר בממשלות קודמות ונפסל בשלבים מוקדמים. ב-1989, למשל, יזם בעלי מגדלי התאומים בניו יורק, לארי סילברסטיין, רעיון להקמת אזור כזה בנגב. סילברסטיין הצליח לרתום למיזם את שמעון פרס, אז שר החוץ, שאף קידם את חוק איל"ח שנחקק ב-1994. הרעיון להקמת אזור סחר חופשי ראשון באזור ליקית, קודם גם על ידי ממשלת רבין אך התנגדות הדרג המקצועי באוצר הביאה בסופו של דבר לגניזת הרעיון.כשהוליווד ובוליווד נפגשומילצ'ן וטאטא הפכו שותפים עסקיים ב-2008 כשהקימו חברת אבטחה בבעלות משותפת בשם BSI, בעקבות הפיגועים במומבאי, שבמרכזם עמדה ההתקפה על מלון טאג' מאהל המפורסם שבבעלות קבוצת טאטא. החברה המעסיקה ישראלים בוגרי יחידות מובחרות, השב"כ והמוסד מאבטחת את המלון של טאטא בהודו וגם את מועדון הכדורגל של ברצלונה, שנשיאו הוא חבר אישי של מילצ'ן. פעילות החברה שנחשפה לראשונה בכתבה ב"כלכליסט" מ-2011 כללה גם אבטחת מתקנים של אינטל ואייס וכן את חברת ההובלה ברינקס.קשרי הידידות בין השניים החלו שנים רבות קודם לכן, על רקע הפעילות של טאטא בתעשיית הסרטים ההודית (בוליווד). מילצ'ן, שבעברו הרחוק עסק בסחר בנשק, עבר להפיק סרטים בהוליווד תוך הצהרה שלא יחזור לעולם לתעשיית הנשק - אך חזר בו ככל הנראה לבקשת ידידו ההודי. מקורב למילצ'ן הסביר אז לכתבת "כלכליסט" כי התנאי היחיד של המפיק הישראלי היה שהחברה החדשה לא תמכור שירותים לצבאות או למשרדי הגנה אלא רק לגופים אזרחיים ולא תמכור נשק אלא רק ידע ושירותים.מילצ'ן, שהונו האישי הוערך ב-4 מיליארד דולר, מוכר בעולם כמפיק סרטים כמו "אישה יפה" ו"מכונת הכסף". טאטא הוא בן למשפחה שייסדה את קבוצת העסקים הגדולה בהודו.</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223986#FromSearchPage</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>"הקואליציה יציבה. אין לי ולא לאף אחד אחר תוכניות ללכת לבחירות"</t>
+  </si>
+  <si>
+    <t>נתניהו התקבל היום באיפוק מנומס על ידי ראשי ערים ומועצות בכנס של השלטון המקומי דווקא בקרב האנשים שחשופים יותר מכל לטענות וחקירות בדבר שחיתויות, הצדיק רה"מ ערבוב בין הון לשלטון /</t>
+  </si>
+  <si>
+    <t>אני רוצה קודם כול להרגיע אתכם: הקואליציה יציבה, אין לאף אחד - לא לי ולא לאף אחד אחר - תוכניות ללכת לבחירות* - כך פתח היום ראש הממשלה, בנימין נתניהו, את נאומו בכנס השלטון המקומי יממה לאחר שנודע כי המשטרה ממליצה להעמידו לדין בגין שוחד בפרשות 1000 ו-2000.למרות שנתניהו התקבל בחום על ידי יו"ר השלטון המקומי, ראש עיריית מודיעין, חיים ביבס, בחירת המיקום לנאום הייתה תמוהה, בלשון המעטה. באולם ישבו מאות ראשי ערים, חברי מועצה וכאלה שרואים עצמם מועמדים במערכת הבחירות המקומית האמורה להיערך בסוף אוקטובר 2018.מי שמעורה בפוליטיקה הפנימית יודע שכל אחד מהם מקבל מדי יום פניות מחברים אישיים ונאלץ לפנות ליועץ המשפטי של העירייה כדי להדוף את חברי המחזור, חברי הילדות והחברים מן התיכון המבקשים קירבה לראש הרשות. תעיד על כך גם המלחמה של המשטרה והפרקליטות בשנים האחרונות נגד עבירות שחיתות ברשויות המקומיות, לצד מספר רב של כתבי אישום שהוגשו נגד ראשי ערים.דווקא בפניהם, בחר ראש הממשלה לתקוף את הדוח ואת הראיות שאספה נגדו המשטרה. מולם, ולא מול קהל מרכז הליכוד האוהב, המתמסר והמגונן עליו, הסביר נתניהו שוב מדוע הוא לא רואה בכך בעיה שעזר לחברו הקרוב, ארנון מילצ'ן, אך הדגיש שדווקא האינטרסים העסקיים של המיליארדר נפגעו - ולא ההפך. כאילו זה לגיטימי שנבחר ציבור יעסוק בעניינם של חבריו האישיים ובלבד שהם יצאו מכך מופסדים עסקית. הנוכחים הקשיבו לראש הממשלה היטב, אך מחיאות כפיים או קריאות עידוד לא היו שם. נתניהו התקבל בנימוס מאופק."אחרי שקראתי את דוח ההמלצות אני יכול להגיד שזה מסמך מוטה, קיצוני, מחורר כמו גבינה שוויצרית ולא מחזיק מים. הדוח מתעלם ומטשטש חברות קרובה מאוד, קרוב ל-20 שנה, בין מילצ*ן לביני ובין המשפחות שלנו. חברות שהיו בה אגב מתנות הדדיות, עוד בתקופה שהייתי אזרח פרטי והרבה לפני שנכנסתי לתפקיד", אמר נתניהו.קיראו עוד ב"גלובס"אחד הטיעונים המרכזיים שלו כאמור, הוא פועלו לכאורה נגד האינטרסים של מילצ*ן בעת שכיהן גם כשר התקשורת וחתר לסגור את ערוץ 10, או כאשר, לדבריו, "שבר את המונופול שלו במה שקרוי חברת 'מכשירי תנועה, יבוא כלי רכב וחלקי חילוף לרכב'" (הכוונה לכך שקידם חקיקה נגד הריכוזיות של יבואני הרכב בתחום חלקי החילוף - ט.ש). נתניהו הדגיש את ההיבטים שהזיקו לדבריו לעסקיו של מילצ*ן, תוך שהוא מתעלם מעסקאות אחרות שהוזכרו על ידי המשטרה כמו מיזוג קשת-רשת, או המיזם המסחרי שמילצ*ן היה מעוניין בקידומו כחלק משותפות שלו עם איש העסקים ההודי טאטא (ראו הרחבה בעמ' 16).במקום, נציין, נכחו גם ראש עיריית ירושלים, ניר ברקת, שר הפנים, אריה דרעי, ושר החינוך, נפתלי בנט. עם זאת, ראשי ערים בולטים כמו יונה יהב, רון חולדאי ורוביק דנילוביץ* - אנשי מפלגת העבודה או מפלגת כולנו, בעבר ובהווה - לא הגיעו לכבד את ראש הממשלה בנאומו."זה יוסיף לו נקודות בשטח""ראש הממשלה צריך להמשיך לעבוד ולתפקד עד להחלטת היועץ המשפטי לממשלה, ואני חושב שיש להרגיע את השטח. יש מקרים חמורים ממעשיו", אמר לנו היום ברקת.אתה מקבל את האמירה שמדובר ב"הפיכה שלטונית", כפי שאומרים אמסלם ולוין?"מאוד לא אהבתי את ההתבטאויות הללו כאילו המשטרה מנסה לעשות הפיכה. יש לנו רק משטרה אחת. צריך להרגיע".אחרים שאיתם שוחחנו אמרו שהמעשים של ראש הממשלה הם בגדר הפרות אתיות, אך אינם פליליים. ד"ר איתן לסרי, תומך ליכוד ותיק ("כל משפחתי, 4,000 איש, זה הליכוד") אמר ל"גלובס" שהוא מבין את הטיעונים של ראש הממשלה: *אין כאן קבלת כסף, אלא התנהגות אתית. דווקא העובדה שהוא ניסה לעזור למילצ*ן עם הויזה, תתקבל בברכה אצל הליכודניקים כי הוא הגיש סיוע לאדם שהיה סוכן מודיעין. לדעתי זה יוסיף לו נקודות בשטח".גדי ירקוני, ראש המועצה האזורית אשכול, אמר ל"גלובס" ש"לא תהיה ברירה, הוא יהיה חייב ללכת. דווקא אחרי 'צוק איתן' הוא וממשלתו עשו עבודה כבירה עבור האזור שלנו, אבל אסור שמנהיג יכהן יותר משתי קדנציות רצוף. אני אומר את זה לכל חברי ראשי הערים: שתי קדנציות והביתה. הנוכחות בשלטון משחיתה, ורואים את זה היטב במה שקרה עם נתניהו".יאיר לפידמיריב פוליטי מוביל לעד מרכזי שעשוי לחסל את הקריירה הפוליטית של נתניהוהחל מאתמול בלילה הפך בבת אחת ח"כ יאיר לפיד לא רק מאויב פוליטי מוביל של ראש הממשלה, אלא לעד מרכזי במשפט פלילי שעשוי להכריע את הראיות נגדו ולחסל את הקריירה הפוליטית של נתניהו. הסיטואציה הפוליטית עבור לפיד היא מורכבת. הוא מכיר באופן אישי, אינטימי, את כל הגיבורים הגדולים בפרשות. אצל מילצ*ן הוא היה מועסק, כך גם אצל נוני מוזס, מו"ל "ידיעות אחרונות", ויש מי שאומרים שנתניהו צפוי להשתמש בקשרים האישיים העמוקים הללו כדי לערער את אמינותו של לפיד."שמעתי את ראש הממשלה וחבורתו, כולל יו"ר הקואליציה ושרים, שהעזו אתמול להגיד שיש אפשרות אחרת", אמר היום לפיד. "שיש אפשרות לא להגיד את האמת כשהמשטרה מבקשת ממך לסייע בבירור העובדות בפרשת שחיתות חמורה. ככה מדברים עבריינים (הכוונה לכינוי שהדביק אתמול יו"ר הקואליציה, דוד אמסלם, ללפיד כשקרא לו "שטינקר" - ט.ש). אני רוצה להגיד להם מפה: אל תאיימו עלינו. אי-אפשר לאיים עלינו. לא ניתן לכם להוביל את המדינה למקום שבו אנשים ישרים פוחדים להגיד את האמת". לדבריו, "את מה שנקרא 'חוק מילצ'ן השני' סירבתי לקדם, למרות הלחצים, מפני שאני עובד רק אצל אזרחי ישראל. רק בשבילם. לא בשביל אף טייקון ולא בשביל אינטרסים של פוליטיקאי, בכיר ככל שיהיה."זה יום עצוב לכל אזרח כשראש ממשלה בישראל מואשם בעבירות פליליות חמורות. יחד עם זאת, ראש הממשלה צריך לגלות אחריות לאומית. אי-אפשר להיות ראש ממשלה, שר החוץ ושר הבריאות, בזמן שאתה מבלה את עיקר זמנך עם עורכי דין ובתגובות לתקשורת. אי-אפשר לייצג אותנו בעולם כשכל מנהיג זר שאתה פוגש יודע שאתה מואשם בעבירות חמורות". לטובת אזרחי ישראל ראש הממשלה צריך לעזוב את תפקידו", אמר לפיד.נציין, כי במשך חודשים ארוכים מציין לפיד, לרוב בפתח ישיבות סיעת יש עתיד, שהוא מסר עדות בתיק 3000 וכי הוא יודע ומאמין שראש הממשלה יזומן לתת עדות, לאו דווקא כנחקר אלא כעד, בפרשת רכש הצוללות, כלי השיט והאופן שבו אושרה עסקת הצוללות בין גרמניה למצרים.בליכוד קפצו על המציאה הזו כשלל רב. הם חשפו שדוברת המשטרה, מרב לפידות, הביעה פעם תמיכה בלפיד, הדגישו שהחקירה של המשטרה מונעת מאינטרסים פוליטיים, כאילו הדברים ששמע לפיד מנתניהו בנוגע למילצ*ן, עת ניסה לקדם את ענייניו של המילארדר, לא נאמרו בנוכחות עדים נוספים (משה אשר, למשל, ראו הרחבה בנושא בעמ' 14), וכאילו אין לדוח סיכום הראיות של המשטרה חלקים רבים נוספים הנוגעים להיבטים המורכבים והשונים של התיקים, לצד עשרות עדים אחרים.טל שניידרנפתלי בנטהיחיד שהביע עמדה עקרונית נגד המתנות, אבל לא הלך רחוק מזהשר החינוך, נפתלי בנט, הפתיע היום את הציבור הישראלי כשהיה היחיד מבין בכירי הממשל שהסכים להביע עמדה עקרונית בתחום המתנות. דקה לפני שעלה לנאום בכנס השלטון המקומי, הוא ישב במרחק כתף מראש הממשלה נתניהו וחייך בנעימות אל גדודי הצלמים שהקיפו את שולחן המכובדים.ראש הממשלה נאם ויצא מן המקום, ושר החינוך בנט עלה לבמה. "ראש הממשלה אינו אמור להיות מושלם או לחיות בסגפנות, אך הוא צריך להיות מישהו שאומרים עליו: 'ככה צריך לנהוג'. בבה"ד 1 מצוטט פסוק מהתנ*ך: 'ממני תראו וכן תעשו'. לצערי, קבלת מתנות בהיקף כה רחב לאורך כל כך הרבה זמן איננה עומדת בציפייה זו של אזרחי ישראל לשמש דוגמה אישית".בנט הוסיף שישראל היא "מדינת חוק, ולראש הממשלה נתניהו עומדת חזקת החפות. לאור זאת, קיבלתי החלטה להמתין עד להכרעת היועץ המשפטי לממשלה, אביחי מנדלבליט. אני סומך על יושרם ועל עמידותם של היועץ וצוותו. לגבי הפן הערכי, יחליט הציבור ביום הבוחר".הדברים של שר החינוך עולים בקנה אחד עם אמירותיה של שרת המשפטים, איילת שקד, בימים האחרונים. אתמול, בכנס של העיתון "בשבע", אמרה שקד כי אם יוגש כתב אישום נגד נתניהו בגין שוחד "זה משנה את המצב וזה יחייב אותנו להיערך מחדש. אני מקווה בשבילנו ובשביל נתניהו וכל מדינת ישראל - שזה לא יקרה".ובכן, גם שקד וגם בנט, ניצבו החל מאתמול בערב מול מציאות חדשה. ראיות מספיקות להגשת אישום בשוחד בשני מקרים, דבר שגם הם אולי הופתעו ממנו.מעניין היה לשמוע את בנט בוחר את מילותיו בקפידה ומקפיד להתייחס ל"מתנות", למרות שהודעת המשטרה כללה התייחסות מפורשת למינוח חמור בהרבה: "שוחד", או "יחסי שיחוד" בשווי של מיליון שקל.כנראה ששר החינוך עדיין לא מעז להגדיר לעצמו (וגם לציבור) שאין פה מתנות אלא שוחד - אחת העבירות החמורות ביותר בספר החוקים, הן בימינו אנו והן בכתובים שמהם הוא בוחר לרוב לצטט פסוקים נבחרים.כאשר נשמע ממנו את הציטוט: "השחד יעור עיני חכמים ויסלף דברי צדיקים", אז אולי נדע ששר החינוך התקדם צעד נוסף.טל שניידרמשה כחלוןמפחד לדרוש מנתניהו לקבל החלטה ולהתפטר בשל מצבו הפוליטיבשיאו של ערב ההצבעה אתמול בקריאה ראשונה על תקציב המדינה, התעלם שר האוצר, משה כחלון, מההמלצה להעמיד את ראש הממשלה נתניהו לדין בגין שוחד, בעת שנאם במליאה. כמה שעות לאחר מכן, כתב הודעה לקונית למדי בעמוד הפייסבוק שלו: "אני ער לרחשי הציבור, מימין ומשמאל, בנוגע להמלצות המשטרה סביב חקירות ראש הממשלה. החוק קובע כי רק היועץ המשפטי לממשלה רשאי לקבל החלטות בעניין הגשה או אי-הגשה של כתב אישום. עד אז אמשיך להוביל ולנווט את הכלכלה הישראלית לרווחת כלל אזרחי ישראל."אני קורא לכולם - מימין ומשמאל - לחדול מהתקפות על המשטרה ועל מערכת שלטון החוק. יש לתת למערכות לפעול ללא לחצים, לא מימין ולא משמאל, ולפעול באופן מסודר, מקצועי ושקול", כתב.מפלגתו של שר האוצר, "כולנו", היא המושפעת, יותר משאר המפלגות, מהלך הרוח הציבורי. במצב המנדטים הנמוך של כולנו והצורך בלקושש קולות מרכז, שר האוצר לא יכול לתבוע מנתניהו להתפטר כי זה לחזור אליו כבומרנג. להמשך ריבוי הפגנות וביקורת ציבורית על היעדר עמדה ערכית עשוי להשפיע על כחלון יותר מאשר על ראשי המפלגות האחרות. מדוע? כיוון שכולנו היא מפלגה שנמצאת באמצע המפה הפוליטית, שהוקמה לאחר שכחלון לא יכל היה עוד לסבול את ה"סגנון הליכודי" של סגידת חברי המרכז למנהיג האחד, מבלי שמאפשרים למנהיגים אחרים בחברה הישראלית לצמוח ולהוביל מהלכים.בדיוק בשל כך עזב כחלון את הליכוד, כשהוא מאמין שבאמצעות מפלגת לשון מאזניים הוא יצליח ללחוץ על שיפור החברה והכלכלה הישראלית. זו גם הסיבה שהוא מתעקש להמשיך כיום בתוך הקואליציה הקשה הזו, להעביר את התקציב, להמשיך לעבוד על "מחיר למשתכן" ועל רפורמות אחרות שהוא עדיין מתכנן. כחלון לא רצה היום להשמיע את הדברים בקולו. זה הסגנון שלו. אחרי אירועים גדולים הוא מתכנס לאחור וזקוק לעיתים ל-24 שעות נוספות לפני שהוא מסכים לענות לכלי התקשורת לשאלות. הוא מתייעץ עם חברי הכנסת רחל עזריה, מרב בן ארי ורועי פולקמן, הנתפסים כיום כמי שעשויים להתעקש על עקרונות ערכיים מסויימים בתוך כולנו, ובמקביל משגר את חברו השר אלי כהן להביע עמדות ממלכתיות בראיונות עד שהוא יסיים להתבשל עם עצמו.טל שניידר</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223984#FromSearchPage</t>
+  </si>
+  <si>
+    <t>משה ליכטמן</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>היסטוריה של מתנות בין מילצ'ן לנתניהו</t>
+  </si>
+  <si>
+    <t>הגיע הזמן לקבוע קוד אתי לשרים וסגני שרים לקבלת מתנות</t>
+  </si>
+  <si>
+    <t>יש צדק היסטורי בכך שסוגיית המתנות לשרים תשוב לסדר היום ולהסדרה של קוד אתי מחייב על רקע תיק 1000 של בנימין נתניהו הקשור למיליארדר ארנון מילצ'ן. השניים, כפי שתקראו בהמשך, נפגשו בעבר בהקשר של מתנות מפוקפקות.נתניהו הוא לא השר וראש הממשלה הראשון שקיבל מתנות מפוקפקות. שמעון פרס לא הועמד לדין על השעון היוקרתי שקיבל מאיש השוק האפור דוד בלאס, זה שהואשם בהונאת ארגוני הקיבוצים; ואילו אהוד אולמרט לא הועמד לדין על העטים הנובעים היקרים האהובים שלו, שחלקם הגיעו מחברים. גם נתניהו ומילצ'ן.שרים וסגני שרים כפופים לכללי "ועדת אשר" למניעת ניגוד עניינים ולחובת דיווח למבקר המדינה, אולם הם אינם כפופים לקוד אתי מחייב. כך, שבעבירות גבוליות אין יכולת לאכוף על חברי ממשלה נורמה משמעתית. בניגוד לנבחרי הציבור, כשמדובר בעובדי ציבור הכללים ברורים וקבועים בתקשי"ר (תקנון שירות המדינה). בכיר ברשות המסים, שנישומים שלו הוזמנו לבר מצווה של בנו ונתנו מתנות של 500 שקל בממוצע כל אחד, הורשע בבית הדין למשמעת של עובדי המדינה. עובד בכיר במשרד הביטחון הורשע באותו בית דין בכך שקבלנים שעל עבודתם פיקח הוזמנו לחתונת בנו ונתנו לו מתנות.כאשר נתניהו סיים את הקדנציה הראשונה שלו כראש ממשלה, פרצה פרשת קבלן ההובלות יגאל עמדי שנתן לבני הזוג נתניהו שירותים חינם. ספיח לפרשת עמדי היה "פרשת המתנות", שבה נחקר החשד שמתנות רבות "הועלמו" מבית ראש הממשלה. חקירת המשטרה נערכה בחשד למרמה והפרת אמונים, ובסיומה נחלקו הדעות: המשטרה ופרקליטת המדינה עדנה ארבל המליצו בשנת 2000 על העמדה לדין, אולם היועמ"ש דאז, אליקים רובינשטיין, סגר את התיק והסתפק ב"דוח ציבורי" ובו התבטאויות חריפות על התנהגותו של נתניהו.פרט פיקנטי מאותה פרשה מתחבר לפרשה הנוכחית: מבין עשרות המתנות שהוצאו מבית ראש הממשלה היו גם שני ציורים יקרי ערך שאותם נתן ארנון מילצ'ן. שרה נתניהו, בחקירתה במשטרה, נשאלה לגבי היעלמות התמונות ואמרה: "אני לא זוכרת, לא יודעת במה מדובר ולמה רשמתי שחסרות שתי תמונות של ארנון מילצ'ן".קיראו עוד ב"גלובס"בעקבות פרשת נתניהו והמתנות הוקמה ועדה ציבורית בראשות נשיא ביהמ"ש העליון בעבר, מאיר שמגר, לגיבוש קוד אתי של שרים וסגני שרים. בדיוק לפני 10 שנים הוגש הדוח, ובו הצעה לקוד אתי לחברי הממשלה, כולל מנגנון דין משמעתי למי שיפרו את כללי האתיקה. המלצה מרכזית של ועדת שמגר הייתה רישום מדויק ותיעוד מלא של כל מתנה המגיעה למשרד ראש הממשלה.שמגר, נציין, התראיין לפני חודשים אחדים ונשאל על פרשת המתנות ואמר: "הייתי מצפה שראש הממשלה יתפטר על זה".ממשלת נתניהו השנייה הקימה ב-2009 ועדת שרים בראשות שר המשפטים, יעקב נאמן, שנועדה לעבד את הצעת ועדת שמגר. ועדת נאמן מסרה את הערותיה למזכירות הממשלה כעבור כשנתיים, ומאז הוקפא הטיפול בקוד אתי ולא עלה לדיון בממשלה. אחד התיקונים שהציע נאמן לדוח שמגר היה שלא תחול חובת דיווח על "מתנה סבירה".ומהי מתנה סבירה? מכיוון שיו"ר הקואליציה הקודם והחשוד כיום, ח"כ דוד ביטן, הכין רשימה מפורטת של המתנות וההמחאות שניתנו בחגיגת נישואי בתו לפני חודשים אחדים, אפשר לבדוק מה הייתה מתנת בני הזוג נתניהו, אורחי הכבוד. הרשימה נתפסה על ידי המשטרה ואפשר לעיין בה.מישהו חושב שממשלת נתניהו תגבש קוד אתי המחייב את השרים בענייני מתנות? שונא מתנות יחיה בשקט.</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223985#FromSearchPage</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>נתניהו: "אין לי ולא לאף אחד אחר תוכניות ללכת לבחירות"</t>
+  </si>
+  <si>
+    <t>דווקא בקרב ראשי ערים ומועצות בכנס של השלטון המקומי שחשופים יותר מכל לטענות וחקירות בדבר שחיתויות, הצדיק רה"מ ערבוב בין הון לשלטון, והתקבל באיפוק מנומס ■ במקביל מנסים לפיד, בנט וכחלון להתמודד עם מציאות חדשה</t>
+  </si>
+  <si>
+    <t>"אני רוצה קודם כול להרגיע אתכם: הקואליציה יציבה, אין לאף אחד - לא לי ולא לאף אחד אחר - תוכניות ללכת לבחירות", כך פתח היום ראש הממשלה, בנימין נתניהו, את נאומו בכנס השלטון המקומי, יממה לאחר שנודע כי המשטרה ממליצה להעמידו לדין בגין שוחד בפרשות 1000 ו-2000.למרות שנתניהו התקבל בחום על ידי יו"ר השלטון המקומי, ראש עיריית מודיעין, חיים ביבס, בחירת המיקום לנאום הייתה תמוהה, בלשון המעטה. באולם ישבו מאות ראשי ערים, חברי מועצה וכאלה שרואים עצמם מועמדים במערכת הבחירות המקומית האמורה להיערך בסוף אוקטובר 2018.מי שמעורה בפוליטיקה הפנימית יודע שכל אחד מהם מקבל מדי יום פניות מחברים אישיים ונאלץ לפנות ליועץ המשפטי של העירייה כדי להדוף את חברי המחזור, חברי הילדות והחברים מן התיכון המבקשים קירבה לראש הרשות. תעיד על כך גם המלחמה של המשטרה והפרקליטות בשנים האחרונות נגד עבירות שחיתות ברשויות המקומיות, לצד מספר רב של כתבי אישום שהוגשו נגד ראשי ערים.דווקא בפניהם, בחר ראש הממשלה לתקוף את הדוח ואת הראיות שאספה נגדו המשטרה. מולם, ולא מול קהל מרכז הליכוד האוהב, המתמסר והמגונן עליו, הסביר נתניהו שוב מדוע הוא לא רואה בכך בעיה שעזר לחברו הקרוב, ארנון מילצ'ן, אך הדגיש שדווקא האינטרסים העסקיים של המיליארדר נפגעו - ולא ההפך. כאילו זה לגיטימי שנבחר ציבור יעסוק בעניינם של חבריו האישיים ובלבד שהם יצאו מכך מופסדים עסקית. הנוכחים הקשיבו לראש הממשלה היטב, אך מחיאות כפיים או קריאות עידוד לא היו שם. נתניהו התקבל בנימוס מאופק."אחרי שקראתי את דוח ההמלצות אני יכול להגיד שזה מסמך מוטה, קיצוני, מחורר כמו גבינה שוויצרית ולא מחזיק מים. הדוח מתעלם ומטשטש חברות קרובה מאוד, קרוב ל-20 שנה, בין מילצ'ן לביני ובין המשפחות שלנו. חברות שהיו בה אגב מתנות הדדיות, עוד בתקופה שהייתי אזרח פרטי והרבה לפני שנכנסתי לתפקיד", אמר נתניהו.קיראו עוד ב"גלובס"אחד הטיעונים המרכזיים שלו כאמור, הוא פועלו לכאורה נגד האינטרסים של מילצ'ן בעת שכיהן גם כשר התקשורת וחתר לסגור את ערוץ 10, או כאשר, לדבריו, "שבר את המונופול שלו במה שקרוי חברת 'מכשירי תנועה, יבוא כלי רכב וחלקי חילוף לרכב'" (הכוונה לכך שקידם חקיקה נגד הריכוזיות של יבואני הרכב בתחום חלקי החילוף - ט.ש). נתניהו הדגיש את ההיבטים שהזיקו לדבריו לעסקיו של מילצ'ן, תוך שהוא מתעלם מעסקאות אחרות שהוזכרו על ידי המשטרה כמו מיזוג קשת-רשת, או המיזם המסחרי שמילצ'ן היה מעוניין בקידומו כחלק משותפות שלו עם איש העסקים ההודי טאטא (ראו הרחבה בעמ' 16).במקום, נציין, נכחו גם ראש עיריית ירושלים ניר ברקת, שר הפנים אריה דרעי, ושר החינוך נפתלי בנט. עם זאת, ראשי ערים בולטים כמו יונה יהב, רון חולדאי ורוביק דנילוביץ' - אנשי מפלגת העבודה או מפלגת כולנו, בעבר ובהווה - לא הגיעו לכבד את ראש הממשלה בנאומו."ראש הממשלה צריך להמשיך לעבוד ולתפקד עד להחלטת היועץ המשפטי לממשלה, ואני חושב שיש להרגיע את השטח. יש מקרים חמורים ממעשיו", אמר לנו היום ברקת.אתה מקבל את האמירה שמדובר ב"הפיכה שלטונית", כפי שאומרים אמסלם ולוין?"מאוד לא אהבתי את ההתבטאויות הללו כאילו המשטרה מנסה לעשות הפיכה. יש לנו רק משטרה אחת. צריך להרגיע".אחרים שאיתם שוחחנו אמרו שהמעשים של ראש הממשלה הם בגדר הפרות אתיות, אך אינם פליליים. ד"ר איתן לסרי, תומך ליכוד ותיק ("כל משפחתי, 4,000 איש, זה הליכוד") אמר ל"גלובס" שהוא מבין את הטיעונים של ראש הממשלה: "אין כאן קבלת כסף, אלא התנהגות אתית. דווקא העובדה שהוא ניסה לעזור למילצ'ן עם הויזה תתקבל בברכה אצל הליכודניקים, כי הוא הגיש סיוע לאדם שהיה סוכן מודיעין. לדעתי זה יוסיף לו נקודות בשטח".גדי ירקוני, ראש המועצה האזורית אשכול, אמר ל"גלובס" ש"לא תהיה ברירה, הוא יהיה חייב ללכת. דווקא אחרי 'צוק איתן' הוא וממשלתו עשו עבודה כבירה עבור האזור שלנו, אבל אסור שמנהיג יכהן יותר משתי קדנציות רצוף. אני אומר את זה לכל חברי ראשי הערים: שתי קדנציות והביתה. הנוכחות בשלטון משחיתה, ורואים את זה היטב במה שקרה עם נתניהו".החל מאתמול בלילה הפך בבת אחת ח"כ יאיר לפיד לא רק מאויב פוליטי מוביל של ראש הממשלה, אלא לעד מרכזי במשפט פלילי שעשוי להכריע את הראיות נגדו ולחסל את הקריירה הפוליטית של נתניהו. הסיטואציה הפוליטית עבור לפיד היא מורכבת. הוא מכיר באופן אישי, אינטימי, את כל הגיבורים הגדולים בפרשות. אצל מילצ'ן הוא היה מועסק, כך גם אצל נוני מוזס, מו"ל ידיעות אחרונות, ויש מי שאומרים שנתניהו צפוי להשתמש בקשרים האישיים העמוקים הללו כדי לערער את אמינותו של לפיד."שמעתי את ראש הממשלה וחבורתו, כולל יו"ר הקואליציה ושרים, שהעזו אתמול להגיד שיש אפשרות אחרת", אמר היום לפיד. "שיש אפשרות לא להגיד את האמת כשהמשטרה מבקשת ממך לסייע בבירור העובדות בפרשת שחיתות חמורה. ככה מדברים עבריינים (הכוונה לכינוי שהדביק אתמול יו"ר הקואליציה, דוד אמסלם, ללפיד כשקרא לו "שטינקר" - ט.ש). אני רוצה להגיד להם מפה: אל תאיימו עלינו. אי-אפשר לאיים עלינו. לא ניתן לכם להוביל את המדינה למקום שבו אנשים ישרים פוחדים להגיד את האמת".לדבריו, "את מה שנקרא 'חוק מילצ'ן השני' סירבתי לקדם, למרות הלחצים, מפני שאני עובד רק אצל אזרחי ישראל. רק בשבילם. לא בשביל אף טייקון ולא בשביל אינטרסים של פוליטיקאי, בכיר ככל שיהיה. זה יום עצוב לכל אזרח כשראש ממשלה בישראל מואשם בעבירות פליליות חמורות. יחד עם זאת, ראש הממשלה צריך לגלות אחריות לאומית. אי-אפשר להיות ראש ממשלה, שר החוץ ושר הבריאות, בזמן שאתה מבלה את עיקר זמנך עם עורכי דין ובתגובות לתקשורת. אי-אפשר לייצג אותנו בעולם כשכל מנהיג זר שאתה פוגש יודע שאתה מואשם בעבירות חמורות". לטובת אזרחי ישראל ראש הממשלה צריך לעזוב את תפקידו", אמר לפיד.נציין, כי במשך חודשים ארוכים מציין לפיד, לרוב בפתח ישיבות סיעת יש עתיד, שהוא מסר עדות בתיק 3000 וכי הוא יודע ומאמין שראש הממשלה יזומן לתת עדות, לאו דווקא כנחקר אלא כעד, בפרשת רכש הצוללות, כלי השיט והאופן שבו אושרה עסקת הצוללות בין גרמניה למצרים.בליכוד קפצו על המציאה הזו כשלל רב. הם חשפו שדוברת המשטרה, מרב לפידות, הביעה פעם תמיכה בלפיד, הדגישו שהחקירה של המשטרה מונעת מאינטרסים פוליטיים, כאילו הדברים ששמע לפיד מנתניהו בנוגע למילצ'ן, עת ניסה לקדם את ענייניו של המילארדר, לא נאמרו בנוכחות עדים נוספים (משה אשר, למשל), וכאילו אין לדוח סיכום הראיות של המשטרה חלקים רבים נוספים הנוגעים להיבטים המורכבים והשונים של התיקים, לצד עשרות עדים אחרים.שר החינוך, נפתלי בנט, הפתיע היום את הציבור הישראלי כשהיה היחיד מבין בכירי הממשל שהסכים להביע עמדה עקרונית בתחום המתנות. דקה לפני שעלה לנאום בכנס השלטון המקומי, הוא ישב במרחק כתף מראש הממשלה נתניהו וחייך בנעימות אל גדודי הצלמים שהקיפו את שולחן המכובדים.ראש הממשלה נאם ויצא מן המקום, ושר החינוך בנט עלה לבמה. "ראש הממשלה אינו אמור להיות מושלם או לחיות בסגפנות, אך הוא צריך להיות מישהו שאומרים עליו: 'ככה צריך לנהוג'. בבה"ד 1 מצוטט פסוק מהתנ"ך: 'ממני תראו וכן תעשו'. לצערי, קבלת מתנות בהיקף כה רחב לאורך כל כך הרבה זמן איננה עומדת בציפייה זו של אזרחי ישראל לשמש דוגמה אישית".בנט הוסיף שישראל היא "מדינת חוק, ולראש הממשלה נתניהו עומדת חזקת החפות. לאור זאת, קיבלתי החלטה להמתין עד להכרעת היועץ המשפטי לממשלה, אביחי מנדלבליט. אני סומך על יושרם ועל עמידותם של היועץ וצוותו. לגבי הפן הערכי, יחליט הציבור ביום הבוחר".הדברים של שר החינוך עולים בקנה אחד עם אמירותיה של שרת המשפטים, איילת שקד, בימים האחרונים. אתמול, בכנס של העיתון בשבע, אמרה שקד כי אם יוגש כתב אישום נגד נתניהו בגין שוחד "זה משנה את המצב וזה יחייב אותנו להיערך מחדש. אני מקווה בשבילנו ובשביל נתניהו וכל מדינת ישראל - שזה לא יקרה".ובכן, גם שקד וגם בנט, ניצבו החל מאתמול בערב מול מציאות חדשה. ראיות מספיקות להגשת אישום בשוחד בשני מקרים, דבר שגם הם אולי הופתעו ממנו.מעניין היה לשמוע את בנט בוחר את מילותיו בקפידה ומקפיד להתייחס ל"מתנות", למרות שהודעת המשטרה כללה התייחסות מפורשת למינוח חמור בהרבה: "שוחד", או "יחסי שיחוד" בשווי של מיליון שקל.כנראה ששר החינוך עדיין לא מעז להגדיר לעצמו (וגם לציבור) שאין פה מתנות אלא שוחד - אחת העבירות החמורות ביותר בספר החוקים, הן בימינו אנו והן בכתובים שמהם הוא בוחר לרוב לצטט פסוקים נבחרים.כאשר נשמע ממנו את הציטוט: "השחד יעור עיני חכמים ויסלף דברי צדיקים", אז אולי נדע ששר החינוך התקדם צעד נוסף.בשיאו של ערב ההצבעה אתמול בקריאה ראשונה על תקציב המדינה, התעלם שר האוצר, משה כחלון, מההמלצה להעמיד את ראש הממשלה נתניהו לדין בגין שוחד, בעת שנאם במליאה. כמה שעות לאחר מכן, כתב הודעה לקונית למדי בעמוד הפייסבוק שלו: "אני ער לרחשי הציבור, מימין ומשמאל, בנוגע להמלצות המשטרה סביב חקירות ראש הממשלה. החוק קובע כי רק היועץ המשפטי לממשלה רשאי לקבל החלטות בעניין הגשה או אי-הגשה של כתב אישום. עד אז אמשיך להוביל ולנווט את הכלכלה הישראלית לרווחת כלל אזרחי ישראל."אני קורא לכולם - מימין ומשמאל - לחדול מהתקפות על המשטרה ועל מערכת שלטון החוק. יש לתת למערכות לפעול ללא לחצים, לא מימין ולא משמאל, ולפעול באופן מסודר, מקצועי ושקול", כתב.מפלגתו של שר האוצר, כולנו, היא המושפעת, יותר משאר המפלגות, מהלך הרוח הציבורי. במצב המנדטים הנמוך של כולנו והצורך בקישוש קולות מרכז, שר האוצר לא יכול לתבוע מנתניהו להתפטר כי זה לחזור אליו כבומרנג. להמשך ריבוי הפגנות וביקורת ציבורית על היעדר עמדה ערכית עשוי להשפיע על כחלון יותר מאשר על ראשי המפלגות האחרות. מדוע? כיוון שכולנו היא מפלגה שנמצאת באמצע המפה הפוליטית, שהוקמה לאחר שכחלון לא יכל היה עוד לסבול את ה"סגנון הליכודי" של סגידת חברי המרכז למנהיג האחד, מבלי שמאפשרים למנהיגים אחרים בחברה הישראלית לצמוח ולהוביל מהלכים.בדיוק בשל כך עזב כחלון את הליכוד, כשהוא מאמין שבאמצעות מפלגת לשון מאזניים הוא יצליח ללחוץ על שיפור החברה והכלכלה הישראלית. זו גם הסיבה שהוא מתעקש להמשיך כיום בתוך הקואליציה הקשה הזו, להעביר את התקציב, להמשיך לעבוד על "חיר למשתכן ועל רפורמות אחרות שהוא עדיין מתכנן.כחלון לא רצה היום להשמיע את הדברים בקולו. זה הסגנון שלו. אחרי אירועים גדולים הוא מתכנס לאחור וזקוק לעיתים ל-24 שעות נוספות לפני שהוא מסכים לענות לכלי התקשורת לשאלות. הוא מתייעץ עם חברי הכנסת רחל עזריה, מרב בן ארי ורועי פולקמן, הנתפסים כיום כמי שעשויים להתעקש על עקרונות ערכיים מסויימים בתוך כולנו, ובמקביל משגר את חברו השר אלי כהן להביע עמדות ממלכתיות בראיונות עד שהוא יסיים להתבשל עם עצמו.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . כרגיל הכתבלבים מנסים להכתיב את שאיפתם הקבועה. להחליף את ממשלת הימין בממשלת שמאל שתחזור לתהליכי אוסלו ודומיהם.
+אם לא בבחירות, אולי דרך שקרנים מצויים וחוקרים משוחדים. . לאיתן לסרי יש 4000 איש במשפחה? איפה אתם עושים אירועים? בטדי?</t>
+  </si>
+  <si>
+    <t>בלתי קורקטי</t>
+  </si>
+  <si>
+    <t>כרגיל הכתבלבים מנסים להכתיב את שאיפתם הקבועה. להחליף את ממשלת הימין בממשלת שמאל שתחזור לתהליכי אוסלו ודומיהם.
+אם לא בבחירות, אולי דרך שקרנים מצויים וחוקרים משוחדים.</t>
+  </si>
+  <si>
+    <t>יוסף</t>
+  </si>
+  <si>
+    <t>לאיתן לסרי יש 4000 איש במשפחה? איפה אתם עושים אירועים? בטדי?</t>
+  </si>
+  <si>
+    <t>http://www.globes.co.il/news/article.aspx?did=1001223979#FromSearchPage</t>
+  </si>
+  <si>
+    <t>מלכה רדוזקוביץ</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>נתניהו צדק? רק בכ-20% מהתיקים שהמשטרה חשבה שיש מקום להגשת אישומים, מוגש אישום בפועל</t>
+  </si>
+  <si>
+    <t>מתוך 18 אלף תיקים שהמשטרה מעבירה לפרקליטות כשהיא סבורה שיש תשתית ראייתית להעמדה לדין, רק בכ-4,000 תיקים מוגש כתב אישום</t>
+  </si>
+  <si>
+    <t>"יותר ממחצית המלצות המשטרה אינן מתקבלות על ידי הגורמים המשפטיים והן מסתיימות בלא כלום", תיאר אתמול ראש הממשלה בנימין נתניהו בנאומו, דקות ספורות לאחר שהודיעה לו המשטרה באופן רשמי ופומבי על חשדותיה כלפיו, המועברים לבדיקת היועץ המשפטי לממשלה אביחי מנדלבליט, פרקליטות המדינה ופרקליטות מיסוי וכלכלה. האמנם? נתניהו צדק, אבל המציאות יותר מורכבת. מתוך 18 אלף תיקים שהמשטרה מעבירה לפרקליטות כשהיא סבורה שיש תשתית ראייתית להעמדה לדין, רק בכ-3,500 עד 4,000 תיקים מוגש כתב אישום. כלומר, רק בכ-20% מהתיקים שהמשטרה חשבה שיש מקום להגשת אישומים, מוגש אישום בפועל.אבל כאמור, המציאות לא סטרילית, מגוון נתונים משפיעים על הסטטיסטיקה הזאת. אם בוחנים את כלל התיקים המגיעים לפרקליטות - מתוך כ-30 אלף תיקי חקירה המועברים אליה על ידי המשטרה, כ-12 אלף תיקים (כ-40%) נסגרים תוך התבססות על המלצת המשטרה לסגור אותם; כ-11 אלף נוספים נסגרים בפרקליטות חרף עמדת המשטרה שיש די ראיות להגשת כתב אישום; כ-3,000 תיקים נוספים מועברים לטיפול התביעה המשטרתית.פרקליט המדינה, שי ניצן, פרש את הנתונים הללו בפני חברי ועדת הפנים בכנסת בדיון שקיימה על חוק ההמלצות בנובמבר האחרון. במסגרת הדיון אכן נחשף כי רובם המכריע של התיקים שמעבירה המשטרה לפרקליטות מבלי שתמליץ לסגור אותם - מסתיימים בסגירה; ואולם, את החלוקה הפנימית בתוך התיקים הללו - בין אלה שאין בהם המלצה כלל לבין אלה שיש בהם המלצה להגיש כתב אישום - אף אחד לא יודע. לא ברור בכמה מהתיקים המשטרה ממליצה במפורש להגיש כתב אישום, לעומת התיקים שלגביהם היא לא מצרפת כל המלצה ולכן לא ברור הנתון הסופי של כמה תיקים שלכאורה היו מועמדים "טובים" להעמדה לדין בעיני המשטרה - באמת נסגרים.למה ניצן לא יודע לבצע חלוקה פנימית בתוך התיקים שלא ניתנה לגביהם המלצת סגירה? התשובה לכך מתחילה בסוג התיקים שמגיעים לפרקליטות: כל תיק חקירה של המשטרה, מעל דרגת חומרה מסוימת, מועבר לפרקליטות - מדובר בכ-30 אלף תיקים, כ-10% מהתיקים שחוקרת בכל שנה. יתר 90% תיקי החקירה מועברים לתביעה המשטרתית.בתוך כ-30 אלף התיקים הללו ישנם כ-12 אלף תיקים (40%) שמועברים עם המלצה משטרתית: לגנוז את התיק, לרוב בהעדר תשתית ראייתית מספקת. מתוך התיקים הללו, במיעוט נדיר של עשרות תיקים בשנה, הפרקליטות מחליטה בכל זאת להגיש כתב אישום.קיראו עוד ב"גלובס"יתר 18 אלף התיקים מועברים לפרקליטות "עם המלצה להגיש (כתב אישום, מ' ר') או לפעמים בלי המלצה, כי הם לא חייבים לגבש המלצה כמובן", הסביר ניצן באותו דיון. לשאלת יו"ר ועדת הפנים, ח"כ דודי אמסלם מהליכוד (כיום יו"ר הקואליציה), מדוע אינם חייבים - ענה: "יש תיקים מורכבים עם שאלות משפטיות כבדות. לא תמיד המשטרה מגבשת עמדה. אנחנו לא חושבים שהם חייבים".אז כמה מתוך התיקים "נטולי ההמלצה לגניזה" מסתיימים בכתב אישום? כאן הנתונים שסיפק פרקליט המדינה לחברי הוועדה היו חד משמעיים: הרוב המכריע מסתיים בסגירה. כ-3,500-4,000 תיקים מבין אותם 18 אלף תיקים מסתיימים בכתב אישום; כ-3,000 תיקים מוחזרים לתביעה המשטרתית משמצאה הפרקליטות, כי בניגוד לסברת המשטרה, דרגת חומרתם בעצם פחותה מזו המתאימה לניהול בפרקליטות; והיתר נסגרים - הרוב, כ-7,500 תיקים, נסגרים בהיעדר מספיק ראיות, והשאר בהיעדר עניין לציבור.כך או כך, השאלה איזה אחוז מהתיקים שכן קיבלו המלצה להגיש בהם כתב אישום, נותרה פתוחה. גם כשנשאלה באותו דיון ע"י אמסלם, יו"ר הוועדה, אשר סיכם זאת כך: "בגדול אנחנו מדברים על כ-14,000 תיקים שבסוף, מבחינת התוצאה, לא מוגש כתב אישום, ובגינם - המשטרה או המליצה (להגיש כ"א, מ ' ר'), או שהיא השאירה פתוח"; וניצן ענה: "נכון מאוד".</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +2073,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1132,7 +2123,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1182,13 +2173,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1197,16 +2188,16 @@
         <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
@@ -1215,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
@@ -1232,31 +2223,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
@@ -1265,7 +2256,7 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
@@ -1277,6 +2268,756 @@
         <v>9</v>
       </c>
       <c r="P6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" t="s">
+        <v>313</v>
+      </c>
+      <c r="H9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" t="s">
+        <v>320</v>
+      </c>
+      <c r="I10" t="s">
+        <v>321</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>322</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G11" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" t="s">
+        <v>331</v>
+      </c>
+      <c r="I11" t="s">
+        <v>332</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" t="s">
+        <v>337</v>
+      </c>
+      <c r="I12" t="s">
+        <v>338</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" t="s">
+        <v>343</v>
+      </c>
+      <c r="I13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>345</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" t="s">
+        <v>521</v>
+      </c>
+      <c r="G14" t="s">
+        <v>522</v>
+      </c>
+      <c r="H14" t="s">
+        <v>523</v>
+      </c>
+      <c r="I14" t="s">
+        <v>524</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" t="s">
+        <v>526</v>
+      </c>
+      <c r="G15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>527</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>529</v>
+      </c>
+      <c r="G16" t="s">
+        <v>530</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>531</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>533</v>
+      </c>
+      <c r="G17" t="s">
+        <v>534</v>
+      </c>
+      <c r="H17" t="s">
+        <v>535</v>
+      </c>
+      <c r="I17" t="s">
+        <v>536</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" t="s">
+        <v>538</v>
+      </c>
+      <c r="G18" t="s">
+        <v>539</v>
+      </c>
+      <c r="H18" t="s">
+        <v>540</v>
+      </c>
+      <c r="I18" t="s">
+        <v>541</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>543</v>
+      </c>
+      <c r="F19" t="s">
+        <v>544</v>
+      </c>
+      <c r="G19" t="s">
+        <v>545</v>
+      </c>
+      <c r="H19" t="s">
+        <v>546</v>
+      </c>
+      <c r="I19" t="s">
+        <v>547</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>548</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" t="s">
+        <v>549</v>
+      </c>
+      <c r="G20" t="s">
+        <v>550</v>
+      </c>
+      <c r="H20" t="s">
+        <v>551</v>
+      </c>
+      <c r="I20" t="s">
+        <v>552</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>553</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>559</v>
+      </c>
+      <c r="F21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G21" t="s">
+        <v>561</v>
+      </c>
+      <c r="H21" t="s">
+        <v>562</v>
+      </c>
+      <c r="I21" t="s">
+        <v>563</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1365,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
         <v>36</v>
@@ -1388,13 +3129,13 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1405,22 +3146,22 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1431,22 +3172,22 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -1457,13 +3198,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -1472,7 +3213,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1483,22 +3224,22 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
         <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1509,22 +3250,22 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -1535,22 +3276,22 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1561,22 +3302,22 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
         <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1587,22 +3328,22 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -1613,22 +3354,22 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
         <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1639,22 +3380,22 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -1665,16 +3406,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>77</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -1723,13 +3464,13 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
         <v>42</v>
       </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
@@ -1737,7 +3478,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1763,7 +3504,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1778,10 +3519,10 @@
         <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
         <v>103</v>
@@ -1789,7 +3530,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1804,82 +3545,82 @@
         <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
         <v>30</v>
@@ -1888,180 +3629,180 @@
         <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -2070,12 +3811,12 @@
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2087,21 +3828,21 @@
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -2113,91 +3854,91 @@
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F34" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" t="s">
         <v>147</v>
       </c>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="H35" t="s">
         <v>155</v>
@@ -2205,7 +3946,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -2217,13 +3958,13 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
         <v>154</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
       </c>
       <c r="H36" t="s">
         <v>157</v>
@@ -2231,7 +3972,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -2246,10 +3987,10 @@
         <v>159</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="H37" t="s">
         <v>160</v>
@@ -2257,7 +3998,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -2272,10 +4013,10 @@
         <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="H38" t="s">
         <v>163</v>
@@ -2283,7 +4024,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -2301,7 +4042,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="H39" t="s">
         <v>166</v>
@@ -2309,7 +4050,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -2321,114 +4062,114 @@
         <v>33</v>
       </c>
       <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
         <v>53</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" t="s">
         <v>168</v>
-      </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
       <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
         <v>170</v>
       </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" t="s">
         <v>171</v>
-      </c>
-      <c r="F41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
       </c>
       <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
         <v>173</v>
       </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" t="s">
         <v>174</v>
-      </c>
-      <c r="F42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
       </c>
       <c r="C43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
         <v>176</v>
       </c>
-      <c r="D43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" t="s">
         <v>177</v>
-      </c>
-      <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
       </c>
       <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
         <v>179</v>
       </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>180</v>
-      </c>
-      <c r="F44" t="s">
-        <v>147</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
@@ -2439,7 +4180,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -2454,10 +4195,10 @@
         <v>183</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="H45" t="s">
         <v>184</v>
@@ -2465,7 +4206,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -2480,10 +4221,10 @@
         <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="H46" t="s">
         <v>187</v>
@@ -2491,7 +4232,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -2503,13 +4244,13 @@
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="H47" t="s">
         <v>189</v>
@@ -2517,7 +4258,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -2532,746 +4273,746 @@
         <v>191</v>
       </c>
       <c r="F48" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="H48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
         <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="H50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F51" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F52" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
       </c>
       <c r="H52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="H53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
         <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="H54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
         <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G55" t="s">
         <v>9</v>
       </c>
       <c r="H55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F56" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="H56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="H57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D58" t="s">
         <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="H58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="G59" t="s">
         <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="H60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D61" t="s">
         <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F61" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="H61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D62" t="s">
         <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D63" t="s">
         <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G63" t="s">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="H64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G65" t="s">
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D66" t="s">
         <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
         <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F67" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>9</v>
       </c>
       <c r="H67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="H68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D69" t="s">
         <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
       </c>
       <c r="H69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D70" t="s">
         <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="G70" t="s">
         <v>9</v>
       </c>
       <c r="H70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D71" t="s">
         <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D72" t="s">
         <v>33</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
         <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="G73" t="s">
         <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D74" t="s">
         <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>9</v>
       </c>
       <c r="H74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D75" t="s">
         <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G75" t="s">
         <v>9</v>
       </c>
       <c r="H75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="G76" t="s">
         <v>9</v>
       </c>
       <c r="H76" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -3286,18 +5027,18 @@
         <v>191</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="G77" t="s">
         <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -3309,79 +5050,79 @@
         <v>28</v>
       </c>
       <c r="E78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s">
         <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s">
         <v>9</v>
       </c>
       <c r="H79" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
         <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F80" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D81" t="s">
         <v>28</v>
@@ -3401,163 +5142,163 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D82" t="s">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G82" t="s">
         <v>9</v>
       </c>
       <c r="H82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G83" t="s">
         <v>9</v>
       </c>
       <c r="H83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D84" t="s">
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F84" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G84" t="s">
         <v>9</v>
       </c>
       <c r="H84" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
         <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G85" t="s">
         <v>9</v>
       </c>
       <c r="H85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D86" t="s">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G86" t="s">
         <v>9</v>
       </c>
       <c r="H86" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G87" t="s">
         <v>9</v>
       </c>
       <c r="H87" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
         <v>18</v>
@@ -3569,21 +5310,21 @@
         <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="G88" t="s">
         <v>9</v>
       </c>
       <c r="H88" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
@@ -3595,16 +5336,2200 @@
         <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F89" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="H89" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" t="s">
+        <v>291</v>
+      </c>
+      <c r="F90" t="s">
+        <v>70</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>293</v>
+      </c>
+      <c r="F91" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>296</v>
+      </c>
+      <c r="F92" t="s">
+        <v>297</v>
+      </c>
+      <c r="G92" t="s">
+        <v>293</v>
+      </c>
+      <c r="H92" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" t="s">
+        <v>299</v>
+      </c>
+      <c r="F93" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
+        <v>301</v>
+      </c>
+      <c r="F94" t="s">
+        <v>302</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" t="s">
+        <v>323</v>
+      </c>
+      <c r="F95" t="s">
+        <v>105</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>325</v>
+      </c>
+      <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" t="s">
+        <v>52</v>
+      </c>
+      <c r="F97" t="s">
+        <v>53</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>346</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" t="s">
+        <v>347</v>
+      </c>
+      <c r="F98" t="s">
+        <v>348</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>350</v>
+      </c>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>351</v>
+      </c>
+      <c r="F99" t="s">
+        <v>348</v>
+      </c>
+      <c r="G99" t="s">
+        <v>347</v>
+      </c>
+      <c r="H99" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>354</v>
+      </c>
+      <c r="F100" t="s">
+        <v>348</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>356</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>351</v>
+      </c>
+      <c r="F101" t="s">
+        <v>348</v>
+      </c>
+      <c r="G101" t="s">
+        <v>354</v>
+      </c>
+      <c r="H101" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>358</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" t="s">
+        <v>359</v>
+      </c>
+      <c r="F102" t="s">
+        <v>348</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>361</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>362</v>
+      </c>
+      <c r="F103" t="s">
+        <v>348</v>
+      </c>
+      <c r="G103" t="s">
+        <v>359</v>
+      </c>
+      <c r="H103" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>364</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>365</v>
+      </c>
+      <c r="F104" t="s">
+        <v>348</v>
+      </c>
+      <c r="G104" t="s">
+        <v>362</v>
+      </c>
+      <c r="H104" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>367</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>368</v>
+      </c>
+      <c r="F105" t="s">
+        <v>348</v>
+      </c>
+      <c r="G105" t="s">
+        <v>365</v>
+      </c>
+      <c r="H105" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" t="s">
+        <v>370</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" t="s">
+        <v>371</v>
+      </c>
+      <c r="F106" t="s">
+        <v>348</v>
+      </c>
+      <c r="G106" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>373</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s">
+        <v>374</v>
+      </c>
+      <c r="F107" t="s">
+        <v>348</v>
+      </c>
+      <c r="G107" t="s">
+        <v>371</v>
+      </c>
+      <c r="H107" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>376</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" t="s">
+        <v>348</v>
+      </c>
+      <c r="G108" t="s">
+        <v>374</v>
+      </c>
+      <c r="H108" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>379</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>380</v>
+      </c>
+      <c r="F109" t="s">
+        <v>348</v>
+      </c>
+      <c r="G109" t="s">
+        <v>377</v>
+      </c>
+      <c r="H109" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" t="s">
+        <v>382</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" t="s">
+        <v>383</v>
+      </c>
+      <c r="F110" t="s">
+        <v>348</v>
+      </c>
+      <c r="G110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>385</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" t="s">
+        <v>386</v>
+      </c>
+      <c r="F111" t="s">
+        <v>348</v>
+      </c>
+      <c r="G111" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" t="s">
+        <v>388</v>
+      </c>
+      <c r="D112" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" t="s">
+        <v>389</v>
+      </c>
+      <c r="F112" t="s">
+        <v>348</v>
+      </c>
+      <c r="G112" t="s">
+        <v>386</v>
+      </c>
+      <c r="H112" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>391</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>392</v>
+      </c>
+      <c r="F113" t="s">
+        <v>348</v>
+      </c>
+      <c r="G113" t="s">
+        <v>386</v>
+      </c>
+      <c r="H113" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>394</v>
+      </c>
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>395</v>
+      </c>
+      <c r="F114" t="s">
+        <v>348</v>
+      </c>
+      <c r="G114" t="s">
+        <v>392</v>
+      </c>
+      <c r="H114" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>351</v>
+      </c>
+      <c r="F115" t="s">
+        <v>348</v>
+      </c>
+      <c r="G115" t="s">
+        <v>395</v>
+      </c>
+      <c r="H115" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>399</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s">
+        <v>400</v>
+      </c>
+      <c r="F116" t="s">
+        <v>348</v>
+      </c>
+      <c r="G116" t="s">
+        <v>392</v>
+      </c>
+      <c r="H116" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" t="s">
+        <v>402</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>403</v>
+      </c>
+      <c r="F117" t="s">
+        <v>348</v>
+      </c>
+      <c r="G117" t="s">
+        <v>386</v>
+      </c>
+      <c r="H117" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>146</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" t="s">
+        <v>405</v>
+      </c>
+      <c r="F118" t="s">
+        <v>348</v>
+      </c>
+      <c r="G118" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" t="s">
+        <v>407</v>
+      </c>
+      <c r="F119" t="s">
+        <v>348</v>
+      </c>
+      <c r="G119" t="s">
+        <v>405</v>
+      </c>
+      <c r="H119" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>178</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" t="s">
+        <v>409</v>
+      </c>
+      <c r="F120" t="s">
+        <v>348</v>
+      </c>
+      <c r="G120" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>182</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>411</v>
+      </c>
+      <c r="F121" t="s">
+        <v>348</v>
+      </c>
+      <c r="G121" t="s">
+        <v>409</v>
+      </c>
+      <c r="H121" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
+        <v>348</v>
+      </c>
+      <c r="G122" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" t="s">
+        <v>414</v>
+      </c>
+      <c r="F123" t="s">
+        <v>415</v>
+      </c>
+      <c r="G123" t="s">
+        <v>232</v>
+      </c>
+      <c r="H123" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>97</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>211</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" t="s">
+        <v>417</v>
+      </c>
+      <c r="F124" t="s">
+        <v>348</v>
+      </c>
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>97</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>214</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="s">
+        <v>419</v>
+      </c>
+      <c r="F125" t="s">
+        <v>348</v>
+      </c>
+      <c r="G125" t="s">
+        <v>417</v>
+      </c>
+      <c r="H125" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>97</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>222</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" t="s">
+        <v>421</v>
+      </c>
+      <c r="F126" t="s">
+        <v>348</v>
+      </c>
+      <c r="G126" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" t="s">
+        <v>423</v>
+      </c>
+      <c r="F127" t="s">
+        <v>348</v>
+      </c>
+      <c r="G127" t="s">
+        <v>421</v>
+      </c>
+      <c r="H127" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" t="s">
+        <v>425</v>
+      </c>
+      <c r="F128" t="s">
+        <v>348</v>
+      </c>
+      <c r="G128" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>97</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" t="s">
+        <v>427</v>
+      </c>
+      <c r="F129" t="s">
+        <v>348</v>
+      </c>
+      <c r="G129" t="s">
+        <v>425</v>
+      </c>
+      <c r="H129" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>236</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" t="s">
+        <v>429</v>
+      </c>
+      <c r="F130" t="s">
+        <v>348</v>
+      </c>
+      <c r="G130" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>97</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" t="s">
+        <v>431</v>
+      </c>
+      <c r="F131" t="s">
+        <v>348</v>
+      </c>
+      <c r="G131" t="s">
+        <v>429</v>
+      </c>
+      <c r="H131" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>97</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>241</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" t="s">
+        <v>351</v>
+      </c>
+      <c r="F132" t="s">
+        <v>348</v>
+      </c>
+      <c r="G132" t="s">
+        <v>9</v>
+      </c>
+      <c r="H132" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>247</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" t="s">
+        <v>351</v>
+      </c>
+      <c r="F133" t="s">
+        <v>348</v>
+      </c>
+      <c r="G133" t="s">
+        <v>9</v>
+      </c>
+      <c r="H133" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>97</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>435</v>
+      </c>
+      <c r="D134" t="s">
+        <v>33</v>
+      </c>
+      <c r="E134" t="s">
+        <v>436</v>
+      </c>
+      <c r="F134" t="s">
+        <v>348</v>
+      </c>
+      <c r="G134" t="s">
+        <v>351</v>
+      </c>
+      <c r="H134" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>97</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>250</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" t="s">
+        <v>438</v>
+      </c>
+      <c r="F135" t="s">
+        <v>348</v>
+      </c>
+      <c r="G135" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>97</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>257</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" t="s">
+        <v>440</v>
+      </c>
+      <c r="F136" t="s">
+        <v>348</v>
+      </c>
+      <c r="G136" t="s">
+        <v>9</v>
+      </c>
+      <c r="H136" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>260</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" t="s">
+        <v>442</v>
+      </c>
+      <c r="F137" t="s">
+        <v>415</v>
+      </c>
+      <c r="G137" t="s">
+        <v>9</v>
+      </c>
+      <c r="H137" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>263</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" t="s">
+        <v>444</v>
+      </c>
+      <c r="F138" t="s">
+        <v>348</v>
+      </c>
+      <c r="G138" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>97</v>
+      </c>
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>446</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" t="s">
+        <v>447</v>
+      </c>
+      <c r="F139" t="s">
+        <v>348</v>
+      </c>
+      <c r="G139" t="s">
+        <v>444</v>
+      </c>
+      <c r="H139" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>97</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>449</v>
+      </c>
+      <c r="D140" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" t="s">
+        <v>450</v>
+      </c>
+      <c r="F140" t="s">
+        <v>348</v>
+      </c>
+      <c r="G140" t="s">
+        <v>444</v>
+      </c>
+      <c r="H140" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>97</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>265</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" t="s">
+        <v>400</v>
+      </c>
+      <c r="F141" t="s">
+        <v>348</v>
+      </c>
+      <c r="G141" t="s">
+        <v>9</v>
+      </c>
+      <c r="H141" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>97</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>453</v>
+      </c>
+      <c r="D142" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142" t="s">
+        <v>454</v>
+      </c>
+      <c r="F142" t="s">
+        <v>348</v>
+      </c>
+      <c r="G142" t="s">
+        <v>400</v>
+      </c>
+      <c r="H142" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>97</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>456</v>
+      </c>
+      <c r="D143" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" t="s">
+        <v>457</v>
+      </c>
+      <c r="F143" t="s">
+        <v>348</v>
+      </c>
+      <c r="G143" t="s">
+        <v>454</v>
+      </c>
+      <c r="H143" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>97</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>459</v>
+      </c>
+      <c r="D144" t="s">
+        <v>33</v>
+      </c>
+      <c r="E144" t="s">
+        <v>460</v>
+      </c>
+      <c r="F144" t="s">
+        <v>348</v>
+      </c>
+      <c r="G144" t="s">
+        <v>400</v>
+      </c>
+      <c r="H144" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>97</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>462</v>
+      </c>
+      <c r="D145" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" t="s">
+        <v>400</v>
+      </c>
+      <c r="F145" t="s">
+        <v>348</v>
+      </c>
+      <c r="G145" t="s">
+        <v>460</v>
+      </c>
+      <c r="H145" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>97</v>
+      </c>
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>464</v>
+      </c>
+      <c r="D146" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" t="s">
+        <v>400</v>
+      </c>
+      <c r="F146" t="s">
+        <v>348</v>
+      </c>
+      <c r="G146" t="s">
+        <v>400</v>
+      </c>
+      <c r="H146" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>97</v>
+      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" t="s">
+        <v>466</v>
+      </c>
+      <c r="D147" t="s">
+        <v>33</v>
+      </c>
+      <c r="E147" t="s">
+        <v>467</v>
+      </c>
+      <c r="F147" t="s">
+        <v>348</v>
+      </c>
+      <c r="G147" t="s">
+        <v>400</v>
+      </c>
+      <c r="H147" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>97</v>
+      </c>
+      <c r="B148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" t="s">
+        <v>469</v>
+      </c>
+      <c r="D148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" t="s">
+        <v>470</v>
+      </c>
+      <c r="F148" t="s">
+        <v>348</v>
+      </c>
+      <c r="G148" t="s">
+        <v>400</v>
+      </c>
+      <c r="H148" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>97</v>
+      </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" t="s">
+        <v>472</v>
+      </c>
+      <c r="D149" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" t="s">
+        <v>400</v>
+      </c>
+      <c r="F149" t="s">
+        <v>473</v>
+      </c>
+      <c r="G149" t="s">
+        <v>470</v>
+      </c>
+      <c r="H149" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>97</v>
+      </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" t="s">
+        <v>475</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" t="s">
+        <v>400</v>
+      </c>
+      <c r="F150" t="s">
+        <v>473</v>
+      </c>
+      <c r="G150" t="s">
+        <v>400</v>
+      </c>
+      <c r="H150" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>97</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" t="s">
+        <v>351</v>
+      </c>
+      <c r="F151" t="s">
+        <v>348</v>
+      </c>
+      <c r="G151" t="s">
+        <v>9</v>
+      </c>
+      <c r="H151" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>97</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" t="s">
+        <v>478</v>
+      </c>
+      <c r="F152" t="s">
+        <v>348</v>
+      </c>
+      <c r="G152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H152" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>97</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" t="s">
+        <v>32</v>
+      </c>
+      <c r="D153" t="s">
+        <v>33</v>
+      </c>
+      <c r="E153" t="s">
+        <v>480</v>
+      </c>
+      <c r="F153" t="s">
+        <v>348</v>
+      </c>
+      <c r="G153" t="s">
+        <v>478</v>
+      </c>
+      <c r="H153" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" t="s">
+        <v>482</v>
+      </c>
+      <c r="F154" t="s">
+        <v>348</v>
+      </c>
+      <c r="G154" t="s">
+        <v>9</v>
+      </c>
+      <c r="H154" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>97</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>109</v>
+      </c>
+      <c r="D155" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" t="s">
+        <v>484</v>
+      </c>
+      <c r="F155" t="s">
+        <v>348</v>
+      </c>
+      <c r="G155" t="s">
+        <v>482</v>
+      </c>
+      <c r="H155" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>97</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>51</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" t="s">
+        <v>486</v>
+      </c>
+      <c r="F156" t="s">
+        <v>348</v>
+      </c>
+      <c r="G156" t="s">
+        <v>9</v>
+      </c>
+      <c r="H156" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>97</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>55</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" t="s">
+        <v>488</v>
+      </c>
+      <c r="F157" t="s">
+        <v>348</v>
+      </c>
+      <c r="G157" t="s">
+        <v>9</v>
+      </c>
+      <c r="H157" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" t="s">
+        <v>490</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
+        <v>400</v>
+      </c>
+      <c r="F158" t="s">
+        <v>348</v>
+      </c>
+      <c r="G158" t="s">
+        <v>488</v>
+      </c>
+      <c r="H158" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>97</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>492</v>
+      </c>
+      <c r="D159" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" t="s">
+        <v>493</v>
+      </c>
+      <c r="F159" t="s">
+        <v>348</v>
+      </c>
+      <c r="G159" t="s">
+        <v>400</v>
+      </c>
+      <c r="H159" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>97</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>495</v>
+      </c>
+      <c r="D160" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" t="s">
+        <v>496</v>
+      </c>
+      <c r="F160" t="s">
+        <v>348</v>
+      </c>
+      <c r="G160" t="s">
+        <v>488</v>
+      </c>
+      <c r="H160" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>97</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" t="s">
+        <v>59</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" t="s">
+        <v>498</v>
+      </c>
+      <c r="F161" t="s">
+        <v>348</v>
+      </c>
+      <c r="G161" t="s">
+        <v>9</v>
+      </c>
+      <c r="H161" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" t="s">
+        <v>500</v>
+      </c>
+      <c r="F162" t="s">
+        <v>348</v>
+      </c>
+      <c r="G162" t="s">
+        <v>9</v>
+      </c>
+      <c r="H162" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" t="s">
+        <v>502</v>
+      </c>
+      <c r="F163" t="s">
+        <v>348</v>
+      </c>
+      <c r="G163" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>97</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>504</v>
+      </c>
+      <c r="D164" t="s">
+        <v>33</v>
+      </c>
+      <c r="E164" t="s">
+        <v>400</v>
+      </c>
+      <c r="F164" t="s">
+        <v>415</v>
+      </c>
+      <c r="G164" t="s">
+        <v>502</v>
+      </c>
+      <c r="H164" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>97</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>506</v>
+      </c>
+      <c r="D165" t="s">
+        <v>33</v>
+      </c>
+      <c r="E165" t="s">
+        <v>507</v>
+      </c>
+      <c r="F165" t="s">
+        <v>180</v>
+      </c>
+      <c r="G165" t="s">
+        <v>400</v>
+      </c>
+      <c r="H165" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>97</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" t="s">
+        <v>232</v>
+      </c>
+      <c r="F166" t="s">
+        <v>348</v>
+      </c>
+      <c r="G166" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>97</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" t="s">
+        <v>72</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" t="s">
+        <v>510</v>
+      </c>
+      <c r="F167" t="s">
+        <v>348</v>
+      </c>
+      <c r="G167" t="s">
+        <v>9</v>
+      </c>
+      <c r="H167" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>97</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" t="s">
+        <v>295</v>
+      </c>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" t="s">
+        <v>512</v>
+      </c>
+      <c r="F168" t="s">
+        <v>348</v>
+      </c>
+      <c r="G168" t="s">
+        <v>510</v>
+      </c>
+      <c r="H168" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>97</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" t="s">
+        <v>75</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" t="s">
+        <v>514</v>
+      </c>
+      <c r="F169" t="s">
+        <v>348</v>
+      </c>
+      <c r="G169" t="s">
+        <v>9</v>
+      </c>
+      <c r="H169" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>97</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>516</v>
+      </c>
+      <c r="D170" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" t="s">
+        <v>517</v>
+      </c>
+      <c r="F170" t="s">
+        <v>348</v>
+      </c>
+      <c r="G170" t="s">
+        <v>514</v>
+      </c>
+      <c r="H170" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>97</v>
+      </c>
+      <c r="B171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" t="s">
+        <v>444</v>
+      </c>
+      <c r="F171" t="s">
+        <v>348</v>
+      </c>
+      <c r="G171" t="s">
+        <v>9</v>
+      </c>
+      <c r="H171" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>241</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>75</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" t="s">
+        <v>554</v>
+      </c>
+      <c r="F172" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
+        <v>9</v>
+      </c>
+      <c r="H172" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>241</v>
+      </c>
+      <c r="B173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" t="s">
+        <v>556</v>
+      </c>
+      <c r="F173" t="s">
+        <v>30</v>
+      </c>
+      <c r="G173" t="s">
+        <v>9</v>
+      </c>
+      <c r="H173" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
